--- a/data_clean/DNB 16.12.2020.xlsx
+++ b/data_clean/DNB 16.12.2020.xlsx
@@ -1530,7 +1530,7 @@
         <v>0.8494429956176804</v>
       </c>
       <c r="K2">
-        <v>44.34979791834223</v>
+        <v>-0.05650202081657808</v>
       </c>
       <c r="L2">
         <v>-0.004351275292119572</v>
@@ -1560,13 +1560,13 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -1601,7 +1601,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="L3">
         <v>-0.03919272617254297</v>
@@ -1631,13 +1631,13 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -1672,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="L4">
         <v>-0.03083525270373197</v>
@@ -1702,13 +1702,13 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0.9994855967078189</v>
+        <v>-0.0005144032921811093</v>
       </c>
       <c r="V4">
-        <v>0.9994855967078189</v>
+        <v>-0.0005144032921811093</v>
       </c>
       <c r="W4">
-        <v>0.999690976514215</v>
+        <v>-0.0003090234857849872</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -1743,7 +1743,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="L5">
         <v>-0.02510575727624812</v>
@@ -1773,13 +1773,13 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>0.9997426659804427</v>
+        <v>-0.0002573340195572982</v>
       </c>
       <c r="V5">
-        <v>0.9997426659804427</v>
+        <v>-0.0002573340195572982</v>
       </c>
       <c r="W5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -1814,7 +1814,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="L6">
         <v>-0.02906012110870929</v>
@@ -1844,13 +1844,13 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>0.999042471042471</v>
+        <v>-0.0009575289575289858</v>
       </c>
       <c r="V6">
-        <v>0.999042471042471</v>
+        <v>-0.0009575289575289858</v>
       </c>
       <c r="W6">
-        <v>0.9959814528593508</v>
+        <v>-0.004018547140649198</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1885,7 +1885,7 @@
         <v>0.1521033998912524</v>
       </c>
       <c r="K7">
-        <v>13.20223513840941</v>
+        <v>-0.3679776486159059</v>
       </c>
       <c r="L7">
         <v>-0.03075213992038864</v>
@@ -1915,13 +1915,13 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>0.9995156237117653</v>
+        <v>-0.0004843762882347225</v>
       </c>
       <c r="V7">
-        <v>0.9995156237117653</v>
+        <v>-0.0004843762882347225</v>
       </c>
       <c r="W7">
-        <v>1.000931098696462</v>
+        <v>0.0009310986964619072</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1956,7 +1956,7 @@
         <v>0.1311113185123536</v>
       </c>
       <c r="K8">
-        <v>11.59137180987564</v>
+        <v>-0.3840862819012436</v>
       </c>
       <c r="L8">
         <v>-0.03199448671596985</v>
@@ -1986,13 +1986,13 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>0.9995212809049999</v>
+        <v>-0.0004787190950000797</v>
       </c>
       <c r="V8">
-        <v>0.9995212809049999</v>
+        <v>-0.0004787190950000797</v>
       </c>
       <c r="W8">
-        <v>0.9990697674418604</v>
+        <v>-0.0009302325581396209</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -2027,7 +2027,7 @@
         <v>0.4700879499385495</v>
       </c>
       <c r="K9">
-        <v>31.97685893270531</v>
+        <v>-0.1802314106729469</v>
       </c>
       <c r="L9">
         <v>-0.03045808731382247</v>
@@ -2057,13 +2057,13 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>0.9999115787612185</v>
+        <v>-8.842123878149977E-05</v>
       </c>
       <c r="V9">
-        <v>0.9999115787612185</v>
+        <v>-8.842123878149977E-05</v>
       </c>
       <c r="W9">
-        <v>1.002172563625078</v>
+        <v>0.002172563625077562</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -2098,7 +2098,7 @@
         <v>0.4700879499385496</v>
       </c>
       <c r="K10">
-        <v>31.97685893270531</v>
+        <v>-0.1802314106729469</v>
       </c>
       <c r="L10">
         <v>-0.02797645219694802</v>
@@ -2128,13 +2128,13 @@
         <v>-0.08263888888890847</v>
       </c>
       <c r="U10">
-        <v>0.9999312218439423</v>
+        <v>-6.877815605765836E-05</v>
       </c>
       <c r="V10">
-        <v>0.9999312218439423</v>
+        <v>-6.877815605765836E-05</v>
       </c>
       <c r="W10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -2169,7 +2169,7 @@
         <v>0.3417336775257395</v>
       </c>
       <c r="K11">
-        <v>25.46956100527512</v>
+        <v>-0.2453043899472487</v>
       </c>
       <c r="L11">
         <v>-0.02673954946658572</v>
@@ -2199,13 +2199,13 @@
         <v>-0.1262499999999989</v>
       </c>
       <c r="U11">
-        <v>0.9997283075970699</v>
+        <v>-0.0002716924029301238</v>
       </c>
       <c r="V11">
-        <v>0.9997283075970699</v>
+        <v>-0.0002716924029301238</v>
       </c>
       <c r="W11">
-        <v>0.9978321461752865</v>
+        <v>-0.002167853824713517</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -2240,7 +2240,7 @@
         <v>0.3158006853523203</v>
       </c>
       <c r="K12">
-        <v>24.00064758043207</v>
+        <v>-0.2599935241956793</v>
       </c>
       <c r="L12">
         <v>-0.02634056971173831</v>
@@ -2270,13 +2270,13 @@
         <v>-0.1750000000000114</v>
       </c>
       <c r="U12">
-        <v>0.9997213536022788</v>
+        <v>-0.0002786463977212383</v>
       </c>
       <c r="V12">
-        <v>0.9997213536022788</v>
+        <v>-0.0002786463977212383</v>
       </c>
       <c r="W12">
-        <v>0.9993792675356922</v>
+        <v>-0.0006207324643078271</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -2311,7 +2311,7 @@
         <v>0.5554424440690848</v>
       </c>
       <c r="K13">
-        <v>35.70961086904832</v>
+        <v>-0.1429038913095168</v>
       </c>
       <c r="L13">
         <v>-0.02513518830130766</v>
@@ -2341,13 +2341,13 @@
         <v>-0.21875</v>
       </c>
       <c r="U13">
-        <v>0.9999225766491173</v>
+        <v>-7.742335088267716E-05</v>
       </c>
       <c r="V13">
-        <v>0.9999225766491173</v>
+        <v>-7.742335088267716E-05</v>
       </c>
       <c r="W13">
-        <v>1.001863354037267</v>
+        <v>0.001863354037267229</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -2382,7 +2382,7 @@
         <v>0.5330324722947205</v>
       </c>
       <c r="K14">
-        <v>34.76980963729036</v>
+        <v>-0.1523019036270963</v>
       </c>
       <c r="L14">
         <v>-0.02369239672458717</v>
@@ -2412,13 +2412,13 @@
         <v>-0.1855769230769226</v>
       </c>
       <c r="U14">
-        <v>0.9999106584472439</v>
+        <v>-8.934155275608369E-05</v>
       </c>
       <c r="V14">
-        <v>0.9999106584472439</v>
+        <v>-8.934155275608369E-05</v>
       </c>
       <c r="W14">
-        <v>0.999690018598884</v>
+        <v>-0.000309981401116044</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -2453,7 +2453,7 @@
         <v>0.5330324722947206</v>
       </c>
       <c r="K15">
-        <v>34.76980963729036</v>
+        <v>-0.1523019036270963</v>
       </c>
       <c r="L15">
         <v>-0.02214111596614193</v>
@@ -2483,13 +2483,13 @@
         <v>-0.1732142857142662</v>
       </c>
       <c r="U15">
-        <v>0.9999234146839578</v>
+        <v>-7.658531604215479E-05</v>
       </c>
       <c r="V15">
-        <v>0.9999234146839578</v>
+        <v>-7.658531604215479E-05</v>
       </c>
       <c r="W15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -2524,7 +2524,7 @@
         <v>0.4699987449704353</v>
       </c>
       <c r="K16">
-        <v>31.97273103657568</v>
+        <v>-0.1802726896342432</v>
       </c>
       <c r="L16">
         <v>-0.02099560080736537</v>
@@ -2554,13 +2554,13 @@
         <v>-0.1525000000000034</v>
       </c>
       <c r="U16">
-        <v>0.9998716672198251</v>
+        <v>-0.0001283327801748779</v>
       </c>
       <c r="V16">
-        <v>0.9998716672198251</v>
+        <v>-0.0001283327801748779</v>
       </c>
       <c r="W16">
-        <v>0.9990697674418604</v>
+        <v>-0.0009302325581396209</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -2595,7 +2595,7 @@
         <v>0.6359706018935457</v>
       </c>
       <c r="K17">
-        <v>38.87420722337215</v>
+        <v>-0.1112579277662785</v>
       </c>
       <c r="L17">
         <v>-0.01949698313682863</v>
@@ -2625,13 +2625,13 @@
         <v>-0.1656250000000057</v>
       </c>
       <c r="U17">
-        <v>0.9999651465394388</v>
+        <v>-3.485346056120164E-05</v>
       </c>
       <c r="V17">
-        <v>0.9996282297540122</v>
+        <v>-0.0003717702459877792</v>
       </c>
       <c r="W17">
-        <v>1.001241464928616</v>
+        <v>0.001241464928615876</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -2666,7 +2666,7 @@
         <v>0.5848792855277961</v>
       </c>
       <c r="K18">
-        <v>36.90371190213516</v>
+        <v>-0.1309628809786483</v>
       </c>
       <c r="L18">
         <v>-0.0181099061194912</v>
@@ -2696,13 +2696,13 @@
         <v>-0.1343750000000057</v>
       </c>
       <c r="U18">
-        <v>0.9999327965409582</v>
+        <v>-6.720345904176472E-05</v>
       </c>
       <c r="V18">
-        <v>0.9997520609929956</v>
+        <v>-0.0002479390070043719</v>
       </c>
       <c r="W18">
-        <v>0.999380037197768</v>
+        <v>-0.000619962802231977</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -2737,7 +2737,7 @@
         <v>0.5848792855277961</v>
       </c>
       <c r="K19">
-        <v>36.90371190213516</v>
+        <v>-0.1309628809786483</v>
       </c>
       <c r="L19">
         <v>-0.0168102180555366</v>
@@ -2767,13 +2767,13 @@
         <v>-0.08437500000002274</v>
       </c>
       <c r="U19">
-        <v>0.9999402595771999</v>
+        <v>-5.974042280010305E-05</v>
       </c>
       <c r="V19">
-        <v>0.9997726662119993</v>
+        <v>-0.000227333788000661</v>
       </c>
       <c r="W19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -2808,7 +2808,7 @@
         <v>0.6293867491519026</v>
       </c>
       <c r="K20">
-        <v>38.62721661873702</v>
+        <v>-0.1137278338126299</v>
       </c>
       <c r="L20">
         <v>-0.01545569476006168</v>
@@ -2838,13 +2838,13 @@
         <v>-0.02187500000002274</v>
       </c>
       <c r="U20">
-        <v>0.999962853200378</v>
+        <v>-3.714679962196765E-05</v>
       </c>
       <c r="V20">
-        <v>0.9997932859269058</v>
+        <v>-0.0002067140730942496</v>
       </c>
       <c r="W20">
-        <v>1.000310173697271</v>
+        <v>0.0003101736972705993</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -2879,7 +2879,7 @@
         <v>0.723086672571048</v>
       </c>
       <c r="K21">
-        <v>41.96461408944204</v>
+        <v>-0.08035385910557963</v>
       </c>
       <c r="L21">
         <v>-0.01385300575584164</v>
@@ -2909,13 +2909,13 @@
         <v>0.009374999999977263</v>
       </c>
       <c r="U21">
-        <v>0.9999975536564681</v>
+        <v>-2.446343531858908E-06</v>
       </c>
       <c r="V21">
-        <v>1.000103378406318</v>
+        <v>0.0001033784063184662</v>
       </c>
       <c r="W21">
-        <v>1.00062015503876</v>
+        <v>0.0006201550387596733</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2950,7 +2950,7 @@
         <v>0.8710339200749756</v>
       </c>
       <c r="K22">
-        <v>46.55361459401397</v>
+        <v>-0.0344638540598603</v>
       </c>
       <c r="L22">
         <v>-0.01179597722252517</v>
@@ -2980,13 +2980,13 @@
         <v>0.01562499999997158</v>
       </c>
       <c r="U22">
-        <v>1.000042053913117</v>
+        <v>4.205391311651319E-05</v>
       </c>
       <c r="V22">
-        <v>1.000103367720328</v>
+        <v>0.0001033677203283734</v>
       </c>
       <c r="W22">
-        <v>1.00092965602727</v>
+        <v>0.0009296560272700205</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -3021,7 +3021,7 @@
         <v>0.8710339200749756</v>
       </c>
       <c r="K23">
-        <v>46.55361459401397</v>
+        <v>-0.0344638540598603</v>
       </c>
       <c r="L23">
         <v>-0.00957453603375678</v>
@@ -3051,13 +3051,13 @@
         <v>0.03124999999997158</v>
       </c>
       <c r="U23">
-        <v>1.000038229222417</v>
+        <v>3.822922241747406E-05</v>
       </c>
       <c r="V23">
-        <v>1.000165371258475</v>
+        <v>0.0001653712584752665</v>
       </c>
       <c r="W23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -3092,7 +3092,7 @@
         <v>1.144251366988959</v>
       </c>
       <c r="K24">
-        <v>53.36367669410705</v>
+        <v>0.03363676694107054</v>
       </c>
       <c r="L24">
         <v>-0.006771513916585916</v>
@@ -3122,13 +3122,13 @@
         <v>0.07187499999997726</v>
       </c>
       <c r="U24">
-        <v>1.000102261447618</v>
+        <v>0.0001022614476180461</v>
       </c>
       <c r="V24">
-        <v>1.000124007936508</v>
+        <v>0.0001240079365079083</v>
       </c>
       <c r="W24">
-        <v>1.001547987616099</v>
+        <v>0.001547987616099089</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -3163,7 +3163,7 @@
         <v>0.9758587539547372</v>
       </c>
       <c r="K25">
-        <v>49.38909484301589</v>
+        <v>-0.006109051569841095</v>
       </c>
       <c r="L25">
         <v>-0.004151469124808308</v>
@@ -3193,13 +3193,13 @@
         <v>0.1000000000000227</v>
       </c>
       <c r="U25">
-        <v>1.000055003277746</v>
+        <v>5.500327774643488E-05</v>
       </c>
       <c r="V25">
-        <v>1.000061996280223</v>
+        <v>6.199628022307557E-05</v>
       </c>
       <c r="W25">
-        <v>0.9990726429675425</v>
+        <v>-0.0009273570324574987</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -3234,7 +3234,7 @@
         <v>0.8449655773122333</v>
       </c>
       <c r="K26">
-        <v>45.79844674084319</v>
+        <v>-0.04201553259156809</v>
       </c>
       <c r="L26">
         <v>-0.002154513663599668</v>
@@ -3264,13 +3264,13 @@
         <v>0.1312499999999943</v>
       </c>
       <c r="U26">
-        <v>1.000013424551439</v>
+        <v>1.342455143915622E-05</v>
       </c>
       <c r="V26">
-        <v>1.000144649019486</v>
+        <v>0.0001446490194862982</v>
       </c>
       <c r="W26">
-        <v>0.9990717821782178</v>
+        <v>-0.0009282178217822068</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -3305,7 +3305,7 @@
         <v>0.8920291817680658</v>
       </c>
       <c r="K27">
-        <v>47.14669257555961</v>
+        <v>-0.02853307424440393</v>
       </c>
       <c r="L27">
         <v>-0.0005334811452064042</v>
@@ -3335,13 +3335,13 @@
         <v>0.1437500000000114</v>
       </c>
       <c r="U27">
-        <v>1.00002430684967</v>
+        <v>2.430684967036356E-05</v>
       </c>
       <c r="V27">
-        <v>1.000206611570248</v>
+        <v>0.0002066115702479276</v>
       </c>
       <c r="W27">
-        <v>1.00030969340353</v>
+        <v>0.0003096934035304866</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -3376,7 +3376,7 @@
         <v>0.8920291817680658</v>
       </c>
       <c r="K28">
-        <v>47.14669257555961</v>
+        <v>-0.02853307424440393</v>
       </c>
       <c r="L28">
         <v>0.0007590332018817689</v>
@@ -3406,13 +3406,13 @@
         <v>0.1437500000000114</v>
       </c>
       <c r="U28">
-        <v>1.000022505795242</v>
+        <v>2.250579524210039E-05</v>
       </c>
       <c r="V28">
-        <v>1.00008262755629</v>
+        <v>8.262755628996032E-05</v>
       </c>
       <c r="W28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -3447,7 +3447,7 @@
         <v>1.048473296302659</v>
       </c>
       <c r="K29">
-        <v>51.18315665598741</v>
+        <v>0.01183156655987405</v>
       </c>
       <c r="L29">
         <v>0.002116033404559387</v>
@@ -3477,13 +3477,13 @@
         <v>0.1593750000000114</v>
       </c>
       <c r="U29">
-        <v>1.000054088341013</v>
+        <v>5.40883410125037E-05</v>
       </c>
       <c r="V29">
-        <v>1.000165241459082</v>
+        <v>0.0001652414590820328</v>
       </c>
       <c r="W29">
-        <v>1.000928792569659</v>
+        <v>0.0009287925696594979</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -3518,7 +3518,7 @@
         <v>1.048473296302659</v>
       </c>
       <c r="K30">
-        <v>51.18315665598741</v>
+        <v>0.01183156655987405</v>
       </c>
       <c r="L30">
         <v>0.003414330421370909</v>
@@ -3548,13 +3548,13 @@
         <v>0.1531250000000171</v>
       </c>
       <c r="U30">
-        <v>1.000050355386958</v>
+        <v>5.035538695818964E-05</v>
       </c>
       <c r="V30">
-        <v>1.000165214158854</v>
+        <v>0.0001652141588535105</v>
       </c>
       <c r="W30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -3589,7 +3589,7 @@
         <v>1.395163854828041</v>
       </c>
       <c r="K31">
-        <v>58.24920295184589</v>
+        <v>0.08249202951845891</v>
       </c>
       <c r="L31">
         <v>0.005270394386505149</v>
@@ -3619,13 +3619,13 @@
         <v>0.1656250000000341</v>
       </c>
       <c r="U31">
-        <v>1.000108945260347</v>
+        <v>0.0001089452603471042</v>
       </c>
       <c r="V31">
-        <v>1.000351022093743</v>
+        <v>0.0003510220937434916</v>
       </c>
       <c r="W31">
-        <v>1.001855861429013</v>
+        <v>0.001855861429013173</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -3660,7 +3660,7 @@
         <v>1.31517131487862</v>
       </c>
       <c r="K32">
-        <v>56.80665212231053</v>
+        <v>0.0680665212231053</v>
       </c>
       <c r="L32">
         <v>0.00720510177898839</v>
@@ -3690,13 +3690,13 @@
         <v>0.1343750000000057</v>
       </c>
       <c r="U32">
-        <v>0.9999380574826562</v>
+        <v>-6.194251734381595E-05</v>
       </c>
       <c r="V32">
-        <v>1.000247693355626</v>
+        <v>0.0002476933556259109</v>
       </c>
       <c r="W32">
-        <v>0.9996912627354123</v>
+        <v>-0.0003087372645876885</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -3731,7 +3731,7 @@
         <v>1.375524565387212</v>
       </c>
       <c r="K33">
-        <v>57.90403456269882</v>
+        <v>0.07904034562698814</v>
       </c>
       <c r="L33">
         <v>0.009148867028158026</v>
@@ -3761,13 +3761,13 @@
         <v>0.1375000000000171</v>
       </c>
       <c r="U33">
-        <v>1.000030973177229</v>
+        <v>3.097317722855486E-05</v>
       </c>
       <c r="V33">
-        <v>1.000309540023525</v>
+        <v>0.0003095400235249013</v>
       </c>
       <c r="W33">
-        <v>1.000308832612724</v>
+        <v>0.0003088326127238528</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -3802,7 +3802,7 @@
         <v>1.29335787899931</v>
       </c>
       <c r="K34">
-        <v>56.39581553506413</v>
+        <v>0.06395815535064131</v>
       </c>
       <c r="L34">
         <v>0.01082394995280599</v>
@@ -3832,13 +3832,13 @@
         <v>0.1500000000000057</v>
       </c>
       <c r="U34">
-        <v>1.000030972217921</v>
+        <v>3.097221792058846E-05</v>
       </c>
       <c r="V34">
-        <v>1.000288814622272</v>
+        <v>0.0002888146222719268</v>
       </c>
       <c r="W34">
-        <v>0.9996912627354123</v>
+        <v>-0.0003087372645876885</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -3873,7 +3873,7 @@
         <v>1.216844248264093</v>
       </c>
       <c r="K35">
-        <v>54.89083183074078</v>
+        <v>0.04890831830740783</v>
       </c>
       <c r="L35">
         <v>0.01207506527867926</v>
@@ -3903,13 +3903,13 @@
         <v>0.1531250000000171</v>
       </c>
       <c r="U35">
-        <v>1.000020647505781</v>
+        <v>2.0647505781346E-05</v>
       </c>
       <c r="V35">
-        <v>1.000247483913545</v>
+        <v>0.0002474839135453433</v>
       </c>
       <c r="W35">
-        <v>0.999691167387276</v>
+        <v>-0.0003088326127239638</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -3944,7 +3944,7 @@
         <v>1.14551041931363</v>
       </c>
       <c r="K36">
-        <v>53.39104434086552</v>
+        <v>0.03391044340865523</v>
       </c>
       <c r="L36">
         <v>0.01283179624671827</v>
@@ -3974,13 +3974,13 @@
         <v>0.1562499999999716</v>
       </c>
       <c r="U36">
-        <v>1.000144529556294</v>
+        <v>0.0001445295562942928</v>
       </c>
       <c r="V36">
-        <v>1.000185567010309</v>
+        <v>0.0001855670103094731</v>
       </c>
       <c r="W36">
-        <v>0.9996910719802287</v>
+        <v>-0.0003089280197713373</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -4015,7 +4015,7 @@
         <v>1.268925130945997</v>
       </c>
       <c r="K37">
-        <v>55.92626718436215</v>
+        <v>0.05926267184362155</v>
       </c>
       <c r="L37">
         <v>0.0134216968199036</v>
@@ -4045,13 +4045,13 @@
         <v>0.1531250000000171</v>
       </c>
       <c r="U37">
-        <v>1.000134186622626</v>
+        <v>0.0001341866226258759</v>
       </c>
       <c r="V37">
-        <v>1.000164917850296</v>
+        <v>0.0001649178502958204</v>
       </c>
       <c r="W37">
-        <v>1.00061804697157</v>
+        <v>0.0006180469715697523</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -4086,7 +4086,7 @@
         <v>1.061981710132965</v>
       </c>
       <c r="K38">
-        <v>51.50296459537869</v>
+        <v>0.01502964595378686</v>
       </c>
       <c r="L38">
         <v>0.01348330681026505</v>
@@ -4116,13 +4116,13 @@
         <v>0.1500000000000057</v>
       </c>
       <c r="U38">
-        <v>1.000134168618992</v>
+        <v>0.000134168618992403</v>
       </c>
       <c r="V38">
-        <v>1.000103056660552</v>
+        <v>0.0001030566605517702</v>
       </c>
       <c r="W38">
-        <v>0.9990735021618282</v>
+        <v>-0.0009264978381717803</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -4157,7 +4157,7 @@
         <v>1.00450112347766</v>
       </c>
       <c r="K39">
-        <v>50.11227540421257</v>
+        <v>0.001122754042125695</v>
       </c>
       <c r="L39">
         <v>0.01305931232758604</v>
@@ -4187,13 +4187,13 @@
         <v>0.1062500000000171</v>
       </c>
       <c r="U39">
-        <v>1.00005159639238</v>
+        <v>5.1596392380171E-05</v>
       </c>
       <c r="V39">
-        <v>0.9999793907918058</v>
+        <v>-2.060920819424439E-05</v>
       </c>
       <c r="W39">
-        <v>0.9996908809891808</v>
+        <v>-0.0003091190108192032</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -4228,7 +4228,7 @@
         <v>1.175424634059233</v>
       </c>
       <c r="K40">
-        <v>54.03196303178519</v>
+        <v>0.04031963031785191</v>
       </c>
       <c r="L40">
         <v>0.01266104661813825</v>
@@ -4258,13 +4258,13 @@
         <v>0.09375000000002842</v>
       </c>
       <c r="U40">
-        <v>1.000082549968528</v>
+        <v>8.254996852774532E-05</v>
       </c>
       <c r="V40">
-        <v>1.000103048164712</v>
+        <v>0.0001030481647121828</v>
       </c>
       <c r="W40">
-        <v>1.000927643784787</v>
+        <v>0.0009276437847867136</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -4299,7 +4299,7 @@
         <v>1.108919241197196</v>
       </c>
       <c r="K41">
-        <v>52.58234737180747</v>
+        <v>0.0258234737180747</v>
       </c>
       <c r="L41">
         <v>0.01214431229336567</v>
@@ -4329,13 +4329,13 @@
         <v>0.0625</v>
       </c>
       <c r="U41">
-        <v>1.000144450520538</v>
+        <v>0.0001444505205379087</v>
       </c>
       <c r="V41">
-        <v>1.000144252565635</v>
+        <v>0.0001442525656352167</v>
       </c>
       <c r="W41">
-        <v>0.9996910719802287</v>
+        <v>-0.0003089280197713373</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -4370,7 +4370,7 @@
         <v>1.046586855987209</v>
       </c>
       <c r="K42">
-        <v>51.1381597573277</v>
+        <v>0.01138159757327695</v>
       </c>
       <c r="L42">
         <v>0.01143157267570476</v>
@@ -4400,13 +4400,13 @@
         <v>0.02500000000000568</v>
       </c>
       <c r="U42">
-        <v>1.000154746061713</v>
+        <v>0.0001547460617128404</v>
       </c>
       <c r="V42">
-        <v>1.000103022685595</v>
+        <v>0.0001030226855953664</v>
       </c>
       <c r="W42">
-        <v>0.999690976514215</v>
+        <v>-0.0003090234857849872</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -4441,7 +4441,7 @@
         <v>1.164923763898175</v>
       </c>
       <c r="K43">
-        <v>53.80899703371569</v>
+        <v>0.03808997033715689</v>
       </c>
       <c r="L43">
         <v>0.01083007941478982</v>
@@ -4471,13 +4471,13 @@
         <v>0.003125000000011369</v>
       </c>
       <c r="U43">
-        <v>1.000113462887321</v>
+        <v>0.0001134628873209476</v>
       </c>
       <c r="V43">
-        <v>1.000144216902221</v>
+        <v>0.0001442169022207729</v>
       </c>
       <c r="W43">
-        <v>1.000618238021638</v>
+        <v>0.0006182380216384065</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -4512,7 +4512,7 @@
         <v>1.351771513231298</v>
       </c>
       <c r="K44">
-        <v>57.47886245011891</v>
+        <v>0.07478862450118906</v>
       </c>
       <c r="L44">
         <v>0.01063344091207002</v>
@@ -4542,13 +4542,13 @@
         <v>-0.003125000000011369</v>
       </c>
       <c r="U44">
-        <v>1.000154704565847</v>
+        <v>0.00015470456584743</v>
       </c>
       <c r="V44">
-        <v>1.000144196106705</v>
+        <v>0.0001441961067052411</v>
       </c>
       <c r="W44">
-        <v>1.000926784059314</v>
+        <v>0.000926784059314123</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -4583,7 +4583,7 @@
         <v>1.268601237436139</v>
       </c>
       <c r="K45">
-        <v>55.91997467434381</v>
+        <v>0.05919974674343809</v>
       </c>
       <c r="L45">
         <v>0.0105424841556103</v>
@@ -4613,13 +4613,13 @@
         <v>-0.01562500000002842</v>
       </c>
       <c r="U45">
-        <v>1.000144368593644</v>
+        <v>0.0001443685936435291</v>
       </c>
       <c r="V45">
-        <v>1.000123578843302</v>
+        <v>0.0001235788433020524</v>
       </c>
       <c r="W45">
-        <v>0.9996913580246913</v>
+        <v>-0.0003086419753086656</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -4654,7 +4654,7 @@
         <v>1.191437623996464</v>
       </c>
       <c r="K46">
-        <v>54.36785473381041</v>
+        <v>0.04367854733810406</v>
       </c>
       <c r="L46">
         <v>0.01036991854641854</v>
@@ -4684,13 +4684,13 @@
         <v>-0.01249999999998863</v>
       </c>
       <c r="U46">
-        <v>1.000164968862127</v>
+        <v>0.000164968862127246</v>
       </c>
       <c r="V46">
-        <v>0.99997940607109</v>
+        <v>-2.059392890996214E-05</v>
       </c>
       <c r="W46">
-        <v>0.9996912627354123</v>
+        <v>-0.0003087372645876885</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -4725,7 +4725,7 @@
         <v>1.119743684906654</v>
       </c>
       <c r="K47">
-        <v>52.82448500163657</v>
+        <v>0.02824485001636579</v>
       </c>
       <c r="L47">
         <v>0.01000834253409757</v>
@@ -4755,13 +4755,13 @@
         <v>0.01249999999996021</v>
       </c>
       <c r="U47">
-        <v>1.000113397385675</v>
+        <v>0.0001133973856748405</v>
       </c>
       <c r="V47">
-        <v>0.9999794056469717</v>
+        <v>-2.059435302825818E-05</v>
       </c>
       <c r="W47">
-        <v>0.999691167387276</v>
+        <v>-0.0003088326127239638</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -4796,7 +4796,7 @@
         <v>0.8933895691144784</v>
       </c>
       <c r="K48">
-        <v>47.18466731240676</v>
+        <v>-0.02815332687593242</v>
       </c>
       <c r="L48">
         <v>0.009067997264944106</v>
@@ -4826,13 +4826,13 @@
         <v>0.003125000000011369</v>
       </c>
       <c r="U48">
-        <v>1.000092769159408</v>
+        <v>9.27691594081459E-05</v>
       </c>
       <c r="V48">
-        <v>0.9998764313370129</v>
+        <v>-0.000123568662987128</v>
       </c>
       <c r="W48">
-        <v>0.9987642879209145</v>
+        <v>-0.00123571207908546</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -4867,7 +4867,7 @@
         <v>0.8933895691144785</v>
       </c>
       <c r="K49">
-        <v>47.18466731240676</v>
+        <v>-0.02815332687593242</v>
       </c>
       <c r="L49">
         <v>0.007804344769440122</v>
@@ -4897,13 +4897,13 @@
         <v>0.003124999999982947</v>
       </c>
       <c r="U49">
-        <v>1.00009276055409</v>
+        <v>9.276055408991013E-05</v>
       </c>
       <c r="V49">
-        <v>0.9998970133882594</v>
+        <v>-0.0001029866117405742</v>
       </c>
       <c r="W49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -4938,7 +4938,7 @@
         <v>0.8933895691144785</v>
       </c>
       <c r="K50">
-        <v>47.18466731240676</v>
+        <v>-0.02815332687593242</v>
       </c>
       <c r="L50">
         <v>0.006397201996709048</v>
@@ -4968,13 +4968,13 @@
         <v>0.006249999999994316</v>
       </c>
       <c r="U50">
-        <v>1.000082446178104</v>
+        <v>8.244617810437838E-05</v>
       </c>
       <c r="V50">
-        <v>0.99991760222474</v>
+        <v>-8.239777525997916E-05</v>
       </c>
       <c r="W50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -5009,7 +5009,7 @@
         <v>0.9523334825895717</v>
       </c>
       <c r="K51">
-        <v>48.77924243384886</v>
+        <v>-0.01220757566151137</v>
       </c>
       <c r="L51">
         <v>0.005082322505102774</v>
@@ -5039,13 +5039,13 @@
         <v>-0.003124999999982947</v>
       </c>
       <c r="U51">
-        <v>1.000072134458631</v>
+        <v>7.213445863096801E-05</v>
       </c>
       <c r="V51">
-        <v>0.9999587977173934</v>
+        <v>-4.120228260662273E-05</v>
       </c>
       <c r="W51">
-        <v>1.000309310238169</v>
+        <v>0.0003093102381688251</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -5080,7 +5080,7 @@
         <v>0.9523334825895718</v>
       </c>
       <c r="K52">
-        <v>48.77924243384886</v>
+        <v>-0.01220757566151137</v>
       </c>
       <c r="L52">
         <v>0.003888656515557757</v>
@@ -5110,13 +5110,13 @@
         <v>-0.03437500000001137</v>
       </c>
       <c r="U52">
-        <v>1.000041216717501</v>
+        <v>4.121671750056954E-05</v>
       </c>
       <c r="V52">
-        <v>0.9999175920393911</v>
+        <v>-8.240796060887678E-05</v>
       </c>
       <c r="W52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -5151,7 +5151,7 @@
         <v>1.017645298074477</v>
       </c>
       <c r="K53">
-        <v>50.437274532132</v>
+        <v>0.004372745321320037</v>
       </c>
       <c r="L53">
         <v>0.002942968522984929</v>
@@ -5181,13 +5181,13 @@
         <v>-0.04999999999998295</v>
       </c>
       <c r="U53">
-        <v>1.000051518773441</v>
+        <v>5.151877344089506E-05</v>
       </c>
       <c r="V53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W53">
-        <v>1.000309214594929</v>
+        <v>0.0003092145949290526</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -5222,7 +5222,7 @@
         <v>1.017645298074477</v>
       </c>
       <c r="K54">
-        <v>50.437274532132</v>
+        <v>0.004372745321320037</v>
       </c>
       <c r="L54">
         <v>0.002197025571929736</v>
@@ -5252,13 +5252,13 @@
         <v>-0.06874999999999432</v>
       </c>
       <c r="U54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V54">
-        <v>1.00002060368806</v>
+        <v>2.060368806033885E-05</v>
       </c>
       <c r="W54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -5293,7 +5293,7 @@
         <v>1.017645298074477</v>
       </c>
       <c r="K55">
-        <v>50.437274532132</v>
+        <v>0.004372745321320037</v>
       </c>
       <c r="L55">
         <v>0.001611605536446004</v>
@@ -5323,13 +5323,13 @@
         <v>-0.08437499999999432</v>
       </c>
       <c r="U55">
-        <v>1.000030909671636</v>
+        <v>3.09096716362145E-05</v>
       </c>
       <c r="V55">
-        <v>0.9999587934728862</v>
+        <v>-4.12065271138129E-05</v>
       </c>
       <c r="W55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -5364,7 +5364,7 @@
         <v>0.8831020712854597</v>
       </c>
       <c r="K56">
-        <v>46.89613403072882</v>
+        <v>-0.03103865969271175</v>
       </c>
       <c r="L56">
         <v>0.0009296663072429931</v>
@@ -5394,13 +5394,13 @@
         <v>-0.07187500000003411</v>
       </c>
       <c r="U56">
-        <v>1.000041211621677</v>
+        <v>4.121162167725068E-05</v>
       </c>
       <c r="V56">
-        <v>0.9999381876622573</v>
+        <v>-6.181233774271711E-05</v>
       </c>
       <c r="W56">
-        <v>0.9993817619783617</v>
+        <v>-0.0006182380216382954</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -5435,7 +5435,7 @@
         <v>0.7305892542571351</v>
       </c>
       <c r="K57">
-        <v>42.21621349259703</v>
+        <v>-0.07783786507402968</v>
       </c>
       <c r="L57">
         <v>-0.0001084167072618808</v>
@@ -5465,13 +5465,13 @@
         <v>-0.07187500000003411</v>
       </c>
       <c r="U57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V57">
-        <v>0.9998969730687602</v>
+        <v>-0.000103026931239758</v>
       </c>
       <c r="W57">
-        <v>0.9990720692854933</v>
+        <v>-0.0009279307145066973</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -5506,7 +5506,7 @@
         <v>0.7305892542571351</v>
       </c>
       <c r="K58">
-        <v>42.21621349259703</v>
+        <v>-0.07783786507402968</v>
       </c>
       <c r="L58">
         <v>-0.001295673622637531</v>
@@ -5536,13 +5536,13 @@
         <v>-0.07500000000001705</v>
       </c>
       <c r="U58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V58">
-        <v>0.999855747434365</v>
+        <v>-0.0001442525656349947</v>
       </c>
       <c r="W58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -5577,7 +5577,7 @@
         <v>0.5050725270168445</v>
       </c>
       <c r="K59">
-        <v>33.55801916190261</v>
+        <v>-0.1644198083809739</v>
       </c>
       <c r="L59">
         <v>-0.003281010822142255</v>
@@ -5607,13 +5607,13 @@
         <v>-0.09999999999999432</v>
       </c>
       <c r="U59">
-        <v>0.999896975191626</v>
+        <v>-0.000103024808373986</v>
       </c>
       <c r="V59">
-        <v>0.999649621797646</v>
+        <v>-0.0003503782023539515</v>
       </c>
       <c r="W59">
-        <v>0.9978328173374613</v>
+        <v>-0.00216718266253868</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -5648,7 +5648,7 @@
         <v>0.4621670432068962</v>
       </c>
       <c r="K60">
-        <v>31.60836139441695</v>
+        <v>-0.1839163860558305</v>
       </c>
       <c r="L60">
         <v>-0.005836621984374623</v>
@@ -5678,13 +5678,13 @@
         <v>-0.1218750000000171</v>
       </c>
       <c r="U60">
-        <v>0.9998763574917058</v>
+        <v>-0.0001236425082942194</v>
       </c>
       <c r="V60">
-        <v>0.999628881283246</v>
+        <v>-0.0003711187167539931</v>
       </c>
       <c r="W60">
-        <v>0.9993794601303134</v>
+        <v>-0.000620539869686576</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -5719,7 +5719,7 @@
         <v>0.5068771241878476</v>
       </c>
       <c r="K61">
-        <v>33.63758836414986</v>
+        <v>-0.1636241163585014</v>
       </c>
       <c r="L61">
         <v>-0.008441270583046313</v>
@@ -5749,13 +5749,13 @@
         <v>-0.1500000000000057</v>
       </c>
       <c r="U61">
-        <v>0.9998248181199892</v>
+        <v>-0.0001751818800107552</v>
       </c>
       <c r="V61">
-        <v>0.9996699942248991</v>
+        <v>-0.0003300057751008945</v>
       </c>
       <c r="W61">
-        <v>1.000310462589258</v>
+        <v>0.0003104625892578206</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -5790,7 +5790,7 @@
         <v>0.3952629782852534</v>
       </c>
       <c r="K62">
-        <v>28.32892325223327</v>
+        <v>-0.2167107674776673</v>
       </c>
       <c r="L62">
         <v>-0.01155481163895243</v>
@@ -5820,13 +5820,13 @@
         <v>-0.2000000000000171</v>
       </c>
       <c r="U62">
-        <v>0.9997732543158978</v>
+        <v>-0.000226745684102192</v>
       </c>
       <c r="V62">
-        <v>0.9995667244367417</v>
+        <v>-0.0004332755632583396</v>
       </c>
       <c r="W62">
-        <v>0.9981378026070764</v>
+        <v>-0.001862197392923592</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -5861,7 +5861,7 @@
         <v>0.4725259999183285</v>
       </c>
       <c r="K63">
-        <v>32.08948432452374</v>
+        <v>-0.1791051567547626</v>
       </c>
       <c r="L63">
         <v>-0.01451159189387445</v>
@@ -5891,13 +5891,13 @@
         <v>-0.2468750000000171</v>
       </c>
       <c r="U63">
-        <v>0.999783511850149</v>
+        <v>-0.0002164881498509796</v>
       </c>
       <c r="V63">
-        <v>0.9996903833054681</v>
+        <v>-0.000309616694531889</v>
       </c>
       <c r="W63">
-        <v>1.000621890547264</v>
+        <v>0.0006218905472636926</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -5932,7 +5932,7 @@
         <v>0.5131907481462512</v>
       </c>
       <c r="K64">
-        <v>33.91447831510604</v>
+        <v>-0.1608552168489396</v>
       </c>
       <c r="L64">
         <v>-0.01702014666500789</v>
@@ -5962,13 +5962,13 @@
         <v>-0.2906250000000057</v>
       </c>
       <c r="U64">
-        <v>0.9998040873564168</v>
+        <v>-0.000195912643583207</v>
       </c>
       <c r="V64">
-        <v>0.9997109349190617</v>
+        <v>-0.0002890650809382889</v>
       </c>
       <c r="W64">
-        <v>1.000310752019888</v>
+        <v>0.0003107520198879499</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -6003,7 +6003,7 @@
         <v>0.5131907481462512</v>
       </c>
       <c r="K65">
-        <v>33.91447831510604</v>
+        <v>-0.1608552168489396</v>
       </c>
       <c r="L65">
         <v>-0.01903585921559567</v>
@@ -6033,13 +6033,13 @@
         <v>-0.3156249999999829</v>
       </c>
       <c r="U65">
-        <v>0.9998143621793878</v>
+        <v>-0.0001856378206122056</v>
       </c>
       <c r="V65">
-        <v>0.9997108513362798</v>
+        <v>-0.0002891486637202068</v>
       </c>
       <c r="W65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -6074,7 +6074,7 @@
         <v>0.5131907481462512</v>
       </c>
       <c r="K66">
-        <v>33.91447831510604</v>
+        <v>-0.1608552168489396</v>
       </c>
       <c r="L66">
         <v>-0.02055569042450473</v>
@@ -6104,13 +6104,13 @@
         <v>-0.3406249999999886</v>
       </c>
       <c r="U66">
-        <v>0.999824642838723</v>
+        <v>-0.0001753571612770344</v>
       </c>
       <c r="V66">
-        <v>0.9996901082555162</v>
+        <v>-0.0003098917444838145</v>
       </c>
       <c r="W66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -6145,7 +6145,7 @@
         <v>0.5131907481462511</v>
       </c>
       <c r="K67">
-        <v>33.91447831510602</v>
+        <v>-0.1608552168489398</v>
       </c>
       <c r="L67">
         <v>-0.0216037786695386</v>
@@ -6175,13 +6175,13 @@
         <v>-0.3187500000000227</v>
       </c>
       <c r="U67">
-        <v>0.9998039782106306</v>
+        <v>-0.0001960217893693939</v>
       </c>
       <c r="V67">
-        <v>0.9996900121928535</v>
+        <v>-0.0003099878071465278</v>
       </c>
       <c r="W67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -6216,7 +6216,7 @@
         <v>0.4887877075736515</v>
       </c>
       <c r="K68">
-        <v>32.83125626891777</v>
+        <v>-0.1716874373108223</v>
       </c>
       <c r="L68">
         <v>-0.02233361163910138</v>
@@ -6246,13 +6246,13 @@
         <v>-0.2874999999999943</v>
       </c>
       <c r="U68">
-        <v>0.9998245776966022</v>
+        <v>-0.000175422303397843</v>
       </c>
       <c r="V68">
-        <v>0.9996485715466987</v>
+        <v>-0.0003514284533012724</v>
       </c>
       <c r="W68">
-        <v>0.9996893445169308</v>
+        <v>-0.0003106554830691888</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -6287,7 +6287,7 @@
         <v>0.538842022118176</v>
       </c>
       <c r="K69">
-        <v>35.01607145978987</v>
+        <v>-0.1498392854021013</v>
       </c>
       <c r="L69">
         <v>-0.02263038105053841</v>
@@ -6317,13 +6317,13 @@
         <v>-0.2562499999999659</v>
       </c>
       <c r="U69">
-        <v>0.9998451884572513</v>
+        <v>-0.0001548115427486563</v>
       </c>
       <c r="V69">
-        <v>0.9996691275306574</v>
+        <v>-0.0003308724693426024</v>
       </c>
       <c r="W69">
-        <v>1.000310752019888</v>
+        <v>0.0003107520198879499</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -6358,7 +6358,7 @@
         <v>0.538842022118176</v>
       </c>
       <c r="K70">
-        <v>35.01607145978987</v>
+        <v>-0.1498392854021013</v>
       </c>
       <c r="L70">
         <v>-0.02256361720357751</v>
@@ -6388,13 +6388,13 @@
         <v>-0.1875</v>
       </c>
       <c r="U70">
-        <v>0.9998141973843121</v>
+        <v>-0.0001858026156879022</v>
       </c>
       <c r="V70">
-        <v>0.9996690180178318</v>
+        <v>-0.0003309819821681881</v>
       </c>
       <c r="W70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -6429,7 +6429,7 @@
         <v>0.538842022118176</v>
       </c>
       <c r="K71">
-        <v>35.01607145978987</v>
+        <v>-0.1498392854021013</v>
       </c>
       <c r="L71">
         <v>-0.02219880111135656</v>
@@ -6459,13 +6459,13 @@
         <v>-0.1312499999999943</v>
       </c>
       <c r="U71">
-        <v>0.9998244871411018</v>
+        <v>-0.0001755128588981636</v>
       </c>
       <c r="V71">
-        <v>0.9997102948784272</v>
+        <v>-0.0002897051215727808</v>
       </c>
       <c r="W71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -6500,7 +6500,7 @@
         <v>0.4170912365827607</v>
       </c>
       <c r="K72">
-        <v>29.43291340849399</v>
+        <v>-0.2056708659150601</v>
       </c>
       <c r="L72">
         <v>-0.0221598960584038</v>
@@ -6530,13 +6530,13 @@
         <v>-0.1031250000000057</v>
       </c>
       <c r="U72">
-        <v>0.9997831519382087</v>
+        <v>-0.0002168480617913415</v>
       </c>
       <c r="V72">
-        <v>0.9996688124857692</v>
+        <v>-0.0003311875142307796</v>
       </c>
       <c r="W72">
-        <v>0.9984467225846536</v>
+        <v>-0.001553277415346388</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -6571,7 +6571,7 @@
         <v>0.7025004281950459</v>
       </c>
       <c r="K73">
-        <v>41.26286352478757</v>
+        <v>-0.08737136475212431</v>
       </c>
       <c r="L73">
         <v>-0.02156372280180545</v>
@@ -6601,13 +6601,13 @@
         <v>-0.06562500000001137</v>
       </c>
       <c r="U73">
-        <v>0.9998244182563701</v>
+        <v>-0.0001755817436298601</v>
       </c>
       <c r="V73">
-        <v>0.9997929392276633</v>
+        <v>-0.0002070607723366757</v>
       </c>
       <c r="W73">
-        <v>1.001866832607343</v>
+        <v>0.001866832607342994</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -6642,7 +6642,7 @@
         <v>0.6690022874832227</v>
       </c>
       <c r="K74">
-        <v>40.0839646835983</v>
+        <v>-0.09916035316401706</v>
       </c>
       <c r="L74">
         <v>-0.02070212192084392</v>
@@ -6672,13 +6672,13 @@
         <v>-0.03125</v>
       </c>
       <c r="U74">
-        <v>0.9997830668154207</v>
+        <v>-0.000216933184579271</v>
       </c>
       <c r="V74">
-        <v>0.9999171585378482</v>
+        <v>-8.284146215176147E-05</v>
       </c>
       <c r="W74">
-        <v>0.9996894409937888</v>
+        <v>-0.0003105590062112418</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -6713,7 +6713,7 @@
         <v>0.6690022874832227</v>
       </c>
       <c r="K75">
-        <v>40.0839646835983</v>
+        <v>-0.09916035316401706</v>
       </c>
       <c r="L75">
         <v>-0.01965919156371887</v>
@@ -6743,13 +6743,13 @@
         <v>-0.01875000000001137</v>
       </c>
       <c r="U75">
-        <v>0.9997933521382889</v>
+        <v>-0.0002066478617110956</v>
       </c>
       <c r="V75">
-        <v>0.9999585758372858</v>
+        <v>-4.14241627142431E-05</v>
       </c>
       <c r="W75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -6784,7 +6784,7 @@
         <v>0.7218379185100514</v>
       </c>
       <c r="K76">
-        <v>41.92252422543206</v>
+        <v>-0.08077475774567944</v>
       </c>
       <c r="L76">
         <v>-0.01838833842114749</v>
@@ -6814,13 +6814,13 @@
         <v>-0.003125000000011369</v>
       </c>
       <c r="U76">
-        <v>0.9998139784835113</v>
+        <v>-0.0001860215164887213</v>
       </c>
       <c r="V76">
-        <v>0.9999585741212536</v>
+        <v>-4.142587874644832E-05</v>
       </c>
       <c r="W76">
-        <v>1.000310655483069</v>
+        <v>0.0003106554830694108</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -6855,7 +6855,7 @@
         <v>0.8330708259349228</v>
       </c>
       <c r="K77">
-        <v>45.44673419861073</v>
+        <v>-0.04553265801389267</v>
       </c>
       <c r="L77">
         <v>-0.01676748243931803</v>
@@ -6885,13 +6885,13 @@
         <v>0.015625</v>
       </c>
       <c r="U77">
-        <v>0.999844953227557</v>
+        <v>-0.000155046772443046</v>
       </c>
       <c r="V77">
-        <v>1.000124282784763</v>
+        <v>0.0001242827847627304</v>
       </c>
       <c r="W77">
-        <v>1.000621118012422</v>
+        <v>0.0006211180124222615</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -6926,7 +6926,7 @@
         <v>0.8916144614217139</v>
       </c>
       <c r="K78">
-        <v>47.13510493843378</v>
+        <v>-0.02864895061566214</v>
       </c>
       <c r="L78">
         <v>-0.01486366216616709</v>
@@ -6956,13 +6956,13 @@
         <v>0.01875000000003979</v>
       </c>
       <c r="U78">
-        <v>0.9998966194562182</v>
+        <v>-0.0001033805437817836</v>
       </c>
       <c r="V78">
-        <v>1.00010355611706</v>
+        <v>0.000103556117059922</v>
       </c>
       <c r="W78">
-        <v>1.000310366232154</v>
+        <v>0.0003103662321539691</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -6997,7 +6997,7 @@
         <v>0.9532393408814589</v>
       </c>
       <c r="K79">
-        <v>48.80299720213912</v>
+        <v>-0.0119700279786088</v>
       </c>
       <c r="L79">
         <v>-0.01274244682359033</v>
@@ -7027,13 +7027,13 @@
         <v>0.03125</v>
       </c>
       <c r="U79">
-        <v>0.9999069478908189</v>
+        <v>-9.305210918109097E-05</v>
       </c>
       <c r="V79">
-        <v>1.000103545394301</v>
+        <v>0.0001035453943010189</v>
       </c>
       <c r="W79">
-        <v>1.000310269934843</v>
+        <v>0.000310269934843177</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -7068,7 +7068,7 @@
         <v>0.9532393408814588</v>
       </c>
       <c r="K80">
-        <v>48.80299720213911</v>
+        <v>-0.01197002797860891</v>
       </c>
       <c r="L80">
         <v>-0.01057811599433242</v>
@@ -7098,13 +7098,13 @@
         <v>0.078125</v>
       </c>
       <c r="U80">
-        <v>0.9999069392313179</v>
+        <v>-9.306076868209612E-05</v>
       </c>
       <c r="V80">
-        <v>1.000103534673762</v>
+        <v>0.0001035346737623399</v>
       </c>
       <c r="W80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -7139,7 +7139,7 @@
         <v>0.9532393408814589</v>
       </c>
       <c r="K81">
-        <v>48.80299720213912</v>
+        <v>-0.0119700279786088</v>
       </c>
       <c r="L81">
         <v>-0.008486961256688998</v>
@@ -7169,13 +7169,13 @@
         <v>0.08750000000000568</v>
       </c>
       <c r="U81">
-        <v>0.9998965895224503</v>
+        <v>-0.0001034104775496925</v>
       </c>
       <c r="V81">
-        <v>1.000103523955443</v>
+        <v>0.0001035239554429968</v>
       </c>
       <c r="W81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -7210,7 +7210,7 @@
         <v>1.096991793331741</v>
       </c>
       <c r="K82">
-        <v>52.31264122349373</v>
+        <v>0.02312641223493739</v>
       </c>
       <c r="L82">
         <v>-0.006316467792547378</v>
@@ -7240,13 +7240,13 @@
         <v>0.109375</v>
       </c>
       <c r="U82">
-        <v>0.9999172630620942</v>
+        <v>-8.273693790583625E-05</v>
       </c>
       <c r="V82">
-        <v>1.000144918535081</v>
+        <v>0.0001449185350808069</v>
       </c>
       <c r="W82">
-        <v>1.000620347394541</v>
+        <v>0.0006203473945409765</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -7281,7 +7281,7 @@
         <v>1.323969349832099</v>
       </c>
       <c r="K83">
-        <v>56.97017260265297</v>
+        <v>0.06970172602652969</v>
       </c>
       <c r="L83">
         <v>-0.003874177735025978</v>
@@ -7311,13 +7311,13 @@
         <v>0.1406250000000284</v>
       </c>
       <c r="U83">
-        <v>0.9999379421620951</v>
+        <v>-6.205783790491637E-05</v>
       </c>
       <c r="V83">
-        <v>1.000227696129166</v>
+        <v>0.0002276961291658441</v>
       </c>
       <c r="W83">
-        <v>1.000929944203348</v>
+        <v>0.0009299442033476879</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -7352,7 +7352,7 @@
         <v>1.004098666570955</v>
       </c>
       <c r="K84">
-        <v>50.10225710538413</v>
+        <v>0.001022571053841292</v>
       </c>
       <c r="L84">
         <v>-0.001860704086849571</v>
@@ -7382,13 +7382,13 @@
         <v>0.1500000000000057</v>
       </c>
       <c r="U84">
-        <v>0.9998965638511346</v>
+        <v>-0.0001034361488654323</v>
       </c>
       <c r="V84">
-        <v>1.000124169615695</v>
+        <v>0.0001241696156950578</v>
       </c>
       <c r="W84">
-        <v>0.9987612263858781</v>
+        <v>-0.001238773614121946</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -7423,7 +7423,7 @@
         <v>0.9440754045927342</v>
       </c>
       <c r="K85">
-        <v>48.56166599106321</v>
+        <v>-0.01438334008936792</v>
       </c>
       <c r="L85">
         <v>-0.0003416208358375854</v>
@@ -7453,13 +7453,13 @@
         <v>0.1468749999999659</v>
       </c>
       <c r="U85">
-        <v>0.99988620846609</v>
+        <v>-0.0001137915339100015</v>
       </c>
       <c r="V85">
-        <v>1.00010346183293</v>
+        <v>0.0001034618329296411</v>
       </c>
       <c r="W85">
-        <v>0.9996899224806201</v>
+        <v>-0.0003100775193799477</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -7494,7 +7494,7 @@
         <v>0.838545353070403</v>
       </c>
       <c r="K86">
-        <v>45.60917421319075</v>
+        <v>-0.04390825786809249</v>
       </c>
       <c r="L86">
         <v>0.0005563312256631159</v>
@@ -7524,13 +7524,13 @@
         <v>0.1312499999999943</v>
       </c>
       <c r="U86">
-        <v>0.9998861955161036</v>
+        <v>-0.0001138044838964181</v>
       </c>
       <c r="V86">
-        <v>1.000062070677812</v>
+        <v>6.207067781183184E-05</v>
       </c>
       <c r="W86">
-        <v>0.9993796526054591</v>
+        <v>-0.0006203473945408655</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -7565,7 +7565,7 @@
         <v>0.7919529361865982</v>
       </c>
       <c r="K87">
-        <v>44.19496294762795</v>
+        <v>-0.05805037052372053</v>
       </c>
       <c r="L87">
         <v>0.0009057114573752761</v>
@@ -7595,13 +7595,13 @@
         <v>0.1062499999999886</v>
       </c>
       <c r="U87">
-        <v>0.9999068766425925</v>
+        <v>-9.312335740752076E-05</v>
       </c>
       <c r="V87">
-        <v>1.000144822592324</v>
+        <v>0.0001448225923244006</v>
       </c>
       <c r="W87">
-        <v>0.9996896337678461</v>
+        <v>-0.0003103662321538581</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -7636,7 +7636,7 @@
         <v>0.9089284800180829</v>
       </c>
       <c r="K88">
-        <v>47.61459056912771</v>
+        <v>-0.02385409430872293</v>
       </c>
       <c r="L88">
         <v>0.00112318888891422</v>
@@ -7666,13 +7666,13 @@
         <v>0.07187500000000568</v>
       </c>
       <c r="U88">
-        <v>0.9999275639765308</v>
+        <v>-7.24360234691801E-05</v>
       </c>
       <c r="V88">
-        <v>1.000062057837905</v>
+        <v>6.205783790491637E-05</v>
       </c>
       <c r="W88">
-        <v>1.000620925178516</v>
+        <v>0.0006209251785158632</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -7707,7 +7707,7 @@
         <v>0.9089284800180829</v>
       </c>
       <c r="K89">
-        <v>47.61459056912771</v>
+        <v>-0.02385409430872293</v>
       </c>
       <c r="L89">
         <v>0.001242806656881053</v>
@@ -7737,13 +7737,13 @@
         <v>0.05624999999997726</v>
       </c>
       <c r="U89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V89">
-        <v>1.000082738649291</v>
+        <v>8.273864929142505E-05</v>
       </c>
       <c r="W89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -7778,7 +7778,7 @@
         <v>0.9737348754925711</v>
       </c>
       <c r="K90">
-        <v>49.33463392592498</v>
+        <v>-0.006653660740750189</v>
       </c>
       <c r="L90">
         <v>0.001403987178538143</v>
@@ -7808,13 +7808,13 @@
         <v>0.02812499999998863</v>
       </c>
       <c r="U90">
-        <v>1.000031046258926</v>
+        <v>3.104625892569324E-05</v>
       </c>
       <c r="V90">
-        <v>1.000103414755217</v>
+        <v>0.000103414755217246</v>
       </c>
       <c r="W90">
-        <v>1.000310269934843</v>
+        <v>0.000310269934843177</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -7849,7 +7849,7 @@
         <v>0.911551342052217</v>
       </c>
       <c r="K91">
-        <v>47.6864692043054</v>
+        <v>-0.02313530795694602</v>
       </c>
       <c r="L91">
         <v>0.001461964058877372</v>
@@ -7879,13 +7879,13 @@
         <v>-0.02187499999999432</v>
       </c>
       <c r="U91">
-        <v>1.000010348431695</v>
+        <v>1.03484316953395E-05</v>
       </c>
       <c r="V91">
-        <v>1.000062042437027</v>
+        <v>6.204243702678802E-05</v>
       </c>
       <c r="W91">
-        <v>0.9996898263027296</v>
+        <v>-0.0003101736972703772</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -7920,7 +7920,7 @@
         <v>0.8541347443460999</v>
       </c>
       <c r="K92">
-        <v>46.06648718226403</v>
+        <v>-0.03933512817735973</v>
       </c>
       <c r="L92">
         <v>0.001335407386878888</v>
@@ -7950,13 +7950,13 @@
         <v>-0.04687500000002842</v>
       </c>
       <c r="U92">
-        <v>1.000062089947637</v>
+        <v>6.208994763734488E-05</v>
       </c>
       <c r="V92">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="W92">
-        <v>0.9996897300651566</v>
+        <v>-0.000310269934843399</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -7991,7 +7991,7 @@
         <v>0.8541347443461</v>
       </c>
       <c r="K93">
-        <v>46.06648718226403</v>
+        <v>-0.03933512817735973</v>
       </c>
       <c r="L93">
         <v>0.001100264301278913</v>
@@ -8021,13 +8021,13 @@
         <v>-0.05937500000001705</v>
       </c>
       <c r="U93">
-        <v>1.000041390728477</v>
+        <v>4.139072847686442E-05</v>
       </c>
       <c r="V93">
-        <v>0.999979320470666</v>
+        <v>-2.067952933404449E-05</v>
       </c>
       <c r="W93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -8062,7 +8062,7 @@
         <v>0.8541347443460999</v>
       </c>
       <c r="K94">
-        <v>46.06648718226403</v>
+        <v>-0.03933512817735973</v>
       </c>
       <c r="L94">
         <v>0.0008103190318949321</v>
@@ -8092,13 +8092,13 @@
         <v>-0.05625000000000568</v>
       </c>
       <c r="U94">
-        <v>1.000031041761516</v>
+        <v>3.10417615163594E-05</v>
       </c>
       <c r="V94">
-        <v>0.9999586400860285</v>
+        <v>-4.135991397147265E-05</v>
       </c>
       <c r="W94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -8133,7 +8133,7 @@
         <v>0.7956794758841852</v>
       </c>
       <c r="K95">
-        <v>44.31077408691748</v>
+        <v>-0.05689225913082518</v>
       </c>
       <c r="L95">
         <v>0.0003897113505878529</v>
@@ -8163,13 +8163,13 @@
         <v>-0.046875</v>
       </c>
       <c r="U95">
-        <v>1.000020693865304</v>
+        <v>2.069386530356709E-05</v>
       </c>
       <c r="V95">
-        <v>0.9999379575629733</v>
+        <v>-6.2042437026677E-05</v>
       </c>
       <c r="W95">
-        <v>0.9996896337678461</v>
+        <v>-0.0003103662321538581</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -8204,7 +8204,7 @@
         <v>0.8677194695106764</v>
       </c>
       <c r="K96">
-        <v>46.45876876456238</v>
+        <v>-0.0354123123543762</v>
       </c>
       <c r="L96">
         <v>2.831935313183769E-05</v>
@@ -8234,13 +8234,13 @@
         <v>-0.04687500000002842</v>
       </c>
       <c r="U96">
-        <v>1.000031040155615</v>
+        <v>3.104015561472551E-05</v>
       </c>
       <c r="V96">
-        <v>0.9999586358089803</v>
+        <v>-4.136419101974376E-05</v>
       </c>
       <c r="W96">
-        <v>1.000310462589258</v>
+        <v>0.0003104625892578206</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -8275,7 +8275,7 @@
         <v>0.7534490216797125</v>
       </c>
       <c r="K97">
-        <v>42.96954244828559</v>
+        <v>-0.07030457551714409</v>
       </c>
       <c r="L97">
         <v>-0.0005002532139989752</v>
@@ -8305,13 +8305,13 @@
         <v>-0.05312499999999432</v>
       </c>
       <c r="U97">
-        <v>1.000010346397384</v>
+        <v>1.034639738439758E-05</v>
       </c>
       <c r="V97">
-        <v>0.9998759022937392</v>
+        <v>-0.0001240977062607618</v>
       </c>
       <c r="W97">
-        <v>0.9993792675356922</v>
+        <v>-0.0006207324643078271</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -8346,7 +8346,7 @@
         <v>0.7534490216797125</v>
       </c>
       <c r="K98">
-        <v>42.96954244828559</v>
+        <v>-0.07030457551714409</v>
       </c>
       <c r="L98">
         <v>-0.001094610599447872</v>
@@ -8376,13 +8376,13 @@
         <v>-0.05937500000001705</v>
       </c>
       <c r="U98">
-        <v>1.000020692580675</v>
+        <v>2.069258067538549E-05</v>
       </c>
       <c r="V98">
-        <v>0.9998138303373808</v>
+        <v>-0.0001861696626191955</v>
       </c>
       <c r="W98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -8417,7 +8417,7 @@
         <v>0.7534490216797126</v>
       </c>
       <c r="K99">
-        <v>42.96954244828559</v>
+        <v>-0.07030457551714409</v>
       </c>
       <c r="L99">
         <v>-0.001686974910406237</v>
@@ -8447,13 +8447,13 @@
         <v>-0.05000000000003979</v>
       </c>
       <c r="U99">
-        <v>1.00001034607625</v>
+        <v>1.03460762503893E-05</v>
       </c>
       <c r="V99">
-        <v>0.9998965531509911</v>
+        <v>-0.0001034468490088702</v>
       </c>
       <c r="W99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -8488,7 +8488,7 @@
         <v>0.7534490216797126</v>
       </c>
       <c r="K100">
-        <v>42.96954244828559</v>
+        <v>-0.07030457551714409</v>
       </c>
       <c r="L100">
         <v>-0.002234258327340333</v>
@@ -8518,13 +8518,13 @@
         <v>-0.04687500000002842</v>
       </c>
       <c r="U100">
-        <v>1.00001034596921</v>
+        <v>1.034596921045683E-05</v>
       </c>
       <c r="V100">
-        <v>0.9999172339589065</v>
+        <v>-8.276604109347385E-05</v>
       </c>
       <c r="W100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -8559,7 +8559,7 @@
         <v>0.7534490216797127</v>
       </c>
       <c r="K101">
-        <v>42.9695424482856</v>
+        <v>-0.07030457551714397</v>
       </c>
       <c r="L101">
         <v>-0.002711238095633015</v>
@@ -8589,13 +8589,13 @@
         <v>-0.046875</v>
       </c>
       <c r="U101">
-        <v>1.000010345862173</v>
+        <v>1.034586217252276E-05</v>
       </c>
       <c r="V101">
-        <v>0.9999586135540611</v>
+        <v>-4.138644593887353E-05</v>
       </c>
       <c r="W101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -8630,7 +8630,7 @@
         <v>0.6438684189589721</v>
       </c>
       <c r="K102">
-        <v>39.16788056350159</v>
+        <v>-0.1083211943649841</v>
       </c>
       <c r="L102">
         <v>-0.003331372839334035</v>
@@ -8660,13 +8660,13 @@
         <v>-0.05937500000001705</v>
       </c>
       <c r="U102">
-        <v>1.000041383020547</v>
+        <v>4.138302054679244E-05</v>
       </c>
       <c r="V102">
-        <v>0.9999379177617282</v>
+        <v>-6.208223827175452E-05</v>
       </c>
       <c r="W102">
-        <v>0.9993788819875776</v>
+        <v>-0.0006211180124223725</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -8701,7 +8701,7 @@
         <v>0.5980868703418568</v>
       </c>
       <c r="K103">
-        <v>37.42517890869826</v>
+        <v>-0.1257482109130174</v>
       </c>
       <c r="L103">
         <v>-0.004099631048882466</v>
@@ -8731,13 +8731,13 @@
         <v>-0.07187500000000568</v>
       </c>
       <c r="U103">
-        <v>0.9999689640189525</v>
+        <v>-3.103598104747807E-05</v>
       </c>
       <c r="V103">
-        <v>0.9998758278145696</v>
+        <v>-0.0001241721854303712</v>
       </c>
       <c r="W103">
-        <v>0.9996892479801118</v>
+        <v>-0.0003107520198881719</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -8772,7 +8772,7 @@
         <v>0.6729330693298531</v>
       </c>
       <c r="K104">
-        <v>40.22474548843833</v>
+        <v>-0.09775254511561671</v>
       </c>
       <c r="L104">
         <v>-0.004780796924866606</v>
@@ -8802,13 +8802,13 @@
         <v>-0.08125000000001137</v>
       </c>
       <c r="U104">
-        <v>0.999989654351897</v>
+        <v>-1.034564810298289E-05</v>
       </c>
       <c r="V104">
-        <v>0.9998965103282693</v>
+        <v>-0.0001034896717306832</v>
       </c>
       <c r="W104">
-        <v>1.000310848616724</v>
+        <v>0.0003108486167238134</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -8843,7 +8843,7 @@
         <v>0.8305040145676953</v>
       </c>
       <c r="K105">
-        <v>45.37023726570919</v>
+        <v>-0.0462976273429081</v>
       </c>
       <c r="L105">
         <v>-0.005122405562196126</v>
@@ -8873,13 +8873,13 @@
         <v>-0.07187500000000568</v>
       </c>
       <c r="U105">
-        <v>1.000010345755137</v>
+        <v>1.034575513658709E-05</v>
       </c>
       <c r="V105">
-        <v>0.9999171996936388</v>
+        <v>-8.280030636120816E-05</v>
       </c>
       <c r="W105">
-        <v>1.000621504039776</v>
+        <v>0.0006215040397761218</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -8914,7 +8914,7 @@
         <v>0.7669031443755078</v>
       </c>
       <c r="K106">
-        <v>43.4038021165309</v>
+        <v>-0.06596197883469096</v>
       </c>
       <c r="L106">
         <v>-0.005330895729430583</v>
@@ -8944,13 +8944,13 @@
         <v>-0.06249999999997158</v>
       </c>
       <c r="U106">
-        <v>0.9999896543518969</v>
+        <v>-1.034564810309391E-05</v>
       </c>
       <c r="V106">
-        <v>0.9999171928371805</v>
+        <v>-8.280716281949818E-05</v>
       </c>
       <c r="W106">
-        <v>0.9996894409937888</v>
+        <v>-0.0003105590062112418</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -8985,7 +8985,7 @@
         <v>0.8475147768763789</v>
       </c>
       <c r="K107">
-        <v>45.87323400515827</v>
+        <v>-0.04126765994841736</v>
       </c>
       <c r="L107">
         <v>-0.005313030441499774</v>
@@ -9015,13 +9015,13 @@
         <v>-0.05312500000002274</v>
       </c>
       <c r="U107">
-        <v>0.9999793084897267</v>
+        <v>-2.06915102732852E-05</v>
       </c>
       <c r="V107">
-        <v>0.9999585929897928</v>
+        <v>-4.140701020716175E-05</v>
       </c>
       <c r="W107">
-        <v>1.000310655483069</v>
+        <v>0.0003106554830694108</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -9056,7 +9056,7 @@
         <v>0.7812244813100142</v>
       </c>
       <c r="K108">
-        <v>43.85884482878077</v>
+        <v>-0.06141155171219231</v>
       </c>
       <c r="L108">
         <v>-0.005252842188718825</v>
@@ -9086,13 +9086,13 @@
         <v>-0.04999999999998295</v>
       </c>
       <c r="U108">
-        <v>0.9999586161231583</v>
+        <v>-4.138387684171629E-05</v>
       </c>
       <c r="V108">
-        <v>0.9999378869127725</v>
+        <v>-6.211308722747777E-05</v>
       </c>
       <c r="W108">
-        <v>0.9996894409937888</v>
+        <v>-0.0003105590062112418</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -9127,7 +9127,7 @@
         <v>0.7217961378139152</v>
       </c>
       <c r="K109">
-        <v>41.9211149311989</v>
+        <v>-0.080788850688011</v>
       </c>
       <c r="L109">
         <v>-0.005264765696512328</v>
@@ -9157,13 +9157,13 @@
         <v>-0.04999999999998295</v>
       </c>
       <c r="U109">
-        <v>0.9999379216156936</v>
+        <v>-6.207838430638546E-05</v>
       </c>
       <c r="V109">
-        <v>0.9999171774059964</v>
+        <v>-8.282259400360648E-05</v>
       </c>
       <c r="W109">
-        <v>0.9996893445169308</v>
+        <v>-0.0003106554830691888</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -9198,7 +9198,7 @@
         <v>0.7217961378139152</v>
       </c>
       <c r="K110">
-        <v>41.9211149311989</v>
+        <v>-0.080788850688011</v>
       </c>
       <c r="L110">
         <v>-0.005300472322099447</v>
@@ -9228,13 +9228,13 @@
         <v>-0.03749999999999432</v>
       </c>
       <c r="U110">
-        <v>0.9999379177617282</v>
+        <v>-6.208223827175452E-05</v>
       </c>
       <c r="V110">
-        <v>0.9999378779093845</v>
+        <v>-6.212209061551288E-05</v>
       </c>
       <c r="W110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -9269,7 +9269,7 @@
         <v>0.8060850734866164</v>
       </c>
       <c r="K111">
-        <v>44.63162258079476</v>
+        <v>-0.05368377419205239</v>
       </c>
       <c r="L111">
         <v>-0.005215985121530558</v>
@@ -9299,13 +9299,13 @@
         <v>-0.01874999999998295</v>
       </c>
       <c r="U111">
-        <v>0.999948261589404</v>
+        <v>-5.173841059602502E-05</v>
       </c>
       <c r="V111">
-        <v>0.9999378740499907</v>
+        <v>-6.212595000931742E-05</v>
       </c>
       <c r="W111">
-        <v>1.000310752019888</v>
+        <v>0.0003107520198879499</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -9340,7 +9340,7 @@
         <v>0.8060850734866164</v>
       </c>
       <c r="K112">
-        <v>44.63162258079476</v>
+        <v>-0.05368377419205239</v>
       </c>
       <c r="L112">
         <v>-0.005045068708642759</v>
@@ -9370,13 +9370,13 @@
         <v>-0.003125000000011369</v>
       </c>
       <c r="U112">
-        <v>0.9999275624773631</v>
+        <v>-7.243752263685899E-05</v>
       </c>
       <c r="V112">
-        <v>0.9999792900633724</v>
+        <v>-2.070993662761644E-05</v>
       </c>
       <c r="W112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -9411,7 +9411,7 @@
         <v>0.5494880493955576</v>
       </c>
       <c r="K113">
-        <v>35.46255484899727</v>
+        <v>-0.1453744515100273</v>
       </c>
       <c r="L113">
         <v>-0.005379605804135436</v>
@@ -9441,13 +9441,13 @@
         <v>-0.02187499999999432</v>
       </c>
       <c r="U113">
-        <v>0.999844765492404</v>
+        <v>-0.0001552345075960249</v>
       </c>
       <c r="V113">
-        <v>0.9998757378067722</v>
+        <v>-0.0001242621932278087</v>
       </c>
       <c r="W113">
-        <v>0.9984467225846536</v>
+        <v>-0.001553277415346388</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -9482,7 +9482,7 @@
         <v>0.616503837060236</v>
       </c>
       <c r="K114">
-        <v>38.13809920682936</v>
+        <v>-0.1186190079317064</v>
       </c>
       <c r="L114">
         <v>-0.005866486703031116</v>
@@ -9512,13 +9512,13 @@
         <v>-0.03125</v>
       </c>
       <c r="U114">
-        <v>0.9998964942606069</v>
+        <v>-0.000103505739393106</v>
       </c>
       <c r="V114">
-        <v>0.999896435303134</v>
+        <v>-0.0001035646968660098</v>
       </c>
       <c r="W114">
-        <v>1.00031113876789</v>
+        <v>0.000311138767890462</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -9553,7 +9553,7 @@
         <v>0.8281326402118119</v>
       </c>
       <c r="K115">
-        <v>45.29937390734747</v>
+        <v>-0.04700626092652532</v>
       </c>
       <c r="L115">
         <v>-0.00605412926104174</v>
@@ -9583,13 +9583,13 @@
         <v>-0.03749999999999432</v>
       </c>
       <c r="U115">
-        <v>0.9999378901276357</v>
+        <v>-6.21098723643243E-05</v>
       </c>
       <c r="V115">
-        <v>0.9999585698305506</v>
+        <v>-4.143016944935241E-05</v>
       </c>
       <c r="W115">
-        <v>1.000933125972006</v>
+        <v>0.0009331259720062324</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -9624,7 +9624,7 @@
         <v>0.8281326402118119</v>
       </c>
       <c r="K116">
-        <v>45.29937390734747</v>
+        <v>-0.04700626092652532</v>
       </c>
       <c r="L116">
         <v>-0.006026475279009343</v>
@@ -9654,13 +9654,13 @@
         <v>-0.03750000000002274</v>
       </c>
       <c r="U116">
-        <v>0.9999585908465065</v>
+        <v>-4.140915349348795E-05</v>
       </c>
       <c r="V116">
-        <v>0.9999585681140206</v>
+        <v>-4.143188597938163E-05</v>
       </c>
       <c r="W116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -9695,7 +9695,7 @@
         <v>0.8281326402118119</v>
       </c>
       <c r="K117">
-        <v>45.29937390734747</v>
+        <v>-0.04700626092652532</v>
       </c>
       <c r="L117">
         <v>-0.0058481956790259</v>
@@ -9725,13 +9725,13 @@
         <v>-0.03124999999997158</v>
       </c>
       <c r="U117">
-        <v>0.9999689418487883</v>
+        <v>-3.105815121173805E-05</v>
       </c>
       <c r="V117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -9766,7 +9766,7 @@
         <v>0.8281326402118118</v>
       </c>
       <c r="K118">
-        <v>45.29937390734746</v>
+        <v>-0.04700626092652543</v>
       </c>
       <c r="L118">
         <v>-0.005568717152285504</v>
@@ -9796,13 +9796,13 @@
         <v>-0.03124999999997158</v>
       </c>
       <c r="U118">
-        <v>0.9999482348069159</v>
+        <v>-5.176519308414118E-05</v>
       </c>
       <c r="V118">
-        <v>1.000020716801326</v>
+        <v>2.07168013257597E-05</v>
       </c>
       <c r="W118">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -9837,7 +9837,7 @@
         <v>0.8281326402118118</v>
       </c>
       <c r="K119">
-        <v>45.29937390734746</v>
+        <v>-0.04700626092652543</v>
       </c>
       <c r="L119">
         <v>-0.005225451331311609</v>
@@ -9867,13 +9867,13 @@
         <v>-0.04062500000000568</v>
       </c>
       <c r="U119">
-        <v>0.9999482321271419</v>
+        <v>-5.176787285809947E-05</v>
       </c>
       <c r="V119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -9908,7 +9908,7 @@
         <v>0.7589424769996085</v>
       </c>
       <c r="K120">
-        <v>43.14765757969568</v>
+        <v>-0.06852342420304325</v>
       </c>
       <c r="L120">
         <v>-0.004959484340606608</v>
@@ -9938,13 +9938,13 @@
         <v>-0.04999999999995453</v>
       </c>
       <c r="U120">
-        <v>0.9999275212259265</v>
+        <v>-7.247877407345893E-05</v>
       </c>
       <c r="V120">
-        <v>0.9999378508835534</v>
+        <v>-6.214911644664145E-05</v>
       </c>
       <c r="W120">
-        <v>0.9996892479801118</v>
+        <v>-0.0003107520198881719</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -9979,7 +9979,7 @@
         <v>1.022783366296203</v>
       </c>
       <c r="K121">
-        <v>50.56316871781283</v>
+        <v>0.005631687178128342</v>
       </c>
       <c r="L121">
         <v>-0.00439991778152899</v>
@@ -10009,13 +10009,13 @@
         <v>-0.01249999999996021</v>
       </c>
       <c r="U121">
-        <v>0.9999689354167314</v>
+        <v>-3.106458326862516E-05</v>
       </c>
       <c r="V121">
-        <v>1.000020717659733</v>
+        <v>2.071765973310491E-05</v>
       </c>
       <c r="W121">
-        <v>1.000932545850171</v>
+        <v>0.000932545850170996</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -10050,7 +10050,7 @@
         <v>1.022783366296203</v>
       </c>
       <c r="K122">
-        <v>50.56316871781284</v>
+        <v>0.005631687178128453</v>
       </c>
       <c r="L122">
         <v>-0.003682072907648564</v>
@@ -10080,13 +10080,13 @@
         <v>0.01562500000002842</v>
       </c>
       <c r="U122">
-        <v>0.999979289634462</v>
+        <v>-2.071036553796812E-05</v>
       </c>
       <c r="V122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -10121,7 +10121,7 @@
         <v>1.315127841971101</v>
       </c>
       <c r="K123">
-        <v>56.80584104812979</v>
+        <v>0.0680584104812979</v>
       </c>
       <c r="L123">
         <v>-0.002561288348876638</v>
@@ -10151,13 +10151,13 @@
         <v>0.03749999999999432</v>
       </c>
       <c r="U123">
-        <v>1.000010355397233</v>
+        <v>1.035539723326373E-05</v>
       </c>
       <c r="V123">
-        <v>1.000082868922083</v>
+        <v>8.286892208264618E-05</v>
       </c>
       <c r="W123">
-        <v>1.000931677018634</v>
+        <v>0.0009316770186336143</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -10192,7 +10192,7 @@
         <v>1.315127841971101</v>
       </c>
       <c r="K124">
-        <v>56.80584104812979</v>
+        <v>0.0680584104812979</v>
       </c>
       <c r="L124">
         <v>-0.001258442411490048</v>
@@ -10222,13 +10222,13 @@
         <v>0.05625000000000568</v>
       </c>
       <c r="U124">
-        <v>1.00001035529</v>
+        <v>1.035528999970836E-05</v>
       </c>
       <c r="V124">
-        <v>1.000103577569242</v>
+        <v>0.0001035775692417307</v>
       </c>
       <c r="W124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -10263,7 +10263,7 @@
         <v>1.315127841971101</v>
       </c>
       <c r="K125">
-        <v>56.80584104812979</v>
+        <v>0.0680584104812979</v>
       </c>
       <c r="L125">
         <v>7.626447378464272E-05</v>
@@ -10293,13 +10293,13 @@
         <v>0.07187499999997726</v>
       </c>
       <c r="U125">
-        <v>1.000020710365538</v>
+        <v>2.07103655378571E-05</v>
       </c>
       <c r="V125">
-        <v>1.00010356684204</v>
+        <v>0.0001035668420397151</v>
       </c>
       <c r="W125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -10334,7 +10334,7 @@
         <v>1.180907399871266</v>
       </c>
       <c r="K126">
-        <v>54.14752593076498</v>
+        <v>0.04147525930764984</v>
       </c>
       <c r="L126">
         <v>0.00123179395568584</v>
@@ -10364,13 +10364,13 @@
         <v>0.08437499999999432</v>
       </c>
       <c r="U126">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="V126">
-        <v>1.000062133670236</v>
+        <v>6.213367023599758E-05</v>
       </c>
       <c r="W126">
-        <v>0.9996897300651566</v>
+        <v>-0.000310269934843399</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -10405,7 +10405,7 @@
         <v>1.28833777385134</v>
       </c>
       <c r="K127">
-        <v>56.30015763289304</v>
+        <v>0.06300157632893044</v>
       </c>
       <c r="L127">
         <v>0.002313739964819065</v>
@@ -10435,13 +10435,13 @@
         <v>0.1031250000000057</v>
       </c>
       <c r="U127">
-        <v>1.000031064904941</v>
+        <v>3.106490494131364E-05</v>
       </c>
       <c r="V127">
-        <v>1.00008283974651</v>
+        <v>8.283974651024373E-05</v>
       </c>
       <c r="W127">
-        <v>1.000310366232154</v>
+        <v>0.0003103662321539691</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -10476,7 +10476,7 @@
         <v>1.514506982230378</v>
       </c>
       <c r="K128">
-        <v>60.23077259014029</v>
+        <v>0.1023077259014029</v>
       </c>
       <c r="L128">
         <v>0.003499932668425658</v>
@@ -10506,13 +10506,13 @@
         <v>0.1343749999999773</v>
       </c>
       <c r="U128">
-        <v>1.000051773233238</v>
+        <v>5.177323323835026E-05</v>
       </c>
       <c r="V128">
-        <v>1.000227790432802</v>
+        <v>0.0002277904328020774</v>
       </c>
       <c r="W128">
-        <v>1.000620539869687</v>
+        <v>0.000620539869686576</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -10547,7 +10547,7 @@
         <v>1.223277758734856</v>
       </c>
       <c r="K129">
-        <v>55.02136446644235</v>
+        <v>0.05021364466442346</v>
       </c>
       <c r="L129">
         <v>0.004434642130579533</v>
@@ -10577,13 +10577,13 @@
         <v>0.1249999999999716</v>
       </c>
       <c r="U129">
-        <v>1.000031062331746</v>
+        <v>3.106233174587913E-05</v>
       </c>
       <c r="V129">
-        <v>1.000165628040827</v>
+        <v>0.0001656280408273147</v>
       </c>
       <c r="W129">
-        <v>0.9993798449612403</v>
+        <v>-0.0006201550387596733</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -10618,7 +10618,7 @@
         <v>1.425691534940925</v>
       </c>
       <c r="K130">
-        <v>58.77464279379802</v>
+        <v>0.08774642793798026</v>
       </c>
       <c r="L130">
         <v>0.005367460876305316</v>
@@ -10648,13 +10648,13 @@
         <v>0.1249999999999716</v>
       </c>
       <c r="U130">
-        <v>1.000051768944845</v>
+        <v>5.17689448453762E-05</v>
       </c>
       <c r="V130">
-        <v>1.000144900536132</v>
+        <v>0.000144900536131809</v>
       </c>
       <c r="W130">
-        <v>1.000620539869687</v>
+        <v>0.000620539869686576</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -10689,7 +10689,7 @@
         <v>1.745292234213695</v>
       </c>
       <c r="K131">
-        <v>63.57400543602167</v>
+        <v>0.1357400543602167</v>
       </c>
       <c r="L131">
         <v>0.006559381587084268</v>
@@ -10719,13 +10719,13 @@
         <v>0.1250000000000284</v>
       </c>
       <c r="U131">
-        <v>1.000082826023937</v>
+        <v>8.282602393672178E-05</v>
       </c>
       <c r="V131">
-        <v>1.000206970775726</v>
+        <v>0.0002069707757261785</v>
       </c>
       <c r="W131">
-        <v>1.00093023255814</v>
+        <v>0.0009302325581395099</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -10760,7 +10760,7 @@
         <v>1.569308988558143</v>
       </c>
       <c r="K132">
-        <v>61.07902924664641</v>
+        <v>0.1107902924664641</v>
       </c>
       <c r="L132">
         <v>0.007695181110455732</v>
@@ -10790,13 +10790,13 @@
         <v>0.1218749999999886</v>
       </c>
       <c r="U132">
-        <v>1.000093171559899</v>
+        <v>9.317155989885251E-05</v>
       </c>
       <c r="V132">
-        <v>1.00018623515292</v>
+        <v>0.0001862351529200446</v>
       </c>
       <c r="W132">
-        <v>0.9996902106567533</v>
+        <v>-0.0003097893432466581</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -10831,7 +10831,7 @@
         <v>1.675449105445872</v>
       </c>
       <c r="K133">
-        <v>62.62309763379533</v>
+        <v>0.1262309763379532</v>
       </c>
       <c r="L133">
         <v>0.008809539072917271</v>
@@ -10861,13 +10861,13 @@
         <v>0.1218750000000455</v>
       </c>
       <c r="U133">
-        <v>1.000113865741939</v>
+        <v>0.0001138657419388345</v>
       </c>
       <c r="V133">
-        <v>1.000206889417606</v>
+        <v>0.0002068894176063818</v>
       </c>
       <c r="W133">
-        <v>1.000309885342423</v>
+        <v>0.0003098853424232662</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -10902,7 +10902,7 @@
         <v>1.254849505797867</v>
       </c>
       <c r="K134">
-        <v>55.65114224125769</v>
+        <v>0.05651142241257689</v>
       </c>
       <c r="L134">
         <v>0.009468423837029404</v>
@@ -10932,13 +10932,13 @@
         <v>0.1187500000000057</v>
       </c>
       <c r="U134">
-        <v>1.000072451767823</v>
+        <v>7.245176782300078E-05</v>
       </c>
       <c r="V134">
-        <v>1.00014479263626</v>
+        <v>0.0001447926362601049</v>
       </c>
       <c r="W134">
-        <v>0.9990706319702601</v>
+        <v>-0.0009293680297398632</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -10973,7 +10973,7 @@
         <v>1.066898058063845</v>
       </c>
       <c r="K135">
-        <v>51.61832021184709</v>
+        <v>0.01618320211847091</v>
       </c>
       <c r="L135">
         <v>0.009548743262284684</v>
@@ -11003,13 +11003,13 @@
         <v>0.1031250000000057</v>
       </c>
       <c r="U135">
-        <v>1.000031048508119</v>
+        <v>3.10485081194134E-05</v>
       </c>
       <c r="V135">
-        <v>1.000124090006618</v>
+        <v>0.0001240900066181716</v>
       </c>
       <c r="W135">
-        <v>0.9993798449612403</v>
+        <v>-0.0006201550387596733</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -11044,7 +11044,7 @@
         <v>1.066898058063845</v>
       </c>
       <c r="K136">
-        <v>51.61832021184709</v>
+        <v>0.01618320211847091</v>
       </c>
       <c r="L136">
         <v>0.009238732263019427</v>
@@ -11074,13 +11074,13 @@
         <v>0.07187499999997726</v>
       </c>
       <c r="U136">
-        <v>1.000041396725519</v>
+        <v>4.13967255190606E-05</v>
       </c>
       <c r="V136">
-        <v>1.0000620373051</v>
+        <v>6.203730509968253E-05</v>
       </c>
       <c r="W136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -11115,7 +11115,7 @@
         <v>0.9150372835005425</v>
       </c>
       <c r="K137">
-        <v>47.78169549931289</v>
+        <v>-0.02218304500687113</v>
       </c>
       <c r="L137">
         <v>0.008452335006340708</v>
@@ -11145,13 +11145,13 @@
         <v>0.05624999999997726</v>
       </c>
       <c r="U137">
-        <v>1.000010348752975</v>
+        <v>1.034875297523108E-05</v>
       </c>
       <c r="V137">
-        <v>1.000020677818904</v>
+        <v>2.067781890358056E-05</v>
       </c>
       <c r="W137">
-        <v>0.9993794601303134</v>
+        <v>-0.000620539869686576</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -11186,7 +11186,7 @@
         <v>0.9150372835005425</v>
       </c>
       <c r="K138">
-        <v>47.78169549931289</v>
+        <v>-0.02218304500687113</v>
       </c>
       <c r="L138">
         <v>0.007396785868512871</v>
@@ -11216,13 +11216,13 @@
         <v>0.02812500000001705</v>
       </c>
       <c r="U138">
-        <v>1.000020697291759</v>
+        <v>2.069729175935286E-05</v>
       </c>
       <c r="V138">
-        <v>0.9999586452173193</v>
+        <v>-4.135478268074699E-05</v>
       </c>
       <c r="W138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -11257,7 +11257,7 @@
         <v>0.9150372835005426</v>
       </c>
       <c r="K139">
-        <v>47.78169549931289</v>
+        <v>-0.02218304500687113</v>
       </c>
       <c r="L139">
         <v>0.006218590756796972</v>
@@ -11287,13 +11287,13 @@
         <v>-0.009375000000005684</v>
       </c>
       <c r="U139">
-        <v>1.000031045295085</v>
+        <v>3.104529508535236E-05</v>
       </c>
       <c r="V139">
-        <v>0.9999586435070307</v>
+        <v>-4.135649296932442E-05</v>
       </c>
       <c r="W139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -11328,7 +11328,7 @@
         <v>0.9150372835005426</v>
       </c>
       <c r="K140">
-        <v>47.78169549931289</v>
+        <v>-0.02218304500687113</v>
       </c>
       <c r="L140">
         <v>0.005018579538488314</v>
@@ -11358,13 +11358,13 @@
         <v>-0.04062499999997726</v>
       </c>
       <c r="U140">
-        <v>1.000031044331305</v>
+        <v>3.104433130518558E-05</v>
       </c>
       <c r="V140">
-        <v>0.9999586417966004</v>
+        <v>-4.135820339956631E-05</v>
       </c>
       <c r="W140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -11399,7 +11399,7 @@
         <v>0.8415085941259279</v>
       </c>
       <c r="K141">
-        <v>45.69669654598327</v>
+        <v>-0.04303303454016733</v>
       </c>
       <c r="L141">
         <v>0.003750556448371039</v>
@@ -11429,13 +11429,13 @@
         <v>-0.08125000000001137</v>
       </c>
       <c r="U141">
-        <v>1.000010347789195</v>
+        <v>1.034778919484225E-05</v>
       </c>
       <c r="V141">
-        <v>0.9999586400860285</v>
+        <v>-4.135991397147265E-05</v>
       </c>
       <c r="W141">
-        <v>0.999689537410742</v>
+        <v>-0.0003104625892580426</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -11470,7 +11470,7 @@
         <v>0.841508594125928</v>
       </c>
       <c r="K142">
-        <v>45.69669654598327</v>
+        <v>-0.04303303454016727</v>
       </c>
       <c r="L142">
         <v>0.002508499101895976</v>
@@ -11500,13 +11500,13 @@
         <v>-0.1062499999999886</v>
       </c>
       <c r="U142">
-        <v>1.000010347682119</v>
+        <v>1.034768211916059E-05</v>
       </c>
       <c r="V142">
-        <v>0.9999379575629733</v>
+        <v>-6.2042437026677E-05</v>
       </c>
       <c r="W142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -11541,7 +11541,7 @@
         <v>0.7727088663365017</v>
       </c>
       <c r="K143">
-        <v>43.589157870767</v>
+        <v>-0.06410842129232996</v>
       </c>
       <c r="L143">
         <v>0.001239178799104334</v>
@@ -11571,13 +11571,13 @@
         <v>-0.1187499999999773</v>
       </c>
       <c r="U143">
-        <v>1.000051737875229</v>
+        <v>5.173787522894102E-05</v>
       </c>
       <c r="V143">
-        <v>0.9998759074269404</v>
+        <v>-0.0001240925730595643</v>
       </c>
       <c r="W143">
-        <v>0.9996894409937888</v>
+        <v>-0.0003105590062112418</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -11612,7 +11612,7 @@
         <v>0.7727088663365017</v>
       </c>
       <c r="K144">
-        <v>43.589157870767</v>
+        <v>-0.06410842129232996</v>
       </c>
       <c r="L144">
         <v>2.970743155968291E-05</v>
@@ -11642,13 +11642,13 @@
         <v>-0.125</v>
       </c>
       <c r="U144">
-        <v>1.000041388158848</v>
+        <v>4.138815884791036E-05</v>
       </c>
       <c r="V144">
-        <v>0.9999172613507084</v>
+        <v>-8.273864929164709E-05</v>
       </c>
       <c r="W144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -11683,7 +11683,7 @@
         <v>0.8632990111007719</v>
       </c>
       <c r="K145">
-        <v>46.33174847180137</v>
+        <v>-0.03668251528198629</v>
       </c>
       <c r="L145">
         <v>-0.0009535587251076865</v>
@@ -11713,13 +11713,13 @@
         <v>-0.1218749999999602</v>
       </c>
       <c r="U145">
-        <v>1.000020693222969</v>
+        <v>2.069322296938125E-05</v>
       </c>
       <c r="V145">
-        <v>0.9998965681305723</v>
+        <v>-0.0001034318694277392</v>
       </c>
       <c r="W145">
-        <v>1.000310655483069</v>
+        <v>0.0003106554830694108</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -11754,7 +11754,7 @@
         <v>0.8632990111007719</v>
       </c>
       <c r="K146">
-        <v>46.33174847180137</v>
+        <v>-0.03668251528198629</v>
       </c>
       <c r="L146">
         <v>-0.001733680748452116</v>
@@ -11784,13 +11784,13 @@
         <v>-0.1124999999999829</v>
       </c>
       <c r="U146">
-        <v>1.000020692794769</v>
+        <v>2.06927947690172E-05</v>
       </c>
       <c r="V146">
-        <v>0.9998344918901028</v>
+        <v>-0.0001655081098972389</v>
       </c>
       <c r="W146">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -11825,7 +11825,7 @@
         <v>1.06405279451184</v>
       </c>
       <c r="K147">
-        <v>51.55162684506306</v>
+        <v>0.01551626845063059</v>
       </c>
       <c r="L147">
         <v>-0.002108707569122682</v>
@@ -11855,13 +11855,13 @@
         <v>-0.08750000000000568</v>
       </c>
       <c r="U147">
-        <v>1.000041384733172</v>
+        <v>4.13847331717232E-05</v>
       </c>
       <c r="V147">
-        <v>0.999896540307896</v>
+        <v>-0.0001034596921040132</v>
       </c>
       <c r="W147">
-        <v>1.000621118012422</v>
+        <v>0.0006211180124222615</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -11896,7 +11896,7 @@
         <v>0.9623689960895108</v>
       </c>
       <c r="K148">
-        <v>49.04118430362796</v>
+        <v>-0.00958815696372034</v>
       </c>
       <c r="L148">
         <v>-0.002319751153103836</v>
@@ -11926,13 +11926,13 @@
         <v>-0.06874999999999432</v>
       </c>
       <c r="U148">
-        <v>1.00003103726541</v>
+        <v>3.103726540998331E-05</v>
       </c>
       <c r="V148">
-        <v>0.999855141444033</v>
+        <v>-0.0001448585559670201</v>
       </c>
       <c r="W148">
-        <v>0.9996896337678461</v>
+        <v>-0.0003103662321538581</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -11967,7 +11967,7 @@
         <v>0.9623689960895109</v>
       </c>
       <c r="K149">
-        <v>49.04118430362796</v>
+        <v>-0.00958815696372034</v>
       </c>
       <c r="L149">
         <v>-0.002409554786661229</v>
@@ -11997,13 +11997,13 @@
         <v>-0.04062500000003411</v>
       </c>
       <c r="U149">
-        <v>1.000031036302128</v>
+        <v>3.103630212808461E-05</v>
       </c>
       <c r="V149">
-        <v>0.9999172116897095</v>
+        <v>-8.278831029051581E-05</v>
       </c>
       <c r="W149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -12038,7 +12038,7 @@
         <v>0.962368996089511</v>
       </c>
       <c r="K150">
-        <v>49.04118430362796</v>
+        <v>-0.00958815696372034</v>
       </c>
       <c r="L150">
         <v>-0.002411410620632432</v>
@@ -12068,13 +12068,13 @@
         <v>-0.02187499999999432</v>
       </c>
       <c r="U150">
-        <v>1.000041380451875</v>
+        <v>4.138045187462858E-05</v>
       </c>
       <c r="V150">
-        <v>0.9999586024176187</v>
+        <v>-4.139758238130842E-05</v>
       </c>
       <c r="W150">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -12109,7 +12109,7 @@
         <v>1.073828670096909</v>
       </c>
       <c r="K151">
-        <v>51.78000890723192</v>
+        <v>0.01780008907231911</v>
       </c>
       <c r="L151">
         <v>-0.002238063807446783</v>
@@ -12139,13 +12139,13 @@
         <v>-2.842170943040401E-14</v>
       </c>
       <c r="U151">
-        <v>1.000020689369802</v>
+        <v>2.068936980181846E-05</v>
       </c>
       <c r="V151">
-        <v>0.9999793003518941</v>
+        <v>-2.069964810591518E-05</v>
       </c>
       <c r="W151">
-        <v>1.000310462589258</v>
+        <v>0.0003104625892578206</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -12180,7 +12180,7 @@
         <v>1.191154642736342</v>
       </c>
       <c r="K152">
-        <v>54.36196147474158</v>
+        <v>0.04361961474741582</v>
       </c>
       <c r="L152">
         <v>-0.001848437171057696</v>
@@ -12210,13 +12210,13 @@
         <v>0.02500000000000568</v>
       </c>
       <c r="U152">
-        <v>1.000031033412641</v>
+        <v>3.103341264099058E-05</v>
       </c>
       <c r="V152">
-        <v>1.000041400153181</v>
+        <v>4.140015318054857E-05</v>
       </c>
       <c r="W152">
-        <v>1.000310366232154</v>
+        <v>0.0003103662321539691</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -12251,7 +12251,7 @@
         <v>0.9552146646188231</v>
       </c>
       <c r="K153">
-        <v>48.85472075799135</v>
+        <v>-0.01145279242008646</v>
       </c>
       <c r="L153">
         <v>-0.001571916574769711</v>
@@ -12281,13 +12281,13 @@
         <v>0.03125</v>
       </c>
       <c r="U153">
-        <v>0.9999793117002675</v>
+        <v>-2.068829973245201E-05</v>
       </c>
       <c r="V153">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="W153">
-        <v>0.9993794601303134</v>
+        <v>-0.000620539869686576</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -12322,7 +12322,7 @@
         <v>1.059465558160256</v>
       </c>
       <c r="K154">
-        <v>51.4437133440915</v>
+        <v>0.01443713344091502</v>
       </c>
       <c r="L154">
         <v>-0.001262791728564507</v>
@@ -12352,13 +12352,13 @@
         <v>0.04062500000000568</v>
       </c>
       <c r="U154">
-        <v>0.9999896556361269</v>
+        <v>-1.03443638731493E-05</v>
       </c>
       <c r="V154">
-        <v>1.000020699219639</v>
+        <v>2.069921963920862E-05</v>
       </c>
       <c r="W154">
-        <v>1.000310462589258</v>
+        <v>0.0003104625892578206</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -12393,7 +12393,7 @@
         <v>1.059465558160256</v>
       </c>
       <c r="K155">
-        <v>51.4437133440915</v>
+        <v>0.01443713344091502</v>
       </c>
       <c r="L155">
         <v>-0.0009490117910262636</v>
@@ -12423,13 +12423,13 @@
         <v>0.03750000000002274</v>
       </c>
       <c r="U155">
-        <v>0.9999896555291199</v>
+        <v>-1.034447088010815E-05</v>
       </c>
       <c r="V155">
-        <v>1.000020698791191</v>
+        <v>2.069879119082074E-05</v>
       </c>
       <c r="W155">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -12464,7 +12464,7 @@
         <v>1.174979013607893</v>
       </c>
       <c r="K156">
-        <v>54.0225448731488</v>
+        <v>0.04022544873148792</v>
       </c>
       <c r="L156">
         <v>-0.0005359200772711743</v>
@@ -12494,13 +12494,13 @@
         <v>0.04375000000001705</v>
       </c>
       <c r="U156">
-        <v>1.000010344577889</v>
+        <v>1.034457788939847E-05</v>
       </c>
       <c r="V156">
-        <v>1.000062095088278</v>
+        <v>6.209508827836885E-05</v>
       </c>
       <c r="W156">
-        <v>1.000310366232154</v>
+        <v>0.0003103662321539691</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -12535,7 +12535,7 @@
         <v>0.9451351638392438</v>
       </c>
       <c r="K157">
-        <v>48.58969090732837</v>
+        <v>-0.0141030909267163</v>
       </c>
       <c r="L157">
         <v>-0.0003130938748081197</v>
@@ -12565,13 +12565,13 @@
         <v>0.04062499999997726</v>
       </c>
       <c r="U157">
-        <v>0.9999793110582393</v>
+        <v>-2.068894176066038E-05</v>
       </c>
       <c r="V157">
-        <v>1.000020697077573</v>
+        <v>2.069707757290651E-05</v>
       </c>
       <c r="W157">
-        <v>0.9993794601303134</v>
+        <v>-0.000620539869686576</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -12606,7 +12606,7 @@
         <v>1.048090574825838</v>
       </c>
       <c r="K158">
-        <v>51.1740343766273</v>
+        <v>0.01174034376627298</v>
       </c>
       <c r="L158">
         <v>-0.0001055667987908386</v>
@@ -12636,13 +12636,13 @@
         <v>0.04062499999997726</v>
       </c>
       <c r="U158">
-        <v>0.9999689659452972</v>
+        <v>-3.103405470283871E-05</v>
       </c>
       <c r="V158">
-        <v>1.000062089947637</v>
+        <v>6.208994763734488E-05</v>
       </c>
       <c r="W158">
-        <v>1.000310462589258</v>
+        <v>0.0003104625892578206</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -12677,7 +12677,7 @@
         <v>0.9456108356493576</v>
       </c>
       <c r="K159">
-        <v>48.60225993415354</v>
+        <v>-0.01397740065846464</v>
       </c>
       <c r="L159">
         <v>-3.317979548666953E-05</v>
@@ -12707,13 +12707,13 @@
         <v>0.02812499999998863</v>
       </c>
       <c r="U159">
-        <v>0.9999793099881032</v>
+        <v>-2.069001189675124E-05</v>
       </c>
       <c r="V159">
-        <v>1.000041390728477</v>
+        <v>4.139072847686442E-05</v>
       </c>
       <c r="W159">
-        <v>0.9996896337678461</v>
+        <v>-0.0003103662321538581</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -12748,7 +12748,7 @@
         <v>0.9456108356493577</v>
       </c>
       <c r="K160">
-        <v>48.60225993415354</v>
+        <v>-0.01397740065846464</v>
       </c>
       <c r="L160">
         <v>-4.715666659933438E-05</v>
@@ -12778,13 +12778,13 @@
         <v>0.009374999999977263</v>
       </c>
       <c r="U160">
-        <v>0.9999586191200356</v>
+        <v>-4.138087996441442E-05</v>
       </c>
       <c r="V160">
-        <v>1.000020694507678</v>
+        <v>2.069450767772096E-05</v>
       </c>
       <c r="W160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -12819,7 +12819,7 @@
         <v>1.05395162247032</v>
       </c>
       <c r="K161">
-        <v>51.3133615680157</v>
+        <v>0.01313361568015703</v>
       </c>
       <c r="L161">
         <v>6.383056344147077E-07</v>
@@ -12849,13 +12849,13 @@
         <v>0.009375000000005684</v>
       </c>
       <c r="U161">
-        <v>0.9999379261113813</v>
+        <v>-6.207388861867447E-05</v>
       </c>
       <c r="V161">
-        <v>1.000041388158848</v>
+        <v>4.138815884768832E-05</v>
       </c>
       <c r="W161">
-        <v>1.000310462589258</v>
+        <v>0.0003104625892578206</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -12890,7 +12890,7 @@
         <v>0.9460601479362474</v>
       </c>
       <c r="K162">
-        <v>48.61412680073238</v>
+        <v>-0.01385873199267623</v>
       </c>
       <c r="L162">
         <v>-3.022275764544081E-05</v>
@@ -12920,13 +12920,13 @@
         <v>0</v>
       </c>
       <c r="U162">
-        <v>0.9999379222579745</v>
+        <v>-6.207774202549032E-05</v>
       </c>
       <c r="V162">
-        <v>0.9999793067770305</v>
+        <v>-2.069322296949228E-05</v>
       </c>
       <c r="W162">
-        <v>0.9996896337678461</v>
+        <v>-0.0003103662321538581</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -12961,7 +12961,7 @@
         <v>1.269329178807673</v>
       </c>
       <c r="K163">
-        <v>55.93411439210377</v>
+        <v>0.05934114392103762</v>
       </c>
       <c r="L163">
         <v>0.0002324342356165698</v>
@@ -12991,13 +12991,13 @@
         <v>0.006249999999994316</v>
       </c>
       <c r="U163">
-        <v>0.9999586122693928</v>
+        <v>-4.138773060724521E-05</v>
       </c>
       <c r="V163">
-        <v>1.000062080953563</v>
+        <v>6.208095356341481E-05</v>
       </c>
       <c r="W163">
-        <v>1.000931387767774</v>
+        <v>0.0009313877677739058</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -13032,7 +13032,7 @@
         <v>1.269329178807673</v>
       </c>
       <c r="K164">
-        <v>55.93411439210377</v>
+        <v>0.05934114392103762</v>
       </c>
       <c r="L164">
         <v>0.0006553269035430583</v>
@@ -13062,13 +13062,13 @@
         <v>0.003125000000011369</v>
       </c>
       <c r="U164">
-        <v>0.9999896526390945</v>
+        <v>-1.034736090554933E-05</v>
       </c>
       <c r="V164">
-        <v>1.000062077099758</v>
+        <v>6.207709975791786E-05</v>
       </c>
       <c r="W164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -13103,7 +13103,7 @@
         <v>1.62752201079824</v>
       </c>
       <c r="K165">
-        <v>61.94132738411578</v>
+        <v>0.1194132738411579</v>
       </c>
       <c r="L165">
         <v>0.001485044211827663</v>
@@ -13133,13 +13133,13 @@
         <v>0.02187499999999432</v>
       </c>
       <c r="U165">
-        <v>1.000041389871898</v>
+        <v>4.138987189805654E-05</v>
       </c>
       <c r="V165">
-        <v>1.000124146492862</v>
+        <v>0.000124146492861632</v>
       </c>
       <c r="W165">
-        <v>1.000930521091811</v>
+        <v>0.0009305210918113538</v>
       </c>
     </row>
     <row r="166" spans="1:23">
@@ -13174,7 +13174,7 @@
         <v>1.62752201079824</v>
       </c>
       <c r="K166">
-        <v>61.94132738411578</v>
+        <v>0.1194132738411579</v>
       </c>
       <c r="L166">
         <v>0.002502917495407662</v>
@@ -13204,13 +13204,13 @@
         <v>0.03437499999998295</v>
       </c>
       <c r="U166">
-        <v>1.000041388158848</v>
+        <v>4.138815884791036E-05</v>
       </c>
       <c r="V166">
-        <v>1.000103442568686</v>
+        <v>0.0001034425686856633</v>
       </c>
       <c r="W166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -13245,7 +13245,7 @@
         <v>1.06430605513121</v>
       </c>
       <c r="K167">
-        <v>51.55757076261452</v>
+        <v>0.01557570762614524</v>
       </c>
       <c r="L167">
         <v>0.003108651741254092</v>
@@ -13275,13 +13275,13 @@
         <v>0.04374999999998863</v>
       </c>
       <c r="U167">
-        <v>1.000020693222969</v>
+        <v>2.069322296938125E-05</v>
       </c>
       <c r="V167">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="W167">
-        <v>0.9987604586303068</v>
+        <v>-0.001239541369693176</v>
       </c>
     </row>
     <row r="168" spans="1:23">
@@ -13316,7 +13316,7 @@
         <v>1.155373779064971</v>
       </c>
       <c r="K168">
-        <v>53.60433490873156</v>
+        <v>0.03604334908731555</v>
       </c>
       <c r="L168">
         <v>0.003527797027841765</v>
@@ -13346,13 +13346,13 @@
         <v>0.05937500000001705</v>
       </c>
       <c r="U168">
-        <v>1.000031039192153</v>
+        <v>3.103919215341477E-05</v>
       </c>
       <c r="V168">
-        <v>1.000062059121656</v>
+        <v>6.205912165624383E-05</v>
       </c>
       <c r="W168">
-        <v>1.000310269934843</v>
+        <v>0.000310269934843177</v>
       </c>
     </row>
     <row r="169" spans="1:23">
@@ -13387,7 +13387,7 @@
         <v>1.054307097298465</v>
       </c>
       <c r="K169">
-        <v>51.32178624534477</v>
+        <v>0.01321786245344769</v>
       </c>
       <c r="L169">
         <v>0.003681317184557363</v>
@@ -13417,13 +13417,13 @@
         <v>0.05937499999998863</v>
       </c>
       <c r="U169">
-        <v>1.000020692152501</v>
+        <v>2.069215250122269E-05</v>
       </c>
       <c r="V169">
-        <v>1.000020685090187</v>
+        <v>2.068509018715581E-05</v>
       </c>
       <c r="W169">
-        <v>0.9996898263027296</v>
+        <v>-0.0003101736972703772</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -13458,7 +13458,7 @@
         <v>1.146386373057124</v>
       </c>
       <c r="K170">
-        <v>53.41006574805598</v>
+        <v>0.03410065748055979</v>
       </c>
       <c r="L170">
         <v>0.003763748890072893</v>
@@ -13488,13 +13488,13 @@
         <v>0.07187500000000568</v>
       </c>
       <c r="U170">
-        <v>1.000031037586517</v>
+        <v>3.103758651734623E-05</v>
       </c>
       <c r="V170">
-        <v>1.000041369324646</v>
+        <v>4.136932464593457E-05</v>
       </c>
       <c r="W170">
-        <v>1.000310269934843</v>
+        <v>0.000310269934843177</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -13529,7 +13529,7 @@
         <v>1.045090406976379</v>
       </c>
       <c r="K171">
-        <v>51.10240620225304</v>
+        <v>0.01102406202253037</v>
       </c>
       <c r="L171">
         <v>0.003671140378634768</v>
@@ -13559,13 +13559,13 @@
         <v>0.0625</v>
       </c>
       <c r="U171">
-        <v>1.000031036623215</v>
+        <v>3.103662321546352E-05</v>
       </c>
       <c r="V171">
-        <v>0.9999999999999998</v>
+        <v>-2.220446049250313E-16</v>
       </c>
       <c r="W171">
-        <v>0.9996898263027296</v>
+        <v>-0.0003101736972703772</v>
       </c>
     </row>
     <row r="172" spans="1:23">
@@ -13600,7 +13600,7 @@
         <v>1.045090406976379</v>
       </c>
       <c r="K172">
-        <v>51.10240620225304</v>
+        <v>0.01102406202253037</v>
       </c>
       <c r="L172">
         <v>0.003465032436806138</v>
@@ -13630,13 +13630,13 @@
         <v>0.05625000000000568</v>
       </c>
       <c r="U172">
-        <v>1.000031035659973</v>
+        <v>3.103565997331081E-05</v>
       </c>
       <c r="V172">
-        <v>1.000041367613296</v>
+        <v>4.136761329553984E-05</v>
       </c>
       <c r="W172">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:23">
@@ -13671,7 +13671,7 @@
         <v>0.8078173792364373</v>
       </c>
       <c r="K173">
-        <v>44.68467824873068</v>
+        <v>-0.05315321751269314</v>
       </c>
       <c r="L173">
         <v>0.002851684618245867</v>
@@ -13701,13 +13701,13 @@
         <v>0.015625</v>
       </c>
       <c r="U173">
-        <v>1.00001034489893</v>
+        <v>1.034489893037005E-05</v>
       </c>
       <c r="V173">
-        <v>0.9999586340979131</v>
+        <v>-4.136590208692059E-05</v>
       </c>
       <c r="W173">
-        <v>0.99906919019547</v>
+        <v>-0.0009308098045299751</v>
       </c>
     </row>
     <row r="174" spans="1:23">
@@ -13742,7 +13742,7 @@
         <v>0.6519992454162066</v>
       </c>
       <c r="K174">
-        <v>39.46728469914894</v>
+        <v>-0.1053271530085106</v>
       </c>
       <c r="L174">
         <v>0.00168136717422895</v>
@@ -13772,13 +13772,13 @@
         <v>-0.03124999999997158</v>
       </c>
       <c r="U174">
-        <v>0.9999793104161708</v>
+        <v>-2.068958382916986E-05</v>
       </c>
       <c r="V174">
-        <v>0.9999172647734088</v>
+        <v>-8.27352265911907E-05</v>
       </c>
       <c r="W174">
-        <v>0.9990683229813664</v>
+        <v>-0.0009316770186336143</v>
       </c>
     </row>
     <row r="175" spans="1:23">
@@ -13813,7 +13813,7 @@
         <v>0.7873591196052961</v>
       </c>
       <c r="K175">
-        <v>44.05153452201421</v>
+        <v>-0.05948465477985793</v>
       </c>
       <c r="L175">
         <v>0.0004681080311577629</v>
@@ -13843,13 +13843,13 @@
         <v>-0.05000000000001137</v>
       </c>
       <c r="U175">
-        <v>0.9999896549940517</v>
+        <v>-1.034500594832011E-05</v>
       </c>
       <c r="V175">
-        <v>0.9999586289638626</v>
+        <v>-4.137103613743864E-05</v>
       </c>
       <c r="W175">
-        <v>1.000621697233447</v>
+        <v>0.0006216972334471826</v>
       </c>
     </row>
     <row r="176" spans="1:23">
@@ -13884,7 +13884,7 @@
         <v>0.8586011586522057</v>
       </c>
       <c r="K176">
-        <v>46.19609509308786</v>
+        <v>-0.03803904906912137</v>
       </c>
       <c r="L176">
         <v>-0.0005825763773962745</v>
@@ -13914,13 +13914,13 @@
         <v>-0.07187500000003411</v>
       </c>
       <c r="U176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V176">
-        <v>0.9999586272522289</v>
+        <v>-4.137274777105127E-05</v>
       </c>
       <c r="W176">
-        <v>1.000310655483069</v>
+        <v>0.0003106554830694108</v>
       </c>
     </row>
     <row r="177" spans="1:23">
@@ -13955,7 +13955,7 @@
         <v>0.8586011586522058</v>
       </c>
       <c r="K177">
-        <v>46.19609509308786</v>
+        <v>-0.03803904906912137</v>
       </c>
       <c r="L177">
         <v>-0.001465720104083959</v>
@@ -13985,13 +13985,13 @@
         <v>-0.08437500000002274</v>
       </c>
       <c r="U177">
-        <v>0.9999793097740629</v>
+        <v>-2.069022593709224E-05</v>
       </c>
       <c r="V177">
-        <v>0.9999793127702268</v>
+        <v>-2.068722977321968E-05</v>
       </c>
       <c r="W177">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:23">
@@ -14026,7 +14026,7 @@
         <v>0.9375397060726042</v>
       </c>
       <c r="K178">
-        <v>48.38815447932154</v>
+        <v>-0.01611845520678462</v>
       </c>
       <c r="L178">
         <v>-0.00207277546986089</v>
@@ -14056,13 +14056,13 @@
         <v>-0.1031249999999773</v>
       </c>
       <c r="U178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V178">
-        <v>0.9999379370267699</v>
+        <v>-6.206297323008148E-05</v>
       </c>
       <c r="W178">
-        <v>1.000310559006211</v>
+        <v>0.0003105590062113528</v>
       </c>
     </row>
     <row r="179" spans="1:23">
@@ -14097,7 +14097,7 @@
         <v>0.9375397060726042</v>
       </c>
       <c r="K179">
-        <v>48.38815447932154</v>
+        <v>-0.01611845520678462</v>
       </c>
       <c r="L179">
         <v>-0.002466350295342646</v>
@@ -14127,13 +14127,13 @@
         <v>-0.1062500000000171</v>
       </c>
       <c r="U179">
-        <v>0.9999999999999998</v>
+        <v>-2.220446049250313E-16</v>
       </c>
       <c r="V179">
-        <v>0.999937933174718</v>
+        <v>-6.206682528198115E-05</v>
       </c>
       <c r="W179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:23">
@@ -14168,7 +14168,7 @@
         <v>0.8621320070976246</v>
       </c>
       <c r="K180">
-        <v>46.29811440926628</v>
+        <v>-0.03701885590733722</v>
       </c>
       <c r="L180">
         <v>-0.002809541435569887</v>
@@ -14198,13 +14198,13 @@
         <v>-0.1124999999999829</v>
       </c>
       <c r="U180">
-        <v>0.9999896546729841</v>
+        <v>-1.034532701593704E-05</v>
       </c>
       <c r="V180">
-        <v>0.9998551684184392</v>
+        <v>-0.0001448315815607559</v>
       </c>
       <c r="W180">
-        <v>0.999689537410742</v>
+        <v>-0.0003104625892580426</v>
       </c>
     </row>
     <row r="181" spans="1:23">
@@ -14239,7 +14239,7 @@
         <v>0.8621320070976246</v>
       </c>
       <c r="K181">
-        <v>46.29811440926628</v>
+        <v>-0.03701885590733722</v>
       </c>
       <c r="L181">
         <v>-0.003090122260737135</v>
@@ -14269,13 +14269,13 @@
         <v>-0.09062499999998863</v>
       </c>
       <c r="U181">
-        <v>0.9999793091319148</v>
+        <v>-2.069086808520471E-05</v>
       </c>
       <c r="V181">
-        <v>0.9998551474392137</v>
+        <v>-0.0001448525607863349</v>
       </c>
       <c r="W181">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:23">
@@ -14310,7 +14310,7 @@
         <v>0.951252752118017</v>
       </c>
       <c r="K182">
-        <v>48.75087305247694</v>
+        <v>-0.0124912694752306</v>
       </c>
       <c r="L182">
         <v>-0.003190641721804482</v>
@@ -14340,13 +14340,13 @@
         <v>-0.04687500000002842</v>
       </c>
       <c r="U182">
-        <v>0.9999793087037936</v>
+        <v>-2.069129620640986E-05</v>
       </c>
       <c r="V182">
-        <v>0.9999586075582599</v>
+        <v>-4.13924417400624E-05</v>
       </c>
       <c r="W182">
-        <v>1.000310559006211</v>
+        <v>0.0003105590062113528</v>
       </c>
     </row>
     <row r="183" spans="1:23">
@@ -14381,7 +14381,7 @@
         <v>1.045064062665745</v>
       </c>
       <c r="K183">
-        <v>51.10177630834225</v>
+        <v>0.0110177630834225</v>
       </c>
       <c r="L183">
         <v>-0.003051034268793127</v>
@@ -14411,13 +14411,13 @@
         <v>-0.02500000000000568</v>
       </c>
       <c r="U183">
-        <v>1.000010345862173</v>
+        <v>1.03458621727448E-05</v>
       </c>
       <c r="V183">
-        <v>0.9999586058448547</v>
+        <v>-4.13941551452579E-05</v>
       </c>
       <c r="W183">
-        <v>1.000310462589258</v>
+        <v>0.0003104625892578206</v>
       </c>
     </row>
     <row r="184" spans="1:23">
@@ -14452,7 +14452,7 @@
         <v>1.242561558555755</v>
       </c>
       <c r="K184">
-        <v>55.40813601371033</v>
+        <v>0.0540813601371033</v>
       </c>
       <c r="L184">
         <v>-0.002537687025451195</v>
@@ -14482,13 +14482,13 @@
         <v>0</v>
       </c>
       <c r="U184">
-        <v>1.000020691510273</v>
+        <v>2.069151027317417E-05</v>
       </c>
       <c r="V184">
-        <v>1.000020697934346</v>
+        <v>2.069793434622547E-05</v>
       </c>
       <c r="W184">
-        <v>1.000620732464308</v>
+        <v>0.0006207324643079382</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -14523,7 +14523,7 @@
         <v>1.028702445849271</v>
       </c>
       <c r="K185">
-        <v>50.70740896251189</v>
+        <v>0.007074089625118907</v>
       </c>
       <c r="L185">
         <v>-0.002047397009966002</v>
@@ -14553,13 +14553,13 @@
         <v>0.01562500000002842</v>
       </c>
       <c r="U185">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V185">
-        <v>0.999958604988099</v>
+        <v>-4.139501190103534E-05</v>
       </c>
       <c r="W185">
-        <v>0.9993796526054591</v>
+        <v>-0.0006203473945408655</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -14594,7 +14594,7 @@
         <v>0.8709182093410708</v>
       </c>
       <c r="K186">
-        <v>46.55030909383283</v>
+        <v>-0.03449690906167169</v>
       </c>
       <c r="L186">
         <v>-0.001820905585446742</v>
@@ -14624,13 +14624,13 @@
         <v>0.02187500000002274</v>
       </c>
       <c r="U186">
-        <v>0.9999689633767846</v>
+        <v>-3.10366232153525E-05</v>
       </c>
       <c r="V186">
-        <v>0.9999379049117214</v>
+        <v>-6.209508827859089E-05</v>
       </c>
       <c r="W186">
-        <v>0.9993792675356922</v>
+        <v>-0.0006207324643078271</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -14665,7 +14665,7 @@
         <v>0.9516454743917337</v>
       </c>
       <c r="K187">
-        <v>48.76118572141447</v>
+        <v>-0.01238814278585532</v>
       </c>
       <c r="L187">
         <v>-0.001649020647485963</v>
@@ -14695,13 +14695,13 @@
         <v>0.02812499999998863</v>
       </c>
       <c r="U187">
-        <v>0.9999999999999998</v>
+        <v>-2.220446049250313E-16</v>
       </c>
       <c r="V187">
-        <v>0.9999586007037881</v>
+        <v>-4.139929621194138E-05</v>
       </c>
       <c r="W187">
-        <v>1.000310559006211</v>
+        <v>0.0003105590062113528</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -14736,7 +14736,7 @@
         <v>1.036621542866068</v>
       </c>
       <c r="K188">
-        <v>50.89907580017374</v>
+        <v>0.008990758001737431</v>
       </c>
       <c r="L188">
         <v>-0.001402141685122926</v>
@@ -14766,13 +14766,13 @@
         <v>0.04374999999998863</v>
       </c>
       <c r="U188">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="V188">
-        <v>1.000041401010185</v>
+        <v>4.140101018457187E-05</v>
       </c>
       <c r="W188">
-        <v>1.000310462589258</v>
+        <v>0.0003104625892578206</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -14807,7 +14807,7 @@
         <v>0.9515103737369034</v>
       </c>
       <c r="K189">
-        <v>48.75763852153538</v>
+        <v>-0.01242361478464621</v>
       </c>
       <c r="L189">
         <v>-0.001233479072043378</v>
@@ -14837,13 +14837,13 @@
         <v>0.046875</v>
       </c>
       <c r="U189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V189">
-        <v>1.000082798592424</v>
+        <v>8.279859242410481E-05</v>
       </c>
       <c r="W189">
-        <v>0.9996896337678461</v>
+        <v>-0.0003103662321538581</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -14878,7 +14878,7 @@
         <v>0.8758172841020544</v>
       </c>
       <c r="K190">
-        <v>46.68990373021882</v>
+        <v>-0.03310096269781182</v>
       </c>
       <c r="L190">
         <v>-0.00123148947360757</v>
@@ -14908,13 +14908,13 @@
         <v>0.03124999999997158</v>
       </c>
       <c r="U190">
-        <v>0.9999896541378276</v>
+        <v>-1.034586217241174E-05</v>
       </c>
       <c r="V190">
-        <v>1.000020697934346</v>
+        <v>2.069793434622547E-05</v>
       </c>
       <c r="W190">
-        <v>0.999689537410742</v>
+        <v>-0.0003104625892580426</v>
       </c>
     </row>
     <row r="191" spans="1:23">
@@ -14949,7 +14949,7 @@
         <v>0.8758172841020544</v>
       </c>
       <c r="K191">
-        <v>46.68990373021882</v>
+        <v>-0.03310096269781182</v>
       </c>
       <c r="L191">
         <v>-0.00132612330668085</v>
@@ -14979,13 +14979,13 @@
         <v>0.015625</v>
       </c>
       <c r="U191">
-        <v>0.9999793080615792</v>
+        <v>-2.069193842080264E-05</v>
       </c>
       <c r="V191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W191">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:23">
@@ -15020,7 +15020,7 @@
         <v>0.8758172841020545</v>
       </c>
       <c r="K192">
-        <v>46.68990373021882</v>
+        <v>-0.03310096269781182</v>
       </c>
       <c r="L192">
         <v>-0.001468440229913838</v>
@@ -15050,13 +15050,13 @@
         <v>-0.009374999999977263</v>
       </c>
       <c r="U192">
-        <v>0.9999896538167069</v>
+        <v>-1.034618329309733E-05</v>
       </c>
       <c r="V192">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W192">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -15091,7 +15091,7 @@
         <v>0.8758172841020545</v>
       </c>
       <c r="K193">
-        <v>46.68990373021882</v>
+        <v>-0.03310096269781182</v>
       </c>
       <c r="L193">
         <v>-0.001625234016154804</v>
@@ -15121,13 +15121,13 @@
         <v>-0.02187500000002274</v>
       </c>
       <c r="U193">
-        <v>0.9999586148386497</v>
+        <v>-4.138516135032688E-05</v>
       </c>
       <c r="V193">
-        <v>0.9999793024940495</v>
+        <v>-2.069750595046216E-05</v>
       </c>
       <c r="W193">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:23">
@@ -15162,7 +15162,7 @@
         <v>0.8758172841020546</v>
       </c>
       <c r="K194">
-        <v>46.68990373021882</v>
+        <v>-0.03310096269781176</v>
       </c>
       <c r="L194">
         <v>-0.001774893822638187</v>
@@ -15192,13 +15192,13 @@
         <v>-0.01875000000003979</v>
       </c>
       <c r="U194">
-        <v>0.9999586131258472</v>
+        <v>-4.13868741527823E-05</v>
       </c>
       <c r="V194">
-        <v>0.9999793020656539</v>
+        <v>-2.069793434611444E-05</v>
       </c>
       <c r="W194">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:23">
@@ -15233,7 +15233,7 @@
         <v>0.7941706114763375</v>
       </c>
       <c r="K195">
-        <v>44.26394047458242</v>
+        <v>-0.05736059525417581</v>
       </c>
       <c r="L195">
         <v>-0.002017274102656605</v>
@@ -15263,13 +15263,13 @@
         <v>-0.02500000000000568</v>
       </c>
       <c r="U195">
-        <v>0.9999172228258059</v>
+        <v>-8.277717419413744E-05</v>
       </c>
       <c r="V195">
-        <v>0.9999793016372404</v>
+        <v>-2.069836275964132E-05</v>
       </c>
       <c r="W195">
-        <v>0.9996894409937888</v>
+        <v>-0.0003105590062112418</v>
       </c>
     </row>
     <row r="196" spans="1:23">
@@ -15304,7 +15304,7 @@
         <v>0.7232027910876334</v>
       </c>
       <c r="K196">
-        <v>41.9685248206434</v>
+        <v>-0.08031475179356595</v>
       </c>
       <c r="L196">
         <v>-0.002406088020906445</v>
@@ -15334,13 +15334,13 @@
         <v>-0.04374999999998863</v>
       </c>
       <c r="U196">
-        <v>0.9999068679698251</v>
+        <v>-9.313203017491389E-05</v>
       </c>
       <c r="V196">
-        <v>0.9999586024176188</v>
+        <v>-4.13975823811974E-05</v>
       </c>
       <c r="W196">
-        <v>0.9996893445169308</v>
+        <v>-0.0003106554830691888</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -15375,7 +15375,7 @@
         <v>0.6610241303651945</v>
       </c>
       <c r="K197">
-        <v>39.79617865153236</v>
+        <v>-0.1020382134846764</v>
       </c>
       <c r="L197">
         <v>-0.002963141982048531</v>
@@ -15405,13 +15405,13 @@
         <v>-0.05937500000001705</v>
       </c>
       <c r="U197">
-        <v>0.9999379061969618</v>
+        <v>-6.209380303823231E-05</v>
       </c>
       <c r="V197">
-        <v>0.999917201407576</v>
+        <v>-8.279859242399379E-05</v>
       </c>
       <c r="W197">
-        <v>0.9996892479801118</v>
+        <v>-0.0003107520198881719</v>
       </c>
     </row>
     <row r="198" spans="1:23">
@@ -15446,7 +15446,7 @@
         <v>0.6610241303651945</v>
       </c>
       <c r="K198">
-        <v>39.79617865153236</v>
+        <v>-0.1020382134846764</v>
       </c>
       <c r="L198">
         <v>-0.003575868754151997</v>
@@ -15476,13 +15476,13 @@
         <v>-0.06562499999998295</v>
       </c>
       <c r="U198">
-        <v>0.9999275527312619</v>
+        <v>-7.244726873811835E-05</v>
       </c>
       <c r="V198">
-        <v>0.9998964931892518</v>
+        <v>-0.0001035068107482218</v>
       </c>
       <c r="W198">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:23">
@@ -15517,7 +15517,7 @@
         <v>0.6610241303651944</v>
       </c>
       <c r="K199">
-        <v>39.79617865153236</v>
+        <v>-0.1020382134846764</v>
       </c>
       <c r="L199">
         <v>-0.004170296502909749</v>
@@ -15547,13 +15547,13 @@
         <v>-0.06874999999996589</v>
       </c>
       <c r="U199">
-        <v>0.9999378978419499</v>
+        <v>-6.210215805013686E-05</v>
       </c>
       <c r="V199">
-        <v>0.9998550754642762</v>
+        <v>-0.0001449245357237894</v>
       </c>
       <c r="W199">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:23">
@@ -15588,7 +15588,7 @@
         <v>0.6610241303651944</v>
       </c>
       <c r="K200">
-        <v>39.79617865153236</v>
+        <v>-0.1020382134846764</v>
       </c>
       <c r="L200">
         <v>-0.004700612688133285</v>
@@ -15618,13 +15618,13 @@
         <v>-0.06562500000001137</v>
       </c>
       <c r="U200">
-        <v>0.9999275429825381</v>
+        <v>-7.245701746194655E-05</v>
       </c>
       <c r="V200">
-        <v>0.9998964674700792</v>
+        <v>-0.0001035325299207912</v>
       </c>
       <c r="W200">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:23">
@@ -15659,7 +15659,7 @@
         <v>0.5979105174886897</v>
       </c>
       <c r="K201">
-        <v>37.41827285975805</v>
+        <v>-0.1258172714024195</v>
       </c>
       <c r="L201">
         <v>-0.005254274422582602</v>
@@ -15689,13 +15689,13 @@
         <v>-0.07187499999997726</v>
       </c>
       <c r="U201">
-        <v>0.9999275377321379</v>
+        <v>-7.246226786206122E-05</v>
       </c>
       <c r="V201">
-        <v>0.9999171653999874</v>
+        <v>-8.283460001257126E-05</v>
       </c>
       <c r="W201">
-        <v>0.9996891513832764</v>
+        <v>-0.0003108486167235913</v>
       </c>
     </row>
     <row r="202" spans="1:23">
@@ -15730,7 +15730,7 @@
         <v>0.5433062227580969</v>
       </c>
       <c r="K202">
-        <v>35.20404536354005</v>
+        <v>-0.1479595463645995</v>
       </c>
       <c r="L202">
         <v>-0.005880784378466889</v>
@@ -15760,13 +15760,13 @@
         <v>-0.08749999999997726</v>
       </c>
       <c r="U202">
-        <v>0.9999171799782598</v>
+        <v>-8.28200217402042E-05</v>
       </c>
       <c r="V202">
-        <v>0.9998757378067722</v>
+        <v>-0.0001242621932278087</v>
       </c>
       <c r="W202">
-        <v>0.999689054726368</v>
+        <v>-0.0003109452736319573</v>
       </c>
     </row>
     <row r="203" spans="1:23">
@@ -15801,7 +15801,7 @@
         <v>0.5433062227580969</v>
       </c>
       <c r="K203">
-        <v>35.20404536354005</v>
+        <v>-0.1479595463645995</v>
       </c>
       <c r="L203">
         <v>-0.006490162728580612</v>
@@ -15831,13 +15831,13 @@
         <v>-0.09374999999997158</v>
       </c>
       <c r="U203">
-        <v>0.9999482331990847</v>
+        <v>-5.176680091534269E-05</v>
       </c>
       <c r="V203">
-        <v>0.9998550094243875</v>
+        <v>-0.0001449905756124581</v>
       </c>
       <c r="W203">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:23">
@@ -15872,7 +15872,7 @@
         <v>0.6444975747965749</v>
       </c>
       <c r="K204">
-        <v>39.1911538620724</v>
+        <v>-0.108088461379276</v>
       </c>
       <c r="L204">
         <v>-0.006913685588676873</v>
@@ -15902,13 +15902,13 @@
         <v>-0.08750000000000568</v>
       </c>
       <c r="U204">
-        <v>0.9999896461038287</v>
+        <v>-1.035389617132232E-05</v>
       </c>
       <c r="V204">
-        <v>0.9998964202850513</v>
+        <v>-0.0001035797149486761</v>
       </c>
       <c r="W204">
-        <v>1.000311041990669</v>
+        <v>0.0003110419906688922</v>
       </c>
     </row>
     <row r="205" spans="1:23">
@@ -15943,7 +15943,7 @@
         <v>0.582455986599797</v>
       </c>
       <c r="K205">
-        <v>36.8070892038718</v>
+        <v>-0.1319291079612819</v>
       </c>
       <c r="L205">
         <v>-0.007285568722255257</v>
@@ -15973,13 +15973,13 @@
         <v>-0.08124999999998295</v>
       </c>
       <c r="U205">
-        <v>0.9999585839864984</v>
+        <v>-4.141601350160506E-05</v>
       </c>
       <c r="V205">
-        <v>0.9998964095551828</v>
+        <v>-0.0001035904448172253</v>
       </c>
       <c r="W205">
-        <v>0.999689054726368</v>
+        <v>-0.0003109452736319573</v>
       </c>
     </row>
     <row r="206" spans="1:23">
@@ -16014,7 +16014,7 @@
         <v>0.4843064482709559</v>
       </c>
       <c r="K206">
-        <v>32.62846758060752</v>
+        <v>-0.1737153241939248</v>
       </c>
       <c r="L206">
         <v>-0.007802184740763798</v>
@@ -16044,13 +16044,13 @@
         <v>-0.08437500000002274</v>
       </c>
       <c r="U206">
-        <v>0.9999275189744971</v>
+        <v>-7.248102550294622E-05</v>
       </c>
       <c r="V206">
-        <v>0.9998549583523269</v>
+        <v>-0.0001450416476731498</v>
       </c>
       <c r="W206">
-        <v>0.9993779160186625</v>
+        <v>-0.0006220839813374512</v>
       </c>
     </row>
     <row r="207" spans="1:23">
@@ -16085,7 +16085,7 @@
         <v>0.5729958135456934</v>
       </c>
       <c r="K207">
-        <v>36.42703995849183</v>
+        <v>-0.1357296004150817</v>
       </c>
       <c r="L207">
         <v>-0.008232153803664608</v>
@@ -16115,13 +16115,13 @@
         <v>-0.08437499999999432</v>
       </c>
       <c r="U207">
-        <v>0.9999378689033862</v>
+        <v>-6.213109661379335E-05</v>
       </c>
       <c r="V207">
-        <v>0.9998756605533105</v>
+        <v>-0.0001243394466895476</v>
       </c>
       <c r="W207">
-        <v>1.000311235605353</v>
+        <v>0.0003112356053531773</v>
       </c>
     </row>
     <row r="208" spans="1:23">
@@ -16156,7 +16156,7 @@
         <v>0.4828421967860567</v>
       </c>
       <c r="K208">
-        <v>32.56194069959562</v>
+        <v>-0.1743805930040437</v>
       </c>
       <c r="L208">
         <v>-0.008778545626494978</v>
@@ -16186,13 +16186,13 @@
         <v>-0.09062499999996021</v>
       </c>
       <c r="U208">
-        <v>0.9999067975643098</v>
+        <v>-9.320243569022058E-05</v>
       </c>
       <c r="V208">
-        <v>0.9998341934547866</v>
+        <v>-0.000165806545213365</v>
       </c>
       <c r="W208">
-        <v>0.9993777224642191</v>
+        <v>-0.000622277535780924</v>
       </c>
     </row>
     <row r="209" spans="1:23">
@@ -16227,7 +16227,7 @@
         <v>0.4828421967860567</v>
       </c>
       <c r="K209">
-        <v>32.56194069959562</v>
+        <v>-0.1743805930040437</v>
       </c>
       <c r="L209">
         <v>-0.00932880715249796</v>
@@ -16257,13 +16257,13 @@
         <v>-0.09062499999998863</v>
       </c>
       <c r="U209">
-        <v>0.9999067888768058</v>
+        <v>-9.321112319415903E-05</v>
       </c>
       <c r="V209">
-        <v>0.9998341659584171</v>
+        <v>-0.0001658340415828796</v>
       </c>
       <c r="W209">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:23">
@@ -16298,7 +16298,7 @@
         <v>0.5700096784712129</v>
       </c>
       <c r="K210">
-        <v>36.30612513333396</v>
+        <v>-0.1369387486666603</v>
       </c>
       <c r="L210">
         <v>-0.009699353139723317</v>
@@ -16328,13 +16328,13 @@
         <v>-0.08124999999998295</v>
       </c>
       <c r="U210">
-        <v>0.9999274957015312</v>
+        <v>-7.250429846883399E-05</v>
       </c>
       <c r="V210">
-        <v>0.999875603839695</v>
+        <v>-0.0001243961603050181</v>
       </c>
       <c r="W210">
-        <v>1.000311332503113</v>
+        <v>0.0003113325031134373</v>
       </c>
     </row>
     <row r="211" spans="1:23">
@@ -16369,7 +16369,7 @@
         <v>0.6617649223502725</v>
       </c>
       <c r="K211">
-        <v>39.8230166884449</v>
+        <v>-0.101769833115551</v>
       </c>
       <c r="L211">
         <v>-0.009789000323872978</v>
@@ -16399,13 +16399,13 @@
         <v>-0.07187500000003411</v>
       </c>
       <c r="U211">
-        <v>0.9999378489522368</v>
+        <v>-6.215104776319258E-05</v>
       </c>
       <c r="V211">
-        <v>0.99991705890891</v>
+        <v>-8.294109108997194E-05</v>
       </c>
       <c r="W211">
-        <v>1.000311235605353</v>
+        <v>0.0003112356053531773</v>
       </c>
     </row>
     <row r="212" spans="1:23">
@@ -16440,7 +16440,7 @@
         <v>0.6034782929355178</v>
       </c>
       <c r="K212">
-        <v>37.63557608445817</v>
+        <v>-0.1236442391554183</v>
       </c>
       <c r="L212">
         <v>-0.009780271753654042</v>
@@ -16470,13 +16470,13 @@
         <v>-0.07500000000001705</v>
       </c>
       <c r="U212">
-        <v>0.9999171267856587</v>
+        <v>-8.287321434130579E-05</v>
       </c>
       <c r="V212">
-        <v>0.9999170520291146</v>
+        <v>-8.294797088537198E-05</v>
       </c>
       <c r="W212">
-        <v>0.9996888612321096</v>
+        <v>-0.000311138767890351</v>
       </c>
     </row>
     <row r="213" spans="1:23">
@@ -16511,7 +16511,7 @@
         <v>0.5522750986294627</v>
       </c>
       <c r="K213">
-        <v>35.5784293078642</v>
+        <v>-0.144215706921358</v>
       </c>
       <c r="L213">
         <v>-0.009790088690896209</v>
@@ -16541,13 +16541,13 @@
         <v>-0.07812500000002842</v>
       </c>
       <c r="U213">
-        <v>0.9998963998963998</v>
+        <v>-0.000103600103600221</v>
       </c>
       <c r="V213">
-        <v>0.9998963064352228</v>
+        <v>-0.0001036935647772408</v>
       </c>
       <c r="W213">
-        <v>0.9996887643946467</v>
+        <v>-0.0003112356053532883</v>
       </c>
     </row>
     <row r="214" spans="1:23">
@@ -16582,7 +16582,7 @@
         <v>0.5522750986294626</v>
       </c>
       <c r="K214">
-        <v>35.5784293078642</v>
+        <v>-0.144215706921358</v>
       </c>
       <c r="L214">
         <v>-0.009774929391335858</v>
@@ -16612,13 +16612,13 @@
         <v>-0.06874999999999432</v>
       </c>
       <c r="U214">
-        <v>0.9998756669947676</v>
+        <v>-0.0001243330052324021</v>
       </c>
       <c r="V214">
-        <v>0.9998962956817523</v>
+        <v>-0.0001037043182476882</v>
       </c>
       <c r="W214">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:23">
@@ -16653,7 +16653,7 @@
         <v>0.6462881592490457</v>
       </c>
       <c r="K215">
-        <v>39.25729257166316</v>
+        <v>-0.1074270742833685</v>
       </c>
       <c r="L215">
         <v>-0.009596871174360071</v>
@@ -16683,13 +16683,13 @@
         <v>-0.0625</v>
       </c>
       <c r="U215">
-        <v>0.999906738650612</v>
+        <v>-9.326134938802966E-05</v>
       </c>
       <c r="V215">
-        <v>0.9999170279408408</v>
+        <v>-8.297205915919204E-05</v>
       </c>
       <c r="W215">
-        <v>1.000311332503113</v>
+        <v>0.0003113325031134373</v>
       </c>
     </row>
     <row r="216" spans="1:23">
@@ -16724,7 +16724,7 @@
         <v>0.5880901058098094</v>
       </c>
       <c r="K216">
-        <v>37.03128076035249</v>
+        <v>-0.1296871923964751</v>
       </c>
       <c r="L216">
         <v>-0.009409726636872057</v>
@@ -16754,13 +16754,13 @@
         <v>-0.046875</v>
       </c>
       <c r="U216">
-        <v>0.9999170932907745</v>
+        <v>-8.290670922550536E-05</v>
       </c>
       <c r="V216">
-        <v>0.9999170210559072</v>
+        <v>-8.297894409281525E-05</v>
       </c>
       <c r="W216">
-        <v>0.9996887643946467</v>
+        <v>-0.0003112356053532883</v>
       </c>
     </row>
     <row r="217" spans="1:23">
@@ -16795,7 +16795,7 @@
         <v>0.6828792614003883</v>
       </c>
       <c r="K217">
-        <v>40.57803058504258</v>
+        <v>-0.09421969414957415</v>
       </c>
       <c r="L217">
         <v>-0.009081561601998439</v>
@@ -16825,13 +16825,13 @@
         <v>-0.03125000000002842</v>
       </c>
       <c r="U217">
-        <v>0.9999170864166824</v>
+        <v>-8.29135833175787E-05</v>
       </c>
       <c r="V217">
-        <v>0.9999585070849153</v>
+        <v>-4.149291508470654E-05</v>
       </c>
       <c r="W217">
-        <v>1.000311332503113</v>
+        <v>0.0003113325031134373</v>
       </c>
     </row>
     <row r="218" spans="1:23">
@@ -16866,7 +16866,7 @@
         <v>0.6828792614003883</v>
       </c>
       <c r="K218">
-        <v>40.57803058504258</v>
+        <v>-0.09421969414957415</v>
       </c>
       <c r="L218">
         <v>-0.008655794726929315</v>
@@ -16896,13 +16896,13 @@
         <v>-0.02500000000003411</v>
       </c>
       <c r="U218">
-        <v>0.999906714484131</v>
+        <v>-9.328551586895717E-05</v>
       </c>
       <c r="V218">
-        <v>0.9999585053631819</v>
+        <v>-4.149463681812904E-05</v>
       </c>
       <c r="W218">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:23">
@@ -16937,7 +16937,7 @@
         <v>0.7879087966807486</v>
       </c>
       <c r="K219">
-        <v>44.06873539318676</v>
+        <v>-0.05931264606813236</v>
       </c>
       <c r="L219">
         <v>-0.008053268731857334</v>
@@ -16967,13 +16967,13 @@
         <v>-0.02187499999999432</v>
       </c>
       <c r="U219">
-        <v>0.999927437829769</v>
+        <v>-7.256217023099421E-05</v>
       </c>
       <c r="V219">
-        <v>0.9999585036413053</v>
+        <v>-4.149635869465929E-05</v>
       </c>
       <c r="W219">
-        <v>1.000311235605353</v>
+        <v>0.0003112356053531773</v>
       </c>
     </row>
     <row r="220" spans="1:23">
@@ -17008,7 +17008,7 @@
         <v>0.5916687205865985</v>
       </c>
       <c r="K220">
-        <v>37.1728559425697</v>
+        <v>-0.128271440574303</v>
       </c>
       <c r="L220">
         <v>-0.007692408390132922</v>
@@ -17038,13 +17038,13 @@
         <v>-0.01875000000001137</v>
       </c>
       <c r="U220">
-        <v>0.9999066990110096</v>
+        <v>-9.330098899040795E-05</v>
       </c>
       <c r="V220">
-        <v>0.9999170038385725</v>
+        <v>-8.299616142748434E-05</v>
       </c>
       <c r="W220">
-        <v>0.9990665836963287</v>
+        <v>-0.000933416303671275</v>
       </c>
     </row>
     <row r="221" spans="1:23">
@@ -17079,7 +17079,7 @@
         <v>0.5916687205865985</v>
       </c>
       <c r="K221">
-        <v>37.1728559425697</v>
+        <v>-0.128271440574303</v>
       </c>
       <c r="L221">
         <v>-0.007472998038296388</v>
@@ -17109,13 +17109,13 @@
         <v>-0.01249999999998863</v>
       </c>
       <c r="U221">
-        <v>0.9999066903051226</v>
+        <v>-9.330969487741925E-05</v>
       </c>
       <c r="V221">
-        <v>0.9999584984748188</v>
+        <v>-4.150152518123118E-05</v>
       </c>
       <c r="W221">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:23">
@@ -17150,7 +17150,7 @@
         <v>0.5916687205865985</v>
       </c>
       <c r="K222">
-        <v>37.1728559425697</v>
+        <v>-0.128271440574303</v>
       </c>
       <c r="L222">
         <v>-0.00732609637111056</v>
@@ -17180,13 +17180,13 @@
         <v>-0.01249999999998863</v>
       </c>
       <c r="U222">
-        <v>0.9999066815976111</v>
+        <v>-9.331840238890887E-05</v>
       </c>
       <c r="V222">
-        <v>0.9999377451285564</v>
+        <v>-6.225487144362329E-05</v>
       </c>
       <c r="W222">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:23">
@@ -17221,7 +17221,7 @@
         <v>0.5394341399215298</v>
       </c>
       <c r="K223">
-        <v>35.04106644984674</v>
+        <v>-0.1495893355015326</v>
       </c>
       <c r="L223">
         <v>-0.00731910791461253</v>
@@ -17251,13 +17251,13 @@
         <v>-0.01875000000001137</v>
       </c>
       <c r="U223">
-        <v>0.9998963032094158</v>
+        <v>-0.0001036967905841957</v>
       </c>
       <c r="V223">
-        <v>0.9999584941684307</v>
+        <v>-4.150583156925514E-05</v>
       </c>
       <c r="W223">
-        <v>0.9996885705387729</v>
+        <v>-0.0003114294612270863</v>
       </c>
     </row>
     <row r="224" spans="1:23">
@@ -17292,7 +17292,7 @@
         <v>0.6323641313305945</v>
       </c>
       <c r="K224">
-        <v>38.73915869586851</v>
+        <v>-0.1126084130413149</v>
       </c>
       <c r="L224">
         <v>-0.007257458819052807</v>
@@ -17322,13 +17322,13 @@
         <v>-0.02187499999999432</v>
       </c>
       <c r="U224">
-        <v>0.9999066632097484</v>
+        <v>-9.333679025158581E-05</v>
       </c>
       <c r="V224">
-        <v>0.9999792462228125</v>
+        <v>-2.075377718746552E-05</v>
       </c>
       <c r="W224">
-        <v>1.000311526479751</v>
+        <v>0.0003115264797508566</v>
       </c>
     </row>
     <row r="225" spans="1:23">
@@ -17363,7 +17363,7 @@
         <v>0.5760174985019071</v>
       </c>
       <c r="K225">
-        <v>36.54892785450948</v>
+        <v>-0.1345107214549052</v>
       </c>
       <c r="L225">
         <v>-0.007253496746341646</v>
@@ -17393,13 +17393,13 @@
         <v>-0.03437499999995453</v>
       </c>
       <c r="U225">
-        <v>0.999906654497179</v>
+        <v>-9.334550282102949E-05</v>
       </c>
       <c r="V225">
-        <v>0.9999377373762529</v>
+        <v>-6.226262374708913E-05</v>
       </c>
       <c r="W225">
-        <v>0.9996885705387729</v>
+        <v>-0.0003114294612270863</v>
       </c>
     </row>
     <row r="226" spans="1:23">
@@ -17434,7 +17434,7 @@
         <v>0.5760174985019071</v>
       </c>
       <c r="K226">
-        <v>36.54892785450948</v>
+        <v>-0.1345107214549052</v>
       </c>
       <c r="L226">
         <v>-0.007258364571595092</v>
@@ -17464,13 +17464,13 @@
         <v>-0.04374999999998863</v>
       </c>
       <c r="U226">
-        <v>0.9999170184737624</v>
+        <v>-8.298152623764654E-05</v>
       </c>
       <c r="V226">
-        <v>0.9999169779991697</v>
+        <v>-8.302200083032396E-05</v>
       </c>
       <c r="W226">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:23">
@@ -17505,7 +17505,7 @@
         <v>0.5760174985019071</v>
       </c>
       <c r="K227">
-        <v>36.54892785450948</v>
+        <v>-0.1345107214549052</v>
       </c>
       <c r="L227">
         <v>-0.007241875038335175</v>
@@ -17535,13 +17535,13 @@
         <v>-0.05624999999997726</v>
       </c>
       <c r="U227">
-        <v>0.9999273851388498</v>
+        <v>-7.261486115017757E-05</v>
       </c>
       <c r="V227">
-        <v>0.9999377283294587</v>
+        <v>-6.227167054129179E-05</v>
       </c>
       <c r="W227">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:23">
@@ -17576,7 +17576,7 @@
         <v>0.5760174985019071</v>
       </c>
       <c r="K228">
-        <v>36.54892785450948</v>
+        <v>-0.1345107214549052</v>
       </c>
       <c r="L228">
         <v>-0.007187153939140133</v>
@@ -17606,13 +17606,13 @@
         <v>-0.05312499999996589</v>
       </c>
       <c r="U228">
-        <v>0.999927379865549</v>
+        <v>-7.262013445097359E-05</v>
       </c>
       <c r="V228">
-        <v>0.9999584829676376</v>
+        <v>-4.151703236243698E-05</v>
       </c>
       <c r="W228">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:23">
@@ -17647,7 +17647,7 @@
         <v>0.6854147269154994</v>
       </c>
       <c r="K229">
-        <v>40.66742244325148</v>
+        <v>-0.09332577556748517</v>
       </c>
       <c r="L229">
         <v>-0.006973292416035107</v>
@@ -17677,13 +17677,13 @@
         <v>-0.04999999999998295</v>
       </c>
       <c r="U229">
-        <v>0.9999377496498418</v>
+        <v>-6.225035015816616E-05</v>
       </c>
       <c r="V229">
-        <v>0.999979240621951</v>
+        <v>-2.075937804901784E-05</v>
       </c>
       <c r="W229">
-        <v>1.000311526479751</v>
+        <v>0.0003115264797508566</v>
       </c>
     </row>
     <row r="230" spans="1:23">
@@ -17718,7 +17718,7 @@
         <v>0.614636297986911</v>
       </c>
       <c r="K230">
-        <v>38.06654778870168</v>
+        <v>-0.1193345221129832</v>
       </c>
       <c r="L230">
         <v>-0.006764566013097641</v>
@@ -17748,13 +17748,13 @@
         <v>-0.05000000000001137</v>
       </c>
       <c r="U230">
-        <v>0.9999273700702435</v>
+        <v>-7.262992975654026E-05</v>
       </c>
       <c r="V230">
-        <v>0.9999377205729708</v>
+        <v>-6.227942702918821E-05</v>
       </c>
       <c r="W230">
-        <v>0.9996885705387729</v>
+        <v>-0.0003114294612270863</v>
       </c>
     </row>
     <row r="231" spans="1:23">
@@ -17789,7 +17789,7 @@
         <v>0.614636297986911</v>
       </c>
       <c r="K231">
-        <v>38.06654778870168</v>
+        <v>-0.1193345221129832</v>
       </c>
       <c r="L231">
         <v>-0.006547634327463533</v>
@@ -17819,13 +17819,13 @@
         <v>-0.04062500000000568</v>
       </c>
       <c r="U231">
-        <v>0.9999377412526459</v>
+        <v>-6.225874735410475E-05</v>
       </c>
       <c r="V231">
-        <v>0.9999584777960014</v>
+        <v>-4.152220399855633E-05</v>
       </c>
       <c r="W231">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:23">
@@ -17860,7 +17860,7 @@
         <v>0.5001763755840052</v>
       </c>
       <c r="K232">
-        <v>33.34117132655759</v>
+        <v>-0.1665882867344242</v>
       </c>
       <c r="L232">
         <v>-0.006542400991909954</v>
@@ -17890,13 +17890,13 @@
         <v>-0.046875</v>
       </c>
       <c r="U232">
-        <v>0.9999273602722952</v>
+        <v>-7.263972770477078E-05</v>
       </c>
       <c r="V232">
-        <v>0.9998961901795909</v>
+        <v>-0.0001038098204091398</v>
       </c>
       <c r="W232">
-        <v>0.9993769470404985</v>
+        <v>-0.0006230529595014911</v>
       </c>
     </row>
     <row r="233" spans="1:23">
@@ -17931,7 +17931,7 @@
         <v>0.418198902667263</v>
       </c>
       <c r="K233">
-        <v>29.48802892744732</v>
+        <v>-0.2051197107255268</v>
       </c>
       <c r="L233">
         <v>-0.006868681379840058</v>
@@ -17961,13 +17961,13 @@
         <v>-0.04999999999998295</v>
       </c>
       <c r="U233">
-        <v>0.9999065992797768</v>
+        <v>-9.340072022323564E-05</v>
       </c>
       <c r="V233">
-        <v>0.9998546511627908</v>
+        <v>-0.0001453488372091805</v>
       </c>
       <c r="W233">
-        <v>0.9993765586034913</v>
+        <v>-0.0006234413965087171</v>
       </c>
     </row>
     <row r="234" spans="1:23">
@@ -18002,7 +18002,7 @@
         <v>0.3849891078195754</v>
       </c>
       <c r="K234">
-        <v>27.79726610454532</v>
+        <v>-0.2220273389545468</v>
       </c>
       <c r="L234">
         <v>-0.007463456982447303</v>
@@ -18032,13 +18032,13 @@
         <v>-0.05624999999997726</v>
       </c>
       <c r="U234">
-        <v>0.9998858329008823</v>
+        <v>-0.0001141670991177124</v>
       </c>
       <c r="V234">
-        <v>0.9998130957572735</v>
+        <v>-0.0001869042427264933</v>
       </c>
       <c r="W234">
-        <v>0.9996880848409232</v>
+        <v>-0.0003119151590768032</v>
       </c>
     </row>
     <row r="235" spans="1:23">
@@ -18073,7 +18073,7 @@
         <v>0.4685801420477387</v>
       </c>
       <c r="K235">
-        <v>31.90701880214493</v>
+        <v>-0.1809298119785507</v>
       </c>
       <c r="L235">
         <v>-0.008042580881026518</v>
@@ -18103,13 +18103,13 @@
         <v>-0.05625000000000568</v>
       </c>
       <c r="U235">
-        <v>0.9999065798897644</v>
+        <v>-9.342011023560914E-05</v>
       </c>
       <c r="V235">
-        <v>0.9998961448986373</v>
+        <v>-0.0001038551013626821</v>
       </c>
       <c r="W235">
-        <v>1.000312012480499</v>
+        <v>0.0003120124804993907</v>
       </c>
     </row>
     <row r="236" spans="1:23">
@@ -18144,7 +18144,7 @@
         <v>0.908532953774814</v>
       </c>
       <c r="K236">
-        <v>47.60373416544166</v>
+        <v>-0.02396265834558342</v>
       </c>
       <c r="L236">
         <v>-0.007979264536394927</v>
@@ -18174,13 +18174,13 @@
         <v>-0.05000000000001137</v>
       </c>
       <c r="U236">
-        <v>0.9999792380359178</v>
+        <v>-2.076196408218323E-05</v>
       </c>
       <c r="V236">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="W236">
-        <v>1.001559575795384</v>
+        <v>0.001559575795383683</v>
       </c>
     </row>
     <row r="237" spans="1:23">
@@ -18215,7 +18215,7 @@
         <v>0.8315165256761152</v>
       </c>
       <c r="K237">
-        <v>45.40043805333157</v>
+        <v>-0.04599561946668429</v>
       </c>
       <c r="L237">
         <v>-0.007615011245876235</v>
@@ -18245,13 +18245,13 @@
         <v>-0.05312500000002274</v>
       </c>
       <c r="U237">
-        <v>0.9999584752097003</v>
+        <v>-4.152479029972955E-05</v>
       </c>
       <c r="V237">
-        <v>0.999979226822327</v>
+        <v>-2.07731776730169E-05</v>
       </c>
       <c r="W237">
-        <v>0.9996885705387729</v>
+        <v>-0.0003114294612270863</v>
       </c>
     </row>
     <row r="238" spans="1:23">
@@ -18286,7 +18286,7 @@
         <v>1.009979891209668</v>
       </c>
       <c r="K238">
-        <v>50.24825848391105</v>
+        <v>0.002482584839110569</v>
       </c>
       <c r="L238">
         <v>-0.006837098397258034</v>
@@ -18316,13 +18316,13 @@
         <v>-0.04374999999998863</v>
       </c>
       <c r="U238">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V238">
-        <v>1.000041547218414</v>
+        <v>4.154721841365117E-05</v>
       </c>
       <c r="W238">
-        <v>1.000623052959501</v>
+        <v>0.0006230529595014911</v>
       </c>
     </row>
     <row r="239" spans="1:23">
@@ -18357,7 +18357,7 @@
         <v>1.009979891209668</v>
       </c>
       <c r="K239">
-        <v>50.24825848391105</v>
+        <v>0.002482584839110569</v>
       </c>
       <c r="L239">
         <v>-0.005833161894953481</v>
@@ -18387,13 +18387,13 @@
         <v>-0.03749999999999432</v>
       </c>
       <c r="U239">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="V239">
-        <v>1.000020772746157</v>
+        <v>2.077274615697178E-05</v>
       </c>
       <c r="W239">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:23">
@@ -18428,7 +18428,7 @@
         <v>1.207723232521084</v>
       </c>
       <c r="K240">
-        <v>54.7044672416632</v>
+        <v>0.04704467241663202</v>
       </c>
       <c r="L240">
         <v>-0.004508160398319712</v>
@@ -18458,13 +18458,13 @@
         <v>-0.009375000000005684</v>
       </c>
       <c r="U240">
-        <v>1.00001038162867</v>
+        <v>1.038162866962011E-05</v>
       </c>
       <c r="V240">
-        <v>1.000083089258636</v>
+        <v>8.308925863609318E-05</v>
       </c>
       <c r="W240">
-        <v>1.000622665006227</v>
+        <v>0.0006226650062266526</v>
       </c>
     </row>
     <row r="241" spans="1:23">
@@ -18499,7 +18499,7 @@
         <v>1.207723232521085</v>
       </c>
       <c r="K241">
-        <v>54.7044672416632</v>
+        <v>0.04704467241663202</v>
       </c>
       <c r="L241">
         <v>-0.003056598825884839</v>
@@ -18529,13 +18529,13 @@
         <v>0.02812499999998863</v>
       </c>
       <c r="U241">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V241">
-        <v>1.000083082355385</v>
+        <v>8.30823553850113E-05</v>
       </c>
       <c r="W241">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:23">
@@ -18570,7 +18570,7 @@
         <v>1.207723232521084</v>
       </c>
       <c r="K242">
-        <v>54.7044672416632</v>
+        <v>0.04704467241663202</v>
       </c>
       <c r="L242">
         <v>-0.001609710131511872</v>
@@ -18600,13 +18600,13 @@
         <v>0.07187499999997726</v>
       </c>
       <c r="U242">
-        <v>1.000010381520893</v>
+        <v>1.038152089294364E-05</v>
       </c>
       <c r="V242">
-        <v>1.00008307545328</v>
+        <v>8.307545328034571E-05</v>
       </c>
       <c r="W242">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:23">
@@ -18641,7 +18641,7 @@
         <v>1.082849999124977</v>
       </c>
       <c r="K243">
-        <v>51.98886139567859</v>
+        <v>0.01988861395678587</v>
       </c>
       <c r="L243">
         <v>-0.0003654149965950892</v>
@@ -18671,13 +18671,13 @@
         <v>0.1062499999999886</v>
       </c>
       <c r="U243">
-        <v>1.000010381413118</v>
+        <v>1.038141311804353E-05</v>
       </c>
       <c r="V243">
-        <v>1.000062301414242</v>
+        <v>6.230141424201641E-05</v>
       </c>
       <c r="W243">
-        <v>0.9996888612321096</v>
+        <v>-0.000311138767890351</v>
       </c>
     </row>
     <row r="244" spans="1:23">
@@ -18712,7 +18712,7 @@
         <v>1.191687442421998</v>
       </c>
       <c r="K244">
-        <v>54.37305609166075</v>
+        <v>0.04373056091660754</v>
       </c>
       <c r="L244">
         <v>0.000791569497341785</v>
@@ -18742,13 +18742,13 @@
         <v>0.1125000000000114</v>
       </c>
       <c r="U244">
-        <v>1.000020762610691</v>
+        <v>2.076261069072771E-05</v>
       </c>
       <c r="V244">
-        <v>1.000062297533018</v>
+        <v>6.229753301756347E-05</v>
       </c>
       <c r="W244">
-        <v>1.000311235605353</v>
+        <v>0.0003112356053531773</v>
       </c>
     </row>
     <row r="245" spans="1:23">
@@ -18783,7 +18783,7 @@
         <v>1.191687442421997</v>
       </c>
       <c r="K245">
-        <v>54.37305609166075</v>
+        <v>0.04373056091660754</v>
       </c>
       <c r="L245">
         <v>0.001819018943745097</v>
@@ -18813,13 +18813,13 @@
         <v>0.1281249999999829</v>
       </c>
       <c r="U245">
-        <v>1.000010381089807</v>
+        <v>1.03810898068879E-05</v>
       </c>
       <c r="V245">
-        <v>1.000083058203036</v>
+        <v>8.30582030357796E-05</v>
       </c>
       <c r="W245">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:23">
@@ -18854,7 +18854,7 @@
         <v>1.191687442421998</v>
       </c>
       <c r="K246">
-        <v>54.37305609166075</v>
+        <v>0.04373056091660754</v>
       </c>
       <c r="L246">
         <v>0.002695861963918117</v>
@@ -18884,13 +18884,13 @@
         <v>0.1281249999999829</v>
       </c>
       <c r="U246">
-        <v>1.000020761964082</v>
+        <v>2.076196408173914E-05</v>
       </c>
       <c r="V246">
-        <v>1.000083051304943</v>
+        <v>8.305130494346002E-05</v>
       </c>
       <c r="W246">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:23">
@@ -18925,7 +18925,7 @@
         <v>1.057451731277771</v>
       </c>
       <c r="K247">
-        <v>51.39618661289543</v>
+        <v>0.01396186612895434</v>
       </c>
       <c r="L247">
         <v>0.003302330294084635</v>
@@ -18955,13 +18955,13 @@
         <v>0.125</v>
       </c>
       <c r="U247">
-        <v>0.9999999999999998</v>
+        <v>-2.220446049250313E-16</v>
       </c>
       <c r="V247">
-        <v>1.000103805509996</v>
+        <v>0.0001038055099964463</v>
       </c>
       <c r="W247">
-        <v>0.9996888612321096</v>
+        <v>-0.000311138767890351</v>
       </c>
     </row>
     <row r="248" spans="1:23">
@@ -18996,7 +18996,7 @@
         <v>1.294595706355211</v>
       </c>
       <c r="K248">
-        <v>56.41933795873683</v>
+        <v>0.06419337958736826</v>
       </c>
       <c r="L248">
         <v>0.003921120490879343</v>
@@ -19026,13 +19026,13 @@
         <v>0.109375</v>
       </c>
       <c r="U248">
-        <v>1.000020761533032</v>
+        <v>2.076153303165462E-05</v>
       </c>
       <c r="V248">
-        <v>1.000186830523956</v>
+        <v>0.0001868305239560719</v>
       </c>
       <c r="W248">
-        <v>1.000622471210707</v>
+        <v>0.0006224712107065766</v>
       </c>
     </row>
     <row r="249" spans="1:23">
@@ -19067,7 +19067,7 @@
         <v>1.294595706355211</v>
       </c>
       <c r="K249">
-        <v>56.41933795873683</v>
+        <v>0.06419337958736826</v>
       </c>
       <c r="L249">
         <v>0.004493626250552276</v>
@@ -19097,13 +19097,13 @@
         <v>0.08749999999997726</v>
       </c>
       <c r="U249">
-        <v>1.000010380551</v>
+        <v>1.038055099966684E-05</v>
       </c>
       <c r="V249">
-        <v>1.000207550694257</v>
+        <v>0.0002075506942571526</v>
       </c>
       <c r="W249">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:23">
@@ -19138,7 +19138,7 @@
         <v>1.144260776169059</v>
       </c>
       <c r="K250">
-        <v>53.36388133785657</v>
+        <v>0.03363881337856567</v>
       </c>
       <c r="L250">
         <v>0.004871813948298808</v>
@@ -19168,13 +19168,13 @@
         <v>0.05937500000001705</v>
       </c>
       <c r="U250">
-        <v>1.000031141329735</v>
+        <v>3.114132973491834E-05</v>
       </c>
       <c r="V250">
-        <v>1.000166006100724</v>
+        <v>0.0001660061007240365</v>
       </c>
       <c r="W250">
-        <v>0.9996889580093312</v>
+        <v>-0.0003110419906687811</v>
       </c>
     </row>
     <row r="251" spans="1:23">
@@ -19209,7 +19209,7 @@
         <v>1.019625029315595</v>
       </c>
       <c r="K251">
-        <v>50.48585824177088</v>
+        <v>0.004858582417708868</v>
       </c>
       <c r="L251">
         <v>0.004977036061517589</v>
@@ -19239,13 +19239,13 @@
         <v>0.03749999999999432</v>
       </c>
       <c r="U251">
-        <v>1.000020760239988</v>
+        <v>2.076023998820453E-05</v>
       </c>
       <c r="V251">
-        <v>1.000041494636818</v>
+        <v>4.149463681812904E-05</v>
       </c>
       <c r="W251">
-        <v>0.9996888612321096</v>
+        <v>-0.000311138767890351</v>
       </c>
     </row>
     <row r="252" spans="1:23">
@@ -19280,7 +19280,7 @@
         <v>1.019625029315595</v>
       </c>
       <c r="K252">
-        <v>50.48585824177088</v>
+        <v>0.004858582417708868</v>
       </c>
       <c r="L252">
         <v>0.004892071723862731</v>
@@ -19310,13 +19310,13 @@
         <v>0.02500000000000568</v>
       </c>
       <c r="U252">
-        <v>1.00002075980901</v>
+        <v>2.075980900984042E-05</v>
       </c>
       <c r="V252">
-        <v>1.000062239372627</v>
+        <v>6.223937262705981E-05</v>
       </c>
       <c r="W252">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:23">
@@ -19351,7 +19351,7 @@
         <v>1.140314782391384</v>
       </c>
       <c r="K253">
-        <v>53.27790060475612</v>
+        <v>0.03277900604756123</v>
       </c>
       <c r="L253">
         <v>0.004792878505603816</v>
@@ -19381,13 +19381,13 @@
         <v>0.01250000000001705</v>
       </c>
       <c r="U253">
-        <v>1.000041518756098</v>
+        <v>4.151875609825773E-05</v>
       </c>
       <c r="V253">
-        <v>1.000041490332752</v>
+        <v>4.149033275235858E-05</v>
       </c>
       <c r="W253">
-        <v>1.000311235605353</v>
+        <v>0.0003112356053531773</v>
       </c>
     </row>
     <row r="254" spans="1:23">
@@ -19422,7 +19422,7 @@
         <v>1.775524009106277</v>
       </c>
       <c r="K254">
-        <v>63.97076743998329</v>
+        <v>0.1397076743998329</v>
       </c>
       <c r="L254">
         <v>0.005240788980974862</v>
@@ -19452,13 +19452,13 @@
         <v>0.02187499999999432</v>
       </c>
       <c r="U254">
-        <v>1.000083034064725</v>
+        <v>8.303406472487396E-05</v>
       </c>
       <c r="V254">
-        <v>1.000145210139817</v>
+        <v>0.0001452101398169425</v>
       </c>
       <c r="W254">
-        <v>1.001555693839452</v>
+        <v>0.00155569383945231</v>
       </c>
     </row>
     <row r="255" spans="1:23">
@@ -19493,7 +19493,7 @@
         <v>1.909252267362075</v>
       </c>
       <c r="K255">
-        <v>65.6269065691324</v>
+        <v>0.156269065691324</v>
       </c>
       <c r="L255">
         <v>0.006085783447169057</v>
@@ -19523,13 +19523,13 @@
         <v>0.04062499999997726</v>
       </c>
       <c r="U255">
-        <v>1.000103783963302</v>
+        <v>0.0001037839633017956</v>
       </c>
       <c r="V255">
-        <v>1.000124447763052</v>
+        <v>0.0001244477630515384</v>
       </c>
       <c r="W255">
-        <v>1.000310655483069</v>
+        <v>0.0003106554830694108</v>
       </c>
     </row>
     <row r="256" spans="1:23">
@@ -19564,7 +19564,7 @@
         <v>1.342369813415281</v>
       </c>
       <c r="K256">
-        <v>57.30819299869841</v>
+        <v>0.07308192998698404</v>
       </c>
       <c r="L256">
         <v>0.006755123146846607</v>
@@ -19594,13 +19594,13 @@
         <v>0.04374999999998863</v>
       </c>
       <c r="U256">
-        <v>1.000072641235316</v>
+        <v>7.264123531602884E-05</v>
       </c>
       <c r="V256">
-        <v>1.000062216138866</v>
+        <v>6.221613886614463E-05</v>
       </c>
       <c r="W256">
-        <v>0.9990683229813664</v>
+        <v>-0.0009316770186336143</v>
       </c>
     </row>
     <row r="257" spans="1:23">
@@ -19635,7 +19635,7 @@
         <v>1.342369813415281</v>
       </c>
       <c r="K257">
-        <v>57.3081929986984</v>
+        <v>0.07308192998698404</v>
       </c>
       <c r="L257">
         <v>0.007250742555780511</v>
@@ -19665,13 +19665,13 @@
         <v>0.046875</v>
       </c>
       <c r="U257">
-        <v>1.00007263595895</v>
+        <v>7.263595895046215E-05</v>
       </c>
       <c r="V257">
-        <v>1.000062212268259</v>
+        <v>6.221226825942061E-05</v>
       </c>
       <c r="W257">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:23">
@@ -19706,7 +19706,7 @@
         <v>1.452033094244953</v>
       </c>
       <c r="K258">
-        <v>59.21751617679831</v>
+        <v>0.09217516176798302</v>
       </c>
       <c r="L258">
         <v>0.007696433584733946</v>
@@ -19736,13 +19736,13 @@
         <v>0.05937499999998863</v>
       </c>
       <c r="U258">
-        <v>1.000083006495258</v>
+        <v>8.300649525816439E-05</v>
       </c>
       <c r="V258">
-        <v>1.000103680663556</v>
+        <v>0.0001036806635563714</v>
       </c>
       <c r="W258">
-        <v>1.000310848616724</v>
+        <v>0.0003108486167238134</v>
       </c>
     </row>
     <row r="259" spans="1:23">
@@ -19777,7 +19777,7 @@
         <v>1.179680240543996</v>
       </c>
       <c r="K259">
-        <v>54.12171100149882</v>
+        <v>0.04121711001498829</v>
       </c>
       <c r="L259">
         <v>0.007828716298860842</v>
@@ -19807,13 +19807,13 @@
         <v>0.06874999999999432</v>
       </c>
       <c r="U259">
-        <v>1.000051874753595</v>
+        <v>5.187475359513805E-05</v>
       </c>
       <c r="V259">
-        <v>1.000041467965996</v>
+        <v>4.146796599635572E-05</v>
       </c>
       <c r="W259">
-        <v>0.9993784959602238</v>
+        <v>-0.0006215040397762328</v>
       </c>
     </row>
     <row r="260" spans="1:23">
@@ -19848,7 +19848,7 @@
         <v>1.27839948308683</v>
       </c>
       <c r="K260">
-        <v>56.10954060412725</v>
+        <v>0.0610954060412725</v>
       </c>
       <c r="L260">
         <v>0.007847528170499279</v>
@@ -19878,13 +19878,13 @@
         <v>0.08437499999996589</v>
       </c>
       <c r="U260">
-        <v>1.000072620887842</v>
+        <v>7.262088784210086E-05</v>
       </c>
       <c r="V260">
-        <v>1.000062199369713</v>
+        <v>6.219936971274542E-05</v>
       </c>
       <c r="W260">
-        <v>1.000310945273632</v>
+        <v>0.0003109452736316243</v>
       </c>
     </row>
     <row r="261" spans="1:23">
@@ -19919,7 +19919,7 @@
         <v>1.27839948308683</v>
       </c>
       <c r="K261">
-        <v>56.10954060412725</v>
+        <v>0.0610954060412725</v>
       </c>
       <c r="L261">
         <v>0.007767805203983271</v>
@@ -19949,13 +19949,13 @@
         <v>0.09375</v>
       </c>
       <c r="U261">
-        <v>1.000072615614432</v>
+        <v>7.261561443172582E-05</v>
       </c>
       <c r="V261">
-        <v>1.000062195501192</v>
+        <v>6.219550119213046E-05</v>
       </c>
       <c r="W261">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:23">
@@ -19990,7 +19990,7 @@
         <v>1.497167887613949</v>
       </c>
       <c r="K262">
-        <v>59.95463481009669</v>
+        <v>0.09954634810096696</v>
       </c>
       <c r="L262">
         <v>0.007831788024070505</v>
@@ -20020,13 +20020,13 @@
         <v>0.07812500000002842</v>
       </c>
       <c r="U262">
-        <v>1.000114101965666</v>
+        <v>0.0001141019656658582</v>
       </c>
       <c r="V262">
-        <v>1.000124383266304</v>
+        <v>0.0001243832663044842</v>
       </c>
       <c r="W262">
-        <v>1.000621697233447</v>
+        <v>0.0006216972334471826</v>
       </c>
     </row>
     <row r="263" spans="1:23">
@@ -20061,7 +20061,7 @@
         <v>1.497167887613949</v>
       </c>
       <c r="K263">
-        <v>59.95463481009669</v>
+        <v>0.09954634810096696</v>
       </c>
       <c r="L263">
         <v>0.007950167243359653</v>
@@ -20091,13 +20091,13 @@
         <v>0.05312499999999432</v>
       </c>
       <c r="U263">
-        <v>1.000134832392964</v>
+        <v>0.0001348323929639683</v>
       </c>
       <c r="V263">
-        <v>1.000082911864688</v>
+        <v>8.291186468789569E-05</v>
       </c>
       <c r="W263">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:23">
@@ -20132,7 +20132,7 @@
         <v>1.497167887613949</v>
       </c>
       <c r="K264">
-        <v>59.95463481009669</v>
+        <v>0.09954634810096696</v>
       </c>
       <c r="L264">
         <v>0.008064950708992519</v>
@@ -20162,13 +20162,13 @@
         <v>0.05312499999999432</v>
       </c>
       <c r="U264">
-        <v>1.000145184539921</v>
+        <v>0.0001451845399205176</v>
       </c>
       <c r="V264">
-        <v>1.00008290499088</v>
+        <v>8.290499088037251E-05</v>
       </c>
       <c r="W264">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:23">
@@ -20203,7 +20203,7 @@
         <v>1.327770467183103</v>
       </c>
       <c r="K265">
-        <v>57.04043787400884</v>
+        <v>0.07040437874008842</v>
       </c>
       <c r="L265">
         <v>0.008027544900566834</v>
@@ -20233,13 +20233,13 @@
         <v>0.05000000000001137</v>
       </c>
       <c r="U265">
-        <v>1.000124425826654</v>
+        <v>0.0001244258266539511</v>
       </c>
       <c r="V265">
-        <v>1.000082898118213</v>
+        <v>8.289811821282633E-05</v>
       </c>
       <c r="W265">
-        <v>0.9996893445169308</v>
+        <v>-0.0003106554830691888</v>
       </c>
     </row>
     <row r="266" spans="1:23">
@@ -20274,7 +20274,7 @@
         <v>1.327770467183103</v>
       </c>
       <c r="K266">
-        <v>57.04043787400883</v>
+        <v>0.07040437874008831</v>
       </c>
       <c r="L266">
         <v>0.007871085397525792</v>
@@ -20304,13 +20304,13 @@
         <v>0.03749999999996589</v>
       </c>
       <c r="U266">
-        <v>1.000072572702297</v>
+        <v>7.257270229676926E-05</v>
       </c>
       <c r="V266">
-        <v>1.000103614058355</v>
+        <v>0.0001036140583552392</v>
       </c>
       <c r="W266">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:23">
@@ -20345,7 +20345,7 @@
         <v>1.179853751163219</v>
       </c>
       <c r="K267">
-        <v>54.12536279250948</v>
+        <v>0.04125362792509479</v>
       </c>
       <c r="L267">
         <v>0.007510543174483137</v>
@@ -20375,13 +20375,13 @@
         <v>0.03125</v>
       </c>
       <c r="U267">
-        <v>1.000072567435881</v>
+        <v>7.256743588146541E-05</v>
       </c>
       <c r="V267">
-        <v>1.000082882658876</v>
+        <v>8.288265887568258E-05</v>
       </c>
       <c r="W267">
-        <v>0.9996892479801118</v>
+        <v>-0.0003107520198881719</v>
       </c>
     </row>
     <row r="268" spans="1:23">
@@ -20416,7 +20416,7 @@
         <v>1.29711935556173</v>
       </c>
       <c r="K268">
-        <v>56.46721631686992</v>
+        <v>0.06467216316869917</v>
       </c>
       <c r="L268">
         <v>0.007135274064213451</v>
@@ -20446,13 +20446,13 @@
         <v>0.02187499999999432</v>
       </c>
       <c r="U268">
-        <v>1.000062196145912</v>
+        <v>6.219614591218559E-05</v>
       </c>
       <c r="V268">
-        <v>1.00008287578991</v>
+        <v>8.287578991006406E-05</v>
       </c>
       <c r="W268">
-        <v>1.000310848616724</v>
+        <v>0.0003108486167238134</v>
       </c>
     </row>
     <row r="269" spans="1:23">
@@ -20487,7 +20487,7 @@
         <v>1.154598614164206</v>
       </c>
       <c r="K269">
-        <v>53.58764303355352</v>
+        <v>0.03587643033553523</v>
       </c>
       <c r="L269">
         <v>0.006635764094673269</v>
@@ -20517,13 +20517,13 @@
         <v>0.01249999999998863</v>
       </c>
       <c r="U269">
-        <v>1.00005182689816</v>
+        <v>5.182689816018993E-05</v>
       </c>
       <c r="V269">
-        <v>0.9999585655389586</v>
+        <v>-4.143446104143411E-05</v>
       </c>
       <c r="W269">
-        <v>0.9996892479801118</v>
+        <v>-0.0003107520198881719</v>
       </c>
     </row>
     <row r="270" spans="1:23">
@@ -20558,7 +20558,7 @@
         <v>1.154598614164206</v>
       </c>
       <c r="K270">
-        <v>53.58764303355352</v>
+        <v>0.03587643033553523</v>
       </c>
       <c r="L270">
         <v>0.006068677620612673</v>
@@ -20588,13 +20588,13 @@
         <v>0.006250000000022737</v>
       </c>
       <c r="U270">
-        <v>1.000031094527363</v>
+        <v>3.109452736316243E-05</v>
       </c>
       <c r="V270">
-        <v>0.9999378457331096</v>
+        <v>-6.215426689037962E-05</v>
       </c>
       <c r="W270">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:23">
@@ -20629,7 +20629,7 @@
         <v>1.029288006828493</v>
       </c>
       <c r="K271">
-        <v>50.72163258073621</v>
+        <v>0.00721632580736209</v>
       </c>
       <c r="L271">
         <v>0.005361475758660782</v>
@@ -20659,13 +20659,13 @@
         <v>0</v>
       </c>
       <c r="U271">
-        <v>1.000020729040349</v>
+        <v>2.07290403493321E-05</v>
       </c>
       <c r="V271">
-        <v>0.9999792806232388</v>
+        <v>-2.071937676118019E-05</v>
       </c>
       <c r="W271">
-        <v>0.9996891513832764</v>
+        <v>-0.0003108486167235913</v>
       </c>
     </row>
     <row r="272" spans="1:23">
@@ -20700,7 +20700,7 @@
         <v>0.9237546319538809</v>
       </c>
       <c r="K272">
-        <v>48.01831879233269</v>
+        <v>-0.01981681207667313</v>
       </c>
       <c r="L272">
         <v>0.004481738082767758</v>
@@ -20730,13 +20730,13 @@
         <v>-0.01875000000001137</v>
       </c>
       <c r="U272">
-        <v>1.000010364305332</v>
+        <v>1.036430533241095E-05</v>
       </c>
       <c r="V272">
-        <v>0.9999585603878748</v>
+        <v>-4.143961212521585E-05</v>
       </c>
       <c r="W272">
-        <v>0.999689054726368</v>
+        <v>-0.0003109452736319573</v>
       </c>
     </row>
     <row r="273" spans="1:23">
@@ -20771,7 +20771,7 @@
         <v>0.8337686480692186</v>
       </c>
       <c r="K273">
-        <v>45.46749389281448</v>
+        <v>-0.04532506107185519</v>
       </c>
       <c r="L273">
         <v>0.003424031185359936</v>
@@ -20801,13 +20801,13 @@
         <v>-0.03437500000001137</v>
       </c>
       <c r="U273">
-        <v>1.000010364197915</v>
+        <v>1.036419791455856E-05</v>
       </c>
       <c r="V273">
-        <v>0.9999171173411242</v>
+        <v>-8.28826588757936E-05</v>
       </c>
       <c r="W273">
-        <v>0.9996889580093312</v>
+        <v>-0.0003110419906687811</v>
       </c>
     </row>
     <row r="274" spans="1:23">
@@ -20842,7 +20842,7 @@
         <v>0.9363089602074028</v>
       </c>
       <c r="K274">
-        <v>48.35534924690492</v>
+        <v>-0.01644650753095078</v>
       </c>
       <c r="L274">
         <v>0.002426688469938297</v>
@@ -20872,13 +20872,13 @@
         <v>-0.04374999999998863</v>
       </c>
       <c r="U274">
-        <v>1.000010364090499</v>
+        <v>1.03640904993707E-05</v>
       </c>
       <c r="V274">
-        <v>0.9999792776177552</v>
+        <v>-2.072238224481993E-05</v>
       </c>
       <c r="W274">
-        <v>1.00031113876789</v>
+        <v>0.000311138767890462</v>
       </c>
     </row>
     <row r="275" spans="1:23">
@@ -20913,7 +20913,7 @@
         <v>0.9363089602074027</v>
       </c>
       <c r="K275">
-        <v>48.35534924690492</v>
+        <v>-0.01644650753095078</v>
       </c>
       <c r="L275">
         <v>0.001520633782183272</v>
@@ -20943,13 +20943,13 @@
         <v>-0.05312500000002274</v>
       </c>
       <c r="U275">
-        <v>1.000010363983086</v>
+        <v>1.036398308595921E-05</v>
       </c>
       <c r="V275">
-        <v>0.9999585543766577</v>
+        <v>-4.144562334229551E-05</v>
       </c>
       <c r="W275">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:23">
@@ -20984,7 +20984,7 @@
         <v>0.8407810377172198</v>
       </c>
       <c r="K276">
-        <v>45.67523352804009</v>
+        <v>-0.04324766471959912</v>
       </c>
       <c r="L276">
         <v>0.0006088644327942855</v>
@@ -21014,13 +21014,13 @@
         <v>-0.06874999999996589</v>
       </c>
       <c r="U276">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V276">
-        <v>0.9999378289882703</v>
+        <v>-6.217101172967254E-05</v>
       </c>
       <c r="W276">
-        <v>0.9996889580093312</v>
+        <v>-0.0003110419906687811</v>
       </c>
     </row>
     <row r="277" spans="1:23">
@@ -21055,7 +21055,7 @@
         <v>0.9481768997221384</v>
       </c>
       <c r="K277">
-        <v>48.66995907083045</v>
+        <v>-0.01330040929169551</v>
       </c>
       <c r="L277">
         <v>-0.0001372775892393896</v>
@@ -21085,13 +21085,13 @@
         <v>-0.07499999999998863</v>
       </c>
       <c r="U277">
-        <v>1.00002072775135</v>
+        <v>2.072775134998039E-05</v>
       </c>
       <c r="V277">
-        <v>0.9999171001637273</v>
+        <v>-8.289983627274289E-05</v>
       </c>
       <c r="W277">
-        <v>1.00031113876789</v>
+        <v>0.000311138767890462</v>
       </c>
     </row>
     <row r="278" spans="1:23">
@@ -21126,7 +21126,7 @@
         <v>0.6529275601480433</v>
       </c>
       <c r="K278">
-        <v>39.50128099319515</v>
+        <v>-0.1049871900680486</v>
       </c>
       <c r="L278">
         <v>-0.001187894733925069</v>
@@ -21156,13 +21156,13 @@
         <v>-0.08750000000000568</v>
       </c>
       <c r="U278">
-        <v>0.9999585453565618</v>
+        <v>-4.145464343818794E-05</v>
       </c>
       <c r="V278">
-        <v>0.9998341865815491</v>
+        <v>-0.0001658134184508997</v>
       </c>
       <c r="W278">
-        <v>0.9987558320373251</v>
+        <v>-0.001244167962674902</v>
       </c>
     </row>
     <row r="279" spans="1:23">
@@ -21197,7 +21197,7 @@
         <v>0.6529275601480433</v>
       </c>
       <c r="K279">
-        <v>39.50128099319515</v>
+        <v>-0.1049871900680486</v>
       </c>
       <c r="L279">
         <v>-0.002351725869508378</v>
@@ -21227,13 +21227,13 @@
         <v>-0.09375</v>
       </c>
       <c r="U279">
-        <v>0.9999585436380031</v>
+        <v>-4.14563619969277E-05</v>
       </c>
       <c r="V279">
-        <v>0.9998341590828999</v>
+        <v>-0.0001658409171001463</v>
       </c>
       <c r="W279">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:23">
@@ -21268,7 +21268,7 @@
         <v>0.6010804048710954</v>
       </c>
       <c r="K280">
-        <v>37.54217483659036</v>
+        <v>-0.1245782516340965</v>
       </c>
       <c r="L280">
         <v>-0.003614688196661986</v>
@@ -21298,13 +21298,13 @@
         <v>-0.09687500000001137</v>
       </c>
       <c r="U280">
-        <v>0.9999585419193017</v>
+        <v>-4.145808069833112E-05</v>
       </c>
       <c r="V280">
-        <v>0.999834131575128</v>
+        <v>-0.0001658684248719844</v>
       </c>
       <c r="W280">
-        <v>0.9996885705387729</v>
+        <v>-0.0003114294612270863</v>
       </c>
     </row>
     <row r="281" spans="1:23">
@@ -21339,7 +21339,7 @@
         <v>0.6010804048710953</v>
       </c>
       <c r="K281">
-        <v>37.54217483659036</v>
+        <v>-0.1245782516340965</v>
       </c>
       <c r="L281">
         <v>-0.004844146223068792</v>
@@ -21369,13 +21369,13 @@
         <v>-0.09687500000001137</v>
       </c>
       <c r="U281">
-        <v>0.9999689051503438</v>
+        <v>-3.109484965624354E-05</v>
       </c>
       <c r="V281">
-        <v>0.9998341040582295</v>
+        <v>-0.0001658959417705219</v>
       </c>
       <c r="W281">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:23">
@@ -21410,7 +21410,7 @@
         <v>0.6890662320966723</v>
       </c>
       <c r="K282">
-        <v>40.79569048286048</v>
+        <v>-0.0920430951713952</v>
       </c>
       <c r="L282">
         <v>-0.005844189044876077</v>
@@ -21440,13 +21440,13 @@
         <v>-0.09999999999999432</v>
       </c>
       <c r="U282">
-        <v>0.9999792694556159</v>
+        <v>-2.07305443841177E-05</v>
       </c>
       <c r="V282">
-        <v>0.9998755573991496</v>
+        <v>-0.0001244426008504274</v>
       </c>
       <c r="W282">
-        <v>1.000311526479751</v>
+        <v>0.0003115264797508566</v>
       </c>
     </row>
     <row r="283" spans="1:23">
@@ -21481,7 +21481,7 @@
         <v>0.5813760212382295</v>
       </c>
       <c r="K283">
-        <v>36.76393301973857</v>
+        <v>-0.1323606698026143</v>
       </c>
       <c r="L283">
         <v>-0.006846773191662827</v>
@@ -21511,13 +21511,13 @@
         <v>-0.1125000000000114</v>
       </c>
       <c r="U283">
-        <v>0.9999481725646286</v>
+        <v>-5.182743537135437E-05</v>
       </c>
       <c r="V283">
-        <v>0.999813312866892</v>
+        <v>-0.0001866871331079878</v>
       </c>
       <c r="W283">
-        <v>0.9993771410775458</v>
+        <v>-0.0006228589224541725</v>
       </c>
     </row>
     <row r="284" spans="1:23">
@@ -21552,7 +21552,7 @@
         <v>0.4992452995602632</v>
       </c>
       <c r="K284">
-        <v>33.29977420684224</v>
+        <v>-0.1670022579315776</v>
       </c>
       <c r="L284">
         <v>-0.007988670212984361</v>
@@ -21582,13 +21582,13 @@
         <v>-0.1218749999999886</v>
       </c>
       <c r="U284">
-        <v>0.9998756077081756</v>
+        <v>-0.0001243922918243712</v>
       </c>
       <c r="V284">
-        <v>0.999792531120332</v>
+        <v>-0.0002074688796680491</v>
       </c>
       <c r="W284">
-        <v>0.9993767528825179</v>
+        <v>-0.0006232471174820731</v>
       </c>
     </row>
     <row r="285" spans="1:23">
@@ -21623,7 +21623,7 @@
         <v>0.6479500759558116</v>
       </c>
       <c r="K285">
-        <v>39.31855008289619</v>
+        <v>-0.106814499171038</v>
       </c>
       <c r="L285">
         <v>-0.008886783106173517</v>
@@ -21653,13 +21653,13 @@
         <v>-0.1343750000000057</v>
       </c>
       <c r="U285">
-        <v>0.9998859595467411</v>
+        <v>-0.0001140404532589123</v>
       </c>
       <c r="V285">
-        <v>0.9998339904544511</v>
+        <v>-0.0001660095455489063</v>
       </c>
       <c r="W285">
-        <v>1.000623635796695</v>
+        <v>0.000623635796694666</v>
       </c>
     </row>
     <row r="286" spans="1:23">
@@ -21694,7 +21694,7 @@
         <v>0.524742178588912</v>
       </c>
       <c r="K286">
-        <v>34.41514152081369</v>
+        <v>-0.1558485847918631</v>
       </c>
       <c r="L286">
         <v>-0.009887486775208301</v>
@@ -21724,13 +21724,13 @@
         <v>-0.1312499999999943</v>
       </c>
       <c r="U286">
-        <v>0.9998859465400327</v>
+        <v>-0.0001140534599672893</v>
       </c>
       <c r="V286">
-        <v>0.9997924536133826</v>
+        <v>-0.0002075463866173521</v>
       </c>
       <c r="W286">
-        <v>0.999065129323777</v>
+        <v>-0.0009348706762229986</v>
       </c>
     </row>
     <row r="287" spans="1:23">
@@ -21765,7 +21765,7 @@
         <v>0.5247421785889119</v>
       </c>
       <c r="K287">
-        <v>34.41514152081369</v>
+        <v>-0.1558485847918631</v>
       </c>
       <c r="L287">
         <v>-0.01085076414877064</v>
@@ -21795,13 +21795,13 @@
         <v>-0.1312499999999659</v>
       </c>
       <c r="U287">
-        <v>0.9998859335303572</v>
+        <v>-0.0001140664696428484</v>
       </c>
       <c r="V287">
-        <v>0.9998131694760442</v>
+        <v>-0.0001868305239558499</v>
       </c>
       <c r="W287">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:23">
@@ -21836,7 +21836,7 @@
         <v>0.4903074230616599</v>
       </c>
       <c r="K288">
-        <v>32.89975044574236</v>
+        <v>-0.1710024955425765</v>
       </c>
       <c r="L288">
         <v>-0.01180393582243291</v>
@@ -21866,13 +21866,13 @@
         <v>-0.1312499999999659</v>
       </c>
       <c r="U288">
-        <v>0.9998651787936614</v>
+        <v>-0.0001348212063385645</v>
       </c>
       <c r="V288">
-        <v>0.9998131345638769</v>
+        <v>-0.0001868654361231181</v>
       </c>
       <c r="W288">
-        <v>0.9996880848409232</v>
+        <v>-0.0003119151590768032</v>
       </c>
     </row>
     <row r="289" spans="1:23">
@@ -21907,7 +21907,7 @@
         <v>0.4586272681015575</v>
       </c>
       <c r="K289">
-        <v>31.44238957622623</v>
+        <v>-0.1855761042377377</v>
       </c>
       <c r="L289">
         <v>-0.01276076659350494</v>
@@ -21937,13 +21937,13 @@
         <v>-0.1374999999999886</v>
       </c>
       <c r="U289">
-        <v>0.9998755328748794</v>
+        <v>-0.0001244671251205975</v>
       </c>
       <c r="V289">
-        <v>0.9997715662250281</v>
+        <v>-0.0002284337749719478</v>
       </c>
       <c r="W289">
-        <v>0.9996879875195007</v>
+        <v>-0.0003120124804992797</v>
       </c>
     </row>
     <row r="290" spans="1:23">
@@ -21978,7 +21978,7 @@
         <v>0.4037115804074961</v>
       </c>
       <c r="K290">
-        <v>28.76029421160001</v>
+        <v>-0.2123970578839999</v>
       </c>
       <c r="L290">
         <v>-0.01383923099643273</v>
@@ -22008,13 +22008,13 @@
         <v>-0.1531249999999886</v>
       </c>
       <c r="U290">
-        <v>0.999844396726107</v>
+        <v>-0.000155603273892968</v>
       </c>
       <c r="V290">
-        <v>0.9997299711276821</v>
+        <v>-0.0002700288723178623</v>
       </c>
       <c r="W290">
-        <v>0.9993757802746567</v>
+        <v>-0.0006242197253433224</v>
       </c>
     </row>
     <row r="291" spans="1:23">
@@ -22049,7 +22049,7 @@
         <v>0.5297529021231948</v>
       </c>
       <c r="K291">
-        <v>34.62996549233102</v>
+        <v>-0.1537003450766898</v>
       </c>
       <c r="L291">
         <v>-0.01464593162768664</v>
@@ -22079,13 +22079,13 @@
         <v>-0.1499999999999773</v>
       </c>
       <c r="U291">
-        <v>0.9998651228419656</v>
+        <v>-0.0001348771580343966</v>
       </c>
       <c r="V291">
-        <v>0.9997922293787659</v>
+        <v>-0.0002077706212341157</v>
       </c>
       <c r="W291">
-        <v>1.000624609618988</v>
+        <v>0.0006246096189881367</v>
       </c>
     </row>
     <row r="292" spans="1:23">
@@ -22120,7 +22120,7 @@
         <v>0.5297529021231948</v>
       </c>
       <c r="K292">
-        <v>34.62996549233102</v>
+        <v>-0.1537003450766898</v>
       </c>
       <c r="L292">
         <v>-0.01518342059816994</v>
@@ -22150,13 +22150,13 @@
         <v>-0.1375000000000171</v>
       </c>
       <c r="U292">
-        <v>0.9998443515165348</v>
+        <v>-0.000155648483465165</v>
       </c>
       <c r="V292">
-        <v>0.9997714048212801</v>
+        <v>-0.0002285951787198703</v>
       </c>
       <c r="W292">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:23">
@@ -22191,7 +22191,7 @@
         <v>0.4648349891948595</v>
       </c>
       <c r="K293">
-        <v>31.7329250477799</v>
+        <v>-0.182670749522201</v>
       </c>
       <c r="L293">
         <v>-0.01569512598851584</v>
@@ -22221,13 +22221,13 @@
         <v>-0.140625</v>
       </c>
       <c r="U293">
-        <v>0.9998235709244885</v>
+        <v>-0.0001764290755115194</v>
       </c>
       <c r="V293">
-        <v>0.9998129248165624</v>
+        <v>-0.000187075183437635</v>
       </c>
       <c r="W293">
-        <v>0.9993757802746567</v>
+        <v>-0.0006242197253433224</v>
       </c>
     </row>
     <row r="294" spans="1:23">
@@ -22262,7 +22262,7 @@
         <v>0.4648349891948594</v>
       </c>
       <c r="K294">
-        <v>31.7329250477799</v>
+        <v>-0.182670749522201</v>
       </c>
       <c r="L294">
         <v>-0.0161016743468041</v>
@@ -22292,13 +22292,13 @@
         <v>-0.1375000000000171</v>
       </c>
       <c r="U294">
-        <v>0.9998235397917771</v>
+        <v>-0.0001764602082229283</v>
       </c>
       <c r="V294">
-        <v>0.9998128898128896</v>
+        <v>-0.0001871101871103731</v>
       </c>
       <c r="W294">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:23">
@@ -22333,7 +22333,7 @@
         <v>0.6006175496536441</v>
       </c>
       <c r="K295">
-        <v>37.52411372620593</v>
+        <v>-0.1247588627379407</v>
       </c>
       <c r="L295">
         <v>-0.01613336802597888</v>
@@ -22363,13 +22363,13 @@
         <v>-0.1281250000000114</v>
       </c>
       <c r="U295">
-        <v>0.9998546541807686</v>
+        <v>-0.0001453458192314239</v>
       </c>
       <c r="V295">
-        <v>0.9998752365307439</v>
+        <v>-0.0001247634692560506</v>
       </c>
       <c r="W295">
-        <v>1.000624609618988</v>
+        <v>0.0006246096189881367</v>
       </c>
     </row>
     <row r="296" spans="1:23">
@@ -22404,7 +22404,7 @@
         <v>0.815011066167535</v>
       </c>
       <c r="K296">
-        <v>44.90391719145063</v>
+        <v>-0.05096082808549368</v>
       </c>
       <c r="L296">
         <v>-0.01553696993381275</v>
@@ -22434,13 +22434,13 @@
         <v>-0.1062500000000171</v>
       </c>
       <c r="U296">
-        <v>0.9998857831125137</v>
+        <v>-0.0001142168874862515</v>
       </c>
       <c r="V296">
-        <v>0.9999376104814391</v>
+        <v>-6.238951856085695E-05</v>
       </c>
       <c r="W296">
-        <v>1.000936329588015</v>
+        <v>0.000936329588014928</v>
       </c>
     </row>
     <row r="297" spans="1:23">
@@ -22475,7 +22475,7 @@
         <v>0.7579906190442455</v>
       </c>
       <c r="K297">
-        <v>43.1168750750409</v>
+        <v>-0.068831249249591</v>
       </c>
       <c r="L297">
         <v>-0.01465473193866587</v>
@@ -22505,13 +22505,13 @@
         <v>-0.08124999999998295</v>
       </c>
       <c r="U297">
-        <v>0.9998857700655266</v>
+        <v>-0.0001142299344734088</v>
       </c>
       <c r="V297">
-        <v>0.9998960109812403</v>
+        <v>-0.0001039890187597425</v>
       </c>
       <c r="W297">
-        <v>0.9996881821016528</v>
+        <v>-0.000311817898347222</v>
       </c>
     </row>
     <row r="298" spans="1:23">
@@ -22546,7 +22546,7 @@
         <v>0.7059974108585348</v>
       </c>
       <c r="K298">
-        <v>41.38326391147599</v>
+        <v>-0.08616736088524013</v>
       </c>
       <c r="L298">
         <v>-0.01371553380094463</v>
@@ -22576,13 +22576,13 @@
         <v>-0.04374999999998863</v>
       </c>
       <c r="U298">
-        <v>0.999864985563841</v>
+        <v>-0.0001350144361590422</v>
       </c>
       <c r="V298">
-        <v>0.9999168001331197</v>
+        <v>-8.319986688032355E-05</v>
       </c>
       <c r="W298">
-        <v>0.9996880848409232</v>
+        <v>-0.0003119151590768032</v>
       </c>
     </row>
     <row r="299" spans="1:23">
@@ -22617,7 +22617,7 @@
         <v>0.580298412485439</v>
       </c>
       <c r="K299">
-        <v>36.72081221500221</v>
+        <v>-0.1327918778499779</v>
       </c>
       <c r="L299">
         <v>-0.01309210546063467</v>
@@ -22647,13 +22647,13 @@
         <v>-0.03437500000001137</v>
       </c>
       <c r="U299">
-        <v>0.9998441930759404</v>
+        <v>-0.0001558069240595872</v>
       </c>
       <c r="V299">
-        <v>0.9998959915129074</v>
+        <v>-0.0001040084870925773</v>
       </c>
       <c r="W299">
-        <v>0.9990639625585023</v>
+        <v>-0.0009360374414977279</v>
       </c>
     </row>
     <row r="300" spans="1:23">
@@ -22688,7 +22688,7 @@
         <v>0.6427701879218848</v>
       </c>
       <c r="K300">
-        <v>39.12721284131613</v>
+        <v>-0.1087278715868387</v>
       </c>
       <c r="L300">
         <v>-0.01253868804911994</v>
@@ -22718,13 +22718,13 @@
         <v>-0.02812499999996021</v>
       </c>
       <c r="U300">
-        <v>0.9998545575432691</v>
+        <v>-0.000145442456730871</v>
       </c>
       <c r="V300">
-        <v>0.9998751768328202</v>
+        <v>-0.0001248231671797662</v>
       </c>
       <c r="W300">
-        <v>1.000312304809494</v>
+        <v>0.0003123048094941794</v>
       </c>
     </row>
     <row r="301" spans="1:23">
@@ -22759,7 +22759,7 @@
         <v>0.7085299515391587</v>
       </c>
       <c r="K301">
-        <v>41.47015104422765</v>
+        <v>-0.08529848955772351</v>
       </c>
       <c r="L301">
         <v>-0.01190385211830856</v>
@@ -22789,13 +22789,13 @@
         <v>-2.842170943040401E-14</v>
       </c>
       <c r="U301">
-        <v>0.9998753169028718</v>
+        <v>-0.0001246830971282087</v>
       </c>
       <c r="V301">
-        <v>0.9999583870833507</v>
+        <v>-4.161291664928068E-05</v>
       </c>
       <c r="W301">
-        <v>1.000312207305651</v>
+        <v>0.0003122073056507357</v>
       </c>
     </row>
     <row r="302" spans="1:23">
@@ -22830,7 +22830,7 @@
         <v>0.7085299515391587</v>
       </c>
       <c r="K302">
-        <v>41.47015104422765</v>
+        <v>-0.08529848955772351</v>
       </c>
       <c r="L302">
         <v>-0.01121678986087309</v>
@@ -22860,13 +22860,13 @@
         <v>0.01875000000001137</v>
       </c>
       <c r="U302">
-        <v>0.9998856929088038</v>
+        <v>-0.0001143070911961974</v>
       </c>
       <c r="V302">
-        <v>0.9999583853516438</v>
+        <v>-4.161464835616968E-05</v>
       </c>
       <c r="W302">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:23">
@@ -22901,7 +22901,7 @@
         <v>0.6604098458818606</v>
       </c>
       <c r="K303">
-        <v>39.77390567273529</v>
+        <v>-0.1022609432726471</v>
       </c>
       <c r="L303">
         <v>-0.01061453623422902</v>
@@ -22931,13 +22931,13 @@
         <v>0.02187499999999432</v>
       </c>
       <c r="U303">
-        <v>0.9998856798411988</v>
+        <v>-0.0001143201588011955</v>
       </c>
       <c r="V303">
-        <v>0.9999583836197928</v>
+        <v>-4.161638020716563E-05</v>
       </c>
       <c r="W303">
-        <v>0.9996878901373284</v>
+        <v>-0.0003121098626716057</v>
       </c>
     </row>
     <row r="304" spans="1:23">
@@ -22972,7 +22972,7 @@
         <v>0.616347237087248</v>
       </c>
       <c r="K304">
-        <v>38.13210571002934</v>
+        <v>-0.1186789428997066</v>
       </c>
       <c r="L304">
         <v>-0.01017695355311183</v>
@@ -23002,13 +23002,13 @@
         <v>0</v>
       </c>
       <c r="U304">
-        <v>0.9998648789107163</v>
+        <v>-0.0001351210892837074</v>
       </c>
       <c r="V304">
-        <v>0.9999583818877974</v>
+        <v>-4.161811220260159E-05</v>
       </c>
       <c r="W304">
-        <v>0.9996877926943489</v>
+        <v>-0.0003122073056510688</v>
       </c>
     </row>
     <row r="305" spans="1:23">
@@ -23043,7 +23043,7 @@
         <v>0.5090854555112401</v>
       </c>
       <c r="K305">
-        <v>33.73470028831301</v>
+        <v>-0.1626529971168699</v>
       </c>
       <c r="L305">
         <v>-0.01017065395943333</v>
@@ -23073,13 +23073,13 @@
         <v>-0.02812499999998863</v>
       </c>
       <c r="U305">
-        <v>0.9998336746468185</v>
+        <v>-0.0001663253531815068</v>
       </c>
       <c r="V305">
-        <v>0.9999375702334874</v>
+        <v>-6.242976651260612E-05</v>
       </c>
       <c r="W305">
-        <v>0.9990630855715178</v>
+        <v>-0.0009369144284822051</v>
       </c>
     </row>
     <row r="306" spans="1:23">
@@ -23114,7 +23114,7 @@
         <v>0.5090854555112401</v>
       </c>
       <c r="K306">
-        <v>33.73470028831301</v>
+        <v>-0.1626529971168699</v>
       </c>
       <c r="L306">
         <v>-0.01038917268120229</v>
@@ -23144,13 +23144,13 @@
         <v>-0.05625000000000568</v>
       </c>
       <c r="U306">
-        <v>0.9998440440419625</v>
+        <v>-0.0001559559580375236</v>
       </c>
       <c r="V306">
-        <v>0.9998959438929472</v>
+        <v>-0.0001040561070527746</v>
       </c>
       <c r="W306">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:23">
@@ -23185,7 +23185,7 @@
         <v>0.478339544025874</v>
       </c>
       <c r="K307">
-        <v>32.35654122619492</v>
+        <v>-0.1764345877380508</v>
       </c>
       <c r="L307">
         <v>-0.0108058474665184</v>
@@ -23215,13 +23215,13 @@
         <v>-0.06250000000002842</v>
       </c>
       <c r="U307">
-        <v>0.9998232223446956</v>
+        <v>-0.0001767776553044387</v>
       </c>
       <c r="V307">
-        <v>0.9998751196769762</v>
+        <v>-0.0001248803230238238</v>
       </c>
       <c r="W307">
-        <v>0.999687402313223</v>
+        <v>-0.0003125976867770497</v>
       </c>
     </row>
     <row r="308" spans="1:23">
@@ -23256,7 +23256,7 @@
         <v>0.605485652808436</v>
       </c>
       <c r="K308">
-        <v>37.71355114567826</v>
+        <v>-0.1228644885432174</v>
       </c>
       <c r="L308">
         <v>-0.01104967945183322</v>
@@ -23286,13 +23286,13 @@
         <v>-0.06875000000002274</v>
       </c>
       <c r="U308">
-        <v>0.9998855942339493</v>
+        <v>-0.000114405766050707</v>
       </c>
       <c r="V308">
-        <v>0.9999583680266445</v>
+        <v>-4.163197335549373E-05</v>
       </c>
       <c r="W308">
-        <v>1.000625390869293</v>
+        <v>0.0006253908692932519</v>
       </c>
     </row>
     <row r="309" spans="1:23">
@@ -23327,7 +23327,7 @@
         <v>0.5340142488358829</v>
       </c>
       <c r="K309">
-        <v>34.8115572747209</v>
+        <v>-0.1518844272527911</v>
       </c>
       <c r="L309">
         <v>-0.01136026501232166</v>
@@ -23357,13 +23357,13 @@
         <v>-0.09374999999997158</v>
       </c>
       <c r="U309">
-        <v>0.9998647777153676</v>
+        <v>-0.0001352222846323636</v>
       </c>
       <c r="V309">
-        <v>0.9999167325867021</v>
+        <v>-8.326741329789389E-05</v>
       </c>
       <c r="W309">
-        <v>0.999375</v>
+        <v>-0.0006249999999999867</v>
       </c>
     </row>
     <row r="310" spans="1:23">
@@ -23398,7 +23398,7 @@
         <v>0.4501212650418209</v>
       </c>
       <c r="K310">
-        <v>31.04024993584517</v>
+        <v>-0.1895975006415483</v>
       </c>
       <c r="L310">
         <v>-0.01199107925922182</v>
@@ -23428,13 +23428,13 @@
         <v>-0.1281249999999829</v>
       </c>
       <c r="U310">
-        <v>0.9998439531859558</v>
+        <v>-0.0001560468140442417</v>
       </c>
       <c r="V310">
-        <v>0.9998126327184912</v>
+        <v>-0.0001873672815088101</v>
       </c>
       <c r="W310">
-        <v>0.99906191369606</v>
+        <v>-0.0009380863039399889</v>
       </c>
     </row>
     <row r="311" spans="1:23">
@@ -23469,7 +23469,7 @@
         <v>0.3688038793623519</v>
       </c>
       <c r="K311">
-        <v>26.94351505886706</v>
+        <v>-0.2305648494113294</v>
       </c>
       <c r="L311">
         <v>-0.01318676328691374</v>
@@ -23499,13 +23499,13 @@
         <v>-0.1625000000000227</v>
       </c>
       <c r="U311">
-        <v>0.9998023098532931</v>
+        <v>-0.000197690146706897</v>
       </c>
       <c r="V311">
-        <v>0.9996668401874024</v>
+        <v>-0.0003331598125976276</v>
       </c>
       <c r="W311">
-        <v>0.9987480438184664</v>
+        <v>-0.00125195618153362</v>
       </c>
     </row>
     <row r="312" spans="1:23">
@@ -23540,7 +23540,7 @@
         <v>0.6065099564005684</v>
       </c>
       <c r="K312">
-        <v>37.75326470801783</v>
+        <v>-0.1224673529198217</v>
       </c>
       <c r="L312">
         <v>-0.01403272769987759</v>
@@ -23570,13 +23570,13 @@
         <v>-0.1656250000000057</v>
       </c>
       <c r="U312">
-        <v>0.9998438979717141</v>
+        <v>-0.0001561020282858649</v>
       </c>
       <c r="V312">
-        <v>0.9997917057218441</v>
+        <v>-0.0002082942781559405</v>
       </c>
       <c r="W312">
-        <v>1.001566906925729</v>
+        <v>0.001566906925728695</v>
       </c>
     </row>
     <row r="313" spans="1:23">
@@ -23611,7 +23611,7 @@
         <v>0.7566401103194191</v>
       </c>
       <c r="K313">
-        <v>43.07314320528837</v>
+        <v>-0.06926856794711628</v>
       </c>
       <c r="L313">
         <v>-0.01422100713745682</v>
@@ -23641,13 +23641,13 @@
         <v>-0.1437500000000114</v>
       </c>
       <c r="U313">
-        <v>0.999895915733378</v>
+        <v>-0.0001040842666220065</v>
       </c>
       <c r="V313">
-        <v>0.9998749973957788</v>
+        <v>-0.0001250026042212138</v>
       </c>
       <c r="W313">
-        <v>1.000938673341677</v>
+        <v>0.0009386733416769655</v>
       </c>
     </row>
     <row r="314" spans="1:23">
@@ -23682,7 +23682,7 @@
         <v>0.8619946042975999</v>
       </c>
       <c r="K314">
-        <v>46.29415156778986</v>
+        <v>-0.0370584843221014</v>
       </c>
       <c r="L314">
         <v>-0.01371966010125808</v>
@@ -23712,13 +23712,13 @@
         <v>-0.1187500000000341</v>
       </c>
       <c r="U314">
-        <v>0.9999375429392292</v>
+        <v>-6.245706077079305E-05</v>
       </c>
       <c r="V314">
-        <v>0.9999791636280293</v>
+        <v>-2.083637197070054E-05</v>
       </c>
       <c r="W314">
-        <v>1.000625195373554</v>
+        <v>0.0006251953735543214</v>
       </c>
     </row>
     <row r="315" spans="1:23">
@@ -23753,7 +23753,7 @@
         <v>0.739053624373501</v>
       </c>
       <c r="K315">
-        <v>42.49746034368246</v>
+        <v>-0.07502539656317547</v>
       </c>
       <c r="L315">
         <v>-0.01312336351431341</v>
@@ -23783,13 +23783,13 @@
         <v>-0.1062499999999886</v>
       </c>
       <c r="U315">
-        <v>0.9998854882365188</v>
+        <v>-0.0001145117634812065</v>
       </c>
       <c r="V315">
-        <v>0.9998958159693281</v>
+        <v>-0.0001041840306719166</v>
       </c>
       <c r="W315">
-        <v>0.9990627928772259</v>
+        <v>-0.0009372071227741197</v>
       </c>
     </row>
     <row r="316" spans="1:23">
@@ -23824,7 +23824,7 @@
         <v>0.6157888286623099</v>
       </c>
       <c r="K316">
-        <v>38.11072447951712</v>
+        <v>-0.1188927552048288</v>
       </c>
       <c r="L316">
         <v>-0.01291453828628804</v>
@@ -23854,13 +23854,13 @@
         <v>-0.1156249999999943</v>
       </c>
       <c r="U316">
-        <v>0.9998750637695344</v>
+        <v>-0.000124936230465611</v>
       </c>
       <c r="V316">
-        <v>0.9997916102277699</v>
+        <v>-0.0002083897722301442</v>
       </c>
       <c r="W316">
-        <v>0.9987492182614133</v>
+        <v>-0.001250781738586726</v>
       </c>
     </row>
     <row r="317" spans="1:23">
@@ -23895,7 +23895,7 @@
         <v>0.8352458684814376</v>
       </c>
       <c r="K317">
-        <v>45.51138802849105</v>
+        <v>-0.04488611971508955</v>
       </c>
       <c r="L317">
         <v>-0.01233838017491934</v>
@@ -23925,13 +23925,13 @@
         <v>-0.09374999999997158</v>
       </c>
       <c r="U317">
-        <v>0.9999271114258047</v>
+        <v>-7.28885741952956E-05</v>
       </c>
       <c r="V317">
-        <v>0.9998957833962108</v>
+        <v>-0.0001042166037892311</v>
       </c>
       <c r="W317">
-        <v>1.001565435190983</v>
+        <v>0.001565435190983067</v>
       </c>
     </row>
     <row r="318" spans="1:23">
@@ -23966,7 +23966,7 @@
         <v>0.7645950220789618</v>
       </c>
       <c r="K318">
-        <v>43.32977326311124</v>
+        <v>-0.06670226736888762</v>
       </c>
       <c r="L318">
         <v>-0.01175882840539922</v>
@@ -23996,13 +23996,13 @@
         <v>-0.05937499999998863</v>
       </c>
       <c r="U318">
-        <v>0.9999166927001979</v>
+        <v>-8.33072998021045E-05</v>
       </c>
       <c r="V318">
-        <v>0.9998749270407737</v>
+        <v>-0.0001250729592262578</v>
       </c>
       <c r="W318">
-        <v>0.9993748046264458</v>
+        <v>-0.0006251953735542104</v>
       </c>
     </row>
     <row r="319" spans="1:23">
@@ -24037,7 +24037,7 @@
         <v>0.7320065212431343</v>
       </c>
       <c r="K319">
-        <v>42.26349683243353</v>
+        <v>-0.07736503167566466</v>
       </c>
       <c r="L319">
         <v>-0.0112850912619945</v>
@@ -24067,13 +24067,13 @@
         <v>-0.006249999999994316</v>
       </c>
       <c r="U319">
-        <v>0.9999166857595135</v>
+        <v>-8.331424048646507E-05</v>
       </c>
       <c r="V319">
-        <v>0.9998749113955719</v>
+        <v>-0.0001250886044280586</v>
       </c>
       <c r="W319">
-        <v>0.9996872067563342</v>
+        <v>-0.0003127932436658432</v>
       </c>
     </row>
     <row r="320" spans="1:23">
@@ -24108,7 +24108,7 @@
         <v>0.7320065212431343</v>
       </c>
       <c r="K320">
-        <v>42.26349683243353</v>
+        <v>-0.07736503167566466</v>
       </c>
       <c r="L320">
         <v>-0.01086461208810009</v>
@@ -24138,13 +24138,13 @@
         <v>0.01249999999998863</v>
       </c>
       <c r="U320">
-        <v>0.999937509113254</v>
+        <v>-6.249088674603609E-05</v>
       </c>
       <c r="V320">
-        <v>0.9999374478732277</v>
+        <v>-6.255212677230837E-05</v>
       </c>
       <c r="W320">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:23">
@@ -24179,7 +24179,7 @@
         <v>0.6989954183335272</v>
       </c>
       <c r="K321">
-        <v>41.14168942369146</v>
+        <v>-0.08858310576308542</v>
       </c>
       <c r="L321">
         <v>-0.0105774367860011</v>
@@ -24209,13 +24209,13 @@
         <v>-2.842170943040401E-14</v>
       </c>
       <c r="U321">
-        <v>0.9999062578118491</v>
+        <v>-9.374218815094704E-05</v>
       </c>
       <c r="V321">
-        <v>0.9999165919469524</v>
+        <v>-8.340805304762888E-05</v>
       </c>
       <c r="W321">
-        <v>0.9996871088861076</v>
+        <v>-0.0003128911138924328</v>
       </c>
     </row>
     <row r="322" spans="1:23">
@@ -24250,7 +24250,7 @@
         <v>0.6989954183335273</v>
       </c>
       <c r="K322">
-        <v>41.14168942369147</v>
+        <v>-0.08858310576308531</v>
       </c>
       <c r="L322">
         <v>-0.01035087802455695</v>
@@ -24280,13 +24280,13 @@
         <v>-0.02500000000000568</v>
       </c>
       <c r="U322">
-        <v>0.9999062490234273</v>
+        <v>-9.375097657271514E-05</v>
       </c>
       <c r="V322">
-        <v>0.9999374387421017</v>
+        <v>-6.256125789827482E-05</v>
       </c>
       <c r="W322">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:23">
@@ -24321,7 +24321,7 @@
         <v>0.6989954183335274</v>
       </c>
       <c r="K323">
-        <v>41.14168942369147</v>
+        <v>-0.08858310576308531</v>
       </c>
       <c r="L323">
         <v>-0.01013784596559802</v>
@@ -24351,13 +24351,13 @@
         <v>-0.03437500000001137</v>
       </c>
       <c r="U323">
-        <v>0.999927075737056</v>
+        <v>-7.292426294402965E-05</v>
       </c>
       <c r="V323">
-        <v>0.9998957247132428</v>
+        <v>-0.0001042752867571606</v>
       </c>
       <c r="W323">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:23">
@@ -24392,7 +24392,7 @@
         <v>0.6640664462247802</v>
       </c>
       <c r="K324">
-        <v>39.90624579513209</v>
+        <v>-0.1009375420486791</v>
       </c>
       <c r="L324">
         <v>-0.01002351152083794</v>
@@ -24422,13 +24422,13 @@
         <v>-0.015625</v>
       </c>
       <c r="U324">
-        <v>0.9999166519071087</v>
+        <v>-8.334809289134437E-05</v>
       </c>
       <c r="V324">
-        <v>0.9999165710710189</v>
+        <v>-8.342892898105525E-05</v>
       </c>
       <c r="W324">
-        <v>0.9996870109546165</v>
+        <v>-0.0003129890453834605</v>
       </c>
     </row>
     <row r="325" spans="1:23">
@@ -24463,7 +24463,7 @@
         <v>0.7166667038194526</v>
       </c>
       <c r="K325">
-        <v>41.74757407625626</v>
+        <v>-0.08252425923743745</v>
       </c>
       <c r="L325">
         <v>-0.009826021156624155</v>
@@ -24493,13 +24493,13 @@
         <v>-0.03125</v>
       </c>
       <c r="U325">
-        <v>0.9999062255795779</v>
+        <v>-9.377442042213247E-05</v>
       </c>
       <c r="V325">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W325">
-        <v>1.000313087038197</v>
+        <v>0.0003130870381966577</v>
       </c>
     </row>
     <row r="326" spans="1:23">
@@ -24534,7 +24534,7 @@
         <v>0.7720353960243707</v>
       </c>
       <c r="K326">
-        <v>43.56771866727164</v>
+        <v>-0.06432281332728357</v>
       </c>
       <c r="L326">
         <v>-0.009441155675667948</v>
@@ -24564,13 +24564,13 @@
         <v>-0.04062500000003411</v>
       </c>
       <c r="U326">
-        <v>0.9998853760706918</v>
+        <v>-0.0001146239293081663</v>
       </c>
       <c r="V326">
-        <v>1.000104294862435</v>
+        <v>0.0001042948624352391</v>
       </c>
       <c r="W326">
-        <v>1.000312989045383</v>
+        <v>0.0003129890453834605</v>
       </c>
     </row>
     <row r="327" spans="1:23">
@@ -24605,7 +24605,7 @@
         <v>0.7720353960243707</v>
       </c>
       <c r="K327">
-        <v>43.56771866727164</v>
+        <v>-0.06432281332728357</v>
       </c>
       <c r="L327">
         <v>-0.008932894849221436</v>
@@ -24635,13 +24635,13 @@
         <v>-0.05624999999997726</v>
       </c>
       <c r="U327">
-        <v>0.9998957844823093</v>
+        <v>-0.0001042155176906867</v>
       </c>
       <c r="V327">
-        <v>0.9999999999999998</v>
+        <v>-2.220446049250313E-16</v>
       </c>
       <c r="W327">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:23">
@@ -24676,7 +24676,7 @@
         <v>0.652028806648089</v>
       </c>
       <c r="K328">
-        <v>39.46836786526947</v>
+        <v>-0.1053163213473053</v>
       </c>
       <c r="L328">
         <v>-0.008691242642440162</v>
@@ -24706,13 +24706,13 @@
         <v>-0.06562499999998295</v>
       </c>
       <c r="U328">
-        <v>0.9998749283443641</v>
+        <v>-0.000125071655635911</v>
       </c>
       <c r="V328">
-        <v>0.9998748592166188</v>
+        <v>-0.0001251407833812168</v>
       </c>
       <c r="W328">
-        <v>0.9990613266583229</v>
+        <v>-0.0009386733416770765</v>
       </c>
     </row>
   </sheetData>

--- a/data_clean/DNB 16.12.2020.xlsx
+++ b/data_clean/DNB 16.12.2020.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="351">
   <si>
     <t>tid</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>open_15_sma</t>
+  </si>
+  <si>
+    <t>open_3_sma</t>
   </si>
   <si>
     <t>sma8-16</t>
@@ -1421,13 +1424,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W328"/>
+  <dimension ref="A1:X328"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:24">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1497,10 +1500,13 @@
       <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:23">
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2">
         <v>162.2</v>
@@ -1557,7 +1563,7 @@
         <v>162.2</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>162.2</v>
       </c>
       <c r="U2">
         <v>0</v>
@@ -1568,10 +1574,13 @@
       <c r="W2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:23">
+      <c r="X2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3">
         <v>161.8</v>
@@ -1628,7 +1637,7 @@
         <v>162</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -1639,10 +1648,13 @@
       <c r="W3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:23">
+      <c r="X3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4">
         <v>161.75</v>
@@ -1699,21 +1711,24 @@
         <v>161.9166666666667</v>
       </c>
       <c r="T4">
+        <v>161.9166666666667</v>
+      </c>
+      <c r="U4">
         <v>0</v>
-      </c>
-      <c r="U4">
-        <v>-0.0005144032921811093</v>
       </c>
       <c r="V4">
         <v>-0.0005144032921811093</v>
       </c>
       <c r="W4">
+        <v>-0.0005144032921811093</v>
+      </c>
+      <c r="X4">
         <v>-0.0003090234857849872</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:24">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5">
         <v>161.75</v>
@@ -1770,21 +1785,24 @@
         <v>161.875</v>
       </c>
       <c r="T5">
+        <v>161.7666666666667</v>
+      </c>
+      <c r="U5">
         <v>0</v>
-      </c>
-      <c r="U5">
-        <v>-0.0002573340195572982</v>
       </c>
       <c r="V5">
         <v>-0.0002573340195572982</v>
       </c>
       <c r="W5">
+        <v>-0.0002573340195572982</v>
+      </c>
+      <c r="X5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:24">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6">
         <v>161.1</v>
@@ -1841,21 +1859,24 @@
         <v>161.72</v>
       </c>
       <c r="T6">
+        <v>161.5333333333333</v>
+      </c>
+      <c r="U6">
         <v>0</v>
-      </c>
-      <c r="U6">
-        <v>-0.0009575289575289858</v>
       </c>
       <c r="V6">
         <v>-0.0009575289575289858</v>
       </c>
       <c r="W6">
+        <v>-0.0009575289575289858</v>
+      </c>
+      <c r="X6">
         <v>-0.004018547140649198</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:24">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B7">
         <v>161.25</v>
@@ -1912,21 +1933,24 @@
         <v>161.6416666666667</v>
       </c>
       <c r="T7">
+        <v>161.3666666666667</v>
+      </c>
+      <c r="U7">
         <v>0</v>
-      </c>
-      <c r="U7">
-        <v>-0.0004843762882347225</v>
       </c>
       <c r="V7">
         <v>-0.0004843762882347225</v>
       </c>
       <c r="W7">
+        <v>-0.0004843762882347225</v>
+      </c>
+      <c r="X7">
         <v>0.0009310986964619072</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:24">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B8">
         <v>161.1</v>
@@ -1983,21 +2007,24 @@
         <v>161.5642857142857</v>
       </c>
       <c r="T8">
+        <v>161.15</v>
+      </c>
+      <c r="U8">
         <v>0</v>
-      </c>
-      <c r="U8">
-        <v>-0.0004787190950000797</v>
       </c>
       <c r="V8">
         <v>-0.0004787190950000797</v>
       </c>
       <c r="W8">
+        <v>-0.0004787190950000797</v>
+      </c>
+      <c r="X8">
         <v>-0.0009302325581396209</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:24">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B9">
         <v>161.45</v>
@@ -2054,21 +2081,24 @@
         <v>161.55</v>
       </c>
       <c r="T9">
+        <v>161.2666666666667</v>
+      </c>
+      <c r="U9">
         <v>0</v>
-      </c>
-      <c r="U9">
-        <v>-8.842123878149977E-05</v>
       </c>
       <c r="V9">
         <v>-8.842123878149977E-05</v>
       </c>
       <c r="W9">
+        <v>-8.842123878149977E-05</v>
+      </c>
+      <c r="X9">
         <v>0.002172563625077562</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:24">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10">
         <v>161.45</v>
@@ -2125,21 +2155,24 @@
         <v>161.5388888888889</v>
       </c>
       <c r="T10">
+        <v>161.3333333333333</v>
+      </c>
+      <c r="U10">
         <v>-0.08263888888890847</v>
-      </c>
-      <c r="U10">
-        <v>-6.877815605765836E-05</v>
       </c>
       <c r="V10">
         <v>-6.877815605765836E-05</v>
       </c>
       <c r="W10">
+        <v>-6.877815605765836E-05</v>
+      </c>
+      <c r="X10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:24">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B11">
         <v>161.1</v>
@@ -2196,21 +2229,24 @@
         <v>161.495</v>
       </c>
       <c r="T11">
+        <v>161.3333333333333</v>
+      </c>
+      <c r="U11">
         <v>-0.1262499999999989</v>
-      </c>
-      <c r="U11">
-        <v>-0.0002716924029301238</v>
       </c>
       <c r="V11">
         <v>-0.0002716924029301238</v>
       </c>
       <c r="W11">
+        <v>-0.0002716924029301238</v>
+      </c>
+      <c r="X11">
         <v>-0.002167853824713517</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:24">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B12">
         <v>161</v>
@@ -2267,21 +2303,24 @@
         <v>161.45</v>
       </c>
       <c r="T12">
+        <v>161.1833333333333</v>
+      </c>
+      <c r="U12">
         <v>-0.1750000000000114</v>
-      </c>
-      <c r="U12">
-        <v>-0.0002786463977212383</v>
       </c>
       <c r="V12">
         <v>-0.0002786463977212383</v>
       </c>
       <c r="W12">
+        <v>-0.0002786463977212383</v>
+      </c>
+      <c r="X12">
         <v>-0.0006207324643078271</v>
       </c>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:24">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B13">
         <v>161.3</v>
@@ -2338,21 +2377,24 @@
         <v>161.4375</v>
       </c>
       <c r="T13">
+        <v>161.1333333333333</v>
+      </c>
+      <c r="U13">
         <v>-0.21875</v>
-      </c>
-      <c r="U13">
-        <v>-7.742335088267716E-05</v>
       </c>
       <c r="V13">
         <v>-7.742335088267716E-05</v>
       </c>
       <c r="W13">
+        <v>-7.742335088267716E-05</v>
+      </c>
+      <c r="X13">
         <v>0.001863354037267229</v>
       </c>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:24">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B14">
         <v>161.25</v>
@@ -2409,21 +2451,24 @@
         <v>161.4230769230769</v>
       </c>
       <c r="T14">
+        <v>161.1833333333333</v>
+      </c>
+      <c r="U14">
         <v>-0.1855769230769226</v>
-      </c>
-      <c r="U14">
-        <v>-8.934155275608369E-05</v>
       </c>
       <c r="V14">
         <v>-8.934155275608369E-05</v>
       </c>
       <c r="W14">
+        <v>-8.934155275608369E-05</v>
+      </c>
+      <c r="X14">
         <v>-0.000309981401116044</v>
       </c>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:24">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B15">
         <v>161.25</v>
@@ -2480,21 +2525,24 @@
         <v>161.4107142857143</v>
       </c>
       <c r="T15">
+        <v>161.2666666666667</v>
+      </c>
+      <c r="U15">
         <v>-0.1732142857142662</v>
-      </c>
-      <c r="U15">
-        <v>-7.658531604215479E-05</v>
       </c>
       <c r="V15">
         <v>-7.658531604215479E-05</v>
       </c>
       <c r="W15">
+        <v>-7.658531604215479E-05</v>
+      </c>
+      <c r="X15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:24">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B16">
         <v>161.1</v>
@@ -2551,21 +2599,24 @@
         <v>161.39</v>
       </c>
       <c r="T16">
+        <v>161.2</v>
+      </c>
+      <c r="U16">
         <v>-0.1525000000000034</v>
-      </c>
-      <c r="U16">
-        <v>-0.0001283327801748779</v>
       </c>
       <c r="V16">
         <v>-0.0001283327801748779</v>
       </c>
       <c r="W16">
+        <v>-0.0001283327801748779</v>
+      </c>
+      <c r="X16">
         <v>-0.0009302325581396209</v>
       </c>
     </row>
-    <row r="17" spans="1:23">
+    <row r="17" spans="1:24">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B17">
         <v>161.3</v>
@@ -2622,21 +2673,24 @@
         <v>161.33</v>
       </c>
       <c r="T17">
+        <v>161.2166666666667</v>
+      </c>
+      <c r="U17">
         <v>-0.1656250000000057</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>-3.485346056120164E-05</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>-0.0003717702459877792</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>0.001241464928615876</v>
       </c>
     </row>
-    <row r="18" spans="1:23">
+    <row r="18" spans="1:24">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B18">
         <v>161.2</v>
@@ -2693,21 +2747,24 @@
         <v>161.29</v>
       </c>
       <c r="T18">
+        <v>161.2</v>
+      </c>
+      <c r="U18">
         <v>-0.1343750000000057</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>-6.720345904176472E-05</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>-0.0002479390070043719</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>-0.000619962802231977</v>
       </c>
     </row>
-    <row r="19" spans="1:23">
+    <row r="19" spans="1:24">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B19">
         <v>161.2</v>
@@ -2764,21 +2821,24 @@
         <v>161.2533333333334</v>
       </c>
       <c r="T19">
+        <v>161.2333333333333</v>
+      </c>
+      <c r="U19">
         <v>-0.08437500000002274</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>-5.974042280010305E-05</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>-0.000227333788000661</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:23">
+    <row r="20" spans="1:24">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B20">
         <v>161.25</v>
@@ -2835,21 +2895,24 @@
         <v>161.22</v>
       </c>
       <c r="T20">
+        <v>161.2166666666667</v>
+      </c>
+      <c r="U20">
         <v>-0.02187500000002274</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>-3.714679962196765E-05</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>-0.0002067140730942496</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>0.0003101736972705993</v>
       </c>
     </row>
-    <row r="21" spans="1:23">
+    <row r="21" spans="1:24">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B21">
         <v>161.35</v>
@@ -2906,21 +2969,24 @@
         <v>161.2366666666667</v>
       </c>
       <c r="T21">
+        <v>161.2666666666667</v>
+      </c>
+      <c r="U21">
         <v>0.009374999999977263</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>-2.446343531858908E-06</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>0.0001033784063184662</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>0.0006201550387596733</v>
       </c>
     </row>
-    <row r="22" spans="1:23">
+    <row r="22" spans="1:24">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B22">
         <v>161.5</v>
@@ -2977,21 +3043,24 @@
         <v>161.2533333333334</v>
       </c>
       <c r="T22">
+        <v>161.3666666666667</v>
+      </c>
+      <c r="U22">
         <v>0.01562499999997158</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>4.205391311651319E-05</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>0.0001033677203283734</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>0.0009296560272700205</v>
       </c>
     </row>
-    <row r="23" spans="1:23">
+    <row r="23" spans="1:24">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B23">
         <v>161.5</v>
@@ -3048,21 +3117,24 @@
         <v>161.28</v>
       </c>
       <c r="T23">
+        <v>161.45</v>
+      </c>
+      <c r="U23">
         <v>0.03124999999997158</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>3.822922241747406E-05</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>0.0001653712584752665</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:23">
+    <row r="24" spans="1:24">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B24">
         <v>161.75</v>
@@ -3119,21 +3191,24 @@
         <v>161.3</v>
       </c>
       <c r="T24">
+        <v>161.5833333333333</v>
+      </c>
+      <c r="U24">
         <v>0.07187499999997726</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>0.0001022614476180461</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>0.0001240079365079083</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>0.001547987616099089</v>
       </c>
     </row>
-    <row r="25" spans="1:23">
+    <row r="25" spans="1:24">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B25">
         <v>161.6</v>
@@ -3190,21 +3265,24 @@
         <v>161.31</v>
       </c>
       <c r="T25">
+        <v>161.6166666666666</v>
+      </c>
+      <c r="U25">
         <v>0.1000000000000227</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>5.500327774643488E-05</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>6.199628022307557E-05</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>-0.0009273570324574987</v>
       </c>
     </row>
-    <row r="26" spans="1:23">
+    <row r="26" spans="1:24">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B26">
         <v>161.45</v>
@@ -3261,21 +3339,24 @@
         <v>161.3333333333333</v>
       </c>
       <c r="T26">
+        <v>161.6</v>
+      </c>
+      <c r="U26">
         <v>0.1312499999999943</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>1.342455143915622E-05</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>0.0001446490194862982</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>-0.0009282178217822068</v>
       </c>
     </row>
-    <row r="27" spans="1:23">
+    <row r="27" spans="1:24">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B27">
         <v>161.5</v>
@@ -3332,21 +3413,24 @@
         <v>161.3666666666667</v>
       </c>
       <c r="T27">
+        <v>161.5166666666667</v>
+      </c>
+      <c r="U27">
         <v>0.1437500000000114</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>2.430684967036356E-05</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>0.0002066115702479276</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>0.0003096934035304866</v>
       </c>
     </row>
-    <row r="28" spans="1:23">
+    <row r="28" spans="1:24">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B28">
         <v>161.5</v>
@@ -3403,21 +3487,24 @@
         <v>161.38</v>
       </c>
       <c r="T28">
+        <v>161.4833333333333</v>
+      </c>
+      <c r="U28">
         <v>0.1437500000000114</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>2.250579524210039E-05</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>8.262755628996032E-05</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:23">
+    <row r="29" spans="1:24">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B29">
         <v>161.65</v>
@@ -3474,21 +3561,24 @@
         <v>161.4066666666667</v>
       </c>
       <c r="T29">
+        <v>161.55</v>
+      </c>
+      <c r="U29">
         <v>0.1593750000000114</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>5.40883410125037E-05</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>0.0001652414590820328</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>0.0009287925696594979</v>
       </c>
     </row>
-    <row r="30" spans="1:23">
+    <row r="30" spans="1:24">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B30">
         <v>161.65</v>
@@ -3545,21 +3635,24 @@
         <v>161.4333333333333</v>
       </c>
       <c r="T30">
+        <v>161.6</v>
+      </c>
+      <c r="U30">
         <v>0.1531250000000171</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>5.035538695818964E-05</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>0.0001652141588535105</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:23">
+    <row r="31" spans="1:24">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B31">
         <v>161.95</v>
@@ -3616,21 +3709,24 @@
         <v>161.49</v>
       </c>
       <c r="T31">
+        <v>161.75</v>
+      </c>
+      <c r="U31">
         <v>0.1656250000000341</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>0.0001089452603471042</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>0.0003510220937434916</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>0.001855861429013173</v>
       </c>
     </row>
-    <row r="32" spans="1:23">
+    <row r="32" spans="1:24">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B32">
         <v>161.9</v>
@@ -3687,21 +3783,24 @@
         <v>161.53</v>
       </c>
       <c r="T32">
+        <v>161.8333333333333</v>
+      </c>
+      <c r="U32">
         <v>0.1343750000000057</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>-6.194251734381595E-05</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>0.0002476933556259109</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>-0.0003087372645876885</v>
       </c>
     </row>
-    <row r="33" spans="1:23">
+    <row r="33" spans="1:24">
       <c r="A33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B33">
         <v>161.95</v>
@@ -3758,21 +3857,24 @@
         <v>161.58</v>
       </c>
       <c r="T33">
+        <v>161.9333333333333</v>
+      </c>
+      <c r="U33">
         <v>0.1375000000000171</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>3.097317722855486E-05</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>0.0003095400235249013</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>0.0003088326127238528</v>
       </c>
     </row>
-    <row r="34" spans="1:23">
+    <row r="34" spans="1:24">
       <c r="A34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B34">
         <v>161.9</v>
@@ -3829,21 +3931,24 @@
         <v>161.6266666666667</v>
       </c>
       <c r="T34">
+        <v>161.9166666666667</v>
+      </c>
+      <c r="U34">
         <v>0.1500000000000057</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>3.097221792058846E-05</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>0.0002888146222719268</v>
       </c>
-      <c r="W34">
+      <c r="X34">
         <v>-0.0003087372645876885</v>
       </c>
     </row>
-    <row r="35" spans="1:23">
+    <row r="35" spans="1:24">
       <c r="A35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B35">
         <v>161.85</v>
@@ -3900,21 +4005,24 @@
         <v>161.6666666666666</v>
       </c>
       <c r="T35">
+        <v>161.9</v>
+      </c>
+      <c r="U35">
         <v>0.1531250000000171</v>
       </c>
-      <c r="U35">
+      <c r="V35">
         <v>2.0647505781346E-05</v>
       </c>
-      <c r="V35">
+      <c r="W35">
         <v>0.0002474839135453433</v>
       </c>
-      <c r="W35">
+      <c r="X35">
         <v>-0.0003088326127239638</v>
       </c>
     </row>
-    <row r="36" spans="1:23">
+    <row r="36" spans="1:24">
       <c r="A36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B36">
         <v>161.8</v>
@@ -3971,21 +4079,24 @@
         <v>161.6966666666667</v>
       </c>
       <c r="T36">
+        <v>161.85</v>
+      </c>
+      <c r="U36">
         <v>0.1562499999999716</v>
       </c>
-      <c r="U36">
+      <c r="V36">
         <v>0.0001445295562942928</v>
       </c>
-      <c r="V36">
+      <c r="W36">
         <v>0.0001855670103094731</v>
       </c>
-      <c r="W36">
+      <c r="X36">
         <v>-0.0003089280197713373</v>
       </c>
     </row>
-    <row r="37" spans="1:23">
+    <row r="37" spans="1:24">
       <c r="A37" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B37">
         <v>161.9</v>
@@ -4042,21 +4153,24 @@
         <v>161.7233333333333</v>
       </c>
       <c r="T37">
+        <v>161.85</v>
+      </c>
+      <c r="U37">
         <v>0.1531250000000171</v>
       </c>
-      <c r="U37">
+      <c r="V37">
         <v>0.0001341866226258759</v>
       </c>
-      <c r="V37">
+      <c r="W37">
         <v>0.0001649178502958204</v>
       </c>
-      <c r="W37">
+      <c r="X37">
         <v>0.0006180469715697523</v>
       </c>
     </row>
-    <row r="38" spans="1:23">
+    <row r="38" spans="1:24">
       <c r="A38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B38">
         <v>161.75</v>
@@ -4113,21 +4227,24 @@
         <v>161.74</v>
       </c>
       <c r="T38">
+        <v>161.8166666666667</v>
+      </c>
+      <c r="U38">
         <v>0.1500000000000057</v>
       </c>
-      <c r="U38">
+      <c r="V38">
         <v>0.000134168618992403</v>
       </c>
-      <c r="V38">
+      <c r="W38">
         <v>0.0001030566605517702</v>
       </c>
-      <c r="W38">
+      <c r="X38">
         <v>-0.0009264978381717803</v>
       </c>
     </row>
-    <row r="39" spans="1:23">
+    <row r="39" spans="1:24">
       <c r="A39" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B39">
         <v>161.7</v>
@@ -4184,21 +4301,24 @@
         <v>161.7366666666667</v>
       </c>
       <c r="T39">
+        <v>161.7833333333333</v>
+      </c>
+      <c r="U39">
         <v>0.1062500000000171</v>
       </c>
-      <c r="U39">
+      <c r="V39">
         <v>5.1596392380171E-05</v>
       </c>
-      <c r="V39">
+      <c r="W39">
         <v>-2.060920819424439E-05</v>
       </c>
-      <c r="W39">
+      <c r="X39">
         <v>-0.0003091190108192032</v>
       </c>
     </row>
-    <row r="40" spans="1:23">
+    <row r="40" spans="1:24">
       <c r="A40" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B40">
         <v>161.85</v>
@@ -4255,21 +4375,24 @@
         <v>161.7533333333333</v>
       </c>
       <c r="T40">
+        <v>161.7666666666667</v>
+      </c>
+      <c r="U40">
         <v>0.09375000000002842</v>
       </c>
-      <c r="U40">
+      <c r="V40">
         <v>8.254996852774532E-05</v>
       </c>
-      <c r="V40">
+      <c r="W40">
         <v>0.0001030481647121828</v>
       </c>
-      <c r="W40">
+      <c r="X40">
         <v>0.0009276437847867136</v>
       </c>
     </row>
-    <row r="41" spans="1:23">
+    <row r="41" spans="1:24">
       <c r="A41" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B41">
         <v>161.8</v>
@@ -4326,21 +4449,24 @@
         <v>161.7766666666667</v>
       </c>
       <c r="T41">
+        <v>161.7833333333333</v>
+      </c>
+      <c r="U41">
         <v>0.0625</v>
       </c>
-      <c r="U41">
+      <c r="V41">
         <v>0.0001444505205379087</v>
       </c>
-      <c r="V41">
+      <c r="W41">
         <v>0.0001442525656352167</v>
       </c>
-      <c r="W41">
+      <c r="X41">
         <v>-0.0003089280197713373</v>
       </c>
     </row>
-    <row r="42" spans="1:23">
+    <row r="42" spans="1:24">
       <c r="A42" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B42">
         <v>161.75</v>
@@ -4397,21 +4523,24 @@
         <v>161.7933333333334</v>
       </c>
       <c r="T42">
+        <v>161.8</v>
+      </c>
+      <c r="U42">
         <v>0.02500000000000568</v>
       </c>
-      <c r="U42">
+      <c r="V42">
         <v>0.0001547460617128404</v>
       </c>
-      <c r="V42">
+      <c r="W42">
         <v>0.0001030226855953664</v>
       </c>
-      <c r="W42">
+      <c r="X42">
         <v>-0.0003090234857849872</v>
       </c>
     </row>
-    <row r="43" spans="1:23">
+    <row r="43" spans="1:24">
       <c r="A43" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B43">
         <v>161.85</v>
@@ -4468,21 +4597,24 @@
         <v>161.8166666666667</v>
       </c>
       <c r="T43">
+        <v>161.8</v>
+      </c>
+      <c r="U43">
         <v>0.003125000000011369</v>
       </c>
-      <c r="U43">
+      <c r="V43">
         <v>0.0001134628873209476</v>
       </c>
-      <c r="V43">
+      <c r="W43">
         <v>0.0001442169022207729</v>
       </c>
-      <c r="W43">
+      <c r="X43">
         <v>0.0006182380216384065</v>
       </c>
     </row>
-    <row r="44" spans="1:23">
+    <row r="44" spans="1:24">
       <c r="A44" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B44">
         <v>162</v>
@@ -4539,21 +4671,24 @@
         <v>161.84</v>
       </c>
       <c r="T44">
+        <v>161.8666666666667</v>
+      </c>
+      <c r="U44">
         <v>-0.003125000000011369</v>
       </c>
-      <c r="U44">
+      <c r="V44">
         <v>0.00015470456584743</v>
       </c>
-      <c r="V44">
+      <c r="W44">
         <v>0.0001441961067052411</v>
       </c>
-      <c r="W44">
+      <c r="X44">
         <v>0.000926784059314123</v>
       </c>
     </row>
-    <row r="45" spans="1:23">
+    <row r="45" spans="1:24">
       <c r="A45" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B45">
         <v>161.95</v>
@@ -4610,21 +4745,24 @@
         <v>161.86</v>
       </c>
       <c r="T45">
+        <v>161.9333333333333</v>
+      </c>
+      <c r="U45">
         <v>-0.01562500000002842</v>
       </c>
-      <c r="U45">
+      <c r="V45">
         <v>0.0001443685936435291</v>
       </c>
-      <c r="V45">
+      <c r="W45">
         <v>0.0001235788433020524</v>
       </c>
-      <c r="W45">
+      <c r="X45">
         <v>-0.0003086419753086656</v>
       </c>
     </row>
-    <row r="46" spans="1:23">
+    <row r="46" spans="1:24">
       <c r="A46" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B46">
         <v>161.9</v>
@@ -4681,21 +4819,24 @@
         <v>161.8566666666667</v>
       </c>
       <c r="T46">
+        <v>161.95</v>
+      </c>
+      <c r="U46">
         <v>-0.01249999999998863</v>
       </c>
-      <c r="U46">
+      <c r="V46">
         <v>0.000164968862127246</v>
       </c>
-      <c r="V46">
+      <c r="W46">
         <v>-2.059392890996214E-05</v>
       </c>
-      <c r="W46">
+      <c r="X46">
         <v>-0.0003087372645876885</v>
       </c>
     </row>
-    <row r="47" spans="1:23">
+    <row r="47" spans="1:24">
       <c r="A47" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B47">
         <v>161.85</v>
@@ -4752,21 +4893,24 @@
         <v>161.8533333333334</v>
       </c>
       <c r="T47">
+        <v>161.9</v>
+      </c>
+      <c r="U47">
         <v>0.01249999999996021</v>
       </c>
-      <c r="U47">
+      <c r="V47">
         <v>0.0001133973856748405</v>
       </c>
-      <c r="V47">
+      <c r="W47">
         <v>-2.059435302825818E-05</v>
       </c>
-      <c r="W47">
+      <c r="X47">
         <v>-0.0003088326127239638</v>
       </c>
     </row>
-    <row r="48" spans="1:23">
+    <row r="48" spans="1:24">
       <c r="A48" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B48">
         <v>161.65</v>
@@ -4823,21 +4967,24 @@
         <v>161.8333333333333</v>
       </c>
       <c r="T48">
+        <v>161.8</v>
+      </c>
+      <c r="U48">
         <v>0.003125000000011369</v>
       </c>
-      <c r="U48">
+      <c r="V48">
         <v>9.27691594081459E-05</v>
       </c>
-      <c r="V48">
+      <c r="W48">
         <v>-0.000123568662987128</v>
       </c>
-      <c r="W48">
+      <c r="X48">
         <v>-0.00123571207908546</v>
       </c>
     </row>
-    <row r="49" spans="1:23">
+    <row r="49" spans="1:24">
       <c r="A49" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B49">
         <v>161.65</v>
@@ -4894,21 +5041,24 @@
         <v>161.8166666666667</v>
       </c>
       <c r="T49">
+        <v>161.7166666666667</v>
+      </c>
+      <c r="U49">
         <v>0.003124999999982947</v>
       </c>
-      <c r="U49">
+      <c r="V49">
         <v>9.276055408991013E-05</v>
       </c>
-      <c r="V49">
+      <c r="W49">
         <v>-0.0001029866117405742</v>
       </c>
-      <c r="W49">
+      <c r="X49">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:23">
+    <row r="50" spans="1:24">
       <c r="A50" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B50">
         <v>161.65</v>
@@ -4965,21 +5115,24 @@
         <v>161.8033333333333</v>
       </c>
       <c r="T50">
+        <v>161.65</v>
+      </c>
+      <c r="U50">
         <v>0.006249999999994316</v>
       </c>
-      <c r="U50">
+      <c r="V50">
         <v>8.244617810437838E-05</v>
       </c>
-      <c r="V50">
+      <c r="W50">
         <v>-8.239777525997916E-05</v>
       </c>
-      <c r="W50">
+      <c r="X50">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:23">
+    <row r="51" spans="1:24">
       <c r="A51" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B51">
         <v>161.7</v>
@@ -5036,21 +5189,24 @@
         <v>161.7966666666667</v>
       </c>
       <c r="T51">
+        <v>161.6666666666667</v>
+      </c>
+      <c r="U51">
         <v>-0.003124999999982947</v>
       </c>
-      <c r="U51">
+      <c r="V51">
         <v>7.213445863096801E-05</v>
       </c>
-      <c r="V51">
+      <c r="W51">
         <v>-4.120228260662273E-05</v>
       </c>
-      <c r="W51">
+      <c r="X51">
         <v>0.0003093102381688251</v>
       </c>
     </row>
-    <row r="52" spans="1:23">
+    <row r="52" spans="1:24">
       <c r="A52" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B52">
         <v>161.7</v>
@@ -5107,21 +5263,24 @@
         <v>161.7833333333333</v>
       </c>
       <c r="T52">
+        <v>161.6833333333333</v>
+      </c>
+      <c r="U52">
         <v>-0.03437500000001137</v>
       </c>
-      <c r="U52">
+      <c r="V52">
         <v>4.121671750056954E-05</v>
       </c>
-      <c r="V52">
+      <c r="W52">
         <v>-8.240796060887678E-05</v>
       </c>
-      <c r="W52">
+      <c r="X52">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:23">
+    <row r="53" spans="1:24">
       <c r="A53" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B53">
         <v>161.75</v>
@@ -5178,21 +5337,24 @@
         <v>161.7833333333333</v>
       </c>
       <c r="T53">
+        <v>161.7166666666667</v>
+      </c>
+      <c r="U53">
         <v>-0.04999999999998295</v>
       </c>
-      <c r="U53">
+      <c r="V53">
         <v>5.151877344089506E-05</v>
       </c>
-      <c r="V53">
+      <c r="W53">
         <v>0</v>
       </c>
-      <c r="W53">
+      <c r="X53">
         <v>0.0003092145949290526</v>
       </c>
     </row>
-    <row r="54" spans="1:23">
+    <row r="54" spans="1:24">
       <c r="A54" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B54">
         <v>161.75</v>
@@ -5249,21 +5411,24 @@
         <v>161.7866666666667</v>
       </c>
       <c r="T54">
+        <v>161.7333333333333</v>
+      </c>
+      <c r="U54">
         <v>-0.06874999999999432</v>
       </c>
-      <c r="U54">
+      <c r="V54">
         <v>0</v>
       </c>
-      <c r="V54">
+      <c r="W54">
         <v>2.060368806033885E-05</v>
       </c>
-      <c r="W54">
+      <c r="X54">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:23">
+    <row r="55" spans="1:24">
       <c r="A55" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B55">
         <v>161.75</v>
@@ -5320,21 +5485,24 @@
         <v>161.78</v>
       </c>
       <c r="T55">
+        <v>161.75</v>
+      </c>
+      <c r="U55">
         <v>-0.08437499999999432</v>
       </c>
-      <c r="U55">
+      <c r="V55">
         <v>3.09096716362145E-05</v>
       </c>
-      <c r="V55">
+      <c r="W55">
         <v>-4.12065271138129E-05</v>
       </c>
-      <c r="W55">
+      <c r="X55">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:23">
+    <row r="56" spans="1:24">
       <c r="A56" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B56">
         <v>161.65</v>
@@ -5391,21 +5559,24 @@
         <v>161.77</v>
       </c>
       <c r="T56">
+        <v>161.7166666666667</v>
+      </c>
+      <c r="U56">
         <v>-0.07187500000003411</v>
       </c>
-      <c r="U56">
+      <c r="V56">
         <v>4.121162167725068E-05</v>
       </c>
-      <c r="V56">
+      <c r="W56">
         <v>-6.181233774271711E-05</v>
       </c>
-      <c r="W56">
+      <c r="X56">
         <v>-0.0006182380216382954</v>
       </c>
     </row>
-    <row r="57" spans="1:23">
+    <row r="57" spans="1:24">
       <c r="A57" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B57">
         <v>161.5</v>
@@ -5462,21 +5633,24 @@
         <v>161.7533333333334</v>
       </c>
       <c r="T57">
+        <v>161.6333333333333</v>
+      </c>
+      <c r="U57">
         <v>-0.07187500000003411</v>
       </c>
-      <c r="U57">
+      <c r="V57">
         <v>0</v>
       </c>
-      <c r="V57">
+      <c r="W57">
         <v>-0.000103026931239758</v>
       </c>
-      <c r="W57">
+      <c r="X57">
         <v>-0.0009279307145066973</v>
       </c>
     </row>
-    <row r="58" spans="1:23">
+    <row r="58" spans="1:24">
       <c r="A58" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B58">
         <v>161.5</v>
@@ -5533,21 +5707,24 @@
         <v>161.73</v>
       </c>
       <c r="T58">
+        <v>161.55</v>
+      </c>
+      <c r="U58">
         <v>-0.07500000000001705</v>
       </c>
-      <c r="U58">
+      <c r="V58">
         <v>0</v>
       </c>
-      <c r="V58">
+      <c r="W58">
         <v>-0.0001442525656349947</v>
       </c>
-      <c r="W58">
+      <c r="X58">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:23">
+    <row r="59" spans="1:24">
       <c r="A59" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B59">
         <v>161.15</v>
@@ -5604,21 +5781,24 @@
         <v>161.6733333333333</v>
       </c>
       <c r="T59">
+        <v>161.3833333333333</v>
+      </c>
+      <c r="U59">
         <v>-0.09999999999999432</v>
       </c>
-      <c r="U59">
+      <c r="V59">
         <v>-0.000103024808373986</v>
       </c>
-      <c r="V59">
+      <c r="W59">
         <v>-0.0003503782023539515</v>
       </c>
-      <c r="W59">
+      <c r="X59">
         <v>-0.00216718266253868</v>
       </c>
     </row>
-    <row r="60" spans="1:23">
+    <row r="60" spans="1:24">
       <c r="A60" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B60">
         <v>161.05</v>
@@ -5675,21 +5855,24 @@
         <v>161.6133333333333</v>
       </c>
       <c r="T60">
+        <v>161.2333333333333</v>
+      </c>
+      <c r="U60">
         <v>-0.1218750000000171</v>
       </c>
-      <c r="U60">
+      <c r="V60">
         <v>-0.0001236425082942194</v>
       </c>
-      <c r="V60">
+      <c r="W60">
         <v>-0.0003711187167539931</v>
       </c>
-      <c r="W60">
+      <c r="X60">
         <v>-0.000620539869686576</v>
       </c>
     </row>
-    <row r="61" spans="1:23">
+    <row r="61" spans="1:24">
       <c r="A61" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B61">
         <v>161.1</v>
@@ -5746,21 +5929,24 @@
         <v>161.56</v>
       </c>
       <c r="T61">
+        <v>161.1</v>
+      </c>
+      <c r="U61">
         <v>-0.1500000000000057</v>
       </c>
-      <c r="U61">
+      <c r="V61">
         <v>-0.0001751818800107552</v>
       </c>
-      <c r="V61">
+      <c r="W61">
         <v>-0.0003300057751008945</v>
       </c>
-      <c r="W61">
+      <c r="X61">
         <v>0.0003104625892578206</v>
       </c>
     </row>
-    <row r="62" spans="1:23">
+    <row r="62" spans="1:24">
       <c r="A62" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B62">
         <v>160.8</v>
@@ -5817,21 +6003,24 @@
         <v>161.49</v>
       </c>
       <c r="T62">
+        <v>160.9833333333333</v>
+      </c>
+      <c r="U62">
         <v>-0.2000000000000171</v>
       </c>
-      <c r="U62">
+      <c r="V62">
         <v>-0.000226745684102192</v>
       </c>
-      <c r="V62">
+      <c r="W62">
         <v>-0.0004332755632583396</v>
       </c>
-      <c r="W62">
+      <c r="X62">
         <v>-0.001862197392923592</v>
       </c>
     </row>
-    <row r="63" spans="1:23">
+    <row r="63" spans="1:24">
       <c r="A63" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B63">
         <v>160.9</v>
@@ -5888,21 +6077,24 @@
         <v>161.44</v>
       </c>
       <c r="T63">
+        <v>160.9333333333333</v>
+      </c>
+      <c r="U63">
         <v>-0.2468750000000171</v>
       </c>
-      <c r="U63">
+      <c r="V63">
         <v>-0.0002164881498509796</v>
       </c>
-      <c r="V63">
+      <c r="W63">
         <v>-0.000309616694531889</v>
       </c>
-      <c r="W63">
+      <c r="X63">
         <v>0.0006218905472636926</v>
       </c>
     </row>
-    <row r="64" spans="1:23">
+    <row r="64" spans="1:24">
       <c r="A64" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B64">
         <v>160.95</v>
@@ -5959,21 +6151,24 @@
         <v>161.3933333333333</v>
       </c>
       <c r="T64">
+        <v>160.8833333333333</v>
+      </c>
+      <c r="U64">
         <v>-0.2906250000000057</v>
       </c>
-      <c r="U64">
+      <c r="V64">
         <v>-0.000195912643583207</v>
       </c>
-      <c r="V64">
+      <c r="W64">
         <v>-0.0002890650809382889</v>
       </c>
-      <c r="W64">
+      <c r="X64">
         <v>0.0003107520198879499</v>
       </c>
     </row>
-    <row r="65" spans="1:23">
+    <row r="65" spans="1:24">
       <c r="A65" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B65">
         <v>160.95</v>
@@ -6030,21 +6225,24 @@
         <v>161.3466666666667</v>
       </c>
       <c r="T65">
+        <v>160.9333333333333</v>
+      </c>
+      <c r="U65">
         <v>-0.3156249999999829</v>
       </c>
-      <c r="U65">
+      <c r="V65">
         <v>-0.0001856378206122056</v>
       </c>
-      <c r="V65">
+      <c r="W65">
         <v>-0.0002891486637202068</v>
       </c>
-      <c r="W65">
+      <c r="X65">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:23">
+    <row r="66" spans="1:24">
       <c r="A66" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B66">
         <v>160.95</v>
@@ -6101,21 +6299,24 @@
         <v>161.2966666666667</v>
       </c>
       <c r="T66">
+        <v>160.95</v>
+      </c>
+      <c r="U66">
         <v>-0.3406249999999886</v>
       </c>
-      <c r="U66">
+      <c r="V66">
         <v>-0.0001753571612770344</v>
       </c>
-      <c r="V66">
+      <c r="W66">
         <v>-0.0003098917444838145</v>
       </c>
-      <c r="W66">
+      <c r="X66">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:23">
+    <row r="67" spans="1:24">
       <c r="A67" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B67">
         <v>160.95</v>
@@ -6172,21 +6373,24 @@
         <v>161.2466666666666</v>
       </c>
       <c r="T67">
+        <v>160.95</v>
+      </c>
+      <c r="U67">
         <v>-0.3187500000000227</v>
       </c>
-      <c r="U67">
+      <c r="V67">
         <v>-0.0001960217893693939</v>
       </c>
-      <c r="V67">
+      <c r="W67">
         <v>-0.0003099878071465278</v>
       </c>
-      <c r="W67">
+      <c r="X67">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:23">
+    <row r="68" spans="1:24">
       <c r="A68" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B68">
         <v>160.9</v>
@@ -6243,21 +6447,24 @@
         <v>161.19</v>
       </c>
       <c r="T68">
+        <v>160.9333333333333</v>
+      </c>
+      <c r="U68">
         <v>-0.2874999999999943</v>
       </c>
-      <c r="U68">
+      <c r="V68">
         <v>-0.000175422303397843</v>
       </c>
-      <c r="V68">
+      <c r="W68">
         <v>-0.0003514284533012724</v>
       </c>
-      <c r="W68">
+      <c r="X68">
         <v>-0.0003106554830691888</v>
       </c>
     </row>
-    <row r="69" spans="1:23">
+    <row r="69" spans="1:24">
       <c r="A69" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B69">
         <v>160.95</v>
@@ -6314,21 +6521,24 @@
         <v>161.1366666666667</v>
       </c>
       <c r="T69">
+        <v>160.9333333333333</v>
+      </c>
+      <c r="U69">
         <v>-0.2562499999999659</v>
       </c>
-      <c r="U69">
+      <c r="V69">
         <v>-0.0001548115427486563</v>
       </c>
-      <c r="V69">
+      <c r="W69">
         <v>-0.0003308724693426024</v>
       </c>
-      <c r="W69">
+      <c r="X69">
         <v>0.0003107520198879499</v>
       </c>
     </row>
-    <row r="70" spans="1:23">
+    <row r="70" spans="1:24">
       <c r="A70" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B70">
         <v>160.95</v>
@@ -6385,21 +6595,24 @@
         <v>161.0833333333333</v>
       </c>
       <c r="T70">
+        <v>160.9333333333333</v>
+      </c>
+      <c r="U70">
         <v>-0.1875</v>
       </c>
-      <c r="U70">
+      <c r="V70">
         <v>-0.0001858026156879022</v>
       </c>
-      <c r="V70">
+      <c r="W70">
         <v>-0.0003309819821681881</v>
       </c>
-      <c r="W70">
+      <c r="X70">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:23">
+    <row r="71" spans="1:24">
       <c r="A71" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B71">
         <v>160.95</v>
@@ -6456,21 +6669,24 @@
         <v>161.0366666666667</v>
       </c>
       <c r="T71">
+        <v>160.95</v>
+      </c>
+      <c r="U71">
         <v>-0.1312499999999943</v>
       </c>
-      <c r="U71">
+      <c r="V71">
         <v>-0.0001755128588981636</v>
       </c>
-      <c r="V71">
+      <c r="W71">
         <v>-0.0002897051215727808</v>
       </c>
-      <c r="W71">
+      <c r="X71">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:23">
+    <row r="72" spans="1:24">
       <c r="A72" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B72">
         <v>160.7</v>
@@ -6527,21 +6743,24 @@
         <v>160.9833333333333</v>
       </c>
       <c r="T72">
+        <v>160.8666666666666</v>
+      </c>
+      <c r="U72">
         <v>-0.1031250000000057</v>
       </c>
-      <c r="U72">
+      <c r="V72">
         <v>-0.0002168480617913415</v>
       </c>
-      <c r="V72">
+      <c r="W72">
         <v>-0.0003311875142307796</v>
       </c>
-      <c r="W72">
+      <c r="X72">
         <v>-0.001553277415346388</v>
       </c>
     </row>
-    <row r="73" spans="1:23">
+    <row r="73" spans="1:24">
       <c r="A73" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B73">
         <v>161</v>
@@ -6598,21 +6817,24 @@
         <v>160.95</v>
       </c>
       <c r="T73">
+        <v>160.8833333333333</v>
+      </c>
+      <c r="U73">
         <v>-0.06562500000001137</v>
       </c>
-      <c r="U73">
+      <c r="V73">
         <v>-0.0001755817436298601</v>
       </c>
-      <c r="V73">
+      <c r="W73">
         <v>-0.0002070607723366757</v>
       </c>
-      <c r="W73">
+      <c r="X73">
         <v>0.001866832607342994</v>
       </c>
     </row>
-    <row r="74" spans="1:23">
+    <row r="74" spans="1:24">
       <c r="A74" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B74">
         <v>160.95</v>
@@ -6669,21 +6891,24 @@
         <v>160.9366666666667</v>
       </c>
       <c r="T74">
+        <v>160.8833333333333</v>
+      </c>
+      <c r="U74">
         <v>-0.03125</v>
       </c>
-      <c r="U74">
+      <c r="V74">
         <v>-0.000216933184579271</v>
       </c>
-      <c r="V74">
+      <c r="W74">
         <v>-8.284146215176147E-05</v>
       </c>
-      <c r="W74">
+      <c r="X74">
         <v>-0.0003105590062112418</v>
       </c>
     </row>
-    <row r="75" spans="1:23">
+    <row r="75" spans="1:24">
       <c r="A75" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B75">
         <v>160.95</v>
@@ -6740,21 +6965,24 @@
         <v>160.93</v>
       </c>
       <c r="T75">
+        <v>160.9666666666667</v>
+      </c>
+      <c r="U75">
         <v>-0.01875000000001137</v>
       </c>
-      <c r="U75">
+      <c r="V75">
         <v>-0.0002066478617110956</v>
       </c>
-      <c r="V75">
+      <c r="W75">
         <v>-4.14241627142431E-05</v>
       </c>
-      <c r="W75">
+      <c r="X75">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:23">
+    <row r="76" spans="1:24">
       <c r="A76" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B76">
         <v>161</v>
@@ -6811,21 +7039,24 @@
         <v>160.9233333333333</v>
       </c>
       <c r="T76">
+        <v>160.9666666666667</v>
+      </c>
+      <c r="U76">
         <v>-0.003125000000011369</v>
       </c>
-      <c r="U76">
+      <c r="V76">
         <v>-0.0001860215164887213</v>
       </c>
-      <c r="V76">
+      <c r="W76">
         <v>-4.142587874644832E-05</v>
       </c>
-      <c r="W76">
+      <c r="X76">
         <v>0.0003106554830694108</v>
       </c>
     </row>
-    <row r="77" spans="1:23">
+    <row r="77" spans="1:24">
       <c r="A77" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B77">
         <v>161.1</v>
@@ -6882,21 +7113,24 @@
         <v>160.9433333333333</v>
       </c>
       <c r="T77">
+        <v>161.0166666666667</v>
+      </c>
+      <c r="U77">
         <v>0.015625</v>
       </c>
-      <c r="U77">
+      <c r="V77">
         <v>-0.000155046772443046</v>
       </c>
-      <c r="V77">
+      <c r="W77">
         <v>0.0001242827847627304</v>
       </c>
-      <c r="W77">
+      <c r="X77">
         <v>0.0006211180124222615</v>
       </c>
     </row>
-    <row r="78" spans="1:23">
+    <row r="78" spans="1:24">
       <c r="A78" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B78">
         <v>161.15</v>
@@ -6953,21 +7187,24 @@
         <v>160.96</v>
       </c>
       <c r="T78">
+        <v>161.0833333333333</v>
+      </c>
+      <c r="U78">
         <v>0.01875000000003979</v>
       </c>
-      <c r="U78">
+      <c r="V78">
         <v>-0.0001033805437817836</v>
       </c>
-      <c r="V78">
+      <c r="W78">
         <v>0.000103556117059922</v>
       </c>
-      <c r="W78">
+      <c r="X78">
         <v>0.0003103662321539691</v>
       </c>
     </row>
-    <row r="79" spans="1:23">
+    <row r="79" spans="1:24">
       <c r="A79" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B79">
         <v>161.2</v>
@@ -7024,21 +7261,24 @@
         <v>160.9766666666667</v>
       </c>
       <c r="T79">
+        <v>161.15</v>
+      </c>
+      <c r="U79">
         <v>0.03125</v>
       </c>
-      <c r="U79">
+      <c r="V79">
         <v>-9.305210918109097E-05</v>
       </c>
-      <c r="V79">
+      <c r="W79">
         <v>0.0001035453943010189</v>
       </c>
-      <c r="W79">
+      <c r="X79">
         <v>0.000310269934843177</v>
       </c>
     </row>
-    <row r="80" spans="1:23">
+    <row r="80" spans="1:24">
       <c r="A80" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B80">
         <v>161.2</v>
@@ -7095,21 +7335,24 @@
         <v>160.9933333333333</v>
       </c>
       <c r="T80">
+        <v>161.1833333333333</v>
+      </c>
+      <c r="U80">
         <v>0.078125</v>
       </c>
-      <c r="U80">
+      <c r="V80">
         <v>-9.306076868209612E-05</v>
       </c>
-      <c r="V80">
+      <c r="W80">
         <v>0.0001035346737623399</v>
       </c>
-      <c r="W80">
+      <c r="X80">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:23">
+    <row r="81" spans="1:24">
       <c r="A81" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B81">
         <v>161.2</v>
@@ -7166,21 +7409,24 @@
         <v>161.01</v>
       </c>
       <c r="T81">
+        <v>161.2</v>
+      </c>
+      <c r="U81">
         <v>0.08750000000000568</v>
       </c>
-      <c r="U81">
+      <c r="V81">
         <v>-0.0001034104775496925</v>
       </c>
-      <c r="V81">
+      <c r="W81">
         <v>0.0001035239554429968</v>
       </c>
-      <c r="W81">
+      <c r="X81">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:23">
+    <row r="82" spans="1:24">
       <c r="A82" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B82">
         <v>161.3</v>
@@ -7237,21 +7483,24 @@
         <v>161.0333333333333</v>
       </c>
       <c r="T82">
+        <v>161.2333333333333</v>
+      </c>
+      <c r="U82">
         <v>0.109375</v>
       </c>
-      <c r="U82">
+      <c r="V82">
         <v>-8.273693790583625E-05</v>
       </c>
-      <c r="V82">
+      <c r="W82">
         <v>0.0001449185350808069</v>
       </c>
-      <c r="W82">
+      <c r="X82">
         <v>0.0006203473945409765</v>
       </c>
     </row>
-    <row r="83" spans="1:23">
+    <row r="83" spans="1:24">
       <c r="A83" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B83">
         <v>161.45</v>
@@ -7308,21 +7557,24 @@
         <v>161.07</v>
       </c>
       <c r="T83">
+        <v>161.3166666666667</v>
+      </c>
+      <c r="U83">
         <v>0.1406250000000284</v>
       </c>
-      <c r="U83">
+      <c r="V83">
         <v>-6.205783790491637E-05</v>
       </c>
-      <c r="V83">
+      <c r="W83">
         <v>0.0002276961291658441</v>
       </c>
-      <c r="W83">
+      <c r="X83">
         <v>0.0009299442033476879</v>
       </c>
     </row>
-    <row r="84" spans="1:23">
+    <row r="84" spans="1:24">
       <c r="A84" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B84">
         <v>161.25</v>
@@ -7379,21 +7631,24 @@
         <v>161.09</v>
       </c>
       <c r="T84">
+        <v>161.3333333333333</v>
+      </c>
+      <c r="U84">
         <v>0.1500000000000057</v>
       </c>
-      <c r="U84">
+      <c r="V84">
         <v>-0.0001034361488654323</v>
       </c>
-      <c r="V84">
+      <c r="W84">
         <v>0.0001241696156950578</v>
       </c>
-      <c r="W84">
+      <c r="X84">
         <v>-0.001238773614121946</v>
       </c>
     </row>
-    <row r="85" spans="1:23">
+    <row r="85" spans="1:24">
       <c r="A85" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B85">
         <v>161.2</v>
@@ -7450,21 +7705,24 @@
         <v>161.1066666666667</v>
       </c>
       <c r="T85">
+        <v>161.3</v>
+      </c>
+      <c r="U85">
         <v>0.1468749999999659</v>
       </c>
-      <c r="U85">
+      <c r="V85">
         <v>-0.0001137915339100015</v>
       </c>
-      <c r="V85">
+      <c r="W85">
         <v>0.0001034618329296411</v>
       </c>
-      <c r="W85">
+      <c r="X85">
         <v>-0.0003100775193799477</v>
       </c>
     </row>
-    <row r="86" spans="1:23">
+    <row r="86" spans="1:24">
       <c r="A86" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B86">
         <v>161.1</v>
@@ -7521,21 +7779,24 @@
         <v>161.1166666666667</v>
       </c>
       <c r="T86">
+        <v>161.1833333333333</v>
+      </c>
+      <c r="U86">
         <v>0.1312499999999943</v>
       </c>
-      <c r="U86">
+      <c r="V86">
         <v>-0.0001138044838964181</v>
       </c>
-      <c r="V86">
+      <c r="W86">
         <v>6.207067781183184E-05</v>
       </c>
-      <c r="W86">
+      <c r="X86">
         <v>-0.0006203473945408655</v>
       </c>
     </row>
-    <row r="87" spans="1:23">
+    <row r="87" spans="1:24">
       <c r="A87" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B87">
         <v>161.05</v>
@@ -7592,21 +7853,24 @@
         <v>161.14</v>
       </c>
       <c r="T87">
+        <v>161.1166666666667</v>
+      </c>
+      <c r="U87">
         <v>0.1062499999999886</v>
       </c>
-      <c r="U87">
+      <c r="V87">
         <v>-9.312335740752076E-05</v>
       </c>
-      <c r="V87">
+      <c r="W87">
         <v>0.0001448225923244006</v>
       </c>
-      <c r="W87">
+      <c r="X87">
         <v>-0.0003103662321538581</v>
       </c>
     </row>
-    <row r="88" spans="1:23">
+    <row r="88" spans="1:24">
       <c r="A88" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B88">
         <v>161.15</v>
@@ -7663,21 +7927,24 @@
         <v>161.15</v>
       </c>
       <c r="T88">
+        <v>161.1</v>
+      </c>
+      <c r="U88">
         <v>0.07187500000000568</v>
       </c>
-      <c r="U88">
+      <c r="V88">
         <v>-7.24360234691801E-05</v>
       </c>
-      <c r="V88">
+      <c r="W88">
         <v>6.205783790491637E-05</v>
       </c>
-      <c r="W88">
+      <c r="X88">
         <v>0.0006209251785158632</v>
       </c>
     </row>
-    <row r="89" spans="1:23">
+    <row r="89" spans="1:24">
       <c r="A89" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B89">
         <v>161.15</v>
@@ -7734,21 +8001,24 @@
         <v>161.1633333333333</v>
       </c>
       <c r="T89">
+        <v>161.1166666666667</v>
+      </c>
+      <c r="U89">
         <v>0.05624999999997726</v>
       </c>
-      <c r="U89">
+      <c r="V89">
         <v>0</v>
       </c>
-      <c r="V89">
+      <c r="W89">
         <v>8.273864929142505E-05</v>
       </c>
-      <c r="W89">
+      <c r="X89">
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:23">
+    <row r="90" spans="1:24">
       <c r="A90" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B90">
         <v>161.2</v>
@@ -7805,21 +8075,24 @@
         <v>161.18</v>
       </c>
       <c r="T90">
+        <v>161.1666666666667</v>
+      </c>
+      <c r="U90">
         <v>0.02812499999998863</v>
       </c>
-      <c r="U90">
+      <c r="V90">
         <v>3.104625892569324E-05</v>
       </c>
-      <c r="V90">
+      <c r="W90">
         <v>0.000103414755217246</v>
       </c>
-      <c r="W90">
+      <c r="X90">
         <v>0.000310269934843177</v>
       </c>
     </row>
-    <row r="91" spans="1:23">
+    <row r="91" spans="1:24">
       <c r="A91" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B91">
         <v>161.15</v>
@@ -7876,21 +8149,24 @@
         <v>161.19</v>
       </c>
       <c r="T91">
+        <v>161.1666666666667</v>
+      </c>
+      <c r="U91">
         <v>-0.02187499999999432</v>
       </c>
-      <c r="U91">
+      <c r="V91">
         <v>1.03484316953395E-05</v>
       </c>
-      <c r="V91">
+      <c r="W91">
         <v>6.204243702678802E-05</v>
       </c>
-      <c r="W91">
+      <c r="X91">
         <v>-0.0003101736972703772</v>
       </c>
     </row>
-    <row r="92" spans="1:23">
+    <row r="92" spans="1:24">
       <c r="A92" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B92">
         <v>161.1</v>
@@ -7947,21 +8223,24 @@
         <v>161.19</v>
       </c>
       <c r="T92">
+        <v>161.15</v>
+      </c>
+      <c r="U92">
         <v>-0.04687500000002842</v>
       </c>
-      <c r="U92">
+      <c r="V92">
         <v>6.208994763734488E-05</v>
       </c>
-      <c r="V92">
+      <c r="W92">
         <v>2.220446049250313E-16</v>
       </c>
-      <c r="W92">
+      <c r="X92">
         <v>-0.000310269934843399</v>
       </c>
     </row>
-    <row r="93" spans="1:23">
+    <row r="93" spans="1:24">
       <c r="A93" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B93">
         <v>161.1</v>
@@ -8018,21 +8297,24 @@
         <v>161.1866666666667</v>
       </c>
       <c r="T93">
+        <v>161.1166666666666</v>
+      </c>
+      <c r="U93">
         <v>-0.05937500000001705</v>
       </c>
-      <c r="U93">
+      <c r="V93">
         <v>4.139072847686442E-05</v>
       </c>
-      <c r="V93">
+      <c r="W93">
         <v>-2.067952933404449E-05</v>
       </c>
-      <c r="W93">
+      <c r="X93">
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:23">
+    <row r="94" spans="1:24">
       <c r="A94" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B94">
         <v>161.1</v>
@@ -8089,21 +8371,24 @@
         <v>161.18</v>
       </c>
       <c r="T94">
+        <v>161.1</v>
+      </c>
+      <c r="U94">
         <v>-0.05625000000000568</v>
       </c>
-      <c r="U94">
+      <c r="V94">
         <v>3.10417615163594E-05</v>
       </c>
-      <c r="V94">
+      <c r="W94">
         <v>-4.135991397147265E-05</v>
       </c>
-      <c r="W94">
+      <c r="X94">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:23">
+    <row r="95" spans="1:24">
       <c r="A95" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B95">
         <v>161.05</v>
@@ -8160,21 +8445,24 @@
         <v>161.17</v>
       </c>
       <c r="T95">
+        <v>161.0833333333333</v>
+      </c>
+      <c r="U95">
         <v>-0.046875</v>
       </c>
-      <c r="U95">
+      <c r="V95">
         <v>2.069386530356709E-05</v>
       </c>
-      <c r="V95">
+      <c r="W95">
         <v>-6.2042437026677E-05</v>
       </c>
-      <c r="W95">
+      <c r="X95">
         <v>-0.0003103662321538581</v>
       </c>
     </row>
-    <row r="96" spans="1:23">
+    <row r="96" spans="1:24">
       <c r="A96" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B96">
         <v>161.1</v>
@@ -8231,21 +8519,24 @@
         <v>161.1633333333334</v>
       </c>
       <c r="T96">
+        <v>161.0833333333333</v>
+      </c>
+      <c r="U96">
         <v>-0.04687500000002842</v>
       </c>
-      <c r="U96">
+      <c r="V96">
         <v>3.104015561472551E-05</v>
       </c>
-      <c r="V96">
+      <c r="W96">
         <v>-4.136419101974376E-05</v>
       </c>
-      <c r="W96">
+      <c r="X96">
         <v>0.0003104625892578206</v>
       </c>
     </row>
-    <row r="97" spans="1:23">
+    <row r="97" spans="1:24">
       <c r="A97" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B97">
         <v>161</v>
@@ -8302,21 +8593,24 @@
         <v>161.1433333333333</v>
       </c>
       <c r="T97">
+        <v>161.05</v>
+      </c>
+      <c r="U97">
         <v>-0.05312499999999432</v>
       </c>
-      <c r="U97">
+      <c r="V97">
         <v>1.034639738439758E-05</v>
       </c>
-      <c r="V97">
+      <c r="W97">
         <v>-0.0001240977062607618</v>
       </c>
-      <c r="W97">
+      <c r="X97">
         <v>-0.0006207324643078271</v>
       </c>
     </row>
-    <row r="98" spans="1:23">
+    <row r="98" spans="1:24">
       <c r="A98" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B98">
         <v>161</v>
@@ -8373,21 +8667,24 @@
         <v>161.1133333333333</v>
       </c>
       <c r="T98">
+        <v>161.0333333333333</v>
+      </c>
+      <c r="U98">
         <v>-0.05937500000001705</v>
       </c>
-      <c r="U98">
+      <c r="V98">
         <v>2.069258067538549E-05</v>
       </c>
-      <c r="V98">
+      <c r="W98">
         <v>-0.0001861696626191955</v>
       </c>
-      <c r="W98">
+      <c r="X98">
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:23">
+    <row r="99" spans="1:24">
       <c r="A99" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B99">
         <v>161</v>
@@ -8444,21 +8741,24 @@
         <v>161.0966666666667</v>
       </c>
       <c r="T99">
+        <v>161</v>
+      </c>
+      <c r="U99">
         <v>-0.05000000000003979</v>
       </c>
-      <c r="U99">
+      <c r="V99">
         <v>1.03460762503893E-05</v>
       </c>
-      <c r="V99">
+      <c r="W99">
         <v>-0.0001034468490088702</v>
       </c>
-      <c r="W99">
+      <c r="X99">
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:23">
+    <row r="100" spans="1:24">
       <c r="A100" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B100">
         <v>161</v>
@@ -8515,21 +8815,24 @@
         <v>161.0833333333333</v>
       </c>
       <c r="T100">
+        <v>161</v>
+      </c>
+      <c r="U100">
         <v>-0.04687500000002842</v>
       </c>
-      <c r="U100">
+      <c r="V100">
         <v>1.034596921045683E-05</v>
       </c>
-      <c r="V100">
+      <c r="W100">
         <v>-8.276604109347385E-05</v>
       </c>
-      <c r="W100">
+      <c r="X100">
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:23">
+    <row r="101" spans="1:24">
       <c r="A101" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B101">
         <v>161</v>
@@ -8586,21 +8889,24 @@
         <v>161.0766666666667</v>
       </c>
       <c r="T101">
+        <v>161</v>
+      </c>
+      <c r="U101">
         <v>-0.046875</v>
       </c>
-      <c r="U101">
+      <c r="V101">
         <v>1.034586217252276E-05</v>
       </c>
-      <c r="V101">
+      <c r="W101">
         <v>-4.138644593887353E-05</v>
       </c>
-      <c r="W101">
+      <c r="X101">
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:23">
+    <row r="102" spans="1:24">
       <c r="A102" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B102">
         <v>160.9</v>
@@ -8657,21 +8963,24 @@
         <v>161.0666666666667</v>
       </c>
       <c r="T102">
+        <v>160.9666666666667</v>
+      </c>
+      <c r="U102">
         <v>-0.05937500000001705</v>
       </c>
-      <c r="U102">
+      <c r="V102">
         <v>4.138302054679244E-05</v>
       </c>
-      <c r="V102">
+      <c r="W102">
         <v>-6.208223827175452E-05</v>
       </c>
-      <c r="W102">
+      <c r="X102">
         <v>-0.0006211180124223725</v>
       </c>
     </row>
-    <row r="103" spans="1:23">
+    <row r="103" spans="1:24">
       <c r="A103" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B103">
         <v>160.85</v>
@@ -8728,21 +9037,24 @@
         <v>161.0466666666667</v>
       </c>
       <c r="T103">
+        <v>160.9166666666667</v>
+      </c>
+      <c r="U103">
         <v>-0.07187500000000568</v>
       </c>
-      <c r="U103">
+      <c r="V103">
         <v>-3.103598104747807E-05</v>
       </c>
-      <c r="V103">
+      <c r="W103">
         <v>-0.0001241721854303712</v>
       </c>
-      <c r="W103">
+      <c r="X103">
         <v>-0.0003107520198881719</v>
       </c>
     </row>
-    <row r="104" spans="1:23">
+    <row r="104" spans="1:24">
       <c r="A104" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B104">
         <v>160.9</v>
@@ -8799,21 +9111,24 @@
         <v>161.03</v>
       </c>
       <c r="T104">
+        <v>160.8833333333333</v>
+      </c>
+      <c r="U104">
         <v>-0.08125000000001137</v>
       </c>
-      <c r="U104">
+      <c r="V104">
         <v>-1.034564810298289E-05</v>
       </c>
-      <c r="V104">
+      <c r="W104">
         <v>-0.0001034896717306832</v>
       </c>
-      <c r="W104">
+      <c r="X104">
         <v>0.0003108486167238134</v>
       </c>
     </row>
-    <row r="105" spans="1:23">
+    <row r="105" spans="1:24">
       <c r="A105" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B105">
         <v>161</v>
@@ -8870,21 +9185,24 @@
         <v>161.0166666666667</v>
       </c>
       <c r="T105">
+        <v>160.9166666666667</v>
+      </c>
+      <c r="U105">
         <v>-0.07187500000000568</v>
       </c>
-      <c r="U105">
+      <c r="V105">
         <v>1.034575513658709E-05</v>
       </c>
-      <c r="V105">
+      <c r="W105">
         <v>-8.280030636120816E-05</v>
       </c>
-      <c r="W105">
+      <c r="X105">
         <v>0.0006215040397761218</v>
       </c>
     </row>
-    <row r="106" spans="1:23">
+    <row r="106" spans="1:24">
       <c r="A106" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B106">
         <v>160.95</v>
@@ -8941,21 +9259,24 @@
         <v>161.0033333333334</v>
       </c>
       <c r="T106">
+        <v>160.95</v>
+      </c>
+      <c r="U106">
         <v>-0.06249999999997158</v>
       </c>
-      <c r="U106">
+      <c r="V106">
         <v>-1.034564810309391E-05</v>
       </c>
-      <c r="V106">
+      <c r="W106">
         <v>-8.280716281949818E-05</v>
       </c>
-      <c r="W106">
+      <c r="X106">
         <v>-0.0003105590062112418</v>
       </c>
     </row>
-    <row r="107" spans="1:23">
+    <row r="107" spans="1:24">
       <c r="A107" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B107">
         <v>161</v>
@@ -9012,21 +9333,24 @@
         <v>160.9966666666666</v>
       </c>
       <c r="T107">
+        <v>160.9833333333333</v>
+      </c>
+      <c r="U107">
         <v>-0.05312500000002274</v>
       </c>
-      <c r="U107">
+      <c r="V107">
         <v>-2.06915102732852E-05</v>
       </c>
-      <c r="V107">
+      <c r="W107">
         <v>-4.140701020716175E-05</v>
       </c>
-      <c r="W107">
+      <c r="X107">
         <v>0.0003106554830694108</v>
       </c>
     </row>
-    <row r="108" spans="1:23">
+    <row r="108" spans="1:24">
       <c r="A108" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B108">
         <v>160.95</v>
@@ -9083,21 +9407,24 @@
         <v>160.9866666666667</v>
       </c>
       <c r="T108">
+        <v>160.9666666666667</v>
+      </c>
+      <c r="U108">
         <v>-0.04999999999998295</v>
       </c>
-      <c r="U108">
+      <c r="V108">
         <v>-4.138387684171629E-05</v>
       </c>
-      <c r="V108">
+      <c r="W108">
         <v>-6.211308722747777E-05</v>
       </c>
-      <c r="W108">
+      <c r="X108">
         <v>-0.0003105590062112418</v>
       </c>
     </row>
-    <row r="109" spans="1:23">
+    <row r="109" spans="1:24">
       <c r="A109" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B109">
         <v>160.9</v>
@@ -9154,21 +9481,24 @@
         <v>160.9733333333333</v>
       </c>
       <c r="T109">
+        <v>160.95</v>
+      </c>
+      <c r="U109">
         <v>-0.04999999999998295</v>
       </c>
-      <c r="U109">
+      <c r="V109">
         <v>-6.207838430638546E-05</v>
       </c>
-      <c r="V109">
+      <c r="W109">
         <v>-8.282259400360648E-05</v>
       </c>
-      <c r="W109">
+      <c r="X109">
         <v>-0.0003106554830691888</v>
       </c>
     </row>
-    <row r="110" spans="1:23">
+    <row r="110" spans="1:24">
       <c r="A110" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B110">
         <v>160.9</v>
@@ -9225,21 +9555,24 @@
         <v>160.9633333333333</v>
       </c>
       <c r="T110">
+        <v>160.9166666666667</v>
+      </c>
+      <c r="U110">
         <v>-0.03749999999999432</v>
       </c>
-      <c r="U110">
+      <c r="V110">
         <v>-6.208223827175452E-05</v>
       </c>
-      <c r="V110">
+      <c r="W110">
         <v>-6.212209061551288E-05</v>
       </c>
-      <c r="W110">
+      <c r="X110">
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:23">
+    <row r="111" spans="1:24">
       <c r="A111" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B111">
         <v>160.95</v>
@@ -9296,21 +9629,24 @@
         <v>160.9533333333333</v>
       </c>
       <c r="T111">
+        <v>160.9166666666667</v>
+      </c>
+      <c r="U111">
         <v>-0.01874999999998295</v>
       </c>
-      <c r="U111">
+      <c r="V111">
         <v>-5.173841059602502E-05</v>
       </c>
-      <c r="V111">
+      <c r="W111">
         <v>-6.212595000931742E-05</v>
       </c>
-      <c r="W111">
+      <c r="X111">
         <v>0.0003107520198879499</v>
       </c>
     </row>
-    <row r="112" spans="1:23">
+    <row r="112" spans="1:24">
       <c r="A112" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B112">
         <v>160.95</v>
@@ -9367,21 +9703,24 @@
         <v>160.95</v>
       </c>
       <c r="T112">
+        <v>160.9333333333333</v>
+      </c>
+      <c r="U112">
         <v>-0.003125000000011369</v>
       </c>
-      <c r="U112">
+      <c r="V112">
         <v>-7.243752263685899E-05</v>
       </c>
-      <c r="V112">
+      <c r="W112">
         <v>-2.070993662761644E-05</v>
       </c>
-      <c r="W112">
+      <c r="X112">
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:23">
+    <row r="113" spans="1:24">
       <c r="A113" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B113">
         <v>160.7</v>
@@ -9438,21 +9777,24 @@
         <v>160.93</v>
       </c>
       <c r="T113">
+        <v>160.8666666666667</v>
+      </c>
+      <c r="U113">
         <v>-0.02187499999999432</v>
       </c>
-      <c r="U113">
+      <c r="V113">
         <v>-0.0001552345075960249</v>
       </c>
-      <c r="V113">
+      <c r="W113">
         <v>-0.0001242621932278087</v>
       </c>
-      <c r="W113">
+      <c r="X113">
         <v>-0.001553277415346388</v>
       </c>
     </row>
-    <row r="114" spans="1:23">
+    <row r="114" spans="1:24">
       <c r="A114" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B114">
         <v>160.75</v>
@@ -9509,21 +9851,24 @@
         <v>160.9133333333333</v>
       </c>
       <c r="T114">
+        <v>160.8</v>
+      </c>
+      <c r="U114">
         <v>-0.03125</v>
       </c>
-      <c r="U114">
+      <c r="V114">
         <v>-0.000103505739393106</v>
       </c>
-      <c r="V114">
+      <c r="W114">
         <v>-0.0001035646968660098</v>
       </c>
-      <c r="W114">
+      <c r="X114">
         <v>0.000311138767890462</v>
       </c>
     </row>
-    <row r="115" spans="1:23">
+    <row r="115" spans="1:24">
       <c r="A115" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B115">
         <v>160.9</v>
@@ -9580,21 +9925,24 @@
         <v>160.9066666666667</v>
       </c>
       <c r="T115">
+        <v>160.7833333333333</v>
+      </c>
+      <c r="U115">
         <v>-0.03749999999999432</v>
       </c>
-      <c r="U115">
+      <c r="V115">
         <v>-6.21098723643243E-05</v>
       </c>
-      <c r="V115">
+      <c r="W115">
         <v>-4.143016944935241E-05</v>
       </c>
-      <c r="W115">
+      <c r="X115">
         <v>0.0009331259720062324</v>
       </c>
     </row>
-    <row r="116" spans="1:23">
+    <row r="116" spans="1:24">
       <c r="A116" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B116">
         <v>160.9</v>
@@ -9651,21 +9999,24 @@
         <v>160.9</v>
       </c>
       <c r="T116">
+        <v>160.85</v>
+      </c>
+      <c r="U116">
         <v>-0.03750000000002274</v>
       </c>
-      <c r="U116">
+      <c r="V116">
         <v>-4.140915349348795E-05</v>
       </c>
-      <c r="V116">
+      <c r="W116">
         <v>-4.143188597938163E-05</v>
       </c>
-      <c r="W116">
+      <c r="X116">
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:23">
+    <row r="117" spans="1:24">
       <c r="A117" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B117">
         <v>160.9</v>
@@ -9722,21 +10073,24 @@
         <v>160.9</v>
       </c>
       <c r="T117">
+        <v>160.9</v>
+      </c>
+      <c r="U117">
         <v>-0.03124999999997158</v>
       </c>
-      <c r="U117">
+      <c r="V117">
         <v>-3.105815121173805E-05</v>
-      </c>
-      <c r="V117">
-        <v>0</v>
       </c>
       <c r="W117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:23">
+      <c r="X117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:24">
       <c r="A118" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B118">
         <v>160.9</v>
@@ -9793,21 +10147,24 @@
         <v>160.9033333333333</v>
       </c>
       <c r="T118">
+        <v>160.9</v>
+      </c>
+      <c r="U118">
         <v>-0.03124999999997158</v>
       </c>
-      <c r="U118">
+      <c r="V118">
         <v>-5.176519308414118E-05</v>
       </c>
-      <c r="V118">
+      <c r="W118">
         <v>2.07168013257597E-05</v>
       </c>
-      <c r="W118">
+      <c r="X118">
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:23">
+    <row r="119" spans="1:24">
       <c r="A119" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B119">
         <v>160.9</v>
@@ -9864,21 +10221,24 @@
         <v>160.9033333333333</v>
       </c>
       <c r="T119">
+        <v>160.9</v>
+      </c>
+      <c r="U119">
         <v>-0.04062500000000568</v>
       </c>
-      <c r="U119">
+      <c r="V119">
         <v>-5.176787285809947E-05</v>
-      </c>
-      <c r="V119">
-        <v>0</v>
       </c>
       <c r="W119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:23">
+      <c r="X119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:24">
       <c r="A120" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B120">
         <v>160.85</v>
@@ -9935,21 +10295,24 @@
         <v>160.8933333333333</v>
       </c>
       <c r="T120">
+        <v>160.8833333333333</v>
+      </c>
+      <c r="U120">
         <v>-0.04999999999995453</v>
       </c>
-      <c r="U120">
+      <c r="V120">
         <v>-7.247877407345893E-05</v>
       </c>
-      <c r="V120">
+      <c r="W120">
         <v>-6.214911644664145E-05</v>
       </c>
-      <c r="W120">
+      <c r="X120">
         <v>-0.0003107520198881719</v>
       </c>
     </row>
-    <row r="121" spans="1:23">
+    <row r="121" spans="1:24">
       <c r="A121" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B121">
         <v>161</v>
@@ -10006,21 +10369,24 @@
         <v>160.8966666666666</v>
       </c>
       <c r="T121">
+        <v>160.9166666666667</v>
+      </c>
+      <c r="U121">
         <v>-0.01249999999996021</v>
       </c>
-      <c r="U121">
+      <c r="V121">
         <v>-3.106458326862516E-05</v>
       </c>
-      <c r="V121">
+      <c r="W121">
         <v>2.071765973310491E-05</v>
       </c>
-      <c r="W121">
+      <c r="X121">
         <v>0.000932545850170996</v>
       </c>
     </row>
-    <row r="122" spans="1:23">
+    <row r="122" spans="1:24">
       <c r="A122" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B122">
         <v>161</v>
@@ -10077,21 +10443,24 @@
         <v>160.8966666666666</v>
       </c>
       <c r="T122">
+        <v>160.95</v>
+      </c>
+      <c r="U122">
         <v>0.01562500000002842</v>
       </c>
-      <c r="U122">
+      <c r="V122">
         <v>-2.071036553796812E-05</v>
-      </c>
-      <c r="V122">
-        <v>0</v>
       </c>
       <c r="W122">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:23">
+      <c r="X122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:24">
       <c r="A123" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B123">
         <v>161.15</v>
@@ -10148,21 +10517,24 @@
         <v>160.91</v>
       </c>
       <c r="T123">
+        <v>161.05</v>
+      </c>
+      <c r="U123">
         <v>0.03749999999999432</v>
       </c>
-      <c r="U123">
+      <c r="V123">
         <v>1.035539723326373E-05</v>
       </c>
-      <c r="V123">
+      <c r="W123">
         <v>8.286892208264618E-05</v>
       </c>
-      <c r="W123">
+      <c r="X123">
         <v>0.0009316770186336143</v>
       </c>
     </row>
-    <row r="124" spans="1:23">
+    <row r="124" spans="1:24">
       <c r="A124" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B124">
         <v>161.15</v>
@@ -10219,21 +10591,24 @@
         <v>160.9266666666667</v>
       </c>
       <c r="T124">
+        <v>161.1</v>
+      </c>
+      <c r="U124">
         <v>0.05625000000000568</v>
       </c>
-      <c r="U124">
+      <c r="V124">
         <v>1.035528999970836E-05</v>
       </c>
-      <c r="V124">
+      <c r="W124">
         <v>0.0001035775692417307</v>
       </c>
-      <c r="W124">
+      <c r="X124">
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:23">
+    <row r="125" spans="1:24">
       <c r="A125" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B125">
         <v>161.15</v>
@@ -10290,21 +10665,24 @@
         <v>160.9433333333333</v>
       </c>
       <c r="T125">
+        <v>161.15</v>
+      </c>
+      <c r="U125">
         <v>0.07187499999997726</v>
       </c>
-      <c r="U125">
+      <c r="V125">
         <v>2.07103655378571E-05</v>
       </c>
-      <c r="V125">
+      <c r="W125">
         <v>0.0001035668420397151</v>
       </c>
-      <c r="W125">
+      <c r="X125">
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:23">
+    <row r="126" spans="1:24">
       <c r="A126" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B126">
         <v>161.1</v>
@@ -10361,21 +10739,24 @@
         <v>160.9533333333333</v>
       </c>
       <c r="T126">
+        <v>161.1333333333333</v>
+      </c>
+      <c r="U126">
         <v>0.08437499999999432</v>
       </c>
-      <c r="U126">
+      <c r="V126">
         <v>2.220446049250313E-16</v>
       </c>
-      <c r="V126">
+      <c r="W126">
         <v>6.213367023599758E-05</v>
       </c>
-      <c r="W126">
+      <c r="X126">
         <v>-0.000310269934843399</v>
       </c>
     </row>
-    <row r="127" spans="1:23">
+    <row r="127" spans="1:24">
       <c r="A127" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B127">
         <v>161.15</v>
@@ -10432,21 +10813,24 @@
         <v>160.9666666666667</v>
       </c>
       <c r="T127">
+        <v>161.1333333333334</v>
+      </c>
+      <c r="U127">
         <v>0.1031250000000057</v>
       </c>
-      <c r="U127">
+      <c r="V127">
         <v>3.106490494131364E-05</v>
       </c>
-      <c r="V127">
+      <c r="W127">
         <v>8.283974651024373E-05</v>
       </c>
-      <c r="W127">
+      <c r="X127">
         <v>0.0003103662321539691</v>
       </c>
     </row>
-    <row r="128" spans="1:23">
+    <row r="128" spans="1:24">
       <c r="A128" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B128">
         <v>161.25</v>
@@ -10503,21 +10887,24 @@
         <v>161.0033333333334</v>
       </c>
       <c r="T128">
+        <v>161.1666666666667</v>
+      </c>
+      <c r="U128">
         <v>0.1343749999999773</v>
       </c>
-      <c r="U128">
+      <c r="V128">
         <v>5.177323323835026E-05</v>
       </c>
-      <c r="V128">
+      <c r="W128">
         <v>0.0002277904328020774</v>
       </c>
-      <c r="W128">
+      <c r="X128">
         <v>0.000620539869686576</v>
       </c>
     </row>
-    <row r="129" spans="1:23">
+    <row r="129" spans="1:24">
       <c r="A129" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B129">
         <v>161.15</v>
@@ -10574,21 +10961,24 @@
         <v>161.03</v>
       </c>
       <c r="T129">
+        <v>161.1833333333333</v>
+      </c>
+      <c r="U129">
         <v>0.1249999999999716</v>
       </c>
-      <c r="U129">
+      <c r="V129">
         <v>3.106233174587913E-05</v>
       </c>
-      <c r="V129">
+      <c r="W129">
         <v>0.0001656280408273147</v>
       </c>
-      <c r="W129">
+      <c r="X129">
         <v>-0.0006201550387596733</v>
       </c>
     </row>
-    <row r="130" spans="1:23">
+    <row r="130" spans="1:24">
       <c r="A130" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B130">
         <v>161.25</v>
@@ -10645,21 +11035,24 @@
         <v>161.0533333333333</v>
       </c>
       <c r="T130">
+        <v>161.2166666666667</v>
+      </c>
+      <c r="U130">
         <v>0.1249999999999716</v>
       </c>
-      <c r="U130">
+      <c r="V130">
         <v>5.17689448453762E-05</v>
       </c>
-      <c r="V130">
+      <c r="W130">
         <v>0.000144900536131809</v>
       </c>
-      <c r="W130">
+      <c r="X130">
         <v>0.000620539869686576</v>
       </c>
     </row>
-    <row r="131" spans="1:23">
+    <row r="131" spans="1:24">
       <c r="A131" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B131">
         <v>161.4</v>
@@ -10716,21 +11109,24 @@
         <v>161.0866666666666</v>
       </c>
       <c r="T131">
+        <v>161.2666666666667</v>
+      </c>
+      <c r="U131">
         <v>0.1250000000000284</v>
       </c>
-      <c r="U131">
+      <c r="V131">
         <v>8.282602393672178E-05</v>
       </c>
-      <c r="V131">
+      <c r="W131">
         <v>0.0002069707757261785</v>
       </c>
-      <c r="W131">
+      <c r="X131">
         <v>0.0009302325581395099</v>
       </c>
     </row>
-    <row r="132" spans="1:23">
+    <row r="132" spans="1:24">
       <c r="A132" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B132">
         <v>161.35</v>
@@ -10787,21 +11183,24 @@
         <v>161.1166666666667</v>
       </c>
       <c r="T132">
+        <v>161.3333333333333</v>
+      </c>
+      <c r="U132">
         <v>0.1218749999999886</v>
       </c>
-      <c r="U132">
+      <c r="V132">
         <v>9.317155989885251E-05</v>
       </c>
-      <c r="V132">
+      <c r="W132">
         <v>0.0001862351529200446</v>
       </c>
-      <c r="W132">
+      <c r="X132">
         <v>-0.0003097893432466581</v>
       </c>
     </row>
-    <row r="133" spans="1:23">
+    <row r="133" spans="1:24">
       <c r="A133" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B133">
         <v>161.4</v>
@@ -10858,21 +11257,24 @@
         <v>161.15</v>
       </c>
       <c r="T133">
+        <v>161.3833333333333</v>
+      </c>
+      <c r="U133">
         <v>0.1218750000000455</v>
       </c>
-      <c r="U133">
+      <c r="V133">
         <v>0.0001138657419388345</v>
       </c>
-      <c r="V133">
+      <c r="W133">
         <v>0.0002068894176063818</v>
       </c>
-      <c r="W133">
+      <c r="X133">
         <v>0.0003098853424232662</v>
       </c>
     </row>
-    <row r="134" spans="1:23">
+    <row r="134" spans="1:24">
       <c r="A134" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B134">
         <v>161.25</v>
@@ -10929,21 +11331,24 @@
         <v>161.1733333333333</v>
       </c>
       <c r="T134">
+        <v>161.3333333333333</v>
+      </c>
+      <c r="U134">
         <v>0.1187500000000057</v>
       </c>
-      <c r="U134">
+      <c r="V134">
         <v>7.245176782300078E-05</v>
       </c>
-      <c r="V134">
+      <c r="W134">
         <v>0.0001447926362601049</v>
       </c>
-      <c r="W134">
+      <c r="X134">
         <v>-0.0009293680297398632</v>
       </c>
     </row>
-    <row r="135" spans="1:23">
+    <row r="135" spans="1:24">
       <c r="A135" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B135">
         <v>161.15</v>
@@ -11000,21 +11405,24 @@
         <v>161.1933333333333</v>
       </c>
       <c r="T135">
+        <v>161.2666666666667</v>
+      </c>
+      <c r="U135">
         <v>0.1031250000000057</v>
       </c>
-      <c r="U135">
+      <c r="V135">
         <v>3.10485081194134E-05</v>
       </c>
-      <c r="V135">
+      <c r="W135">
         <v>0.0001240900066181716</v>
       </c>
-      <c r="W135">
+      <c r="X135">
         <v>-0.0006201550387596733</v>
       </c>
     </row>
-    <row r="136" spans="1:23">
+    <row r="136" spans="1:24">
       <c r="A136" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B136">
         <v>161.15</v>
@@ -11071,21 +11479,24 @@
         <v>161.2033333333333</v>
       </c>
       <c r="T136">
+        <v>161.1833333333333</v>
+      </c>
+      <c r="U136">
         <v>0.07187499999997726</v>
       </c>
-      <c r="U136">
+      <c r="V136">
         <v>4.13967255190606E-05</v>
       </c>
-      <c r="V136">
+      <c r="W136">
         <v>6.203730509968253E-05</v>
       </c>
-      <c r="W136">
+      <c r="X136">
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:23">
+    <row r="137" spans="1:24">
       <c r="A137" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B137">
         <v>161.05</v>
@@ -11142,21 +11553,24 @@
         <v>161.2066666666667</v>
       </c>
       <c r="T137">
+        <v>161.1166666666667</v>
+      </c>
+      <c r="U137">
         <v>0.05624999999997726</v>
       </c>
-      <c r="U137">
+      <c r="V137">
         <v>1.034875297523108E-05</v>
       </c>
-      <c r="V137">
+      <c r="W137">
         <v>2.067781890358056E-05</v>
       </c>
-      <c r="W137">
+      <c r="X137">
         <v>-0.000620539869686576</v>
       </c>
     </row>
-    <row r="138" spans="1:23">
+    <row r="138" spans="1:24">
       <c r="A138" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B138">
         <v>161.05</v>
@@ -11213,21 +11627,24 @@
         <v>161.2</v>
       </c>
       <c r="T138">
+        <v>161.0833333333333</v>
+      </c>
+      <c r="U138">
         <v>0.02812500000001705</v>
       </c>
-      <c r="U138">
+      <c r="V138">
         <v>2.069729175935286E-05</v>
       </c>
-      <c r="V138">
+      <c r="W138">
         <v>-4.135478268074699E-05</v>
       </c>
-      <c r="W138">
+      <c r="X138">
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:23">
+    <row r="139" spans="1:24">
       <c r="A139" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B139">
         <v>161.05</v>
@@ -11284,21 +11701,24 @@
         <v>161.1933333333333</v>
       </c>
       <c r="T139">
+        <v>161.05</v>
+      </c>
+      <c r="U139">
         <v>-0.009375000000005684</v>
       </c>
-      <c r="U139">
+      <c r="V139">
         <v>3.104529508535236E-05</v>
       </c>
-      <c r="V139">
+      <c r="W139">
         <v>-4.135649296932442E-05</v>
       </c>
-      <c r="W139">
+      <c r="X139">
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:23">
+    <row r="140" spans="1:24">
       <c r="A140" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B140">
         <v>161.05</v>
@@ -11355,21 +11775,24 @@
         <v>161.1866666666667</v>
       </c>
       <c r="T140">
+        <v>161.05</v>
+      </c>
+      <c r="U140">
         <v>-0.04062499999997726</v>
       </c>
-      <c r="U140">
+      <c r="V140">
         <v>3.104433130518558E-05</v>
       </c>
-      <c r="V140">
+      <c r="W140">
         <v>-4.135820339956631E-05</v>
       </c>
-      <c r="W140">
+      <c r="X140">
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:23">
+    <row r="141" spans="1:24">
       <c r="A141" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B141">
         <v>161</v>
@@ -11426,21 +11849,24 @@
         <v>161.18</v>
       </c>
       <c r="T141">
+        <v>161.0333333333333</v>
+      </c>
+      <c r="U141">
         <v>-0.08125000000001137</v>
       </c>
-      <c r="U141">
+      <c r="V141">
         <v>1.034778919484225E-05</v>
       </c>
-      <c r="V141">
+      <c r="W141">
         <v>-4.135991397147265E-05</v>
       </c>
-      <c r="W141">
+      <c r="X141">
         <v>-0.0003104625892580426</v>
       </c>
     </row>
-    <row r="142" spans="1:23">
+    <row r="142" spans="1:24">
       <c r="A142" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B142">
         <v>161</v>
@@ -11497,21 +11923,24 @@
         <v>161.17</v>
       </c>
       <c r="T142">
+        <v>161.0166666666667</v>
+      </c>
+      <c r="U142">
         <v>-0.1062499999999886</v>
       </c>
-      <c r="U142">
+      <c r="V142">
         <v>1.034768211916059E-05</v>
       </c>
-      <c r="V142">
+      <c r="W142">
         <v>-6.2042437026677E-05</v>
       </c>
-      <c r="W142">
+      <c r="X142">
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:23">
+    <row r="143" spans="1:24">
       <c r="A143" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B143">
         <v>160.95</v>
@@ -11568,21 +11997,24 @@
         <v>161.15</v>
       </c>
       <c r="T143">
+        <v>160.9833333333333</v>
+      </c>
+      <c r="U143">
         <v>-0.1187499999999773</v>
       </c>
-      <c r="U143">
+      <c r="V143">
         <v>5.173787522894102E-05</v>
       </c>
-      <c r="V143">
+      <c r="W143">
         <v>-0.0001240925730595643</v>
       </c>
-      <c r="W143">
+      <c r="X143">
         <v>-0.0003105590062112418</v>
       </c>
     </row>
-    <row r="144" spans="1:23">
+    <row r="144" spans="1:24">
       <c r="A144" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B144">
         <v>160.95</v>
@@ -11639,21 +12071,24 @@
         <v>161.1366666666667</v>
       </c>
       <c r="T144">
+        <v>160.9666666666667</v>
+      </c>
+      <c r="U144">
         <v>-0.125</v>
       </c>
-      <c r="U144">
+      <c r="V144">
         <v>4.138815884791036E-05</v>
       </c>
-      <c r="V144">
+      <c r="W144">
         <v>-8.273864929164709E-05</v>
       </c>
-      <c r="W144">
+      <c r="X144">
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:23">
+    <row r="145" spans="1:24">
       <c r="A145" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B145">
         <v>161</v>
@@ -11710,21 +12145,24 @@
         <v>161.12</v>
       </c>
       <c r="T145">
+        <v>160.9666666666667</v>
+      </c>
+      <c r="U145">
         <v>-0.1218749999999602</v>
       </c>
-      <c r="U145">
+      <c r="V145">
         <v>2.069322296938125E-05</v>
       </c>
-      <c r="V145">
+      <c r="W145">
         <v>-0.0001034318694277392</v>
       </c>
-      <c r="W145">
+      <c r="X145">
         <v>0.0003106554830694108</v>
       </c>
     </row>
-    <row r="146" spans="1:23">
+    <row r="146" spans="1:24">
       <c r="A146" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B146">
         <v>161</v>
@@ -11781,21 +12219,24 @@
         <v>161.0933333333333</v>
       </c>
       <c r="T146">
+        <v>160.9833333333333</v>
+      </c>
+      <c r="U146">
         <v>-0.1124999999999829</v>
       </c>
-      <c r="U146">
+      <c r="V146">
         <v>2.06927947690172E-05</v>
       </c>
-      <c r="V146">
+      <c r="W146">
         <v>-0.0001655081098972389</v>
       </c>
-      <c r="W146">
+      <c r="X146">
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:23">
+    <row r="147" spans="1:24">
       <c r="A147" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B147">
         <v>161.1</v>
@@ -11852,21 +12293,24 @@
         <v>161.0766666666667</v>
       </c>
       <c r="T147">
+        <v>161.0333333333333</v>
+      </c>
+      <c r="U147">
         <v>-0.08750000000000568</v>
       </c>
-      <c r="U147">
+      <c r="V147">
         <v>4.13847331717232E-05</v>
       </c>
-      <c r="V147">
+      <c r="W147">
         <v>-0.0001034596921040132</v>
       </c>
-      <c r="W147">
+      <c r="X147">
         <v>0.0006211180124222615</v>
       </c>
     </row>
-    <row r="148" spans="1:23">
+    <row r="148" spans="1:24">
       <c r="A148" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B148">
         <v>161.05</v>
@@ -11923,21 +12367,24 @@
         <v>161.0533333333333</v>
       </c>
       <c r="T148">
+        <v>161.05</v>
+      </c>
+      <c r="U148">
         <v>-0.06874999999999432</v>
       </c>
-      <c r="U148">
+      <c r="V148">
         <v>3.103726540998331E-05</v>
       </c>
-      <c r="V148">
+      <c r="W148">
         <v>-0.0001448585559670201</v>
       </c>
-      <c r="W148">
+      <c r="X148">
         <v>-0.0003103662321538581</v>
       </c>
     </row>
-    <row r="149" spans="1:23">
+    <row r="149" spans="1:24">
       <c r="A149" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B149">
         <v>161.05</v>
@@ -11994,21 +12441,24 @@
         <v>161.04</v>
       </c>
       <c r="T149">
+        <v>161.0666666666667</v>
+      </c>
+      <c r="U149">
         <v>-0.04062500000003411</v>
       </c>
-      <c r="U149">
+      <c r="V149">
         <v>3.103630212808461E-05</v>
       </c>
-      <c r="V149">
+      <c r="W149">
         <v>-8.278831029051581E-05</v>
       </c>
-      <c r="W149">
+      <c r="X149">
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:23">
+    <row r="150" spans="1:24">
       <c r="A150" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B150">
         <v>161.05</v>
@@ -12065,21 +12515,24 @@
         <v>161.0333333333333</v>
       </c>
       <c r="T150">
+        <v>161.05</v>
+      </c>
+      <c r="U150">
         <v>-0.02187499999999432</v>
       </c>
-      <c r="U150">
+      <c r="V150">
         <v>4.138045187462858E-05</v>
       </c>
-      <c r="V150">
+      <c r="W150">
         <v>-4.139758238130842E-05</v>
       </c>
-      <c r="W150">
+      <c r="X150">
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:23">
+    <row r="151" spans="1:24">
       <c r="A151" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B151">
         <v>161.1</v>
@@ -12136,21 +12589,24 @@
         <v>161.03</v>
       </c>
       <c r="T151">
+        <v>161.0666666666667</v>
+      </c>
+      <c r="U151">
         <v>-2.842170943040401E-14</v>
       </c>
-      <c r="U151">
+      <c r="V151">
         <v>2.068936980181846E-05</v>
       </c>
-      <c r="V151">
+      <c r="W151">
         <v>-2.069964810591518E-05</v>
       </c>
-      <c r="W151">
+      <c r="X151">
         <v>0.0003104625892578206</v>
       </c>
     </row>
-    <row r="152" spans="1:23">
+    <row r="152" spans="1:24">
       <c r="A152" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B152">
         <v>161.15</v>
@@ -12207,21 +12663,24 @@
         <v>161.0366666666667</v>
       </c>
       <c r="T152">
+        <v>161.1</v>
+      </c>
+      <c r="U152">
         <v>0.02500000000000568</v>
       </c>
-      <c r="U152">
+      <c r="V152">
         <v>3.103341264099058E-05</v>
       </c>
-      <c r="V152">
+      <c r="W152">
         <v>4.140015318054857E-05</v>
       </c>
-      <c r="W152">
+      <c r="X152">
         <v>0.0003103662321539691</v>
       </c>
     </row>
-    <row r="153" spans="1:23">
+    <row r="153" spans="1:24">
       <c r="A153" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B153">
         <v>161.05</v>
@@ -12278,21 +12737,24 @@
         <v>161.0366666666667</v>
       </c>
       <c r="T153">
+        <v>161.1</v>
+      </c>
+      <c r="U153">
         <v>0.03125</v>
       </c>
-      <c r="U153">
+      <c r="V153">
         <v>-2.068829973245201E-05</v>
       </c>
-      <c r="V153">
+      <c r="W153">
         <v>2.220446049250313E-16</v>
       </c>
-      <c r="W153">
+      <c r="X153">
         <v>-0.000620539869686576</v>
       </c>
     </row>
-    <row r="154" spans="1:23">
+    <row r="154" spans="1:24">
       <c r="A154" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B154">
         <v>161.1</v>
@@ -12349,21 +12811,24 @@
         <v>161.04</v>
       </c>
       <c r="T154">
+        <v>161.1</v>
+      </c>
+      <c r="U154">
         <v>0.04062500000000568</v>
       </c>
-      <c r="U154">
+      <c r="V154">
         <v>-1.03443638731493E-05</v>
       </c>
-      <c r="V154">
+      <c r="W154">
         <v>2.069921963920862E-05</v>
       </c>
-      <c r="W154">
+      <c r="X154">
         <v>0.0003104625892578206</v>
       </c>
     </row>
-    <row r="155" spans="1:23">
+    <row r="155" spans="1:24">
       <c r="A155" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B155">
         <v>161.1</v>
@@ -12420,21 +12885,24 @@
         <v>161.0433333333334</v>
       </c>
       <c r="T155">
+        <v>161.0833333333333</v>
+      </c>
+      <c r="U155">
         <v>0.03750000000002274</v>
       </c>
-      <c r="U155">
+      <c r="V155">
         <v>-1.034447088010815E-05</v>
       </c>
-      <c r="V155">
+      <c r="W155">
         <v>2.069879119082074E-05</v>
       </c>
-      <c r="W155">
+      <c r="X155">
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:23">
+    <row r="156" spans="1:24">
       <c r="A156" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B156">
         <v>161.15</v>
@@ -12491,21 +12959,24 @@
         <v>161.0533333333333</v>
       </c>
       <c r="T156">
+        <v>161.1166666666667</v>
+      </c>
+      <c r="U156">
         <v>0.04375000000001705</v>
       </c>
-      <c r="U156">
+      <c r="V156">
         <v>1.034457788939847E-05</v>
       </c>
-      <c r="V156">
+      <c r="W156">
         <v>6.209508827836885E-05</v>
       </c>
-      <c r="W156">
+      <c r="X156">
         <v>0.0003103662321539691</v>
       </c>
     </row>
-    <row r="157" spans="1:23">
+    <row r="157" spans="1:24">
       <c r="A157" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B157">
         <v>161.05</v>
@@ -12562,21 +13033,24 @@
         <v>161.0566666666667</v>
       </c>
       <c r="T157">
+        <v>161.1</v>
+      </c>
+      <c r="U157">
         <v>0.04062499999997726</v>
       </c>
-      <c r="U157">
+      <c r="V157">
         <v>-2.068894176066038E-05</v>
       </c>
-      <c r="V157">
+      <c r="W157">
         <v>2.069707757290651E-05</v>
       </c>
-      <c r="W157">
+      <c r="X157">
         <v>-0.000620539869686576</v>
       </c>
     </row>
-    <row r="158" spans="1:23">
+    <row r="158" spans="1:24">
       <c r="A158" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B158">
         <v>161.1</v>
@@ -12633,21 +13107,24 @@
         <v>161.0666666666667</v>
       </c>
       <c r="T158">
+        <v>161.1</v>
+      </c>
+      <c r="U158">
         <v>0.04062499999997726</v>
       </c>
-      <c r="U158">
+      <c r="V158">
         <v>-3.103405470283871E-05</v>
       </c>
-      <c r="V158">
+      <c r="W158">
         <v>6.208994763734488E-05</v>
       </c>
-      <c r="W158">
+      <c r="X158">
         <v>0.0003104625892578206</v>
       </c>
     </row>
-    <row r="159" spans="1:23">
+    <row r="159" spans="1:24">
       <c r="A159" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B159">
         <v>161.05</v>
@@ -12704,21 +13181,24 @@
         <v>161.0733333333334</v>
       </c>
       <c r="T159">
+        <v>161.0666666666667</v>
+      </c>
+      <c r="U159">
         <v>0.02812499999998863</v>
       </c>
-      <c r="U159">
+      <c r="V159">
         <v>-2.069001189675124E-05</v>
       </c>
-      <c r="V159">
+      <c r="W159">
         <v>4.139072847686442E-05</v>
       </c>
-      <c r="W159">
+      <c r="X159">
         <v>-0.0003103662321538581</v>
       </c>
     </row>
-    <row r="160" spans="1:23">
+    <row r="160" spans="1:24">
       <c r="A160" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B160">
         <v>161.05</v>
@@ -12775,21 +13255,24 @@
         <v>161.0766666666667</v>
       </c>
       <c r="T160">
+        <v>161.0666666666667</v>
+      </c>
+      <c r="U160">
         <v>0.009374999999977263</v>
       </c>
-      <c r="U160">
+      <c r="V160">
         <v>-4.138087996441442E-05</v>
       </c>
-      <c r="V160">
+      <c r="W160">
         <v>2.069450767772096E-05</v>
       </c>
-      <c r="W160">
+      <c r="X160">
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:23">
+    <row r="161" spans="1:24">
       <c r="A161" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B161">
         <v>161.1</v>
@@ -12846,21 +13329,24 @@
         <v>161.0833333333333</v>
       </c>
       <c r="T161">
+        <v>161.0666666666667</v>
+      </c>
+      <c r="U161">
         <v>0.009375000000005684</v>
       </c>
-      <c r="U161">
+      <c r="V161">
         <v>-6.207388861867447E-05</v>
       </c>
-      <c r="V161">
+      <c r="W161">
         <v>4.138815884768832E-05</v>
       </c>
-      <c r="W161">
+      <c r="X161">
         <v>0.0003104625892578206</v>
       </c>
     </row>
-    <row r="162" spans="1:23">
+    <row r="162" spans="1:24">
       <c r="A162" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B162">
         <v>161.05</v>
@@ -12917,21 +13403,24 @@
         <v>161.08</v>
       </c>
       <c r="T162">
+        <v>161.0666666666667</v>
+      </c>
+      <c r="U162">
         <v>0</v>
       </c>
-      <c r="U162">
+      <c r="V162">
         <v>-6.207774202549032E-05</v>
       </c>
-      <c r="V162">
+      <c r="W162">
         <v>-2.069322296949228E-05</v>
       </c>
-      <c r="W162">
+      <c r="X162">
         <v>-0.0003103662321538581</v>
       </c>
     </row>
-    <row r="163" spans="1:23">
+    <row r="163" spans="1:24">
       <c r="A163" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B163">
         <v>161.2</v>
@@ -12988,21 +13477,24 @@
         <v>161.09</v>
       </c>
       <c r="T163">
+        <v>161.1166666666666</v>
+      </c>
+      <c r="U163">
         <v>0.006249999999994316</v>
       </c>
-      <c r="U163">
+      <c r="V163">
         <v>-4.138773060724521E-05</v>
       </c>
-      <c r="V163">
+      <c r="W163">
         <v>6.208095356341481E-05</v>
       </c>
-      <c r="W163">
+      <c r="X163">
         <v>0.0009313877677739058</v>
       </c>
     </row>
-    <row r="164" spans="1:23">
+    <row r="164" spans="1:24">
       <c r="A164" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B164">
         <v>161.2</v>
@@ -13059,21 +13551,24 @@
         <v>161.1</v>
       </c>
       <c r="T164">
+        <v>161.15</v>
+      </c>
+      <c r="U164">
         <v>0.003125000000011369</v>
       </c>
-      <c r="U164">
+      <c r="V164">
         <v>-1.034736090554933E-05</v>
       </c>
-      <c r="V164">
+      <c r="W164">
         <v>6.207709975791786E-05</v>
       </c>
-      <c r="W164">
+      <c r="X164">
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:23">
+    <row r="165" spans="1:24">
       <c r="A165" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B165">
         <v>161.35</v>
@@ -13130,21 +13625,24 @@
         <v>161.12</v>
       </c>
       <c r="T165">
+        <v>161.25</v>
+      </c>
+      <c r="U165">
         <v>0.02187499999999432</v>
       </c>
-      <c r="U165">
+      <c r="V165">
         <v>4.138987189805654E-05</v>
       </c>
-      <c r="V165">
+      <c r="W165">
         <v>0.000124146492861632</v>
       </c>
-      <c r="W165">
+      <c r="X165">
         <v>0.0009305210918113538</v>
       </c>
     </row>
-    <row r="166" spans="1:23">
+    <row r="166" spans="1:24">
       <c r="A166" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B166">
         <v>161.35</v>
@@ -13201,21 +13699,24 @@
         <v>161.1366666666667</v>
       </c>
       <c r="T166">
+        <v>161.3</v>
+      </c>
+      <c r="U166">
         <v>0.03437499999998295</v>
       </c>
-      <c r="U166">
+      <c r="V166">
         <v>4.138815884791036E-05</v>
       </c>
-      <c r="V166">
+      <c r="W166">
         <v>0.0001034425686856633</v>
       </c>
-      <c r="W166">
+      <c r="X166">
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:23">
+    <row r="167" spans="1:24">
       <c r="A167" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B167">
         <v>161.15</v>
@@ -13272,21 +13773,24 @@
         <v>161.1366666666667</v>
       </c>
       <c r="T167">
+        <v>161.2833333333333</v>
+      </c>
+      <c r="U167">
         <v>0.04374999999998863</v>
       </c>
-      <c r="U167">
+      <c r="V167">
         <v>2.069322296938125E-05</v>
       </c>
-      <c r="V167">
+      <c r="W167">
         <v>2.220446049250313E-16</v>
       </c>
-      <c r="W167">
+      <c r="X167">
         <v>-0.001239541369693176</v>
       </c>
     </row>
-    <row r="168" spans="1:23">
+    <row r="168" spans="1:24">
       <c r="A168" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B168">
         <v>161.2</v>
@@ -13343,21 +13847,24 @@
         <v>161.1466666666666</v>
       </c>
       <c r="T168">
+        <v>161.2333333333333</v>
+      </c>
+      <c r="U168">
         <v>0.05937500000001705</v>
       </c>
-      <c r="U168">
+      <c r="V168">
         <v>3.103919215341477E-05</v>
       </c>
-      <c r="V168">
+      <c r="W168">
         <v>6.205912165624383E-05</v>
       </c>
-      <c r="W168">
+      <c r="X168">
         <v>0.000310269934843177</v>
       </c>
     </row>
-    <row r="169" spans="1:23">
+    <row r="169" spans="1:24">
       <c r="A169" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B169">
         <v>161.15</v>
@@ -13414,21 +13921,24 @@
         <v>161.15</v>
       </c>
       <c r="T169">
+        <v>161.1666666666667</v>
+      </c>
+      <c r="U169">
         <v>0.05937499999998863</v>
       </c>
-      <c r="U169">
+      <c r="V169">
         <v>2.069215250122269E-05</v>
       </c>
-      <c r="V169">
+      <c r="W169">
         <v>2.068509018715581E-05</v>
       </c>
-      <c r="W169">
+      <c r="X169">
         <v>-0.0003101736972703772</v>
       </c>
     </row>
-    <row r="170" spans="1:23">
+    <row r="170" spans="1:24">
       <c r="A170" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B170">
         <v>161.2</v>
@@ -13485,21 +13995,24 @@
         <v>161.1566666666667</v>
       </c>
       <c r="T170">
+        <v>161.1833333333333</v>
+      </c>
+      <c r="U170">
         <v>0.07187500000000568</v>
       </c>
-      <c r="U170">
+      <c r="V170">
         <v>3.103758651734623E-05</v>
       </c>
-      <c r="V170">
+      <c r="W170">
         <v>4.136932464593457E-05</v>
       </c>
-      <c r="W170">
+      <c r="X170">
         <v>0.000310269934843177</v>
       </c>
     </row>
-    <row r="171" spans="1:23">
+    <row r="171" spans="1:24">
       <c r="A171" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B171">
         <v>161.15</v>
@@ -13556,21 +14069,24 @@
         <v>161.1566666666667</v>
       </c>
       <c r="T171">
+        <v>161.1666666666667</v>
+      </c>
+      <c r="U171">
         <v>0.0625</v>
       </c>
-      <c r="U171">
+      <c r="V171">
         <v>3.103662321546352E-05</v>
       </c>
-      <c r="V171">
+      <c r="W171">
         <v>-2.220446049250313E-16</v>
       </c>
-      <c r="W171">
+      <c r="X171">
         <v>-0.0003101736972703772</v>
       </c>
     </row>
-    <row r="172" spans="1:23">
+    <row r="172" spans="1:24">
       <c r="A172" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B172">
         <v>161.15</v>
@@ -13627,21 +14143,24 @@
         <v>161.1633333333333</v>
       </c>
       <c r="T172">
+        <v>161.1666666666667</v>
+      </c>
+      <c r="U172">
         <v>0.05625000000000568</v>
       </c>
-      <c r="U172">
+      <c r="V172">
         <v>3.103565997331081E-05</v>
       </c>
-      <c r="V172">
+      <c r="W172">
         <v>4.136761329553984E-05</v>
       </c>
-      <c r="W172">
+      <c r="X172">
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:23">
+    <row r="173" spans="1:24">
       <c r="A173" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B173">
         <v>161</v>
@@ -13698,21 +14217,24 @@
         <v>161.1566666666667</v>
       </c>
       <c r="T173">
+        <v>161.1</v>
+      </c>
+      <c r="U173">
         <v>0.015625</v>
       </c>
-      <c r="U173">
+      <c r="V173">
         <v>1.034489893037005E-05</v>
       </c>
-      <c r="V173">
+      <c r="W173">
         <v>-4.136590208692059E-05</v>
       </c>
-      <c r="W173">
+      <c r="X173">
         <v>-0.0009308098045299751</v>
       </c>
     </row>
-    <row r="174" spans="1:23">
+    <row r="174" spans="1:24">
       <c r="A174" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B174">
         <v>160.85</v>
@@ -13769,21 +14291,24 @@
         <v>161.1433333333333</v>
       </c>
       <c r="T174">
+        <v>161</v>
+      </c>
+      <c r="U174">
         <v>-0.03124999999997158</v>
       </c>
-      <c r="U174">
+      <c r="V174">
         <v>-2.068958382916986E-05</v>
       </c>
-      <c r="V174">
+      <c r="W174">
         <v>-8.27352265911907E-05</v>
       </c>
-      <c r="W174">
+      <c r="X174">
         <v>-0.0009316770186336143</v>
       </c>
     </row>
-    <row r="175" spans="1:23">
+    <row r="175" spans="1:24">
       <c r="A175" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B175">
         <v>160.95</v>
@@ -13840,21 +14365,24 @@
         <v>161.1366666666667</v>
       </c>
       <c r="T175">
+        <v>160.9333333333333</v>
+      </c>
+      <c r="U175">
         <v>-0.05000000000001137</v>
       </c>
-      <c r="U175">
+      <c r="V175">
         <v>-1.034500594832011E-05</v>
       </c>
-      <c r="V175">
+      <c r="W175">
         <v>-4.137103613743864E-05</v>
       </c>
-      <c r="W175">
+      <c r="X175">
         <v>0.0006216972334471826</v>
       </c>
     </row>
-    <row r="176" spans="1:23">
+    <row r="176" spans="1:24">
       <c r="A176" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B176">
         <v>161</v>
@@ -13911,21 +14439,24 @@
         <v>161.13</v>
       </c>
       <c r="T176">
+        <v>160.9333333333333</v>
+      </c>
+      <c r="U176">
         <v>-0.07187500000003411</v>
       </c>
-      <c r="U176">
+      <c r="V176">
         <v>0</v>
       </c>
-      <c r="V176">
+      <c r="W176">
         <v>-4.137274777105127E-05</v>
       </c>
-      <c r="W176">
+      <c r="X176">
         <v>0.0003106554830694108</v>
       </c>
     </row>
-    <row r="177" spans="1:23">
+    <row r="177" spans="1:24">
       <c r="A177" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B177">
         <v>161</v>
@@ -13982,21 +14513,24 @@
         <v>161.1266666666667</v>
       </c>
       <c r="T177">
+        <v>160.9833333333333</v>
+      </c>
+      <c r="U177">
         <v>-0.08437500000002274</v>
       </c>
-      <c r="U177">
+      <c r="V177">
         <v>-2.069022593709224E-05</v>
       </c>
-      <c r="V177">
+      <c r="W177">
         <v>-2.068722977321968E-05</v>
       </c>
-      <c r="W177">
+      <c r="X177">
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:23">
+    <row r="178" spans="1:24">
       <c r="A178" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B178">
         <v>161.05</v>
@@ -14053,21 +14587,24 @@
         <v>161.1166666666667</v>
       </c>
       <c r="T178">
+        <v>161.0166666666667</v>
+      </c>
+      <c r="U178">
         <v>-0.1031249999999773</v>
       </c>
-      <c r="U178">
+      <c r="V178">
         <v>0</v>
       </c>
-      <c r="V178">
+      <c r="W178">
         <v>-6.206297323008148E-05</v>
       </c>
-      <c r="W178">
+      <c r="X178">
         <v>0.0003105590062113528</v>
       </c>
     </row>
-    <row r="179" spans="1:23">
+    <row r="179" spans="1:24">
       <c r="A179" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B179">
         <v>161.05</v>
@@ -14124,21 +14661,24 @@
         <v>161.1066666666667</v>
       </c>
       <c r="T179">
+        <v>161.0333333333333</v>
+      </c>
+      <c r="U179">
         <v>-0.1062500000000171</v>
       </c>
-      <c r="U179">
+      <c r="V179">
         <v>-2.220446049250313E-16</v>
       </c>
-      <c r="V179">
+      <c r="W179">
         <v>-6.206682528198115E-05</v>
       </c>
-      <c r="W179">
+      <c r="X179">
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:23">
+    <row r="180" spans="1:24">
       <c r="A180" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B180">
         <v>161</v>
@@ -14195,21 +14735,24 @@
         <v>161.0833333333333</v>
       </c>
       <c r="T180">
+        <v>161.0333333333333</v>
+      </c>
+      <c r="U180">
         <v>-0.1124999999999829</v>
       </c>
-      <c r="U180">
+      <c r="V180">
         <v>-1.034532701593704E-05</v>
       </c>
-      <c r="V180">
+      <c r="W180">
         <v>-0.0001448315815607559</v>
       </c>
-      <c r="W180">
+      <c r="X180">
         <v>-0.0003104625892580426</v>
       </c>
     </row>
-    <row r="181" spans="1:23">
+    <row r="181" spans="1:24">
       <c r="A181" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B181">
         <v>161</v>
@@ -14266,21 +14809,24 @@
         <v>161.06</v>
       </c>
       <c r="T181">
+        <v>161.0166666666667</v>
+      </c>
+      <c r="U181">
         <v>-0.09062499999998863</v>
       </c>
-      <c r="U181">
+      <c r="V181">
         <v>-2.069086808520471E-05</v>
       </c>
-      <c r="V181">
+      <c r="W181">
         <v>-0.0001448525607863349</v>
       </c>
-      <c r="W181">
+      <c r="X181">
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:23">
+    <row r="182" spans="1:24">
       <c r="A182" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B182">
         <v>161.05</v>
@@ -14337,21 +14883,24 @@
         <v>161.0533333333333</v>
       </c>
       <c r="T182">
+        <v>161.0166666666667</v>
+      </c>
+      <c r="U182">
         <v>-0.04687500000002842</v>
       </c>
-      <c r="U182">
+      <c r="V182">
         <v>-2.069129620640986E-05</v>
       </c>
-      <c r="V182">
+      <c r="W182">
         <v>-4.13924417400624E-05</v>
       </c>
-      <c r="W182">
+      <c r="X182">
         <v>0.0003105590062113528</v>
       </c>
     </row>
-    <row r="183" spans="1:23">
+    <row r="183" spans="1:24">
       <c r="A183" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B183">
         <v>161.1</v>
@@ -14408,21 +14957,24 @@
         <v>161.0466666666667</v>
       </c>
       <c r="T183">
+        <v>161.05</v>
+      </c>
+      <c r="U183">
         <v>-0.02500000000000568</v>
       </c>
-      <c r="U183">
+      <c r="V183">
         <v>1.03458621727448E-05</v>
       </c>
-      <c r="V183">
+      <c r="W183">
         <v>-4.13941551452579E-05</v>
       </c>
-      <c r="W183">
+      <c r="X183">
         <v>0.0003104625892578206</v>
       </c>
     </row>
-    <row r="184" spans="1:23">
+    <row r="184" spans="1:24">
       <c r="A184" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B184">
         <v>161.2</v>
@@ -14479,21 +15031,24 @@
         <v>161.05</v>
       </c>
       <c r="T184">
+        <v>161.1166666666666</v>
+      </c>
+      <c r="U184">
         <v>0</v>
       </c>
-      <c r="U184">
+      <c r="V184">
         <v>2.069151027317417E-05</v>
       </c>
-      <c r="V184">
+      <c r="W184">
         <v>2.069793434622547E-05</v>
       </c>
-      <c r="W184">
+      <c r="X184">
         <v>0.0006207324643079382</v>
       </c>
     </row>
-    <row r="185" spans="1:23">
+    <row r="185" spans="1:24">
       <c r="A185" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B185">
         <v>161.1</v>
@@ -14550,21 +15105,24 @@
         <v>161.0433333333334</v>
       </c>
       <c r="T185">
+        <v>161.1333333333333</v>
+      </c>
+      <c r="U185">
         <v>0.01562500000002842</v>
       </c>
-      <c r="U185">
+      <c r="V185">
         <v>0</v>
       </c>
-      <c r="V185">
+      <c r="W185">
         <v>-4.139501190103534E-05</v>
       </c>
-      <c r="W185">
+      <c r="X185">
         <v>-0.0006203473945408655</v>
       </c>
     </row>
-    <row r="186" spans="1:23">
+    <row r="186" spans="1:24">
       <c r="A186" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B186">
         <v>161</v>
@@ -14621,21 +15179,24 @@
         <v>161.0333333333333</v>
       </c>
       <c r="T186">
+        <v>161.1</v>
+      </c>
+      <c r="U186">
         <v>0.02187500000002274</v>
       </c>
-      <c r="U186">
+      <c r="V186">
         <v>-3.10366232153525E-05</v>
       </c>
-      <c r="V186">
+      <c r="W186">
         <v>-6.209508827859089E-05</v>
       </c>
-      <c r="W186">
+      <c r="X186">
         <v>-0.0006207324643078271</v>
       </c>
     </row>
-    <row r="187" spans="1:23">
+    <row r="187" spans="1:24">
       <c r="A187" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B187">
         <v>161.05</v>
@@ -14692,21 +15253,24 @@
         <v>161.0266666666667</v>
       </c>
       <c r="T187">
+        <v>161.05</v>
+      </c>
+      <c r="U187">
         <v>0.02812499999998863</v>
       </c>
-      <c r="U187">
+      <c r="V187">
         <v>-2.220446049250313E-16</v>
       </c>
-      <c r="V187">
+      <c r="W187">
         <v>-4.139929621194138E-05</v>
       </c>
-      <c r="W187">
+      <c r="X187">
         <v>0.0003105590062113528</v>
       </c>
     </row>
-    <row r="188" spans="1:23">
+    <row r="188" spans="1:24">
       <c r="A188" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B188">
         <v>161.1</v>
@@ -14763,21 +15327,24 @@
         <v>161.0333333333333</v>
       </c>
       <c r="T188">
+        <v>161.05</v>
+      </c>
+      <c r="U188">
         <v>0.04374999999998863</v>
       </c>
-      <c r="U188">
+      <c r="V188">
         <v>2.220446049250313E-16</v>
       </c>
-      <c r="V188">
+      <c r="W188">
         <v>4.140101018457187E-05</v>
       </c>
-      <c r="W188">
+      <c r="X188">
         <v>0.0003104625892578206</v>
       </c>
     </row>
-    <row r="189" spans="1:23">
+    <row r="189" spans="1:24">
       <c r="A189" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B189">
         <v>161.05</v>
@@ -14834,21 +15401,24 @@
         <v>161.0466666666667</v>
       </c>
       <c r="T189">
+        <v>161.0666666666667</v>
+      </c>
+      <c r="U189">
         <v>0.046875</v>
       </c>
-      <c r="U189">
+      <c r="V189">
         <v>0</v>
       </c>
-      <c r="V189">
+      <c r="W189">
         <v>8.279859242410481E-05</v>
       </c>
-      <c r="W189">
+      <c r="X189">
         <v>-0.0003103662321538581</v>
       </c>
     </row>
-    <row r="190" spans="1:23">
+    <row r="190" spans="1:24">
       <c r="A190" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B190">
         <v>161</v>
@@ -14905,21 +15475,24 @@
         <v>161.05</v>
       </c>
       <c r="T190">
+        <v>161.05</v>
+      </c>
+      <c r="U190">
         <v>0.03124999999997158</v>
       </c>
-      <c r="U190">
+      <c r="V190">
         <v>-1.034586217241174E-05</v>
       </c>
-      <c r="V190">
+      <c r="W190">
         <v>2.069793434622547E-05</v>
       </c>
-      <c r="W190">
+      <c r="X190">
         <v>-0.0003104625892580426</v>
       </c>
     </row>
-    <row r="191" spans="1:23">
+    <row r="191" spans="1:24">
       <c r="A191" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B191">
         <v>161</v>
@@ -14976,21 +15549,24 @@
         <v>161.05</v>
       </c>
       <c r="T191">
+        <v>161.0166666666667</v>
+      </c>
+      <c r="U191">
         <v>0.015625</v>
       </c>
-      <c r="U191">
+      <c r="V191">
         <v>-2.069193842080264E-05</v>
-      </c>
-      <c r="V191">
-        <v>0</v>
       </c>
       <c r="W191">
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="1:23">
+      <c r="X191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:24">
       <c r="A192" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B192">
         <v>161</v>
@@ -15047,21 +15623,24 @@
         <v>161.05</v>
       </c>
       <c r="T192">
+        <v>161</v>
+      </c>
+      <c r="U192">
         <v>-0.009374999999977263</v>
       </c>
-      <c r="U192">
+      <c r="V192">
         <v>-1.034618329309733E-05</v>
-      </c>
-      <c r="V192">
-        <v>0</v>
       </c>
       <c r="W192">
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="1:23">
+      <c r="X192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:24">
       <c r="A193" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B193">
         <v>161</v>
@@ -15118,21 +15697,24 @@
         <v>161.0466666666667</v>
       </c>
       <c r="T193">
+        <v>161</v>
+      </c>
+      <c r="U193">
         <v>-0.02187500000002274</v>
       </c>
-      <c r="U193">
+      <c r="V193">
         <v>-4.138516135032688E-05</v>
       </c>
-      <c r="V193">
+      <c r="W193">
         <v>-2.069750595046216E-05</v>
       </c>
-      <c r="W193">
+      <c r="X193">
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:23">
+    <row r="194" spans="1:24">
       <c r="A194" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B194">
         <v>161</v>
@@ -15189,21 +15771,24 @@
         <v>161.0433333333334</v>
       </c>
       <c r="T194">
+        <v>161</v>
+      </c>
+      <c r="U194">
         <v>-0.01875000000003979</v>
       </c>
-      <c r="U194">
+      <c r="V194">
         <v>-4.13868741527823E-05</v>
       </c>
-      <c r="V194">
+      <c r="W194">
         <v>-2.069793434611444E-05</v>
       </c>
-      <c r="W194">
+      <c r="X194">
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:23">
+    <row r="195" spans="1:24">
       <c r="A195" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B195">
         <v>160.95</v>
@@ -15260,21 +15845,24 @@
         <v>161.04</v>
       </c>
       <c r="T195">
+        <v>160.9833333333333</v>
+      </c>
+      <c r="U195">
         <v>-0.02500000000000568</v>
       </c>
-      <c r="U195">
+      <c r="V195">
         <v>-8.277717419413744E-05</v>
       </c>
-      <c r="V195">
+      <c r="W195">
         <v>-2.069836275964132E-05</v>
       </c>
-      <c r="W195">
+      <c r="X195">
         <v>-0.0003105590062112418</v>
       </c>
     </row>
-    <row r="196" spans="1:23">
+    <row r="196" spans="1:24">
       <c r="A196" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B196">
         <v>160.9</v>
@@ -15331,21 +15919,24 @@
         <v>161.0333333333333</v>
       </c>
       <c r="T196">
+        <v>160.95</v>
+      </c>
+      <c r="U196">
         <v>-0.04374999999998863</v>
       </c>
-      <c r="U196">
+      <c r="V196">
         <v>-9.313203017491389E-05</v>
       </c>
-      <c r="V196">
+      <c r="W196">
         <v>-4.13975823811974E-05</v>
       </c>
-      <c r="W196">
+      <c r="X196">
         <v>-0.0003106554830691888</v>
       </c>
     </row>
-    <row r="197" spans="1:23">
+    <row r="197" spans="1:24">
       <c r="A197" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B197">
         <v>160.85</v>
@@ -15402,21 +15993,24 @@
         <v>161.02</v>
       </c>
       <c r="T197">
+        <v>160.9</v>
+      </c>
+      <c r="U197">
         <v>-0.05937500000001705</v>
       </c>
-      <c r="U197">
+      <c r="V197">
         <v>-6.209380303823231E-05</v>
       </c>
-      <c r="V197">
+      <c r="W197">
         <v>-8.279859242399379E-05</v>
       </c>
-      <c r="W197">
+      <c r="X197">
         <v>-0.0003107520198881719</v>
       </c>
     </row>
-    <row r="198" spans="1:23">
+    <row r="198" spans="1:24">
       <c r="A198" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B198">
         <v>160.85</v>
@@ -15473,21 +16067,24 @@
         <v>161.0033333333333</v>
       </c>
       <c r="T198">
+        <v>160.8666666666667</v>
+      </c>
+      <c r="U198">
         <v>-0.06562499999998295</v>
       </c>
-      <c r="U198">
+      <c r="V198">
         <v>-7.244726873811835E-05</v>
       </c>
-      <c r="V198">
+      <c r="W198">
         <v>-0.0001035068107482218</v>
       </c>
-      <c r="W198">
+      <c r="X198">
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:23">
+    <row r="199" spans="1:24">
       <c r="A199" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B199">
         <v>160.85</v>
@@ -15544,21 +16141,24 @@
         <v>160.98</v>
       </c>
       <c r="T199">
+        <v>160.85</v>
+      </c>
+      <c r="U199">
         <v>-0.06874999999996589</v>
       </c>
-      <c r="U199">
+      <c r="V199">
         <v>-6.210215805013686E-05</v>
       </c>
-      <c r="V199">
+      <c r="W199">
         <v>-0.0001449245357237894</v>
       </c>
-      <c r="W199">
+      <c r="X199">
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:23">
+    <row r="200" spans="1:24">
       <c r="A200" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B200">
         <v>160.85</v>
@@ -15615,21 +16215,24 @@
         <v>160.9633333333333</v>
       </c>
       <c r="T200">
+        <v>160.85</v>
+      </c>
+      <c r="U200">
         <v>-0.06562500000001137</v>
       </c>
-      <c r="U200">
+      <c r="V200">
         <v>-7.245701746194655E-05</v>
       </c>
-      <c r="V200">
+      <c r="W200">
         <v>-0.0001035325299207912</v>
       </c>
-      <c r="W200">
+      <c r="X200">
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:23">
+    <row r="201" spans="1:24">
       <c r="A201" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B201">
         <v>160.8</v>
@@ -15686,21 +16289,24 @@
         <v>160.95</v>
       </c>
       <c r="T201">
+        <v>160.8333333333333</v>
+      </c>
+      <c r="U201">
         <v>-0.07187499999997726</v>
       </c>
-      <c r="U201">
+      <c r="V201">
         <v>-7.246226786206122E-05</v>
       </c>
-      <c r="V201">
+      <c r="W201">
         <v>-8.283460001257126E-05</v>
       </c>
-      <c r="W201">
+      <c r="X201">
         <v>-0.0003108486167235913</v>
       </c>
     </row>
-    <row r="202" spans="1:23">
+    <row r="202" spans="1:24">
       <c r="A202" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B202">
         <v>160.75</v>
@@ -15757,21 +16363,24 @@
         <v>160.93</v>
       </c>
       <c r="T202">
+        <v>160.8</v>
+      </c>
+      <c r="U202">
         <v>-0.08749999999997726</v>
       </c>
-      <c r="U202">
+      <c r="V202">
         <v>-8.28200217402042E-05</v>
       </c>
-      <c r="V202">
+      <c r="W202">
         <v>-0.0001242621932278087</v>
       </c>
-      <c r="W202">
+      <c r="X202">
         <v>-0.0003109452736319573</v>
       </c>
     </row>
-    <row r="203" spans="1:23">
+    <row r="203" spans="1:24">
       <c r="A203" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B203">
         <v>160.75</v>
@@ -15828,21 +16437,24 @@
         <v>160.9066666666667</v>
       </c>
       <c r="T203">
+        <v>160.7666666666667</v>
+      </c>
+      <c r="U203">
         <v>-0.09374999999997158</v>
       </c>
-      <c r="U203">
+      <c r="V203">
         <v>-5.176680091534269E-05</v>
       </c>
-      <c r="V203">
+      <c r="W203">
         <v>-0.0001449905756124581</v>
       </c>
-      <c r="W203">
+      <c r="X203">
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:23">
+    <row r="204" spans="1:24">
       <c r="A204" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B204">
         <v>160.8</v>
@@ -15899,21 +16511,24 @@
         <v>160.89</v>
       </c>
       <c r="T204">
+        <v>160.7666666666667</v>
+      </c>
+      <c r="U204">
         <v>-0.08750000000000568</v>
       </c>
-      <c r="U204">
+      <c r="V204">
         <v>-1.035389617132232E-05</v>
       </c>
-      <c r="V204">
+      <c r="W204">
         <v>-0.0001035797149486761</v>
       </c>
-      <c r="W204">
+      <c r="X204">
         <v>0.0003110419906688922</v>
       </c>
     </row>
-    <row r="205" spans="1:23">
+    <row r="205" spans="1:24">
       <c r="A205" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B205">
         <v>160.75</v>
@@ -15970,21 +16585,24 @@
         <v>160.8733333333333</v>
       </c>
       <c r="T205">
+        <v>160.7666666666667</v>
+      </c>
+      <c r="U205">
         <v>-0.08124999999998295</v>
       </c>
-      <c r="U205">
+      <c r="V205">
         <v>-4.141601350160506E-05</v>
       </c>
-      <c r="V205">
+      <c r="W205">
         <v>-0.0001035904448172253</v>
       </c>
-      <c r="W205">
+      <c r="X205">
         <v>-0.0003109452736319573</v>
       </c>
     </row>
-    <row r="206" spans="1:23">
+    <row r="206" spans="1:24">
       <c r="A206" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B206">
         <v>160.65</v>
@@ -16041,21 +16659,24 @@
         <v>160.85</v>
       </c>
       <c r="T206">
+        <v>160.7333333333333</v>
+      </c>
+      <c r="U206">
         <v>-0.08437500000002274</v>
       </c>
-      <c r="U206">
+      <c r="V206">
         <v>-7.248102550294622E-05</v>
       </c>
-      <c r="V206">
+      <c r="W206">
         <v>-0.0001450416476731498</v>
       </c>
-      <c r="W206">
+      <c r="X206">
         <v>-0.0006220839813374512</v>
       </c>
     </row>
-    <row r="207" spans="1:23">
+    <row r="207" spans="1:24">
       <c r="A207" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B207">
         <v>160.7</v>
@@ -16112,21 +16733,24 @@
         <v>160.83</v>
       </c>
       <c r="T207">
+        <v>160.7</v>
+      </c>
+      <c r="U207">
         <v>-0.08437499999999432</v>
       </c>
-      <c r="U207">
+      <c r="V207">
         <v>-6.213109661379335E-05</v>
       </c>
-      <c r="V207">
+      <c r="W207">
         <v>-0.0001243394466895476</v>
       </c>
-      <c r="W207">
+      <c r="X207">
         <v>0.0003112356053531773</v>
       </c>
     </row>
-    <row r="208" spans="1:23">
+    <row r="208" spans="1:24">
       <c r="A208" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B208">
         <v>160.6</v>
@@ -16183,21 +16807,24 @@
         <v>160.8033333333333</v>
       </c>
       <c r="T208">
+        <v>160.65</v>
+      </c>
+      <c r="U208">
         <v>-0.09062499999996021</v>
       </c>
-      <c r="U208">
+      <c r="V208">
         <v>-9.320243569022058E-05</v>
       </c>
-      <c r="V208">
+      <c r="W208">
         <v>-0.000165806545213365</v>
       </c>
-      <c r="W208">
+      <c r="X208">
         <v>-0.000622277535780924</v>
       </c>
     </row>
-    <row r="209" spans="1:23">
+    <row r="209" spans="1:24">
       <c r="A209" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B209">
         <v>160.6</v>
@@ -16254,21 +16881,24 @@
         <v>160.7766666666666</v>
       </c>
       <c r="T209">
+        <v>160.6333333333333</v>
+      </c>
+      <c r="U209">
         <v>-0.09062499999998863</v>
       </c>
-      <c r="U209">
+      <c r="V209">
         <v>-9.321112319415903E-05</v>
       </c>
-      <c r="V209">
+      <c r="W209">
         <v>-0.0001658340415828796</v>
       </c>
-      <c r="W209">
+      <c r="X209">
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:23">
+    <row r="210" spans="1:24">
       <c r="A210" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B210">
         <v>160.65</v>
@@ -16325,21 +16955,24 @@
         <v>160.7566666666667</v>
       </c>
       <c r="T210">
+        <v>160.6166666666667</v>
+      </c>
+      <c r="U210">
         <v>-0.08124999999998295</v>
       </c>
-      <c r="U210">
+      <c r="V210">
         <v>-7.250429846883399E-05</v>
       </c>
-      <c r="V210">
+      <c r="W210">
         <v>-0.0001243961603050181</v>
       </c>
-      <c r="W210">
+      <c r="X210">
         <v>0.0003113325031134373</v>
       </c>
     </row>
-    <row r="211" spans="1:23">
+    <row r="211" spans="1:24">
       <c r="A211" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B211">
         <v>160.7</v>
@@ -16396,21 +17029,24 @@
         <v>160.7433333333333</v>
       </c>
       <c r="T211">
+        <v>160.65</v>
+      </c>
+      <c r="U211">
         <v>-0.07187500000003411</v>
       </c>
-      <c r="U211">
+      <c r="V211">
         <v>-6.215104776319258E-05</v>
       </c>
-      <c r="V211">
+      <c r="W211">
         <v>-8.294109108997194E-05</v>
       </c>
-      <c r="W211">
+      <c r="X211">
         <v>0.0003112356053531773</v>
       </c>
     </row>
-    <row r="212" spans="1:23">
+    <row r="212" spans="1:24">
       <c r="A212" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B212">
         <v>160.65</v>
@@ -16467,21 +17103,24 @@
         <v>160.73</v>
       </c>
       <c r="T212">
+        <v>160.6666666666667</v>
+      </c>
+      <c r="U212">
         <v>-0.07500000000001705</v>
       </c>
-      <c r="U212">
+      <c r="V212">
         <v>-8.287321434130579E-05</v>
       </c>
-      <c r="V212">
+      <c r="W212">
         <v>-8.294797088537198E-05</v>
       </c>
-      <c r="W212">
+      <c r="X212">
         <v>-0.000311138767890351</v>
       </c>
     </row>
-    <row r="213" spans="1:23">
+    <row r="213" spans="1:24">
       <c r="A213" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B213">
         <v>160.6</v>
@@ -16538,21 +17177,24 @@
         <v>160.7133333333333</v>
       </c>
       <c r="T213">
+        <v>160.65</v>
+      </c>
+      <c r="U213">
         <v>-0.07812500000002842</v>
       </c>
-      <c r="U213">
+      <c r="V213">
         <v>-0.000103600103600221</v>
       </c>
-      <c r="V213">
+      <c r="W213">
         <v>-0.0001036935647772408</v>
       </c>
-      <c r="W213">
+      <c r="X213">
         <v>-0.0003112356053532883</v>
       </c>
     </row>
-    <row r="214" spans="1:23">
+    <row r="214" spans="1:24">
       <c r="A214" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B214">
         <v>160.6</v>
@@ -16609,21 +17251,24 @@
         <v>160.6966666666667</v>
       </c>
       <c r="T214">
+        <v>160.6166666666666</v>
+      </c>
+      <c r="U214">
         <v>-0.06874999999999432</v>
       </c>
-      <c r="U214">
+      <c r="V214">
         <v>-0.0001243330052324021</v>
       </c>
-      <c r="V214">
+      <c r="W214">
         <v>-0.0001037043182476882</v>
       </c>
-      <c r="W214">
+      <c r="X214">
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:23">
+    <row r="215" spans="1:24">
       <c r="A215" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B215">
         <v>160.65</v>
@@ -16680,21 +17325,24 @@
         <v>160.6833333333333</v>
       </c>
       <c r="T215">
+        <v>160.6166666666667</v>
+      </c>
+      <c r="U215">
         <v>-0.0625</v>
       </c>
-      <c r="U215">
+      <c r="V215">
         <v>-9.326134938802966E-05</v>
       </c>
-      <c r="V215">
+      <c r="W215">
         <v>-8.297205915919204E-05</v>
       </c>
-      <c r="W215">
+      <c r="X215">
         <v>0.0003113325031134373</v>
       </c>
     </row>
-    <row r="216" spans="1:23">
+    <row r="216" spans="1:24">
       <c r="A216" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B216">
         <v>160.6</v>
@@ -16751,21 +17399,24 @@
         <v>160.67</v>
       </c>
       <c r="T216">
+        <v>160.6166666666666</v>
+      </c>
+      <c r="U216">
         <v>-0.046875</v>
       </c>
-      <c r="U216">
+      <c r="V216">
         <v>-8.290670922550536E-05</v>
       </c>
-      <c r="V216">
+      <c r="W216">
         <v>-8.297894409281525E-05</v>
       </c>
-      <c r="W216">
+      <c r="X216">
         <v>-0.0003112356053532883</v>
       </c>
     </row>
-    <row r="217" spans="1:23">
+    <row r="217" spans="1:24">
       <c r="A217" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B217">
         <v>160.65</v>
@@ -16822,21 +17473,24 @@
         <v>160.6633333333334</v>
       </c>
       <c r="T217">
+        <v>160.6333333333333</v>
+      </c>
+      <c r="U217">
         <v>-0.03125000000002842</v>
       </c>
-      <c r="U217">
+      <c r="V217">
         <v>-8.29135833175787E-05</v>
       </c>
-      <c r="V217">
+      <c r="W217">
         <v>-4.149291508470654E-05</v>
       </c>
-      <c r="W217">
+      <c r="X217">
         <v>0.0003113325031134373</v>
       </c>
     </row>
-    <row r="218" spans="1:23">
+    <row r="218" spans="1:24">
       <c r="A218" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B218">
         <v>160.65</v>
@@ -16893,21 +17547,24 @@
         <v>160.6566666666667</v>
       </c>
       <c r="T218">
+        <v>160.6333333333334</v>
+      </c>
+      <c r="U218">
         <v>-0.02500000000003411</v>
       </c>
-      <c r="U218">
+      <c r="V218">
         <v>-9.328551586895717E-05</v>
       </c>
-      <c r="V218">
+      <c r="W218">
         <v>-4.149463681812904E-05</v>
       </c>
-      <c r="W218">
+      <c r="X218">
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:23">
+    <row r="219" spans="1:24">
       <c r="A219" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B219">
         <v>160.7</v>
@@ -16964,21 +17621,24 @@
         <v>160.65</v>
       </c>
       <c r="T219">
+        <v>160.6666666666667</v>
+      </c>
+      <c r="U219">
         <v>-0.02187499999999432</v>
       </c>
-      <c r="U219">
+      <c r="V219">
         <v>-7.256217023099421E-05</v>
       </c>
-      <c r="V219">
+      <c r="W219">
         <v>-4.149635869465929E-05</v>
       </c>
-      <c r="W219">
+      <c r="X219">
         <v>0.0003112356053531773</v>
       </c>
     </row>
-    <row r="220" spans="1:23">
+    <row r="220" spans="1:24">
       <c r="A220" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B220">
         <v>160.55</v>
@@ -17035,21 +17695,24 @@
         <v>160.6366666666667</v>
       </c>
       <c r="T220">
+        <v>160.6333333333334</v>
+      </c>
+      <c r="U220">
         <v>-0.01875000000001137</v>
       </c>
-      <c r="U220">
+      <c r="V220">
         <v>-9.330098899040795E-05</v>
       </c>
-      <c r="V220">
+      <c r="W220">
         <v>-8.299616142748434E-05</v>
       </c>
-      <c r="W220">
+      <c r="X220">
         <v>-0.000933416303671275</v>
       </c>
     </row>
-    <row r="221" spans="1:23">
+    <row r="221" spans="1:24">
       <c r="A221" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B221">
         <v>160.55</v>
@@ -17106,21 +17769,24 @@
         <v>160.63</v>
       </c>
       <c r="T221">
+        <v>160.6</v>
+      </c>
+      <c r="U221">
         <v>-0.01249999999998863</v>
       </c>
-      <c r="U221">
+      <c r="V221">
         <v>-9.330969487741925E-05</v>
       </c>
-      <c r="V221">
+      <c r="W221">
         <v>-4.150152518123118E-05</v>
       </c>
-      <c r="W221">
+      <c r="X221">
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:23">
+    <row r="222" spans="1:24">
       <c r="A222" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B222">
         <v>160.55</v>
@@ -17177,21 +17843,24 @@
         <v>160.62</v>
       </c>
       <c r="T222">
+        <v>160.55</v>
+      </c>
+      <c r="U222">
         <v>-0.01249999999998863</v>
       </c>
-      <c r="U222">
+      <c r="V222">
         <v>-9.331840238890887E-05</v>
       </c>
-      <c r="V222">
+      <c r="W222">
         <v>-6.225487144362329E-05</v>
       </c>
-      <c r="W222">
+      <c r="X222">
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:23">
+    <row r="223" spans="1:24">
       <c r="A223" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B223">
         <v>160.5</v>
@@ -17248,21 +17917,24 @@
         <v>160.6133333333333</v>
       </c>
       <c r="T223">
+        <v>160.5333333333333</v>
+      </c>
+      <c r="U223">
         <v>-0.01875000000001137</v>
       </c>
-      <c r="U223">
+      <c r="V223">
         <v>-0.0001036967905841957</v>
       </c>
-      <c r="V223">
+      <c r="W223">
         <v>-4.150583156925514E-05</v>
       </c>
-      <c r="W223">
+      <c r="X223">
         <v>-0.0003114294612270863</v>
       </c>
     </row>
-    <row r="224" spans="1:23">
+    <row r="224" spans="1:24">
       <c r="A224" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B224">
         <v>160.55</v>
@@ -17319,21 +17991,24 @@
         <v>160.61</v>
       </c>
       <c r="T224">
+        <v>160.5333333333333</v>
+      </c>
+      <c r="U224">
         <v>-0.02187499999999432</v>
       </c>
-      <c r="U224">
+      <c r="V224">
         <v>-9.333679025158581E-05</v>
       </c>
-      <c r="V224">
+      <c r="W224">
         <v>-2.075377718746552E-05</v>
       </c>
-      <c r="W224">
+      <c r="X224">
         <v>0.0003115264797508566</v>
       </c>
     </row>
-    <row r="225" spans="1:23">
+    <row r="225" spans="1:24">
       <c r="A225" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B225">
         <v>160.5</v>
@@ -17390,21 +18065,24 @@
         <v>160.6</v>
       </c>
       <c r="T225">
+        <v>160.5166666666667</v>
+      </c>
+      <c r="U225">
         <v>-0.03437499999995453</v>
       </c>
-      <c r="U225">
+      <c r="V225">
         <v>-9.334550282102949E-05</v>
       </c>
-      <c r="V225">
+      <c r="W225">
         <v>-6.226262374708913E-05</v>
       </c>
-      <c r="W225">
+      <c r="X225">
         <v>-0.0003114294612270863</v>
       </c>
     </row>
-    <row r="226" spans="1:23">
+    <row r="226" spans="1:24">
       <c r="A226" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B226">
         <v>160.5</v>
@@ -17461,21 +18139,24 @@
         <v>160.5866666666666</v>
       </c>
       <c r="T226">
+        <v>160.5166666666667</v>
+      </c>
+      <c r="U226">
         <v>-0.04374999999998863</v>
       </c>
-      <c r="U226">
+      <c r="V226">
         <v>-8.298152623764654E-05</v>
       </c>
-      <c r="V226">
+      <c r="W226">
         <v>-8.302200083032396E-05</v>
       </c>
-      <c r="W226">
+      <c r="X226">
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:23">
+    <row r="227" spans="1:24">
       <c r="A227" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B227">
         <v>160.5</v>
@@ -17532,21 +18213,24 @@
         <v>160.5766666666667</v>
       </c>
       <c r="T227">
+        <v>160.5</v>
+      </c>
+      <c r="U227">
         <v>-0.05624999999997726</v>
       </c>
-      <c r="U227">
+      <c r="V227">
         <v>-7.261486115017757E-05</v>
       </c>
-      <c r="V227">
+      <c r="W227">
         <v>-6.227167054129179E-05</v>
       </c>
-      <c r="W227">
+      <c r="X227">
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:23">
+    <row r="228" spans="1:24">
       <c r="A228" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B228">
         <v>160.5</v>
@@ -17603,21 +18287,24 @@
         <v>160.57</v>
       </c>
       <c r="T228">
+        <v>160.5</v>
+      </c>
+      <c r="U228">
         <v>-0.05312499999996589</v>
       </c>
-      <c r="U228">
+      <c r="V228">
         <v>-7.262013445097359E-05</v>
       </c>
-      <c r="V228">
+      <c r="W228">
         <v>-4.151703236243698E-05</v>
       </c>
-      <c r="W228">
+      <c r="X228">
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:23">
+    <row r="229" spans="1:24">
       <c r="A229" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B229">
         <v>160.55</v>
@@ -17674,21 +18361,24 @@
         <v>160.5666666666667</v>
       </c>
       <c r="T229">
+        <v>160.5166666666667</v>
+      </c>
+      <c r="U229">
         <v>-0.04999999999998295</v>
       </c>
-      <c r="U229">
+      <c r="V229">
         <v>-6.225035015816616E-05</v>
       </c>
-      <c r="V229">
+      <c r="W229">
         <v>-2.075937804901784E-05</v>
       </c>
-      <c r="W229">
+      <c r="X229">
         <v>0.0003115264797508566</v>
       </c>
     </row>
-    <row r="230" spans="1:23">
+    <row r="230" spans="1:24">
       <c r="A230" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B230">
         <v>160.5</v>
@@ -17745,21 +18435,24 @@
         <v>160.5566666666667</v>
       </c>
       <c r="T230">
+        <v>160.5166666666667</v>
+      </c>
+      <c r="U230">
         <v>-0.05000000000001137</v>
       </c>
-      <c r="U230">
+      <c r="V230">
         <v>-7.262992975654026E-05</v>
       </c>
-      <c r="V230">
+      <c r="W230">
         <v>-6.227942702918821E-05</v>
       </c>
-      <c r="W230">
+      <c r="X230">
         <v>-0.0003114294612270863</v>
       </c>
     </row>
-    <row r="231" spans="1:23">
+    <row r="231" spans="1:24">
       <c r="A231" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B231">
         <v>160.5</v>
@@ -17816,21 +18509,24 @@
         <v>160.55</v>
       </c>
       <c r="T231">
+        <v>160.5166666666667</v>
+      </c>
+      <c r="U231">
         <v>-0.04062500000000568</v>
       </c>
-      <c r="U231">
+      <c r="V231">
         <v>-6.225874735410475E-05</v>
       </c>
-      <c r="V231">
+      <c r="W231">
         <v>-4.152220399855633E-05</v>
       </c>
-      <c r="W231">
+      <c r="X231">
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:23">
+    <row r="232" spans="1:24">
       <c r="A232" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B232">
         <v>160.4</v>
@@ -17887,21 +18583,24 @@
         <v>160.5333333333333</v>
       </c>
       <c r="T232">
+        <v>160.4666666666667</v>
+      </c>
+      <c r="U232">
         <v>-0.046875</v>
       </c>
-      <c r="U232">
+      <c r="V232">
         <v>-7.263972770477078E-05</v>
       </c>
-      <c r="V232">
+      <c r="W232">
         <v>-0.0001038098204091398</v>
       </c>
-      <c r="W232">
+      <c r="X232">
         <v>-0.0006230529595014911</v>
       </c>
     </row>
-    <row r="233" spans="1:23">
+    <row r="233" spans="1:24">
       <c r="A233" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B233">
         <v>160.3</v>
@@ -17958,21 +18657,24 @@
         <v>160.51</v>
       </c>
       <c r="T233">
+        <v>160.4</v>
+      </c>
+      <c r="U233">
         <v>-0.04999999999998295</v>
       </c>
-      <c r="U233">
+      <c r="V233">
         <v>-9.340072022323564E-05</v>
       </c>
-      <c r="V233">
+      <c r="W233">
         <v>-0.0001453488372091805</v>
       </c>
-      <c r="W233">
+      <c r="X233">
         <v>-0.0006234413965087171</v>
       </c>
     </row>
-    <row r="234" spans="1:23">
+    <row r="234" spans="1:24">
       <c r="A234" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B234">
         <v>160.25</v>
@@ -18029,21 +18731,24 @@
         <v>160.48</v>
       </c>
       <c r="T234">
+        <v>160.3166666666667</v>
+      </c>
+      <c r="U234">
         <v>-0.05624999999997726</v>
       </c>
-      <c r="U234">
+      <c r="V234">
         <v>-0.0001141670991177124</v>
       </c>
-      <c r="V234">
+      <c r="W234">
         <v>-0.0001869042427264933</v>
       </c>
-      <c r="W234">
+      <c r="X234">
         <v>-0.0003119151590768032</v>
       </c>
     </row>
-    <row r="235" spans="1:23">
+    <row r="235" spans="1:24">
       <c r="A235" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B235">
         <v>160.3</v>
@@ -18100,21 +18805,24 @@
         <v>160.4633333333333</v>
       </c>
       <c r="T235">
+        <v>160.2833333333333</v>
+      </c>
+      <c r="U235">
         <v>-0.05625000000000568</v>
       </c>
-      <c r="U235">
+      <c r="V235">
         <v>-9.342011023560914E-05</v>
       </c>
-      <c r="V235">
+      <c r="W235">
         <v>-0.0001038551013626821</v>
       </c>
-      <c r="W235">
+      <c r="X235">
         <v>0.0003120124804993907</v>
       </c>
     </row>
-    <row r="236" spans="1:23">
+    <row r="236" spans="1:24">
       <c r="A236" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B236">
         <v>160.55</v>
@@ -18171,21 +18879,24 @@
         <v>160.4633333333333</v>
       </c>
       <c r="T236">
+        <v>160.3666666666667</v>
+      </c>
+      <c r="U236">
         <v>-0.05000000000001137</v>
       </c>
-      <c r="U236">
+      <c r="V236">
         <v>-2.076196408218323E-05</v>
       </c>
-      <c r="V236">
+      <c r="W236">
         <v>2.220446049250313E-16</v>
       </c>
-      <c r="W236">
+      <c r="X236">
         <v>0.001559575795383683</v>
       </c>
     </row>
-    <row r="237" spans="1:23">
+    <row r="237" spans="1:24">
       <c r="A237" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B237">
         <v>160.5</v>
@@ -18242,21 +18953,24 @@
         <v>160.46</v>
       </c>
       <c r="T237">
+        <v>160.45</v>
+      </c>
+      <c r="U237">
         <v>-0.05312500000002274</v>
       </c>
-      <c r="U237">
+      <c r="V237">
         <v>-4.152479029972955E-05</v>
       </c>
-      <c r="V237">
+      <c r="W237">
         <v>-2.07731776730169E-05</v>
       </c>
-      <c r="W237">
+      <c r="X237">
         <v>-0.0003114294612270863</v>
       </c>
     </row>
-    <row r="238" spans="1:23">
+    <row r="238" spans="1:24">
       <c r="A238" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B238">
         <v>160.6</v>
@@ -18313,21 +19027,24 @@
         <v>160.4666666666667</v>
       </c>
       <c r="T238">
+        <v>160.55</v>
+      </c>
+      <c r="U238">
         <v>-0.04374999999998863</v>
       </c>
-      <c r="U238">
+      <c r="V238">
         <v>0</v>
       </c>
-      <c r="V238">
+      <c r="W238">
         <v>4.154721841365117E-05</v>
       </c>
-      <c r="W238">
+      <c r="X238">
         <v>0.0006230529595014911</v>
       </c>
     </row>
-    <row r="239" spans="1:23">
+    <row r="239" spans="1:24">
       <c r="A239" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B239">
         <v>160.6</v>
@@ -18384,21 +19101,24 @@
         <v>160.47</v>
       </c>
       <c r="T239">
+        <v>160.5666666666667</v>
+      </c>
+      <c r="U239">
         <v>-0.03749999999999432</v>
       </c>
-      <c r="U239">
+      <c r="V239">
         <v>2.220446049250313E-16</v>
       </c>
-      <c r="V239">
+      <c r="W239">
         <v>2.077274615697178E-05</v>
       </c>
-      <c r="W239">
+      <c r="X239">
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:23">
+    <row r="240" spans="1:24">
       <c r="A240" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B240">
         <v>160.7</v>
@@ -18455,21 +19175,24 @@
         <v>160.4833333333333</v>
       </c>
       <c r="T240">
+        <v>160.6333333333333</v>
+      </c>
+      <c r="U240">
         <v>-0.009375000000005684</v>
       </c>
-      <c r="U240">
+      <c r="V240">
         <v>1.038162866962011E-05</v>
       </c>
-      <c r="V240">
+      <c r="W240">
         <v>8.308925863609318E-05</v>
       </c>
-      <c r="W240">
+      <c r="X240">
         <v>0.0006226650062266526</v>
       </c>
     </row>
-    <row r="241" spans="1:23">
+    <row r="241" spans="1:24">
       <c r="A241" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B241">
         <v>160.7</v>
@@ -18526,21 +19249,24 @@
         <v>160.4966666666667</v>
       </c>
       <c r="T241">
+        <v>160.6666666666667</v>
+      </c>
+      <c r="U241">
         <v>0.02812499999998863</v>
       </c>
-      <c r="U241">
+      <c r="V241">
         <v>0</v>
       </c>
-      <c r="V241">
+      <c r="W241">
         <v>8.30823553850113E-05</v>
       </c>
-      <c r="W241">
+      <c r="X241">
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:23">
+    <row r="242" spans="1:24">
       <c r="A242" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B242">
         <v>160.7</v>
@@ -18597,21 +19323,24 @@
         <v>160.51</v>
       </c>
       <c r="T242">
+        <v>160.7</v>
+      </c>
+      <c r="U242">
         <v>0.07187499999997726</v>
       </c>
-      <c r="U242">
+      <c r="V242">
         <v>1.038152089294364E-05</v>
       </c>
-      <c r="V242">
+      <c r="W242">
         <v>8.307545328034571E-05</v>
       </c>
-      <c r="W242">
+      <c r="X242">
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:23">
+    <row r="243" spans="1:24">
       <c r="A243" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B243">
         <v>160.65</v>
@@ -18668,21 +19397,24 @@
         <v>160.52</v>
       </c>
       <c r="T243">
+        <v>160.6833333333333</v>
+      </c>
+      <c r="U243">
         <v>0.1062499999999886</v>
       </c>
-      <c r="U243">
+      <c r="V243">
         <v>1.038141311804353E-05</v>
       </c>
-      <c r="V243">
+      <c r="W243">
         <v>6.230141424201641E-05</v>
       </c>
-      <c r="W243">
+      <c r="X243">
         <v>-0.000311138767890351</v>
       </c>
     </row>
-    <row r="244" spans="1:23">
+    <row r="244" spans="1:24">
       <c r="A244" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B244">
         <v>160.7</v>
@@ -18739,21 +19471,24 @@
         <v>160.53</v>
       </c>
       <c r="T244">
+        <v>160.6833333333333</v>
+      </c>
+      <c r="U244">
         <v>0.1125000000000114</v>
       </c>
-      <c r="U244">
+      <c r="V244">
         <v>2.076261069072771E-05</v>
       </c>
-      <c r="V244">
+      <c r="W244">
         <v>6.229753301756347E-05</v>
       </c>
-      <c r="W244">
+      <c r="X244">
         <v>0.0003112356053531773</v>
       </c>
     </row>
-    <row r="245" spans="1:23">
+    <row r="245" spans="1:24">
       <c r="A245" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B245">
         <v>160.7</v>
@@ -18810,21 +19545,24 @@
         <v>160.5433333333334</v>
       </c>
       <c r="T245">
+        <v>160.6833333333333</v>
+      </c>
+      <c r="U245">
         <v>0.1281249999999829</v>
       </c>
-      <c r="U245">
+      <c r="V245">
         <v>1.03810898068879E-05</v>
       </c>
-      <c r="V245">
+      <c r="W245">
         <v>8.30582030357796E-05</v>
       </c>
-      <c r="W245">
+      <c r="X245">
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:23">
+    <row r="246" spans="1:24">
       <c r="A246" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B246">
         <v>160.7</v>
@@ -18881,21 +19619,24 @@
         <v>160.5566666666667</v>
       </c>
       <c r="T246">
+        <v>160.7</v>
+      </c>
+      <c r="U246">
         <v>0.1281249999999829</v>
       </c>
-      <c r="U246">
+      <c r="V246">
         <v>2.076196408173914E-05</v>
       </c>
-      <c r="V246">
+      <c r="W246">
         <v>8.305130494346002E-05</v>
       </c>
-      <c r="W246">
+      <c r="X246">
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:23">
+    <row r="247" spans="1:24">
       <c r="A247" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B247">
         <v>160.65</v>
@@ -18952,21 +19693,24 @@
         <v>160.5733333333333</v>
       </c>
       <c r="T247">
+        <v>160.6833333333333</v>
+      </c>
+      <c r="U247">
         <v>0.125</v>
       </c>
-      <c r="U247">
+      <c r="V247">
         <v>-2.220446049250313E-16</v>
       </c>
-      <c r="V247">
+      <c r="W247">
         <v>0.0001038055099964463</v>
       </c>
-      <c r="W247">
+      <c r="X247">
         <v>-0.000311138767890351</v>
       </c>
     </row>
-    <row r="248" spans="1:23">
+    <row r="248" spans="1:24">
       <c r="A248" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B248">
         <v>160.75</v>
@@ -19023,21 +19767,24 @@
         <v>160.6033333333334</v>
       </c>
       <c r="T248">
+        <v>160.7</v>
+      </c>
+      <c r="U248">
         <v>0.109375</v>
       </c>
-      <c r="U248">
+      <c r="V248">
         <v>2.076153303165462E-05</v>
       </c>
-      <c r="V248">
+      <c r="W248">
         <v>0.0001868305239560719</v>
       </c>
-      <c r="W248">
+      <c r="X248">
         <v>0.0006224712107065766</v>
       </c>
     </row>
-    <row r="249" spans="1:23">
+    <row r="249" spans="1:24">
       <c r="A249" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B249">
         <v>160.75</v>
@@ -19094,21 +19841,24 @@
         <v>160.6366666666667</v>
       </c>
       <c r="T249">
+        <v>160.7166666666667</v>
+      </c>
+      <c r="U249">
         <v>0.08749999999997726</v>
       </c>
-      <c r="U249">
+      <c r="V249">
         <v>1.038055099966684E-05</v>
       </c>
-      <c r="V249">
+      <c r="W249">
         <v>0.0002075506942571526</v>
       </c>
-      <c r="W249">
+      <c r="X249">
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:23">
+    <row r="250" spans="1:24">
       <c r="A250" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B250">
         <v>160.7</v>
@@ -19165,21 +19915,24 @@
         <v>160.6633333333333</v>
       </c>
       <c r="T250">
+        <v>160.7333333333333</v>
+      </c>
+      <c r="U250">
         <v>0.05937500000001705</v>
       </c>
-      <c r="U250">
+      <c r="V250">
         <v>3.114132973491834E-05</v>
       </c>
-      <c r="V250">
+      <c r="W250">
         <v>0.0001660061007240365</v>
       </c>
-      <c r="W250">
+      <c r="X250">
         <v>-0.0003110419906687811</v>
       </c>
     </row>
-    <row r="251" spans="1:23">
+    <row r="251" spans="1:24">
       <c r="A251" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B251">
         <v>160.65</v>
@@ -19236,21 +19989,24 @@
         <v>160.67</v>
       </c>
       <c r="T251">
+        <v>160.7</v>
+      </c>
+      <c r="U251">
         <v>0.03749999999999432</v>
       </c>
-      <c r="U251">
+      <c r="V251">
         <v>2.076023998820453E-05</v>
       </c>
-      <c r="V251">
+      <c r="W251">
         <v>4.149463681812904E-05</v>
       </c>
-      <c r="W251">
+      <c r="X251">
         <v>-0.000311138767890351</v>
       </c>
     </row>
-    <row r="252" spans="1:23">
+    <row r="252" spans="1:24">
       <c r="A252" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B252">
         <v>160.65</v>
@@ -19307,21 +20063,24 @@
         <v>160.68</v>
       </c>
       <c r="T252">
+        <v>160.6666666666667</v>
+      </c>
+      <c r="U252">
         <v>0.02500000000000568</v>
       </c>
-      <c r="U252">
+      <c r="V252">
         <v>2.075980900984042E-05</v>
       </c>
-      <c r="V252">
+      <c r="W252">
         <v>6.223937262705981E-05</v>
       </c>
-      <c r="W252">
+      <c r="X252">
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:23">
+    <row r="253" spans="1:24">
       <c r="A253" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B253">
         <v>160.7</v>
@@ -19378,21 +20137,24 @@
         <v>160.6866666666666</v>
       </c>
       <c r="T253">
+        <v>160.6666666666667</v>
+      </c>
+      <c r="U253">
         <v>0.01250000000001705</v>
       </c>
-      <c r="U253">
+      <c r="V253">
         <v>4.151875609825773E-05</v>
       </c>
-      <c r="V253">
+      <c r="W253">
         <v>4.149033275235858E-05</v>
       </c>
-      <c r="W253">
+      <c r="X253">
         <v>0.0003112356053531773</v>
       </c>
     </row>
-    <row r="254" spans="1:23">
+    <row r="254" spans="1:24">
       <c r="A254" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B254">
         <v>160.95</v>
@@ -19449,21 +20211,24 @@
         <v>160.71</v>
       </c>
       <c r="T254">
+        <v>160.7666666666667</v>
+      </c>
+      <c r="U254">
         <v>0.02187499999999432</v>
       </c>
-      <c r="U254">
+      <c r="V254">
         <v>8.303406472487396E-05</v>
       </c>
-      <c r="V254">
+      <c r="W254">
         <v>0.0001452101398169425</v>
       </c>
-      <c r="W254">
+      <c r="X254">
         <v>0.00155569383945231</v>
       </c>
     </row>
-    <row r="255" spans="1:23">
+    <row r="255" spans="1:24">
       <c r="A255" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B255">
         <v>161</v>
@@ -19520,21 +20285,24 @@
         <v>160.73</v>
       </c>
       <c r="T255">
+        <v>160.8833333333333</v>
+      </c>
+      <c r="U255">
         <v>0.04062499999997726</v>
       </c>
-      <c r="U255">
+      <c r="V255">
         <v>0.0001037839633017956</v>
       </c>
-      <c r="V255">
+      <c r="W255">
         <v>0.0001244477630515384</v>
       </c>
-      <c r="W255">
+      <c r="X255">
         <v>0.0003106554830694108</v>
       </c>
     </row>
-    <row r="256" spans="1:23">
+    <row r="256" spans="1:24">
       <c r="A256" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B256">
         <v>160.85</v>
@@ -19591,21 +20359,24 @@
         <v>160.74</v>
       </c>
       <c r="T256">
+        <v>160.9333333333333</v>
+      </c>
+      <c r="U256">
         <v>0.04374999999998863</v>
       </c>
-      <c r="U256">
+      <c r="V256">
         <v>7.264123531602884E-05</v>
       </c>
-      <c r="V256">
+      <c r="W256">
         <v>6.221613886614463E-05</v>
       </c>
-      <c r="W256">
+      <c r="X256">
         <v>-0.0009316770186336143</v>
       </c>
     </row>
-    <row r="257" spans="1:23">
+    <row r="257" spans="1:24">
       <c r="A257" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B257">
         <v>160.85</v>
@@ -19662,21 +20433,24 @@
         <v>160.75</v>
       </c>
       <c r="T257">
+        <v>160.9</v>
+      </c>
+      <c r="U257">
         <v>0.046875</v>
       </c>
-      <c r="U257">
+      <c r="V257">
         <v>7.263595895046215E-05</v>
       </c>
-      <c r="V257">
+      <c r="W257">
         <v>6.221226825942061E-05</v>
       </c>
-      <c r="W257">
+      <c r="X257">
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:23">
+    <row r="258" spans="1:24">
       <c r="A258" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B258">
         <v>160.9</v>
@@ -19733,21 +20507,24 @@
         <v>160.7666666666667</v>
       </c>
       <c r="T258">
+        <v>160.8666666666667</v>
+      </c>
+      <c r="U258">
         <v>0.05937499999998863</v>
       </c>
-      <c r="U258">
+      <c r="V258">
         <v>8.300649525816439E-05</v>
       </c>
-      <c r="V258">
+      <c r="W258">
         <v>0.0001036806635563714</v>
       </c>
-      <c r="W258">
+      <c r="X258">
         <v>0.0003108486167238134</v>
       </c>
     </row>
-    <row r="259" spans="1:23">
+    <row r="259" spans="1:24">
       <c r="A259" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B259">
         <v>160.8</v>
@@ -19804,21 +20581,24 @@
         <v>160.7733333333334</v>
       </c>
       <c r="T259">
+        <v>160.85</v>
+      </c>
+      <c r="U259">
         <v>0.06874999999999432</v>
       </c>
-      <c r="U259">
+      <c r="V259">
         <v>5.187475359513805E-05</v>
       </c>
-      <c r="V259">
+      <c r="W259">
         <v>4.146796599635572E-05</v>
       </c>
-      <c r="W259">
+      <c r="X259">
         <v>-0.0006215040397762328</v>
       </c>
     </row>
-    <row r="260" spans="1:23">
+    <row r="260" spans="1:24">
       <c r="A260" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B260">
         <v>160.85</v>
@@ -19875,21 +20655,24 @@
         <v>160.7833333333333</v>
       </c>
       <c r="T260">
+        <v>160.85</v>
+      </c>
+      <c r="U260">
         <v>0.08437499999996589</v>
       </c>
-      <c r="U260">
+      <c r="V260">
         <v>7.262088784210086E-05</v>
       </c>
-      <c r="V260">
+      <c r="W260">
         <v>6.219936971274542E-05</v>
       </c>
-      <c r="W260">
+      <c r="X260">
         <v>0.0003109452736316243</v>
       </c>
     </row>
-    <row r="261" spans="1:23">
+    <row r="261" spans="1:24">
       <c r="A261" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B261">
         <v>160.85</v>
@@ -19946,21 +20729,24 @@
         <v>160.7933333333334</v>
       </c>
       <c r="T261">
+        <v>160.8333333333333</v>
+      </c>
+      <c r="U261">
         <v>0.09375</v>
       </c>
-      <c r="U261">
+      <c r="V261">
         <v>7.261561443172582E-05</v>
       </c>
-      <c r="V261">
+      <c r="W261">
         <v>6.219550119213046E-05</v>
       </c>
-      <c r="W261">
+      <c r="X261">
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:23">
+    <row r="262" spans="1:24">
       <c r="A262" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B262">
         <v>160.95</v>
@@ -20017,21 +20803,24 @@
         <v>160.8133333333333</v>
       </c>
       <c r="T262">
+        <v>160.8833333333333</v>
+      </c>
+      <c r="U262">
         <v>0.07812500000002842</v>
       </c>
-      <c r="U262">
+      <c r="V262">
         <v>0.0001141019656658582</v>
       </c>
-      <c r="V262">
+      <c r="W262">
         <v>0.0001243832663044842</v>
       </c>
-      <c r="W262">
+      <c r="X262">
         <v>0.0006216972334471826</v>
       </c>
     </row>
-    <row r="263" spans="1:23">
+    <row r="263" spans="1:24">
       <c r="A263" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B263">
         <v>160.95</v>
@@ -20088,21 +20877,24 @@
         <v>160.8266666666667</v>
       </c>
       <c r="T263">
+        <v>160.9166666666667</v>
+      </c>
+      <c r="U263">
         <v>0.05312499999999432</v>
       </c>
-      <c r="U263">
+      <c r="V263">
         <v>0.0001348323929639683</v>
       </c>
-      <c r="V263">
+      <c r="W263">
         <v>8.291186468789569E-05</v>
       </c>
-      <c r="W263">
+      <c r="X263">
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:23">
+    <row r="264" spans="1:24">
       <c r="A264" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B264">
         <v>160.95</v>
@@ -20159,21 +20951,24 @@
         <v>160.84</v>
       </c>
       <c r="T264">
+        <v>160.95</v>
+      </c>
+      <c r="U264">
         <v>0.05312499999999432</v>
       </c>
-      <c r="U264">
+      <c r="V264">
         <v>0.0001451845399205176</v>
       </c>
-      <c r="V264">
+      <c r="W264">
         <v>8.290499088037251E-05</v>
       </c>
-      <c r="W264">
+      <c r="X264">
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:23">
+    <row r="265" spans="1:24">
       <c r="A265" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B265">
         <v>160.9</v>
@@ -20230,21 +21025,24 @@
         <v>160.8533333333334</v>
       </c>
       <c r="T265">
+        <v>160.9333333333333</v>
+      </c>
+      <c r="U265">
         <v>0.05000000000001137</v>
       </c>
-      <c r="U265">
+      <c r="V265">
         <v>0.0001244258266539511</v>
       </c>
-      <c r="V265">
+      <c r="W265">
         <v>8.289811821282633E-05</v>
       </c>
-      <c r="W265">
+      <c r="X265">
         <v>-0.0003106554830691888</v>
       </c>
     </row>
-    <row r="266" spans="1:23">
+    <row r="266" spans="1:24">
       <c r="A266" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B266">
         <v>160.9</v>
@@ -20301,21 +21099,24 @@
         <v>160.87</v>
       </c>
       <c r="T266">
+        <v>160.9166666666667</v>
+      </c>
+      <c r="U266">
         <v>0.03749999999996589</v>
       </c>
-      <c r="U266">
+      <c r="V266">
         <v>7.257270229676926E-05</v>
       </c>
-      <c r="V266">
+      <c r="W266">
         <v>0.0001036140583552392</v>
       </c>
-      <c r="W266">
+      <c r="X266">
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:23">
+    <row r="267" spans="1:24">
       <c r="A267" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B267">
         <v>160.85</v>
@@ -20372,21 +21173,24 @@
         <v>160.8833333333333</v>
       </c>
       <c r="T267">
+        <v>160.8833333333333</v>
+      </c>
+      <c r="U267">
         <v>0.03125</v>
       </c>
-      <c r="U267">
+      <c r="V267">
         <v>7.256743588146541E-05</v>
       </c>
-      <c r="V267">
+      <c r="W267">
         <v>8.288265887568258E-05</v>
       </c>
-      <c r="W267">
+      <c r="X267">
         <v>-0.0003107520198881719</v>
       </c>
     </row>
-    <row r="268" spans="1:23">
+    <row r="268" spans="1:24">
       <c r="A268" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B268">
         <v>160.9</v>
@@ -20443,21 +21247,24 @@
         <v>160.8966666666667</v>
       </c>
       <c r="T268">
+        <v>160.8833333333334</v>
+      </c>
+      <c r="U268">
         <v>0.02187499999999432</v>
       </c>
-      <c r="U268">
+      <c r="V268">
         <v>6.219614591218559E-05</v>
       </c>
-      <c r="V268">
+      <c r="W268">
         <v>8.287578991006406E-05</v>
       </c>
-      <c r="W268">
+      <c r="X268">
         <v>0.0003108486167238134</v>
       </c>
     </row>
-    <row r="269" spans="1:23">
+    <row r="269" spans="1:24">
       <c r="A269" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B269">
         <v>160.85</v>
@@ -20514,21 +21321,24 @@
         <v>160.89</v>
       </c>
       <c r="T269">
+        <v>160.8666666666667</v>
+      </c>
+      <c r="U269">
         <v>0.01249999999998863</v>
       </c>
-      <c r="U269">
+      <c r="V269">
         <v>5.182689816018993E-05</v>
       </c>
-      <c r="V269">
+      <c r="W269">
         <v>-4.143446104143411E-05</v>
       </c>
-      <c r="W269">
+      <c r="X269">
         <v>-0.0003107520198881719</v>
       </c>
     </row>
-    <row r="270" spans="1:23">
+    <row r="270" spans="1:24">
       <c r="A270" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B270">
         <v>160.85</v>
@@ -20585,21 +21395,24 @@
         <v>160.88</v>
       </c>
       <c r="T270">
+        <v>160.8666666666666</v>
+      </c>
+      <c r="U270">
         <v>0.006250000000022737</v>
       </c>
-      <c r="U270">
+      <c r="V270">
         <v>3.109452736316243E-05</v>
       </c>
-      <c r="V270">
+      <c r="W270">
         <v>-6.215426689037962E-05</v>
       </c>
-      <c r="W270">
+      <c r="X270">
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:23">
+    <row r="271" spans="1:24">
       <c r="A271" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B271">
         <v>160.8</v>
@@ -20656,21 +21469,24 @@
         <v>160.8766666666667</v>
       </c>
       <c r="T271">
+        <v>160.8333333333333</v>
+      </c>
+      <c r="U271">
         <v>0</v>
       </c>
-      <c r="U271">
+      <c r="V271">
         <v>2.07290403493321E-05</v>
       </c>
-      <c r="V271">
+      <c r="W271">
         <v>-2.071937676118019E-05</v>
       </c>
-      <c r="W271">
+      <c r="X271">
         <v>-0.0003108486167235913</v>
       </c>
     </row>
-    <row r="272" spans="1:23">
+    <row r="272" spans="1:24">
       <c r="A272" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B272">
         <v>160.75</v>
@@ -20727,21 +21543,24 @@
         <v>160.87</v>
       </c>
       <c r="T272">
+        <v>160.8</v>
+      </c>
+      <c r="U272">
         <v>-0.01875000000001137</v>
       </c>
-      <c r="U272">
+      <c r="V272">
         <v>1.036430533241095E-05</v>
       </c>
-      <c r="V272">
+      <c r="W272">
         <v>-4.143961212521585E-05</v>
       </c>
-      <c r="W272">
+      <c r="X272">
         <v>-0.0003109452736319573</v>
       </c>
     </row>
-    <row r="273" spans="1:23">
+    <row r="273" spans="1:24">
       <c r="A273" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B273">
         <v>160.7</v>
@@ -20798,21 +21617,24 @@
         <v>160.8566666666667</v>
       </c>
       <c r="T273">
+        <v>160.75</v>
+      </c>
+      <c r="U273">
         <v>-0.03437500000001137</v>
       </c>
-      <c r="U273">
+      <c r="V273">
         <v>1.036419791455856E-05</v>
       </c>
-      <c r="V273">
+      <c r="W273">
         <v>-8.28826588757936E-05</v>
       </c>
-      <c r="W273">
+      <c r="X273">
         <v>-0.0003110419906687811</v>
       </c>
     </row>
-    <row r="274" spans="1:23">
+    <row r="274" spans="1:24">
       <c r="A274" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B274">
         <v>160.75</v>
@@ -20869,21 +21691,24 @@
         <v>160.8533333333334</v>
       </c>
       <c r="T274">
+        <v>160.7333333333333</v>
+      </c>
+      <c r="U274">
         <v>-0.04374999999998863</v>
       </c>
-      <c r="U274">
+      <c r="V274">
         <v>1.03640904993707E-05</v>
       </c>
-      <c r="V274">
+      <c r="W274">
         <v>-2.072238224481993E-05</v>
       </c>
-      <c r="W274">
+      <c r="X274">
         <v>0.000311138767890462</v>
       </c>
     </row>
-    <row r="275" spans="1:23">
+    <row r="275" spans="1:24">
       <c r="A275" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B275">
         <v>160.75</v>
@@ -20940,21 +21765,24 @@
         <v>160.8466666666667</v>
       </c>
       <c r="T275">
+        <v>160.7333333333333</v>
+      </c>
+      <c r="U275">
         <v>-0.05312500000002274</v>
       </c>
-      <c r="U275">
+      <c r="V275">
         <v>1.036398308595921E-05</v>
       </c>
-      <c r="V275">
+      <c r="W275">
         <v>-4.144562334229551E-05</v>
       </c>
-      <c r="W275">
+      <c r="X275">
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:23">
+    <row r="276" spans="1:24">
       <c r="A276" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B276">
         <v>160.7</v>
@@ -21011,21 +21839,24 @@
         <v>160.8366666666666</v>
       </c>
       <c r="T276">
+        <v>160.7333333333333</v>
+      </c>
+      <c r="U276">
         <v>-0.06874999999996589</v>
       </c>
-      <c r="U276">
+      <c r="V276">
         <v>0</v>
       </c>
-      <c r="V276">
+      <c r="W276">
         <v>-6.217101172967254E-05</v>
       </c>
-      <c r="W276">
+      <c r="X276">
         <v>-0.0003110419906687811</v>
       </c>
     </row>
-    <row r="277" spans="1:23">
+    <row r="277" spans="1:24">
       <c r="A277" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B277">
         <v>160.75</v>
@@ -21082,21 +21913,24 @@
         <v>160.8233333333333</v>
       </c>
       <c r="T277">
+        <v>160.7333333333333</v>
+      </c>
+      <c r="U277">
         <v>-0.07499999999998863</v>
       </c>
-      <c r="U277">
+      <c r="V277">
         <v>2.072775134998039E-05</v>
       </c>
-      <c r="V277">
+      <c r="W277">
         <v>-8.289983627274289E-05</v>
       </c>
-      <c r="W277">
+      <c r="X277">
         <v>0.000311138767890462</v>
       </c>
     </row>
-    <row r="278" spans="1:23">
+    <row r="278" spans="1:24">
       <c r="A278" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B278">
         <v>160.55</v>
@@ -21153,21 +21987,24 @@
         <v>160.7966666666667</v>
       </c>
       <c r="T278">
+        <v>160.6666666666667</v>
+      </c>
+      <c r="U278">
         <v>-0.08750000000000568</v>
       </c>
-      <c r="U278">
+      <c r="V278">
         <v>-4.145464343818794E-05</v>
       </c>
-      <c r="V278">
+      <c r="W278">
         <v>-0.0001658134184508997</v>
       </c>
-      <c r="W278">
+      <c r="X278">
         <v>-0.001244167962674902</v>
       </c>
     </row>
-    <row r="279" spans="1:23">
+    <row r="279" spans="1:24">
       <c r="A279" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B279">
         <v>160.55</v>
@@ -21224,21 +22061,24 @@
         <v>160.77</v>
       </c>
       <c r="T279">
+        <v>160.6166666666667</v>
+      </c>
+      <c r="U279">
         <v>-0.09375</v>
       </c>
-      <c r="U279">
+      <c r="V279">
         <v>-4.14563619969277E-05</v>
       </c>
-      <c r="V279">
+      <c r="W279">
         <v>-0.0001658409171001463</v>
       </c>
-      <c r="W279">
+      <c r="X279">
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:23">
+    <row r="280" spans="1:24">
       <c r="A280" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B280">
         <v>160.5</v>
@@ -21295,21 +22135,24 @@
         <v>160.7433333333333</v>
       </c>
       <c r="T280">
+        <v>160.5333333333333</v>
+      </c>
+      <c r="U280">
         <v>-0.09687500000001137</v>
       </c>
-      <c r="U280">
+      <c r="V280">
         <v>-4.145808069833112E-05</v>
       </c>
-      <c r="V280">
+      <c r="W280">
         <v>-0.0001658684248719844</v>
       </c>
-      <c r="W280">
+      <c r="X280">
         <v>-0.0003114294612270863</v>
       </c>
     </row>
-    <row r="281" spans="1:23">
+    <row r="281" spans="1:24">
       <c r="A281" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B281">
         <v>160.5</v>
@@ -21366,21 +22209,24 @@
         <v>160.7166666666667</v>
       </c>
       <c r="T281">
+        <v>160.5166666666667</v>
+      </c>
+      <c r="U281">
         <v>-0.09687500000001137</v>
       </c>
-      <c r="U281">
+      <c r="V281">
         <v>-3.109484965624354E-05</v>
       </c>
-      <c r="V281">
+      <c r="W281">
         <v>-0.0001658959417705219</v>
       </c>
-      <c r="W281">
+      <c r="X281">
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:23">
+    <row r="282" spans="1:24">
       <c r="A282" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B282">
         <v>160.55</v>
@@ -21437,21 +22283,24 @@
         <v>160.6966666666667</v>
       </c>
       <c r="T282">
+        <v>160.5166666666667</v>
+      </c>
+      <c r="U282">
         <v>-0.09999999999999432</v>
       </c>
-      <c r="U282">
+      <c r="V282">
         <v>-2.07305443841177E-05</v>
       </c>
-      <c r="V282">
+      <c r="W282">
         <v>-0.0001244426008504274</v>
       </c>
-      <c r="W282">
+      <c r="X282">
         <v>0.0003115264797508566</v>
       </c>
     </row>
-    <row r="283" spans="1:23">
+    <row r="283" spans="1:24">
       <c r="A283" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B283">
         <v>160.45</v>
@@ -21508,21 +22357,24 @@
         <v>160.6666666666667</v>
       </c>
       <c r="T283">
+        <v>160.5</v>
+      </c>
+      <c r="U283">
         <v>-0.1125000000000114</v>
       </c>
-      <c r="U283">
+      <c r="V283">
         <v>-5.182743537135437E-05</v>
       </c>
-      <c r="V283">
+      <c r="W283">
         <v>-0.0001866871331079878</v>
       </c>
-      <c r="W283">
+      <c r="X283">
         <v>-0.0006228589224541725</v>
       </c>
     </row>
-    <row r="284" spans="1:23">
+    <row r="284" spans="1:24">
       <c r="A284" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B284">
         <v>160.35</v>
@@ -21579,21 +22431,24 @@
         <v>160.6333333333333</v>
       </c>
       <c r="T284">
+        <v>160.45</v>
+      </c>
+      <c r="U284">
         <v>-0.1218749999999886</v>
       </c>
-      <c r="U284">
+      <c r="V284">
         <v>-0.0001243922918243712</v>
       </c>
-      <c r="V284">
+      <c r="W284">
         <v>-0.0002074688796680491</v>
       </c>
-      <c r="W284">
+      <c r="X284">
         <v>-0.0006232471174820731</v>
       </c>
     </row>
-    <row r="285" spans="1:23">
+    <row r="285" spans="1:24">
       <c r="A285" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B285">
         <v>160.45</v>
@@ -21650,21 +22505,24 @@
         <v>160.6066666666667</v>
       </c>
       <c r="T285">
+        <v>160.4166666666667</v>
+      </c>
+      <c r="U285">
         <v>-0.1343750000000057</v>
       </c>
-      <c r="U285">
+      <c r="V285">
         <v>-0.0001140404532589123</v>
       </c>
-      <c r="V285">
+      <c r="W285">
         <v>-0.0001660095455489063</v>
       </c>
-      <c r="W285">
+      <c r="X285">
         <v>0.000623635796694666</v>
       </c>
     </row>
-    <row r="286" spans="1:23">
+    <row r="286" spans="1:24">
       <c r="A286" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B286">
         <v>160.3</v>
@@ -21721,21 +22579,24 @@
         <v>160.5733333333333</v>
       </c>
       <c r="T286">
+        <v>160.3666666666667</v>
+      </c>
+      <c r="U286">
         <v>-0.1312499999999943</v>
       </c>
-      <c r="U286">
+      <c r="V286">
         <v>-0.0001140534599672893</v>
       </c>
-      <c r="V286">
+      <c r="W286">
         <v>-0.0002075463866173521</v>
       </c>
-      <c r="W286">
+      <c r="X286">
         <v>-0.0009348706762229986</v>
       </c>
     </row>
-    <row r="287" spans="1:23">
+    <row r="287" spans="1:24">
       <c r="A287" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B287">
         <v>160.3</v>
@@ -21792,21 +22653,24 @@
         <v>160.5433333333333</v>
       </c>
       <c r="T287">
+        <v>160.35</v>
+      </c>
+      <c r="U287">
         <v>-0.1312499999999659</v>
       </c>
-      <c r="U287">
+      <c r="V287">
         <v>-0.0001140664696428484</v>
       </c>
-      <c r="V287">
+      <c r="W287">
         <v>-0.0001868305239558499</v>
       </c>
-      <c r="W287">
+      <c r="X287">
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:23">
+    <row r="288" spans="1:24">
       <c r="A288" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B288">
         <v>160.25</v>
@@ -21863,21 +22727,24 @@
         <v>160.5133333333333</v>
       </c>
       <c r="T288">
+        <v>160.2833333333333</v>
+      </c>
+      <c r="U288">
         <v>-0.1312499999999659</v>
       </c>
-      <c r="U288">
+      <c r="V288">
         <v>-0.0001348212063385645</v>
       </c>
-      <c r="V288">
+      <c r="W288">
         <v>-0.0001868654361231181</v>
       </c>
-      <c r="W288">
+      <c r="X288">
         <v>-0.0003119151590768032</v>
       </c>
     </row>
-    <row r="289" spans="1:23">
+    <row r="289" spans="1:24">
       <c r="A289" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B289">
         <v>160.2</v>
@@ -21934,21 +22801,24 @@
         <v>160.4766666666667</v>
       </c>
       <c r="T289">
+        <v>160.25</v>
+      </c>
+      <c r="U289">
         <v>-0.1374999999999886</v>
       </c>
-      <c r="U289">
+      <c r="V289">
         <v>-0.0001244671251205975</v>
       </c>
-      <c r="V289">
+      <c r="W289">
         <v>-0.0002284337749719478</v>
       </c>
-      <c r="W289">
+      <c r="X289">
         <v>-0.0003120124804992797</v>
       </c>
     </row>
-    <row r="290" spans="1:23">
+    <row r="290" spans="1:24">
       <c r="A290" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B290">
         <v>160.1</v>
@@ -22005,21 +22875,24 @@
         <v>160.4333333333333</v>
       </c>
       <c r="T290">
+        <v>160.1833333333333</v>
+      </c>
+      <c r="U290">
         <v>-0.1531249999999886</v>
       </c>
-      <c r="U290">
+      <c r="V290">
         <v>-0.000155603273892968</v>
       </c>
-      <c r="V290">
+      <c r="W290">
         <v>-0.0002700288723178623</v>
       </c>
-      <c r="W290">
+      <c r="X290">
         <v>-0.0006242197253433224</v>
       </c>
     </row>
-    <row r="291" spans="1:23">
+    <row r="291" spans="1:24">
       <c r="A291" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B291">
         <v>160.2</v>
@@ -22076,21 +22949,24 @@
         <v>160.4</v>
       </c>
       <c r="T291">
+        <v>160.1666666666667</v>
+      </c>
+      <c r="U291">
         <v>-0.1499999999999773</v>
       </c>
-      <c r="U291">
+      <c r="V291">
         <v>-0.0001348771580343966</v>
       </c>
-      <c r="V291">
+      <c r="W291">
         <v>-0.0002077706212341157</v>
       </c>
-      <c r="W291">
+      <c r="X291">
         <v>0.0006246096189881367</v>
       </c>
     </row>
-    <row r="292" spans="1:23">
+    <row r="292" spans="1:24">
       <c r="A292" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B292">
         <v>160.2</v>
@@ -22147,21 +23023,24 @@
         <v>160.3633333333333</v>
       </c>
       <c r="T292">
+        <v>160.1666666666667</v>
+      </c>
+      <c r="U292">
         <v>-0.1375000000000171</v>
       </c>
-      <c r="U292">
+      <c r="V292">
         <v>-0.000155648483465165</v>
       </c>
-      <c r="V292">
+      <c r="W292">
         <v>-0.0002285951787198703</v>
       </c>
-      <c r="W292">
+      <c r="X292">
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:23">
+    <row r="293" spans="1:24">
       <c r="A293" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B293">
         <v>160.1</v>
@@ -22218,21 +23097,24 @@
         <v>160.3333333333333</v>
       </c>
       <c r="T293">
+        <v>160.1666666666667</v>
+      </c>
+      <c r="U293">
         <v>-0.140625</v>
       </c>
-      <c r="U293">
+      <c r="V293">
         <v>-0.0001764290755115194</v>
       </c>
-      <c r="V293">
+      <c r="W293">
         <v>-0.000187075183437635</v>
       </c>
-      <c r="W293">
+      <c r="X293">
         <v>-0.0006242197253433224</v>
       </c>
     </row>
-    <row r="294" spans="1:23">
+    <row r="294" spans="1:24">
       <c r="A294" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B294">
         <v>160.1</v>
@@ -22289,21 +23171,24 @@
         <v>160.3033333333333</v>
       </c>
       <c r="T294">
+        <v>160.1333333333333</v>
+      </c>
+      <c r="U294">
         <v>-0.1375000000000171</v>
       </c>
-      <c r="U294">
+      <c r="V294">
         <v>-0.0001764602082229283</v>
       </c>
-      <c r="V294">
+      <c r="W294">
         <v>-0.0001871101871103731</v>
       </c>
-      <c r="W294">
+      <c r="X294">
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:23">
+    <row r="295" spans="1:24">
       <c r="A295" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B295">
         <v>160.2</v>
@@ -22360,21 +23245,24 @@
         <v>160.2833333333333</v>
       </c>
       <c r="T295">
+        <v>160.1333333333333</v>
+      </c>
+      <c r="U295">
         <v>-0.1281250000000114</v>
       </c>
-      <c r="U295">
+      <c r="V295">
         <v>-0.0001453458192314239</v>
       </c>
-      <c r="V295">
+      <c r="W295">
         <v>-0.0001247634692560506</v>
       </c>
-      <c r="W295">
+      <c r="X295">
         <v>0.0006246096189881367</v>
       </c>
     </row>
-    <row r="296" spans="1:23">
+    <row r="296" spans="1:24">
       <c r="A296" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B296">
         <v>160.35</v>
@@ -22431,21 +23319,24 @@
         <v>160.2733333333333</v>
       </c>
       <c r="T296">
+        <v>160.2166666666667</v>
+      </c>
+      <c r="U296">
         <v>-0.1062500000000171</v>
       </c>
-      <c r="U296">
+      <c r="V296">
         <v>-0.0001142168874862515</v>
       </c>
-      <c r="V296">
+      <c r="W296">
         <v>-6.238951856085695E-05</v>
       </c>
-      <c r="W296">
+      <c r="X296">
         <v>0.000936329588014928</v>
       </c>
     </row>
-    <row r="297" spans="1:23">
+    <row r="297" spans="1:24">
       <c r="A297" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B297">
         <v>160.3</v>
@@ -22502,21 +23393,24 @@
         <v>160.2566666666667</v>
       </c>
       <c r="T297">
+        <v>160.2833333333333</v>
+      </c>
+      <c r="U297">
         <v>-0.08124999999998295</v>
       </c>
-      <c r="U297">
+      <c r="V297">
         <v>-0.0001142299344734088</v>
       </c>
-      <c r="V297">
+      <c r="W297">
         <v>-0.0001039890187597425</v>
       </c>
-      <c r="W297">
+      <c r="X297">
         <v>-0.000311817898347222</v>
       </c>
     </row>
-    <row r="298" spans="1:23">
+    <row r="298" spans="1:24">
       <c r="A298" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B298">
         <v>160.25</v>
@@ -22573,21 +23467,24 @@
         <v>160.2433333333333</v>
       </c>
       <c r="T298">
+        <v>160.3</v>
+      </c>
+      <c r="U298">
         <v>-0.04374999999998863</v>
       </c>
-      <c r="U298">
+      <c r="V298">
         <v>-0.0001350144361590422</v>
       </c>
-      <c r="V298">
+      <c r="W298">
         <v>-8.319986688032355E-05</v>
       </c>
-      <c r="W298">
+      <c r="X298">
         <v>-0.0003119151590768032</v>
       </c>
     </row>
-    <row r="299" spans="1:23">
+    <row r="299" spans="1:24">
       <c r="A299" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B299">
         <v>160.1</v>
@@ -22644,21 +23541,24 @@
         <v>160.2266666666666</v>
       </c>
       <c r="T299">
+        <v>160.2166666666667</v>
+      </c>
+      <c r="U299">
         <v>-0.03437500000001137</v>
       </c>
-      <c r="U299">
+      <c r="V299">
         <v>-0.0001558069240595872</v>
       </c>
-      <c r="V299">
+      <c r="W299">
         <v>-0.0001040084870925773</v>
       </c>
-      <c r="W299">
+      <c r="X299">
         <v>-0.0009360374414977279</v>
       </c>
     </row>
-    <row r="300" spans="1:23">
+    <row r="300" spans="1:24">
       <c r="A300" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B300">
         <v>160.15</v>
@@ -22715,21 +23615,24 @@
         <v>160.2066666666666</v>
       </c>
       <c r="T300">
+        <v>160.1666666666667</v>
+      </c>
+      <c r="U300">
         <v>-0.02812499999996021</v>
       </c>
-      <c r="U300">
+      <c r="V300">
         <v>-0.000145442456730871</v>
       </c>
-      <c r="V300">
+      <c r="W300">
         <v>-0.0001248231671797662</v>
       </c>
-      <c r="W300">
+      <c r="X300">
         <v>0.0003123048094941794</v>
       </c>
     </row>
-    <row r="301" spans="1:23">
+    <row r="301" spans="1:24">
       <c r="A301" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B301">
         <v>160.2</v>
@@ -22786,21 +23689,24 @@
         <v>160.2</v>
       </c>
       <c r="T301">
+        <v>160.15</v>
+      </c>
+      <c r="U301">
         <v>-2.842170943040401E-14</v>
       </c>
-      <c r="U301">
+      <c r="V301">
         <v>-0.0001246830971282087</v>
       </c>
-      <c r="V301">
+      <c r="W301">
         <v>-4.161291664928068E-05</v>
       </c>
-      <c r="W301">
+      <c r="X301">
         <v>0.0003122073056507357</v>
       </c>
     </row>
-    <row r="302" spans="1:23">
+    <row r="302" spans="1:24">
       <c r="A302" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B302">
         <v>160.2</v>
@@ -22857,21 +23763,24 @@
         <v>160.1933333333333</v>
       </c>
       <c r="T302">
+        <v>160.1833333333333</v>
+      </c>
+      <c r="U302">
         <v>0.01875000000001137</v>
       </c>
-      <c r="U302">
+      <c r="V302">
         <v>-0.0001143070911961974</v>
       </c>
-      <c r="V302">
+      <c r="W302">
         <v>-4.161464835616968E-05</v>
       </c>
-      <c r="W302">
+      <c r="X302">
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:23">
+    <row r="303" spans="1:24">
       <c r="A303" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B303">
         <v>160.15</v>
@@ -22928,21 +23837,24 @@
         <v>160.1866666666667</v>
       </c>
       <c r="T303">
+        <v>160.1833333333333</v>
+      </c>
+      <c r="U303">
         <v>0.02187499999999432</v>
       </c>
-      <c r="U303">
+      <c r="V303">
         <v>-0.0001143201588011955</v>
       </c>
-      <c r="V303">
+      <c r="W303">
         <v>-4.161638020716563E-05</v>
       </c>
-      <c r="W303">
+      <c r="X303">
         <v>-0.0003121098626716057</v>
       </c>
     </row>
-    <row r="304" spans="1:23">
+    <row r="304" spans="1:24">
       <c r="A304" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B304">
         <v>160.1</v>
@@ -22999,21 +23911,24 @@
         <v>160.18</v>
       </c>
       <c r="T304">
+        <v>160.15</v>
+      </c>
+      <c r="U304">
         <v>0</v>
       </c>
-      <c r="U304">
+      <c r="V304">
         <v>-0.0001351210892837074</v>
       </c>
-      <c r="V304">
+      <c r="W304">
         <v>-4.161811220260159E-05</v>
       </c>
-      <c r="W304">
+      <c r="X304">
         <v>-0.0003122073056510688</v>
       </c>
     </row>
-    <row r="305" spans="1:23">
+    <row r="305" spans="1:24">
       <c r="A305" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B305">
         <v>159.95</v>
@@ -23070,21 +23985,24 @@
         <v>160.17</v>
       </c>
       <c r="T305">
+        <v>160.0666666666666</v>
+      </c>
+      <c r="U305">
         <v>-0.02812499999998863</v>
       </c>
-      <c r="U305">
+      <c r="V305">
         <v>-0.0001663253531815068</v>
       </c>
-      <c r="V305">
+      <c r="W305">
         <v>-6.242976651260612E-05</v>
       </c>
-      <c r="W305">
+      <c r="X305">
         <v>-0.0009369144284822051</v>
       </c>
     </row>
-    <row r="306" spans="1:23">
+    <row r="306" spans="1:24">
       <c r="A306" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B306">
         <v>159.95</v>
@@ -23141,21 +24059,24 @@
         <v>160.1533333333333</v>
       </c>
       <c r="T306">
+        <v>160</v>
+      </c>
+      <c r="U306">
         <v>-0.05625000000000568</v>
       </c>
-      <c r="U306">
+      <c r="V306">
         <v>-0.0001559559580375236</v>
       </c>
-      <c r="V306">
+      <c r="W306">
         <v>-0.0001040561070527746</v>
       </c>
-      <c r="W306">
+      <c r="X306">
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:23">
+    <row r="307" spans="1:24">
       <c r="A307" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B307">
         <v>159.9</v>
@@ -23212,21 +24133,24 @@
         <v>160.1333333333333</v>
       </c>
       <c r="T307">
+        <v>159.9333333333333</v>
+      </c>
+      <c r="U307">
         <v>-0.06250000000002842</v>
       </c>
-      <c r="U307">
+      <c r="V307">
         <v>-0.0001767776553044387</v>
       </c>
-      <c r="V307">
+      <c r="W307">
         <v>-0.0001248803230238238</v>
       </c>
-      <c r="W307">
+      <c r="X307">
         <v>-0.0003125976867770497</v>
       </c>
     </row>
-    <row r="308" spans="1:23">
+    <row r="308" spans="1:24">
       <c r="A308" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B308">
         <v>160</v>
@@ -23283,21 +24207,24 @@
         <v>160.1266666666667</v>
       </c>
       <c r="T308">
+        <v>159.95</v>
+      </c>
+      <c r="U308">
         <v>-0.06875000000002274</v>
       </c>
-      <c r="U308">
+      <c r="V308">
         <v>-0.000114405766050707</v>
       </c>
-      <c r="V308">
+      <c r="W308">
         <v>-4.163197335549373E-05</v>
       </c>
-      <c r="W308">
+      <c r="X308">
         <v>0.0006253908692932519</v>
       </c>
     </row>
-    <row r="309" spans="1:23">
+    <row r="309" spans="1:24">
       <c r="A309" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B309">
         <v>159.9</v>
@@ -23354,21 +24281,24 @@
         <v>160.1133333333333</v>
       </c>
       <c r="T309">
+        <v>159.9333333333333</v>
+      </c>
+      <c r="U309">
         <v>-0.09374999999997158</v>
       </c>
-      <c r="U309">
+      <c r="V309">
         <v>-0.0001352222846323636</v>
       </c>
-      <c r="V309">
+      <c r="W309">
         <v>-8.326741329789389E-05</v>
       </c>
-      <c r="W309">
+      <c r="X309">
         <v>-0.0006249999999999867</v>
       </c>
     </row>
-    <row r="310" spans="1:23">
+    <row r="310" spans="1:24">
       <c r="A310" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B310">
         <v>159.75</v>
@@ -23425,21 +24355,24 @@
         <v>160.0833333333333</v>
       </c>
       <c r="T310">
+        <v>159.8833333333333</v>
+      </c>
+      <c r="U310">
         <v>-0.1281249999999829</v>
       </c>
-      <c r="U310">
+      <c r="V310">
         <v>-0.0001560468140442417</v>
       </c>
-      <c r="V310">
+      <c r="W310">
         <v>-0.0001873672815088101</v>
       </c>
-      <c r="W310">
+      <c r="X310">
         <v>-0.0009380863039399889</v>
       </c>
     </row>
-    <row r="311" spans="1:23">
+    <row r="311" spans="1:24">
       <c r="A311" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B311">
         <v>159.55</v>
@@ -23496,21 +24429,24 @@
         <v>160.03</v>
       </c>
       <c r="T311">
+        <v>159.7333333333333</v>
+      </c>
+      <c r="U311">
         <v>-0.1625000000000227</v>
       </c>
-      <c r="U311">
+      <c r="V311">
         <v>-0.000197690146706897</v>
       </c>
-      <c r="V311">
+      <c r="W311">
         <v>-0.0003331598125976276</v>
       </c>
-      <c r="W311">
+      <c r="X311">
         <v>-0.00125195618153362</v>
       </c>
     </row>
-    <row r="312" spans="1:23">
+    <row r="312" spans="1:24">
       <c r="A312" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B312">
         <v>159.8</v>
@@ -23567,21 +24503,24 @@
         <v>159.9966666666667</v>
       </c>
       <c r="T312">
+        <v>159.7</v>
+      </c>
+      <c r="U312">
         <v>-0.1656250000000057</v>
       </c>
-      <c r="U312">
+      <c r="V312">
         <v>-0.0001561020282858649</v>
       </c>
-      <c r="V312">
+      <c r="W312">
         <v>-0.0002082942781559405</v>
       </c>
-      <c r="W312">
+      <c r="X312">
         <v>0.001566906925728695</v>
       </c>
     </row>
-    <row r="313" spans="1:23">
+    <row r="313" spans="1:24">
       <c r="A313" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B313">
         <v>159.95</v>
@@ -23638,21 +24577,24 @@
         <v>159.9766666666667</v>
       </c>
       <c r="T313">
+        <v>159.7666666666667</v>
+      </c>
+      <c r="U313">
         <v>-0.1437500000000114</v>
       </c>
-      <c r="U313">
+      <c r="V313">
         <v>-0.0001040842666220065</v>
       </c>
-      <c r="V313">
+      <c r="W313">
         <v>-0.0001250026042212138</v>
       </c>
-      <c r="W313">
+      <c r="X313">
         <v>0.0009386733416769655</v>
       </c>
     </row>
-    <row r="314" spans="1:23">
+    <row r="314" spans="1:24">
       <c r="A314" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B314">
         <v>160.05</v>
@@ -23709,21 +24651,24 @@
         <v>159.9733333333334</v>
       </c>
       <c r="T314">
+        <v>159.9333333333333</v>
+      </c>
+      <c r="U314">
         <v>-0.1187500000000341</v>
       </c>
-      <c r="U314">
+      <c r="V314">
         <v>-6.245706077079305E-05</v>
       </c>
-      <c r="V314">
+      <c r="W314">
         <v>-2.083637197070054E-05</v>
       </c>
-      <c r="W314">
+      <c r="X314">
         <v>0.0006251953735543214</v>
       </c>
     </row>
-    <row r="315" spans="1:23">
+    <row r="315" spans="1:24">
       <c r="A315" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B315">
         <v>159.9</v>
@@ -23780,21 +24725,24 @@
         <v>159.9566666666667</v>
       </c>
       <c r="T315">
+        <v>159.9666666666667</v>
+      </c>
+      <c r="U315">
         <v>-0.1062499999999886</v>
       </c>
-      <c r="U315">
+      <c r="V315">
         <v>-0.0001145117634812065</v>
       </c>
-      <c r="V315">
+      <c r="W315">
         <v>-0.0001041840306719166</v>
       </c>
-      <c r="W315">
+      <c r="X315">
         <v>-0.0009372071227741197</v>
       </c>
     </row>
-    <row r="316" spans="1:23">
+    <row r="316" spans="1:24">
       <c r="A316" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B316">
         <v>159.7</v>
@@ -23851,21 +24799,24 @@
         <v>159.9233333333333</v>
       </c>
       <c r="T316">
+        <v>159.8833333333334</v>
+      </c>
+      <c r="U316">
         <v>-0.1156249999999943</v>
       </c>
-      <c r="U316">
+      <c r="V316">
         <v>-0.000124936230465611</v>
       </c>
-      <c r="V316">
+      <c r="W316">
         <v>-0.0002083897722301442</v>
       </c>
-      <c r="W316">
+      <c r="X316">
         <v>-0.001250781738586726</v>
       </c>
     </row>
-    <row r="317" spans="1:23">
+    <row r="317" spans="1:24">
       <c r="A317" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B317">
         <v>159.95</v>
@@ -23922,21 +24873,24 @@
         <v>159.9066666666667</v>
       </c>
       <c r="T317">
+        <v>159.85</v>
+      </c>
+      <c r="U317">
         <v>-0.09374999999997158</v>
       </c>
-      <c r="U317">
+      <c r="V317">
         <v>-7.28885741952956E-05</v>
       </c>
-      <c r="V317">
+      <c r="W317">
         <v>-0.0001042166037892311</v>
       </c>
-      <c r="W317">
+      <c r="X317">
         <v>0.001565435190983067</v>
       </c>
     </row>
-    <row r="318" spans="1:23">
+    <row r="318" spans="1:24">
       <c r="A318" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B318">
         <v>159.85</v>
@@ -23993,21 +24947,24 @@
         <v>159.8866666666667</v>
       </c>
       <c r="T318">
+        <v>159.8333333333333</v>
+      </c>
+      <c r="U318">
         <v>-0.05937499999998863</v>
       </c>
-      <c r="U318">
+      <c r="V318">
         <v>-8.33072998021045E-05</v>
       </c>
-      <c r="V318">
+      <c r="W318">
         <v>-0.0001250729592262578</v>
       </c>
-      <c r="W318">
+      <c r="X318">
         <v>-0.0006251953735542104</v>
       </c>
     </row>
-    <row r="319" spans="1:23">
+    <row r="319" spans="1:24">
       <c r="A319" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B319">
         <v>159.8</v>
@@ -24064,21 +25021,24 @@
         <v>159.8666666666667</v>
       </c>
       <c r="T319">
+        <v>159.8666666666667</v>
+      </c>
+      <c r="U319">
         <v>-0.006249999999994316</v>
       </c>
-      <c r="U319">
+      <c r="V319">
         <v>-8.331424048646507E-05</v>
       </c>
-      <c r="V319">
+      <c r="W319">
         <v>-0.0001250886044280586</v>
       </c>
-      <c r="W319">
+      <c r="X319">
         <v>-0.0003127932436658432</v>
       </c>
     </row>
-    <row r="320" spans="1:23">
+    <row r="320" spans="1:24">
       <c r="A320" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B320">
         <v>159.8</v>
@@ -24135,21 +25095,24 @@
         <v>159.8566666666667</v>
       </c>
       <c r="T320">
+        <v>159.8166666666667</v>
+      </c>
+      <c r="U320">
         <v>0.01249999999998863</v>
       </c>
-      <c r="U320">
+      <c r="V320">
         <v>-6.249088674603609E-05</v>
       </c>
-      <c r="V320">
+      <c r="W320">
         <v>-6.255212677230837E-05</v>
       </c>
-      <c r="W320">
+      <c r="X320">
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:23">
+    <row r="321" spans="1:24">
       <c r="A321" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B321">
         <v>159.75</v>
@@ -24206,21 +25169,24 @@
         <v>159.8433333333333</v>
       </c>
       <c r="T321">
+        <v>159.7833333333333</v>
+      </c>
+      <c r="U321">
         <v>-2.842170943040401E-14</v>
       </c>
-      <c r="U321">
+      <c r="V321">
         <v>-9.374218815094704E-05</v>
       </c>
-      <c r="V321">
+      <c r="W321">
         <v>-8.340805304762888E-05</v>
       </c>
-      <c r="W321">
+      <c r="X321">
         <v>-0.0003128911138924328</v>
       </c>
     </row>
-    <row r="322" spans="1:23">
+    <row r="322" spans="1:24">
       <c r="A322" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B322">
         <v>159.75</v>
@@ -24277,21 +25243,24 @@
         <v>159.8333333333333</v>
       </c>
       <c r="T322">
+        <v>159.7666666666667</v>
+      </c>
+      <c r="U322">
         <v>-0.02500000000000568</v>
       </c>
-      <c r="U322">
+      <c r="V322">
         <v>-9.375097657271514E-05</v>
       </c>
-      <c r="V322">
+      <c r="W322">
         <v>-6.256125789827482E-05</v>
       </c>
-      <c r="W322">
+      <c r="X322">
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:23">
+    <row r="323" spans="1:24">
       <c r="A323" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B323">
         <v>159.75</v>
@@ -24348,21 +25317,24 @@
         <v>159.8166666666667</v>
       </c>
       <c r="T323">
+        <v>159.75</v>
+      </c>
+      <c r="U323">
         <v>-0.03437500000001137</v>
       </c>
-      <c r="U323">
+      <c r="V323">
         <v>-7.292426294402965E-05</v>
       </c>
-      <c r="V323">
+      <c r="W323">
         <v>-0.0001042752867571606</v>
       </c>
-      <c r="W323">
+      <c r="X323">
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:23">
+    <row r="324" spans="1:24">
       <c r="A324" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B324">
         <v>159.7</v>
@@ -24419,21 +25391,24 @@
         <v>159.8033333333333</v>
       </c>
       <c r="T324">
+        <v>159.7333333333333</v>
+      </c>
+      <c r="U324">
         <v>-0.015625</v>
       </c>
-      <c r="U324">
+      <c r="V324">
         <v>-8.334809289134437E-05</v>
       </c>
-      <c r="V324">
+      <c r="W324">
         <v>-8.342892898105525E-05</v>
       </c>
-      <c r="W324">
+      <c r="X324">
         <v>-0.0003129890453834605</v>
       </c>
     </row>
-    <row r="325" spans="1:23">
+    <row r="325" spans="1:24">
       <c r="A325" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B325">
         <v>159.75</v>
@@ -24490,21 +25465,24 @@
         <v>159.8033333333333</v>
       </c>
       <c r="T325">
+        <v>159.7333333333333</v>
+      </c>
+      <c r="U325">
         <v>-0.03125</v>
       </c>
-      <c r="U325">
+      <c r="V325">
         <v>-9.377442042213247E-05</v>
       </c>
-      <c r="V325">
+      <c r="W325">
         <v>0</v>
       </c>
-      <c r="W325">
+      <c r="X325">
         <v>0.0003130870381966577</v>
       </c>
     </row>
-    <row r="326" spans="1:23">
+    <row r="326" spans="1:24">
       <c r="A326" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B326">
         <v>159.8</v>
@@ -24561,21 +25539,24 @@
         <v>159.82</v>
       </c>
       <c r="T326">
+        <v>159.75</v>
+      </c>
+      <c r="U326">
         <v>-0.04062500000003411</v>
       </c>
-      <c r="U326">
+      <c r="V326">
         <v>-0.0001146239293081663</v>
       </c>
-      <c r="V326">
+      <c r="W326">
         <v>0.0001042948624352391</v>
       </c>
-      <c r="W326">
+      <c r="X326">
         <v>0.0003129890453834605</v>
       </c>
     </row>
-    <row r="327" spans="1:23">
+    <row r="327" spans="1:24">
       <c r="A327" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B327">
         <v>159.8</v>
@@ -24632,21 +25613,24 @@
         <v>159.82</v>
       </c>
       <c r="T327">
+        <v>159.7833333333333</v>
+      </c>
+      <c r="U327">
         <v>-0.05624999999997726</v>
       </c>
-      <c r="U327">
+      <c r="V327">
         <v>-0.0001042155176906867</v>
       </c>
-      <c r="V327">
+      <c r="W327">
         <v>-2.220446049250313E-16</v>
       </c>
-      <c r="W327">
+      <c r="X327">
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:23">
+    <row r="328" spans="1:24">
       <c r="A328" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B328">
         <v>159.65</v>
@@ -24703,15 +25687,18 @@
         <v>159.8</v>
       </c>
       <c r="T328">
+        <v>159.75</v>
+      </c>
+      <c r="U328">
         <v>-0.06562499999998295</v>
       </c>
-      <c r="U328">
+      <c r="V328">
         <v>-0.000125071655635911</v>
       </c>
-      <c r="V328">
+      <c r="W328">
         <v>-0.0001251407833812168</v>
       </c>
-      <c r="W328">
+      <c r="X328">
         <v>-0.0009386733416770765</v>
       </c>
     </row>
